--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="建筑单位" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="单位" sheetId="3" r:id="rId1"/>
+    <sheet name="制造" sheetId="4" r:id="rId2"/>
+    <sheet name="建筑单位" sheetId="1" r:id="rId3"/>
+    <sheet name="活动单位" sheetId="2" r:id="rId4"/>
+    <sheet name="战斗" sheetId="5" r:id="rId5"/>
+    <sheet name="怪" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
   <si>
     <t>类型</t>
   </si>
@@ -43,6 +46,159 @@
     <t>选中音效</t>
   </si>
   <si>
+    <t>晶体矿</t>
+  </si>
+  <si>
+    <t>资源/晶体矿</t>
+  </si>
+  <si>
+    <t>燃气矿</t>
+  </si>
+  <si>
+    <t>资源/燃气矿</t>
+  </si>
+  <si>
+    <t>工程车</t>
+  </si>
+  <si>
+    <t>活动单位/工程车</t>
+  </si>
+  <si>
+    <t>语音/是女声可爱版</t>
+  </si>
+  <si>
+    <t>枪兵</t>
+  </si>
+  <si>
+    <t>活动单位/步兵</t>
+  </si>
+  <si>
+    <t>语音/是男声正经版</t>
+  </si>
+  <si>
+    <t>近战兵</t>
+  </si>
+  <si>
+    <t>活动单位/近战兵</t>
+  </si>
+  <si>
+    <t>tfbPss00</t>
+  </si>
+  <si>
+    <t>三色坦克</t>
+  </si>
+  <si>
+    <t>活动单位/三色坦克</t>
+  </si>
+  <si>
+    <t>音效/坦克行进声</t>
+  </si>
+  <si>
+    <t>工虫</t>
+  </si>
+  <si>
+    <t>活动单位/工蜂</t>
+  </si>
+  <si>
+    <t>语音/zdrYes00</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>活动单位/飞机</t>
+  </si>
+  <si>
+    <t>音效/飞机声</t>
+  </si>
+  <si>
+    <t>枪虫</t>
+  </si>
+  <si>
+    <t>近战虫</t>
+  </si>
+  <si>
+    <t>幼虫</t>
+  </si>
+  <si>
+    <t>活动单位/幼虫</t>
+  </si>
+  <si>
+    <t>基地</t>
+  </si>
+  <si>
+    <t>建筑/基地</t>
+  </si>
+  <si>
+    <t>tcsWht00</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>建筑/兵厂</t>
+  </si>
+  <si>
+    <t>tacWht00</t>
+  </si>
+  <si>
+    <t>民房</t>
+  </si>
+  <si>
+    <t>建筑/民房</t>
+  </si>
+  <si>
+    <t>tclWht00</t>
+  </si>
+  <si>
+    <t>地堡</t>
+  </si>
+  <si>
+    <t>建筑/地堡</t>
+  </si>
+  <si>
+    <t>音效/BUTTON</t>
+  </si>
+  <si>
+    <t>炮台</t>
+  </si>
+  <si>
+    <t>建筑/光子炮</t>
+  </si>
+  <si>
+    <t>虫巢</t>
+  </si>
+  <si>
+    <t>建筑/孵化场</t>
+  </si>
+  <si>
+    <t>机场</t>
+  </si>
+  <si>
+    <t>建筑/机场</t>
+  </si>
+  <si>
+    <t>重车厂</t>
+  </si>
+  <si>
+    <t>建筑/重工厂</t>
+  </si>
+  <si>
+    <t>枪怪</t>
+  </si>
+  <si>
+    <t>活动单位/刺蛇</t>
+  </si>
+  <si>
+    <t>近战怪</t>
+  </si>
+  <si>
+    <t>活动单位/跳虫</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>消耗晶体矿</t>
   </si>
   <si>
@@ -55,22 +211,121 @@
     <t>f半边长</t>
   </si>
   <si>
-    <t>基地</t>
-  </si>
-  <si>
-    <t>建筑/基地</t>
-  </si>
-  <si>
-    <t>tcsWht00</t>
-  </si>
-  <si>
-    <t>兵营</t>
-  </si>
-  <si>
-    <t>建筑/兵厂</t>
-  </si>
-  <si>
-    <t>tacWht00</t>
+    <t>入场语音</t>
+  </si>
+  <si>
+    <t>语音/工程车准备就绪女声可爱版</t>
+  </si>
+  <si>
+    <t>语音/准备战斗男声正经版</t>
+  </si>
+  <si>
+    <t>tfbRdy00</t>
+  </si>
+  <si>
+    <t>语音/ttardy00</t>
+  </si>
+  <si>
+    <t>语音/zdrRdy00</t>
+  </si>
+  <si>
+    <t>f警戒距离</t>
+  </si>
+  <si>
+    <t>f攻击距离</t>
+  </si>
+  <si>
+    <t>i32伤害</t>
+  </si>
+  <si>
+    <t>f每帧移动距离</t>
+  </si>
+  <si>
+    <t>str前摇动作</t>
+  </si>
+  <si>
+    <t>dura开始播放攻击动作</t>
+  </si>
+  <si>
+    <t>str攻击动作</t>
+  </si>
+  <si>
+    <t>dura开始伤害</t>
+  </si>
+  <si>
+    <t>str攻击音效</t>
+  </si>
+  <si>
+    <t>str阵亡音效</t>
+  </si>
+  <si>
+    <t>str阵亡动作</t>
+  </si>
+  <si>
+    <t>dura后摇</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>音效/TScFir00</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>音效/TTaFir00</t>
+  </si>
+  <si>
+    <t>die01</t>
+  </si>
+  <si>
+    <t>Tfrshoot</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>attack_loop</t>
+  </si>
+  <si>
+    <t>音效/TTaFi200</t>
+  </si>
+  <si>
+    <t>die02</t>
+  </si>
+  <si>
+    <t>音效/ZDrHit00</t>
+  </si>
+  <si>
+    <t>TMaFir00</t>
+  </si>
+  <si>
+    <t>pao002</t>
+  </si>
+  <si>
+    <t>音效/PhoFir00</t>
+  </si>
+  <si>
+    <t>音效/explo1</t>
+  </si>
+  <si>
+    <t>Take 001</t>
+  </si>
+  <si>
+    <t>音效/发射骨针</t>
+  </si>
+  <si>
+    <t>音效/zhyDth00</t>
+  </si>
+  <si>
+    <t>音效/利爪攻击</t>
+  </si>
+  <si>
+    <t>音效/ZZeDth00</t>
+  </si>
+  <si>
+    <t>u16初始Hp</t>
   </si>
 </sst>
 </file>
@@ -1001,19 +1256,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="6" width="10.875" customWidth="1"/>
+    <col min="3" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,69 +1284,275 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>301</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>302</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>303</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>304</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>305</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>306</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>307</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>308</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>401</v>
+      </c>
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>300</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>302</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>402</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1101,16 +1565,322 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>304</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>305</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>306</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>307</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>308</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>203</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>205</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>206</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>207</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>208</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>209</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>99</v>
+      </c>
+      <c r="D18">
+        <v>99</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1118,16 +1888,878 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>304</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>305</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>306</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>307</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>308</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="AB4" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="9.125" customWidth="1"/>
+    <col min="15" max="15" width="19.625" customWidth="1"/>
+    <col min="16" max="16" width="21.625" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="19" max="19" width="26" customWidth="1"/>
+    <col min="20" max="20" width="6.375" customWidth="1"/>
+    <col min="22" max="22" width="2.375" customWidth="1"/>
+    <col min="24" max="24" width="4.375" customWidth="1"/>
+    <col min="28" max="28" width="8.375" customWidth="1"/>
+    <col min="30" max="30" width="7.375" customWidth="1"/>
+    <col min="31" max="31" width="10.375" customWidth="1"/>
+    <col min="33" max="33" width="10.375" customWidth="1"/>
+    <col min="35" max="35" width="6.375" customWidth="1"/>
+    <col min="36" max="36" width="8.375" customWidth="1"/>
+    <col min="37" max="37" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.4</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3">
+        <v>900</v>
+      </c>
+      <c r="K3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0.6</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4">
+        <v>600</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5">
+        <v>5000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5">
+        <v>300</v>
+      </c>
+      <c r="K5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6">
+        <v>600</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>0.8</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7">
+        <v>500</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8">
+        <v>600</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>0.7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9">
+        <v>500</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10">
+        <v>600</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>305</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11">
+        <v>400</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>401</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12">
+        <v>300</v>
+      </c>
+      <c r="K12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>402</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>0.4</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13">
+        <v>400</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>401</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>402</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="112">
   <si>
     <t>类型</t>
   </si>
@@ -46,6 +46,9 @@
     <t>选中音效</t>
   </si>
   <si>
+    <t>空闲动作</t>
+  </si>
+  <si>
     <t>晶体矿</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>语音/是女声可爱版</t>
   </si>
   <si>
+    <t>idle</t>
+  </si>
+  <si>
     <t>枪兵</t>
   </si>
   <si>
@@ -115,9 +121,15 @@
     <t>枪虫</t>
   </si>
   <si>
+    <t>Root|待机.001</t>
+  </si>
+  <si>
     <t>近战虫</t>
   </si>
   <si>
+    <t>Root.001|待机</t>
+  </si>
+  <si>
     <t>幼虫</t>
   </si>
   <si>
@@ -166,6 +178,9 @@
     <t>建筑/光子炮</t>
   </si>
   <si>
+    <t>平常状态</t>
+  </si>
+  <si>
     <t>虫巢</t>
   </si>
   <si>
@@ -187,13 +202,16 @@
     <t>枪怪</t>
   </si>
   <si>
-    <t>活动单位/刺蛇</t>
+    <t>活动单位/枪虫</t>
   </si>
   <si>
     <t>近战怪</t>
   </si>
   <si>
-    <t>活动单位/跳虫</t>
+    <t>活动单位/近战虫</t>
+  </si>
+  <si>
+    <t>工怪</t>
   </si>
   <si>
     <t>备注</t>
@@ -214,9 +232,15 @@
     <t>入场语音</t>
   </si>
   <si>
+    <t>走路动作</t>
+  </si>
+  <si>
     <t>语音/工程车准备就绪女声可爱版</t>
   </si>
   <si>
+    <t>run</t>
+  </si>
+  <si>
     <t>语音/准备战斗男声正经版</t>
   </si>
   <si>
@@ -229,6 +253,15 @@
     <t>语音/zdrRdy00</t>
   </si>
   <si>
+    <t>Root|走路.001</t>
+  </si>
+  <si>
+    <t>Root.001|走路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root|走路.001 </t>
+  </si>
+  <si>
     <t>f警戒距离</t>
   </si>
   <si>
@@ -283,9 +316,6 @@
     <t>Tfrshoot</t>
   </si>
   <si>
-    <t>idle</t>
-  </si>
-  <si>
     <t>attack_loop</t>
   </si>
   <si>
@@ -301,6 +331,24 @@
     <t>TMaFir00</t>
   </si>
   <si>
+    <t>Root|攻击.001</t>
+  </si>
+  <si>
+    <t>音效/利爪攻击</t>
+  </si>
+  <si>
+    <t>音效/ZZeDth00</t>
+  </si>
+  <si>
+    <t>Root|死亡.001</t>
+  </si>
+  <si>
+    <t>Root.001|攻击</t>
+  </si>
+  <si>
+    <t>Root.001|死亡</t>
+  </si>
+  <si>
     <t>pao002</t>
   </si>
   <si>
@@ -317,12 +365,6 @@
   </si>
   <si>
     <t>音效/zhyDth00</t>
-  </si>
-  <si>
-    <t>音效/利爪攻击</t>
-  </si>
-  <si>
-    <t>音效/ZZeDth00</t>
   </si>
   <si>
     <t>u16初始Hp</t>
@@ -1256,22 +1298,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:B7"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1283,6 +1326,9 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1290,10 +1336,10 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1301,258 +1347,332 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>305</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>307</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>308</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>401</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>402</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>403</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1578,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1595,7 +1715,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1612,7 +1732,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -1629,7 +1749,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1646,7 +1766,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -1663,7 +1783,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -1680,7 +1800,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -1697,7 +1817,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -1714,7 +1834,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>35</v>
@@ -1731,7 +1851,7 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1748,7 +1868,7 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1765,7 +1885,7 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1782,7 +1902,7 @@
         <v>204</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -1799,7 +1919,7 @@
         <v>205</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1816,7 +1936,7 @@
         <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -1833,7 +1953,7 @@
         <v>207</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1850,7 +1970,7 @@
         <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -1867,7 +1987,7 @@
         <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>99</v>
@@ -1901,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1912,7 +2032,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1923,7 +2043,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1934,7 +2054,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1945,7 +2065,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1956,7 +2076,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -1967,7 +2087,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1978,7 +2098,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1989,7 +2109,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2005,127 +2125,199 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="30.75" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>401</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>402</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>403</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2138,12 +2330,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AB4" sqref="$A1:$XFD1048576"/>
+      <selection pane="topRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2181,43 +2373,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="M1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="N1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2225,7 +2417,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -2243,19 +2435,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J2">
         <v>500</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2266,7 +2458,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -2284,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2307,7 +2499,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -2325,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2348,7 +2540,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -2363,25 +2555,25 @@
         <v>0.1</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2392,7 +2584,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -2410,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J6">
         <v>600</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -2433,7 +2625,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -2451,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2474,7 +2666,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -2492,10 +2684,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="J8">
         <v>600</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="s">
+        <v>102</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -2506,7 +2707,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -2524,10 +2725,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J9">
         <v>500</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s">
+        <v>104</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -2538,7 +2748,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2556,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -2579,7 +2789,7 @@
         <v>305</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2597,19 +2807,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="J11">
         <v>400</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="N11">
         <v>400</v>
@@ -2620,7 +2830,7 @@
         <v>401</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -2638,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="J12">
         <v>300</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2661,7 +2871,7 @@
         <v>402</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -2679,22 +2889,63 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J13">
         <v>400</v>
       </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="N13">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>403</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14">
+        <v>600</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2706,23 +2957,23 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2730,7 +2981,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -2741,7 +2992,7 @@
         <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -2752,10 +3003,21 @@
         <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>403</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="114">
   <si>
     <t>类型</t>
   </si>
@@ -103,7 +103,7 @@
     <t>工虫</t>
   </si>
   <si>
-    <t>活动单位/工蜂</t>
+    <t>活动单位/工虫</t>
   </si>
   <si>
     <t>语音/zdrYes00</t>
@@ -232,6 +232,9 @@
     <t>入场语音</t>
   </si>
   <si>
+    <t>动画节点路径</t>
+  </si>
+  <si>
     <t>走路动作</t>
   </si>
   <si>
@@ -251,6 +254,9 @@
   </si>
   <si>
     <t>语音/zdrRdy00</t>
+  </si>
+  <si>
+    <t>待机</t>
   </si>
   <si>
     <t>Root|走路.001</t>
@@ -1300,12 +1306,12 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2125,20 +2131,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="3" max="4" width="30.75" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2151,8 +2157,11 @@
       <c r="D1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>201</v>
       </c>
@@ -2160,13 +2169,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>202</v>
       </c>
@@ -2174,13 +2183,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>203</v>
       </c>
@@ -2188,13 +2197,13 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>204</v>
       </c>
@@ -2202,13 +2211,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>205</v>
       </c>
@@ -2216,13 +2225,16 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>206</v>
       </c>
@@ -2232,11 +2244,11 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>207</v>
       </c>
@@ -2244,13 +2256,13 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>208</v>
       </c>
@@ -2258,13 +2270,13 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>209</v>
       </c>
@@ -2272,13 +2284,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>401</v>
       </c>
@@ -2286,13 +2298,13 @@
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>402</v>
       </c>
@@ -2300,13 +2312,13 @@
         <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>403</v>
       </c>
@@ -2314,10 +2326,13 @@
         <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2332,7 +2347,7 @@
   <sheetPr/>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="L19" sqref="L19"/>
@@ -2376,40 +2391,40 @@
         <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2435,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J2">
         <v>500</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2476,19 +2491,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2517,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2561,19 +2576,19 @@
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2602,19 +2617,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J6">
         <v>600</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -2643,19 +2658,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2684,19 +2699,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -2725,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -2766,19 +2781,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -2807,19 +2822,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J11">
         <v>400</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N11">
         <v>400</v>
@@ -2848,19 +2863,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J12">
         <v>300</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2889,19 +2904,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J13">
         <v>400</v>
       </c>
       <c r="K13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2930,19 +2945,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J14">
         <v>600</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N14">
         <v>300</v>
@@ -2973,7 +2988,7 @@
         <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -1306,12 +1306,12 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2134,7 +2134,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C18" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2347,10 +2347,10 @@
   <sheetPr/>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L19" sqref="L19"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2766,10 +2766,10 @@
         <v>32</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -1694,7 +1694,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1996,10 +1996,10 @@
         <v>32</v>
       </c>
       <c r="C18">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -2134,7 +2134,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2350,7 +2350,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2453,7 +2453,7 @@
         <v>90</v>
       </c>
       <c r="J2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K2" t="s">
         <v>91</v>
@@ -2608,7 +2608,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0.5</v>
@@ -2620,7 +2620,7 @@
         <v>90</v>
       </c>
       <c r="J6">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K6" t="s">
         <v>99</v>
@@ -2632,7 +2632,7 @@
         <v>92</v>
       </c>
       <c r="N6">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="118">
   <si>
     <t>类型</t>
   </si>
@@ -310,12 +310,18 @@
     <t>音效/TScFir00</t>
   </si>
   <si>
+    <t>TSCDth00</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
     <t>音效/TTaFir00</t>
   </si>
   <si>
+    <t>TMaDth00</t>
+  </si>
+  <si>
     <t>die01</t>
   </si>
   <si>
@@ -328,10 +334,16 @@
     <t>音效/TTaFi200</t>
   </si>
   <si>
+    <t>音效/TTaDth00</t>
+  </si>
+  <si>
     <t>die02</t>
   </si>
   <si>
     <t>音效/ZDrHit00</t>
+  </si>
+  <si>
+    <t>音效/zdrDth00</t>
   </si>
   <si>
     <t>TMaFir00</t>
@@ -2350,7 +2362,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J9" sqref="J9"/>
+      <selection pane="topRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2459,10 +2471,10 @@
         <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2497,13 +2509,13 @@
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2538,13 +2550,13 @@
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
         <v>95</v>
       </c>
       <c r="M4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2576,19 +2588,19 @@
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2623,13 +2635,13 @@
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N6">
         <v>100</v>
@@ -2664,13 +2676,13 @@
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
         <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2699,19 +2711,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -2740,19 +2752,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -2787,13 +2799,13 @@
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -2822,19 +2834,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J11">
         <v>400</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N11">
         <v>400</v>
@@ -2863,19 +2875,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J12">
         <v>300</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2904,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J13">
         <v>400</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2951,13 +2963,13 @@
         <v>600</v>
       </c>
       <c r="K14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>300</v>
@@ -2988,7 +3000,7 @@
         <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="123">
   <si>
     <t>类型</t>
   </si>
@@ -136,6 +136,15 @@
     <t>活动单位/幼虫</t>
   </si>
   <si>
+    <t>语音/ZLaPss00</t>
+  </si>
+  <si>
+    <t>绿色坦克</t>
+  </si>
+  <si>
+    <t>活动单位/绿色坦克</t>
+  </si>
+  <si>
     <t>基地</t>
   </si>
   <si>
@@ -253,12 +262,15 @@
     <t>语音/ttardy00</t>
   </si>
   <si>
+    <t>语音/ZLaWht00</t>
+  </si>
+  <si>
+    <t>待机</t>
+  </si>
+  <si>
     <t>语音/zdrRdy00</t>
   </si>
   <si>
-    <t>待机</t>
-  </si>
-  <si>
     <t>Root|走路.001</t>
   </si>
   <si>
@@ -365,6 +377,9 @@
   </si>
   <si>
     <t>Root.001|死亡</t>
+  </si>
+  <si>
+    <t>音效/ZLaDth00</t>
   </si>
   <si>
     <t>pao002</t>
@@ -1316,14 +1331,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1506,7 +1521,7 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1514,16 +1529,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1531,7 +1546,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -1548,7 +1563,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -1565,7 +1580,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -1582,7 +1597,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
@@ -1591,15 +1606,15 @@
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
@@ -1608,24 +1623,24 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1633,16 +1648,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1650,46 +1665,63 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
+        <v>402</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
         <v>403</v>
       </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1703,10 +1735,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1716,16 +1748,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1733,7 +1765,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1750,7 +1782,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -1767,7 +1799,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1784,7 +1816,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -1801,7 +1833,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -1818,7 +1850,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -1835,7 +1867,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -1852,7 +1884,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>35</v>
@@ -2015,6 +2047,23 @@
       </c>
       <c r="E18">
         <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>210</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2039,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2050,7 +2099,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2061,7 +2110,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2072,7 +2121,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2083,7 +2132,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2094,7 +2143,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -2105,7 +2154,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2116,7 +2165,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2127,7 +2176,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2143,10 +2192,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2161,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2181,10 +2230,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2195,10 +2244,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2209,10 +2258,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2223,10 +2272,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
         <v>72</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2237,13 +2286,13 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2257,7 +2306,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2268,10 +2317,10 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2282,10 +2331,10 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2296,55 +2345,69 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:5">
       <c r="A11">
-        <v>401</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
+        <v>402</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
         <v>403</v>
       </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2357,12 +2420,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L14" sqref="L14"/>
+      <selection pane="topRight" activeCell="B11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2400,43 +2463,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2462,19 +2525,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J2">
         <v>600</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2503,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2544,19 +2607,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s">
         <v>97</v>
-      </c>
-      <c r="L4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" t="s">
-        <v>93</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2588,19 +2651,19 @@
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2629,19 +2692,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>100</v>
@@ -2670,19 +2733,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" t="s">
         <v>104</v>
       </c>
-      <c r="L7" t="s">
-        <v>100</v>
-      </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2711,19 +2774,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -2752,19 +2815,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -2793,124 +2856,127 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" customFormat="1" spans="1:14">
       <c r="A11">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J11">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N11">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>401</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J12">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2919,16 +2985,16 @@
         <v>109</v>
       </c>
       <c r="J13">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K13" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="M13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2936,42 +3002,83 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="J14">
+        <v>400</v>
+      </c>
+      <c r="K14" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>403</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15">
         <v>600</v>
       </c>
-      <c r="K14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N14">
+      <c r="K15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15">
         <v>300</v>
       </c>
     </row>
@@ -2997,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3019,7 +3126,7 @@
         <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3030,7 +3137,7 @@
         <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -3041,7 +3148,7 @@
         <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>12</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="124">
   <si>
     <t>类型</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>Root.001|走路</t>
+  </si>
+  <si>
+    <t>p_B_tank_01</t>
   </si>
   <si>
     <t xml:space="preserve">Root|走路.001 </t>
@@ -1338,7 +1341,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:B13"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1738,7 +1741,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I26" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2078,7 +2081,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F30" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2194,8 +2197,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2361,6 +2364,9 @@
       <c r="C11" t="s">
         <v>78</v>
       </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
       <c r="E11" t="s">
         <v>72</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2422,10 +2428,10 @@
   <sheetPr/>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B11" sqref="A11:B11"/>
+      <selection pane="topRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2466,40 +2472,40 @@
         <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2525,19 +2531,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J2">
         <v>600</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2566,19 +2572,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2607,19 +2613,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2651,19 +2657,19 @@
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2692,22 +2698,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2733,19 +2739,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2774,19 +2780,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -2815,19 +2821,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -2856,19 +2862,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -2900,22 +2906,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J11">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2941,19 +2947,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J12">
         <v>400</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N12">
         <v>400</v>
@@ -2982,19 +2988,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J13">
         <v>300</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3023,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J14">
         <v>400</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3064,19 +3070,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J15">
         <v>600</v>
       </c>
       <c r="K15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <v>300</v>
@@ -3094,7 +3100,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A5" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -3107,7 +3113,7 @@
         <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
   <si>
     <t>类型</t>
   </si>
@@ -145,6 +145,12 @@
     <t>活动单位/绿色坦克</t>
   </si>
   <si>
+    <t>光刺</t>
+  </si>
+  <si>
+    <t>活动单位/光刺</t>
+  </si>
+  <si>
     <t>基地</t>
   </si>
   <si>
@@ -383,6 +389,9 @@
   </si>
   <si>
     <t>音效/ZLaDth00</t>
+  </si>
+  <si>
+    <t>音效/pshield</t>
   </si>
   <si>
     <t>pao002</t>
@@ -1334,14 +1343,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1547,9 +1556,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>301</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -1557,25 +1566,19 @@
       <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1583,16 +1586,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1600,16 +1603,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1617,41 +1620,41 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -1660,7 +1663,7 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1668,7 +1671,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -1677,7 +1680,7 @@
         <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1685,7 +1688,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -1693,13 +1696,16 @@
       <c r="C22" t="s">
         <v>59</v>
       </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
@@ -1708,23 +1714,37 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
       </c>
       <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>403</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1738,10 +1758,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1751,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1768,7 +1788,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1785,7 +1805,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -1802,7 +1822,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1819,7 +1839,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -1836,7 +1856,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -1853,7 +1873,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -1870,7 +1890,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -1887,7 +1907,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>35</v>
@@ -2067,6 +2087,23 @@
       </c>
       <c r="E19">
         <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>211</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2091,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2102,7 +2139,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2113,7 +2150,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2124,7 +2161,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2135,7 +2172,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2146,7 +2183,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -2157,7 +2194,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2168,7 +2205,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2179,7 +2216,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2195,10 +2232,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2213,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2233,10 +2270,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2247,10 +2284,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2261,10 +2298,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
         <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2275,10 +2312,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2289,13 +2326,13 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2309,7 +2346,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2320,10 +2357,10 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2334,10 +2371,10 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2348,10 +2385,10 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:5">
@@ -2362,58 +2399,66 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:2">
       <c r="A12">
-        <v>401</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>403</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2426,12 +2471,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N6" sqref="N6"/>
+      <selection pane="topRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2469,43 +2514,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2531,19 +2576,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J2">
         <v>600</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2572,19 +2617,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2613,19 +2658,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" t="s">
         <v>102</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>100</v>
-      </c>
-      <c r="M4" t="s">
-        <v>98</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2657,19 +2702,19 @@
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2698,19 +2743,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -2739,19 +2784,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2780,19 +2825,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -2821,19 +2866,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -2862,19 +2907,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -2894,7 +2939,7 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0.3</v>
@@ -2906,92 +2951,80 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N11">
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" customFormat="1" spans="1:14">
       <c r="A12">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>117</v>
-      </c>
       <c r="J12">
-        <v>400</v>
-      </c>
-      <c r="K12" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>401</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J13">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K13" t="s">
         <v>121</v>
@@ -3000,45 +3033,45 @@
         <v>122</v>
       </c>
       <c r="M13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J14">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s">
         <v>115</v>
@@ -3049,42 +3082,83 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
       </c>
       <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>0.4</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15">
+        <v>400</v>
+      </c>
+      <c r="K15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>403</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16">
         <v>12</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>6</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>0.5</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16">
         <v>600</v>
       </c>
-      <c r="K15" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" t="s">
-        <v>98</v>
-      </c>
-      <c r="N15">
+      <c r="K16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16">
         <v>300</v>
       </c>
     </row>
@@ -3110,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3132,7 +3206,7 @@
         <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3143,7 +3217,7 @@
         <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -3154,7 +3228,7 @@
         <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>12</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="128">
   <si>
     <t>类型</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>音效/pshield</t>
+  </si>
+  <si>
+    <t>音效/LASERHIT</t>
   </si>
   <si>
     <t>pao002</t>
@@ -2476,7 +2479,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N12" sqref="N12"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2772,7 +2775,7 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2983,16 +2986,19 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3021,19 +3027,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J13">
         <v>400</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N13">
         <v>400</v>
@@ -3068,10 +3074,10 @@
         <v>300</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s">
         <v>115</v>
@@ -3187,7 +3193,7 @@
         <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="130">
   <si>
     <t>类型</t>
   </si>
@@ -121,12 +121,18 @@
     <t>枪虫</t>
   </si>
   <si>
+    <t>活动单位/枪虫</t>
+  </si>
+  <si>
     <t>Root|待机.001</t>
   </si>
   <si>
     <t>近战虫</t>
   </si>
   <si>
+    <t>活动单位/近战虫</t>
+  </si>
+  <si>
     <t>Root.001|待机</t>
   </si>
   <si>
@@ -217,15 +223,9 @@
     <t>枪怪</t>
   </si>
   <si>
-    <t>活动单位/枪虫</t>
-  </si>
-  <si>
     <t>近战怪</t>
   </si>
   <si>
-    <t>活动单位/近战虫</t>
-  </si>
-  <si>
     <t>工怪</t>
   </si>
   <si>
@@ -277,9 +277,15 @@
     <t>语音/zdrRdy00</t>
   </si>
   <si>
+    <t>甲壳虫500面带动作</t>
+  </si>
+  <si>
     <t>Root|走路.001</t>
   </si>
   <si>
+    <t>蟑螂500面带动作</t>
+  </si>
+  <si>
     <t>Root.001|走路</t>
   </si>
   <si>
@@ -373,18 +379,21 @@
     <t>Root|攻击.001</t>
   </si>
   <si>
+    <t>音效/发射骨针</t>
+  </si>
+  <si>
+    <t>音效/ZZeDth00</t>
+  </si>
+  <si>
+    <t>Root|死亡.001</t>
+  </si>
+  <si>
+    <t>Root.001|攻击</t>
+  </si>
+  <si>
     <t>音效/利爪攻击</t>
   </si>
   <si>
-    <t>音效/ZZeDth00</t>
-  </si>
-  <si>
-    <t>Root|死亡.001</t>
-  </si>
-  <si>
-    <t>Root.001|攻击</t>
-  </si>
-  <si>
     <t>Root.001|死亡</t>
   </si>
   <si>
@@ -407,9 +416,6 @@
   </si>
   <si>
     <t>Take 001</t>
-  </si>
-  <si>
-    <t>音效/发射骨针</t>
   </si>
   <si>
     <t>音效/zhyDth00</t>
@@ -428,13 +434,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -901,139 +913,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1353,7 +1368,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:B14"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1510,8 +1525,14 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1519,10 +1540,16 @@
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1530,13 +1557,13 @@
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1547,13 +1574,13 @@
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1564,10 +1591,10 @@
         <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1575,13 +1602,13 @@
         <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1592,13 +1619,13 @@
         <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1609,13 +1636,13 @@
         <v>303</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1626,13 +1653,13 @@
         <v>304</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1643,16 +1670,16 @@
         <v>305</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1660,13 +1687,13 @@
         <v>306</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1677,13 +1704,13 @@
         <v>307</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1694,13 +1721,13 @@
         <v>308</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1711,13 +1738,13 @@
         <v>401</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1725,13 +1752,13 @@
         <v>402</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1791,7 +1818,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1808,7 +1835,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -1825,7 +1852,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1842,7 +1869,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -1859,7 +1886,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -1876,7 +1903,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -1893,7 +1920,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -1910,7 +1937,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>35</v>
@@ -2046,7 +2073,7 @@
         <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -2063,7 +2090,7 @@
         <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2080,7 +2107,7 @@
         <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -2097,7 +2124,7 @@
         <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2142,7 +2169,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2153,7 +2180,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2164,7 +2191,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2175,7 +2202,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2186,7 +2213,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -2197,7 +2224,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2208,7 +2235,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2219,7 +2246,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2238,7 +2265,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D8" sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2352,7 +2379,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8">
         <v>207</v>
       </c>
@@ -2362,22 +2389,28 @@
       <c r="C8" t="s">
         <v>80</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9">
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>80</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2385,7 +2418,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>80</v>
@@ -2399,13 +2432,13 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -2416,35 +2449,41 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:5">
       <c r="A13">
         <v>401</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:5">
       <c r="A14">
         <v>402</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>80</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2479,7 +2518,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K12" sqref="K12"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2520,40 +2559,40 @@
         <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2579,19 +2618,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J2">
         <v>600</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2620,19 +2659,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2661,19 +2700,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
         <v>104</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>102</v>
-      </c>
-      <c r="M4" t="s">
-        <v>100</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2705,19 +2744,19 @@
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2746,19 +2785,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -2787,19 +2826,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2828,19 +2867,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -2851,7 +2890,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -2869,19 +2908,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -2892,7 +2931,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2910,19 +2949,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -2933,7 +2972,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -2954,19 +2993,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N11">
         <v>900</v>
@@ -2977,7 +3016,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2998,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3009,7 +3048,7 @@
         <v>305</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3027,19 +3066,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J13">
         <v>400</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N13">
         <v>400</v>
@@ -3050,7 +3089,7 @@
         <v>401</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -3068,19 +3107,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J14">
         <v>300</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3091,7 +3130,7 @@
         <v>402</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -3109,19 +3148,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J15">
         <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3150,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J16">
         <v>600</v>
       </c>
       <c r="K16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>300</v>
@@ -3193,7 +3232,7 @@
         <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3212,7 +3251,7 @@
         <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3223,7 +3262,7 @@
         <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>60</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="136">
   <si>
     <t>类型</t>
   </si>
@@ -253,25 +253,43 @@
     <t>走路动作</t>
   </si>
   <si>
+    <t>普通走语音</t>
+  </si>
+  <si>
+    <t>强行走语音</t>
+  </si>
+  <si>
     <t>语音/工程车准备就绪女声可爱版</t>
   </si>
   <si>
     <t>run</t>
   </si>
   <si>
+    <t>语音/明白女声可爱版</t>
+  </si>
+  <si>
     <t>语音/准备战斗男声正经版</t>
   </si>
   <si>
+    <t>语音/明白男声正经版</t>
+  </si>
+  <si>
     <t>tfbRdy00</t>
   </si>
   <si>
     <t>语音/ttardy00</t>
   </si>
   <si>
+    <t>语音/坦克明白</t>
+  </si>
+  <si>
     <t>语音/ZLaWht00</t>
   </si>
   <si>
     <t>待机</t>
+  </si>
+  <si>
+    <t>语音/飞机明白</t>
   </si>
   <si>
     <t>语音/zdrRdy00</t>
@@ -1368,7 +1386,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2262,20 +2280,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="4" width="30.75" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2291,8 +2309,14 @@
       <c r="E1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>201</v>
       </c>
@@ -2300,13 +2324,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>202</v>
       </c>
@@ -2314,13 +2344,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>203</v>
       </c>
@@ -2328,13 +2364,19 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>204</v>
       </c>
@@ -2342,13 +2384,19 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>205</v>
       </c>
@@ -2356,16 +2404,22 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>206</v>
       </c>
@@ -2376,10 +2430,16 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
       <c r="A8">
         <v>207</v>
       </c>
@@ -2387,16 +2447,22 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:7">
       <c r="A9">
         <v>208</v>
       </c>
@@ -2404,16 +2470,22 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>209</v>
       </c>
@@ -2421,13 +2493,19 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
       <c r="A11">
         <v>210</v>
       </c>
@@ -2435,13 +2513,19 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -2460,13 +2544,13 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -2477,13 +2561,13 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2494,13 +2578,13 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2515,7 +2599,7 @@
   <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
@@ -2559,40 +2643,40 @@
         <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="N1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2618,19 +2702,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J2">
         <v>600</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2659,19 +2743,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2700,19 +2784,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2744,19 +2828,19 @@
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2785,19 +2869,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -2826,19 +2910,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2867,19 +2951,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -2908,19 +2992,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -2949,19 +3033,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -2993,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
         <v>122</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>116</v>
-      </c>
-      <c r="M11" t="s">
-        <v>110</v>
       </c>
       <c r="N11">
         <v>900</v>
@@ -3037,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3066,19 +3150,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J13">
         <v>400</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N13">
         <v>400</v>
@@ -3107,19 +3191,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J14">
         <v>300</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3148,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J15">
         <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3189,19 +3273,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J16">
         <v>600</v>
       </c>
       <c r="K16" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L16" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M16" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>300</v>
@@ -3232,7 +3316,7 @@
         <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="136">
   <si>
     <t>类型</t>
   </si>
@@ -2282,8 +2282,8 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2494,6 +2494,9 @@
       </c>
       <c r="C10" t="s">
         <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>76</v>
@@ -2599,10 +2602,10 @@
   <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+      <selection pane="topRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3045,7 +3048,7 @@
         <v>127</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>200</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -2605,7 +2605,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3021,10 +3021,10 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="142">
   <si>
     <t>类型</t>
   </si>
@@ -157,6 +157,21 @@
     <t>活动单位/光刺</t>
   </si>
   <si>
+    <t>房虫</t>
+  </si>
+  <si>
+    <t>活动单位/房虫</t>
+  </si>
+  <si>
+    <t>骨架|stand</t>
+  </si>
+  <si>
+    <t>飞虫</t>
+  </si>
+  <si>
+    <t>活动单位/飞虫</t>
+  </si>
+  <si>
     <t>基地</t>
   </si>
   <si>
@@ -422,6 +437,9 @@
   </si>
   <si>
     <t>音效/LASERHIT</t>
+  </si>
+  <si>
+    <t>骨架|death</t>
   </si>
   <si>
     <t>pao002</t>
@@ -1379,14 +1397,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1617,7 +1635,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1626,15 +1644,15 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -1643,24 +1661,21 @@
         <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1668,16 +1683,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1685,33 +1700,33 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1719,7 +1734,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -1728,24 +1743,24 @@
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1753,46 +1768,80 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>402</v>
+        <v>308</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
+        <v>401</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>402</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
         <v>403</v>
       </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>24</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1806,10 +1855,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="D38" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1819,16 +1868,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1836,7 +1885,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1853,7 +1902,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -1870,7 +1919,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1887,7 +1936,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -1904,7 +1953,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -1921,7 +1970,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -1938,7 +1987,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -1955,7 +2004,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>35</v>
@@ -2152,6 +2201,40 @@
       </c>
       <c r="E20">
         <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>212</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>213</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2176,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2187,7 +2270,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2198,7 +2281,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2209,7 +2292,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2220,7 +2303,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2231,7 +2314,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -2242,7 +2325,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2253,7 +2336,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2264,7 +2347,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2280,10 +2363,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C37" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2298,22 +2381,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2324,16 +2407,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2344,16 +2427,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2364,16 +2447,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2384,16 +2467,16 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
         <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2404,13 +2487,13 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
@@ -2430,13 +2513,13 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -2447,13 +2530,13 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -2470,13 +2553,13 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
@@ -2493,13 +2576,13 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
@@ -2516,13 +2599,13 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
@@ -2539,55 +2622,98 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:5">
+    <row r="13" customFormat="1" spans="1:7">
       <c r="A13">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
+      <c r="A14">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:5">
+      <c r="A15">
         <v>401</v>
       </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:5">
-      <c r="A14">
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:5">
+      <c r="A16">
         <v>402</v>
       </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>403</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
         <v>89</v>
       </c>
-      <c r="E14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>403</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
+      <c r="E17" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2600,12 +2726,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2643,43 +2769,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2705,19 +2831,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J2">
         <v>600</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2746,19 +2872,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2787,19 +2913,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2831,19 +2957,19 @@
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2872,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -2904,7 +3030,7 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>0.8</v>
@@ -2913,19 +3039,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2954,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -2995,19 +3121,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -3036,16 +3162,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -3080,19 +3206,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="N11">
         <v>900</v>
@@ -3124,89 +3250,74 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" customFormat="1" spans="1:14">
       <c r="A13">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>130</v>
-      </c>
       <c r="J13">
-        <v>400</v>
-      </c>
-      <c r="K13" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N13">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:14">
       <c r="A14">
-        <v>401</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>120</v>
-      </c>
       <c r="J14">
-        <v>300</v>
-      </c>
-      <c r="K14" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3214,83 +3325,165 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J15">
         <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
+        <v>401</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>0.3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16">
+        <v>300</v>
+      </c>
+      <c r="K16" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="s">
+        <v>128</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>402</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0.4</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17">
+        <v>400</v>
+      </c>
+      <c r="K17" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
         <v>403</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16">
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
         <v>12</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>6</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>0.5</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18">
         <v>600</v>
       </c>
-      <c r="K16" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" t="s">
-        <v>108</v>
-      </c>
-      <c r="N16">
+      <c r="K18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18">
         <v>300</v>
       </c>
     </row>
@@ -3316,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3338,7 +3531,7 @@
         <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3349,7 +3542,7 @@
         <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -3360,7 +3553,7 @@
         <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>12</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="145">
   <si>
     <t>类型</t>
   </si>
@@ -70,18 +70,21 @@
     <t>语音/是女声可爱版</t>
   </si>
   <si>
+    <t>Take 001</t>
+  </si>
+  <si>
+    <t>枪兵</t>
+  </si>
+  <si>
+    <t>活动单位/步兵</t>
+  </si>
+  <si>
+    <t>语音/是男声正经版</t>
+  </si>
+  <si>
     <t>idle</t>
   </si>
   <si>
-    <t>枪兵</t>
-  </si>
-  <si>
-    <t>活动单位/步兵</t>
-  </si>
-  <si>
-    <t>语音/是男声正经版</t>
-  </si>
-  <si>
     <t>近战兵</t>
   </si>
   <si>
@@ -277,6 +280,9 @@
     <t>语音/工程车准备就绪女声可爱版</t>
   </si>
   <si>
+    <t>wajueji_已绑定的模型</t>
+  </si>
+  <si>
     <t>run</t>
   </si>
   <si>
@@ -325,6 +331,9 @@
     <t>p_B_tank_01</t>
   </si>
   <si>
+    <t>飞虫-动作</t>
+  </si>
+  <si>
     <t xml:space="preserve">Root|走路.001 </t>
   </si>
   <si>
@@ -442,6 +451,9 @@
     <t>骨架|death</t>
   </si>
   <si>
+    <t>音效/DragBull</t>
+  </si>
+  <si>
     <t>pao002</t>
   </si>
   <si>
@@ -449,9 +461,6 @@
   </si>
   <si>
     <t>音效/explo1</t>
-  </si>
-  <si>
-    <t>Take 001</t>
   </si>
   <si>
     <t>音效/zhyDth00</t>
@@ -1404,7 +1413,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1483,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1491,16 +1500,16 @@
         <v>203</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1508,16 +1517,16 @@
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1525,16 +1534,16 @@
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1542,16 +1551,16 @@
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1559,16 +1568,16 @@
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1576,16 +1585,16 @@
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1593,16 +1602,16 @@
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1610,16 +1619,16 @@
         <v>210</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1627,10 +1636,10 @@
         <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1638,30 +1647,33 @@
         <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>213</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1669,16 +1681,16 @@
         <v>301</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1686,16 +1698,16 @@
         <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1703,16 +1715,16 @@
         <v>303</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1720,16 +1732,16 @@
         <v>304</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1737,16 +1749,16 @@
         <v>305</v>
       </c>
       <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1754,16 +1766,16 @@
         <v>306</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1771,16 +1783,16 @@
         <v>307</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1788,16 +1800,16 @@
         <v>308</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1805,13 +1817,13 @@
         <v>401</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1819,13 +1831,13 @@
         <v>402</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1833,16 +1845,16 @@
         <v>403</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1868,16 +1880,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1885,7 +1897,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1902,7 +1914,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -1919,7 +1931,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1936,7 +1948,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -1953,7 +1965,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -1970,7 +1982,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -1987,7 +1999,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -2004,7 +2016,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>35</v>
@@ -2055,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -2072,7 +2084,7 @@
         <v>204</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -2089,7 +2101,7 @@
         <v>205</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2106,7 +2118,7 @@
         <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -2123,7 +2135,7 @@
         <v>207</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2140,7 +2152,7 @@
         <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -2157,7 +2169,7 @@
         <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2174,7 +2186,7 @@
         <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -2191,7 +2203,7 @@
         <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2208,7 +2220,7 @@
         <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -2225,7 +2237,7 @@
         <v>213</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>18</v>
@@ -2259,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2270,7 +2282,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2281,7 +2293,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2292,7 +2304,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2303,7 +2315,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2314,7 +2326,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -2325,7 +2337,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2336,7 +2348,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2347,7 +2359,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2366,7 +2378,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2381,22 +2393,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2407,16 +2419,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2427,16 +2442,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
         <v>83</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2444,19 +2459,19 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2464,19 +2479,19 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2484,22 +2499,22 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2507,19 +2522,19 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -2527,22 +2542,22 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
@@ -2550,22 +2565,22 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2573,22 +2588,22 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:7">
@@ -2596,22 +2611,22 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -2619,7 +2634,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:7">
@@ -2627,22 +2642,22 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:7">
@@ -2650,19 +2665,22 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:5">
@@ -2670,16 +2688,16 @@
         <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -2687,16 +2705,16 @@
         <v>402</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2704,16 +2722,16 @@
         <v>403</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
         <v>91</v>
       </c>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2731,7 +2749,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L14" sqref="L14"/>
+      <selection pane="topRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2769,43 +2787,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2831,19 +2849,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J2">
         <v>600</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2872,19 +2890,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2895,7 +2913,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -2913,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2936,7 +2954,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -2951,25 +2969,25 @@
         <v>0.1</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2980,7 +2998,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -2998,19 +3016,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -3021,7 +3039,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -3039,19 +3057,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -3062,7 +3080,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3080,19 +3098,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -3103,7 +3121,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -3121,19 +3139,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -3144,7 +3162,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3162,19 +3180,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -3185,7 +3203,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -3200,25 +3218,25 @@
         <v>0.3</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N11">
         <v>900</v>
@@ -3229,7 +3247,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3250,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3261,7 +3279,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3282,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3296,7 +3314,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -3314,13 +3332,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="M14" t="s">
+        <v>138</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3328,7 +3352,7 @@
         <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3346,19 +3370,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J15">
         <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="N15">
         <v>400</v>
@@ -3369,7 +3393,7 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -3387,19 +3411,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J16">
         <v>300</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3410,7 +3434,7 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3428,19 +3452,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J17">
         <v>400</v>
       </c>
       <c r="K17" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" t="s">
         <v>130</v>
       </c>
-      <c r="L17" t="s">
-        <v>127</v>
-      </c>
       <c r="M17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3451,7 +3475,7 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -3469,19 +3493,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J18">
         <v>600</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N18">
         <v>300</v>
@@ -3509,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3520,7 +3544,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -3531,7 +3555,7 @@
         <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3542,7 +3566,7 @@
         <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -3553,7 +3577,7 @@
         <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>12</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="144">
   <si>
     <t>类型</t>
   </si>
@@ -70,397 +70,394 @@
     <t>语音/是女声可爱版</t>
   </si>
   <si>
+    <t>枪兵</t>
+  </si>
+  <si>
+    <t>活动单位/步兵</t>
+  </si>
+  <si>
+    <t>语音/是男声正经版</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>近战兵</t>
+  </si>
+  <si>
+    <t>活动单位/近战兵</t>
+  </si>
+  <si>
+    <t>tfbPss00</t>
+  </si>
+  <si>
+    <t>三色坦克</t>
+  </si>
+  <si>
+    <t>活动单位/三色坦克</t>
+  </si>
+  <si>
+    <t>音效/坦克行进声</t>
+  </si>
+  <si>
+    <t>工虫</t>
+  </si>
+  <si>
+    <t>活动单位/工虫</t>
+  </si>
+  <si>
+    <t>语音/zdrYes00</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>活动单位/飞机</t>
+  </si>
+  <si>
+    <t>音效/飞机声</t>
+  </si>
+  <si>
+    <t>枪虫</t>
+  </si>
+  <si>
+    <t>活动单位/枪虫</t>
+  </si>
+  <si>
+    <t>Root|待机.001</t>
+  </si>
+  <si>
+    <t>近战虫</t>
+  </si>
+  <si>
+    <t>活动单位/近战虫</t>
+  </si>
+  <si>
+    <t>Root.001|待机</t>
+  </si>
+  <si>
+    <t>幼虫</t>
+  </si>
+  <si>
+    <t>活动单位/幼虫</t>
+  </si>
+  <si>
+    <t>语音/ZLaPss00</t>
+  </si>
+  <si>
+    <t>绿色坦克</t>
+  </si>
+  <si>
+    <t>活动单位/绿色坦克</t>
+  </si>
+  <si>
+    <t>光刺</t>
+  </si>
+  <si>
+    <t>活动单位/光刺</t>
+  </si>
+  <si>
+    <t>房虫</t>
+  </si>
+  <si>
+    <t>活动单位/房虫</t>
+  </si>
+  <si>
+    <t>骨架|stand</t>
+  </si>
+  <si>
+    <t>飞虫</t>
+  </si>
+  <si>
+    <t>活动单位/飞虫</t>
+  </si>
+  <si>
+    <t>基地</t>
+  </si>
+  <si>
+    <t>建筑/基地</t>
+  </si>
+  <si>
+    <t>tcsWht00</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>建筑/兵厂</t>
+  </si>
+  <si>
+    <t>tacWht00</t>
+  </si>
+  <si>
+    <t>民房</t>
+  </si>
+  <si>
+    <t>建筑/民房</t>
+  </si>
+  <si>
+    <t>tclWht00</t>
+  </si>
+  <si>
+    <t>地堡</t>
+  </si>
+  <si>
+    <t>建筑/地堡</t>
+  </si>
+  <si>
+    <t>音效/BUTTON</t>
+  </si>
+  <si>
+    <t>炮台</t>
+  </si>
+  <si>
+    <t>建筑/光子炮</t>
+  </si>
+  <si>
+    <t>平常状态</t>
+  </si>
+  <si>
+    <t>虫巢</t>
+  </si>
+  <si>
+    <t>建筑/孵化场</t>
+  </si>
+  <si>
+    <t>机场</t>
+  </si>
+  <si>
+    <t>建筑/机场</t>
+  </si>
+  <si>
+    <t>重车厂</t>
+  </si>
+  <si>
+    <t>建筑/重工厂</t>
+  </si>
+  <si>
+    <t>枪怪</t>
+  </si>
+  <si>
+    <t>近战怪</t>
+  </si>
+  <si>
+    <t>工怪</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>消耗晶体矿</t>
+  </si>
+  <si>
+    <t>消耗燃气矿</t>
+  </si>
+  <si>
+    <t>初始HP</t>
+  </si>
+  <si>
+    <t>f半边长</t>
+  </si>
+  <si>
+    <t>入场语音</t>
+  </si>
+  <si>
+    <t>动画节点路径</t>
+  </si>
+  <si>
+    <t>走路动作</t>
+  </si>
+  <si>
+    <t>普通走语音</t>
+  </si>
+  <si>
+    <t>强行走语音</t>
+  </si>
+  <si>
+    <t>语音/工程车准备就绪女声可爱版</t>
+  </si>
+  <si>
+    <t>wajueji_已绑定的模型</t>
+  </si>
+  <si>
+    <t>语音/明白女声可爱版</t>
+  </si>
+  <si>
+    <t>语音/准备战斗男声正经版</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>语音/明白男声正经版</t>
+  </si>
+  <si>
+    <t>tfbRdy00</t>
+  </si>
+  <si>
+    <t>语音/ttardy00</t>
+  </si>
+  <si>
+    <t>语音/坦克明白</t>
+  </si>
+  <si>
+    <t>语音/ZLaWht00</t>
+  </si>
+  <si>
+    <t>待机</t>
+  </si>
+  <si>
+    <t>语音/飞机明白</t>
+  </si>
+  <si>
+    <t>语音/zdrRdy00</t>
+  </si>
+  <si>
+    <t>甲壳虫500面带动作</t>
+  </si>
+  <si>
+    <t>Root|走路.001</t>
+  </si>
+  <si>
+    <t>蟑螂500面带动作</t>
+  </si>
+  <si>
+    <t>Root.001|走路</t>
+  </si>
+  <si>
+    <t>p_B_tank_01</t>
+  </si>
+  <si>
+    <t>飞虫-动作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root|走路.001 </t>
+  </si>
+  <si>
+    <t>f警戒距离</t>
+  </si>
+  <si>
+    <t>f攻击距离</t>
+  </si>
+  <si>
+    <t>i32伤害</t>
+  </si>
+  <si>
+    <t>f每帧移动距离</t>
+  </si>
+  <si>
+    <t>str前摇动作</t>
+  </si>
+  <si>
+    <t>dura开始播放攻击动作</t>
+  </si>
+  <si>
+    <t>str攻击动作</t>
+  </si>
+  <si>
+    <t>dura开始伤害</t>
+  </si>
+  <si>
+    <t>str攻击音效</t>
+  </si>
+  <si>
+    <t>str阵亡音效</t>
+  </si>
+  <si>
+    <t>str阵亡动作</t>
+  </si>
+  <si>
+    <t>dura后摇</t>
+  </si>
+  <si>
+    <t>音效/TScFir00</t>
+  </si>
+  <si>
+    <t>TSCDth00</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>音效/TTaFir00</t>
+  </si>
+  <si>
+    <t>TMaDth00</t>
+  </si>
+  <si>
+    <t>die01</t>
+  </si>
+  <si>
+    <t>Tfrshoot</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>attack_loop</t>
+  </si>
+  <si>
+    <t>音效/TTaFi200</t>
+  </si>
+  <si>
+    <t>音效/TTaDth00</t>
+  </si>
+  <si>
+    <t>die02</t>
+  </si>
+  <si>
+    <t>音效/ZDrHit00</t>
+  </si>
+  <si>
+    <t>音效/zdrDth00</t>
+  </si>
+  <si>
+    <t>TMaFir00</t>
+  </si>
+  <si>
+    <t>Root|攻击.001</t>
+  </si>
+  <si>
+    <t>音效/发射骨针</t>
+  </si>
+  <si>
+    <t>音效/ZZeDth00</t>
+  </si>
+  <si>
+    <t>Root|死亡.001</t>
+  </si>
+  <si>
+    <t>Root.001|攻击</t>
+  </si>
+  <si>
+    <t>音效/利爪攻击</t>
+  </si>
+  <si>
+    <t>Root.001|死亡</t>
+  </si>
+  <si>
+    <t>音效/ZLaDth00</t>
+  </si>
+  <si>
+    <t>音效/pshield</t>
+  </si>
+  <si>
+    <t>音效/LASERHIT</t>
+  </si>
+  <si>
+    <t>骨架|death</t>
+  </si>
+  <si>
+    <t>pao002</t>
+  </si>
+  <si>
+    <t>音效/PhoFir00</t>
+  </si>
+  <si>
+    <t>音效/explo1</t>
+  </si>
+  <si>
     <t>Take 001</t>
-  </si>
-  <si>
-    <t>枪兵</t>
-  </si>
-  <si>
-    <t>活动单位/步兵</t>
-  </si>
-  <si>
-    <t>语音/是男声正经版</t>
-  </si>
-  <si>
-    <t>idle</t>
-  </si>
-  <si>
-    <t>近战兵</t>
-  </si>
-  <si>
-    <t>活动单位/近战兵</t>
-  </si>
-  <si>
-    <t>tfbPss00</t>
-  </si>
-  <si>
-    <t>三色坦克</t>
-  </si>
-  <si>
-    <t>活动单位/三色坦克</t>
-  </si>
-  <si>
-    <t>音效/坦克行进声</t>
-  </si>
-  <si>
-    <t>工虫</t>
-  </si>
-  <si>
-    <t>活动单位/工虫</t>
-  </si>
-  <si>
-    <t>语音/zdrYes00</t>
-  </si>
-  <si>
-    <t>飞机</t>
-  </si>
-  <si>
-    <t>活动单位/飞机</t>
-  </si>
-  <si>
-    <t>音效/飞机声</t>
-  </si>
-  <si>
-    <t>枪虫</t>
-  </si>
-  <si>
-    <t>活动单位/枪虫</t>
-  </si>
-  <si>
-    <t>Root|待机.001</t>
-  </si>
-  <si>
-    <t>近战虫</t>
-  </si>
-  <si>
-    <t>活动单位/近战虫</t>
-  </si>
-  <si>
-    <t>Root.001|待机</t>
-  </si>
-  <si>
-    <t>幼虫</t>
-  </si>
-  <si>
-    <t>活动单位/幼虫</t>
-  </si>
-  <si>
-    <t>语音/ZLaPss00</t>
-  </si>
-  <si>
-    <t>绿色坦克</t>
-  </si>
-  <si>
-    <t>活动单位/绿色坦克</t>
-  </si>
-  <si>
-    <t>光刺</t>
-  </si>
-  <si>
-    <t>活动单位/光刺</t>
-  </si>
-  <si>
-    <t>房虫</t>
-  </si>
-  <si>
-    <t>活动单位/房虫</t>
-  </si>
-  <si>
-    <t>骨架|stand</t>
-  </si>
-  <si>
-    <t>飞虫</t>
-  </si>
-  <si>
-    <t>活动单位/飞虫</t>
-  </si>
-  <si>
-    <t>基地</t>
-  </si>
-  <si>
-    <t>建筑/基地</t>
-  </si>
-  <si>
-    <t>tcsWht00</t>
-  </si>
-  <si>
-    <t>兵营</t>
-  </si>
-  <si>
-    <t>建筑/兵厂</t>
-  </si>
-  <si>
-    <t>tacWht00</t>
-  </si>
-  <si>
-    <t>民房</t>
-  </si>
-  <si>
-    <t>建筑/民房</t>
-  </si>
-  <si>
-    <t>tclWht00</t>
-  </si>
-  <si>
-    <t>地堡</t>
-  </si>
-  <si>
-    <t>建筑/地堡</t>
-  </si>
-  <si>
-    <t>音效/BUTTON</t>
-  </si>
-  <si>
-    <t>炮台</t>
-  </si>
-  <si>
-    <t>建筑/光子炮</t>
-  </si>
-  <si>
-    <t>平常状态</t>
-  </si>
-  <si>
-    <t>虫巢</t>
-  </si>
-  <si>
-    <t>建筑/孵化场</t>
-  </si>
-  <si>
-    <t>机场</t>
-  </si>
-  <si>
-    <t>建筑/机场</t>
-  </si>
-  <si>
-    <t>重车厂</t>
-  </si>
-  <si>
-    <t>建筑/重工厂</t>
-  </si>
-  <si>
-    <t>枪怪</t>
-  </si>
-  <si>
-    <t>近战怪</t>
-  </si>
-  <si>
-    <t>工怪</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>消耗晶体矿</t>
-  </si>
-  <si>
-    <t>消耗燃气矿</t>
-  </si>
-  <si>
-    <t>初始HP</t>
-  </si>
-  <si>
-    <t>f半边长</t>
-  </si>
-  <si>
-    <t>入场语音</t>
-  </si>
-  <si>
-    <t>动画节点路径</t>
-  </si>
-  <si>
-    <t>走路动作</t>
-  </si>
-  <si>
-    <t>普通走语音</t>
-  </si>
-  <si>
-    <t>强行走语音</t>
-  </si>
-  <si>
-    <t>语音/工程车准备就绪女声可爱版</t>
-  </si>
-  <si>
-    <t>wajueji_已绑定的模型</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>语音/明白女声可爱版</t>
-  </si>
-  <si>
-    <t>语音/准备战斗男声正经版</t>
-  </si>
-  <si>
-    <t>语音/明白男声正经版</t>
-  </si>
-  <si>
-    <t>tfbRdy00</t>
-  </si>
-  <si>
-    <t>语音/ttardy00</t>
-  </si>
-  <si>
-    <t>语音/坦克明白</t>
-  </si>
-  <si>
-    <t>语音/ZLaWht00</t>
-  </si>
-  <si>
-    <t>待机</t>
-  </si>
-  <si>
-    <t>语音/飞机明白</t>
-  </si>
-  <si>
-    <t>语音/zdrRdy00</t>
-  </si>
-  <si>
-    <t>甲壳虫500面带动作</t>
-  </si>
-  <si>
-    <t>Root|走路.001</t>
-  </si>
-  <si>
-    <t>蟑螂500面带动作</t>
-  </si>
-  <si>
-    <t>Root.001|走路</t>
-  </si>
-  <si>
-    <t>p_B_tank_01</t>
-  </si>
-  <si>
-    <t>飞虫-动作</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Root|走路.001 </t>
-  </si>
-  <si>
-    <t>f警戒距离</t>
-  </si>
-  <si>
-    <t>f攻击距离</t>
-  </si>
-  <si>
-    <t>i32伤害</t>
-  </si>
-  <si>
-    <t>f每帧移动距离</t>
-  </si>
-  <si>
-    <t>str前摇动作</t>
-  </si>
-  <si>
-    <t>dura开始播放攻击动作</t>
-  </si>
-  <si>
-    <t>str攻击动作</t>
-  </si>
-  <si>
-    <t>dura开始伤害</t>
-  </si>
-  <si>
-    <t>str攻击音效</t>
-  </si>
-  <si>
-    <t>str阵亡音效</t>
-  </si>
-  <si>
-    <t>str阵亡动作</t>
-  </si>
-  <si>
-    <t>dura后摇</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>音效/TScFir00</t>
-  </si>
-  <si>
-    <t>TSCDth00</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>音效/TTaFir00</t>
-  </si>
-  <si>
-    <t>TMaDth00</t>
-  </si>
-  <si>
-    <t>die01</t>
-  </si>
-  <si>
-    <t>Tfrshoot</t>
-  </si>
-  <si>
-    <t>attack_loop</t>
-  </si>
-  <si>
-    <t>音效/TTaFi200</t>
-  </si>
-  <si>
-    <t>音效/TTaDth00</t>
-  </si>
-  <si>
-    <t>die02</t>
-  </si>
-  <si>
-    <t>音效/ZDrHit00</t>
-  </si>
-  <si>
-    <t>音效/zdrDth00</t>
-  </si>
-  <si>
-    <t>TMaFir00</t>
-  </si>
-  <si>
-    <t>Root|攻击.001</t>
-  </si>
-  <si>
-    <t>音效/发射骨针</t>
-  </si>
-  <si>
-    <t>音效/ZZeDth00</t>
-  </si>
-  <si>
-    <t>Root|死亡.001</t>
-  </si>
-  <si>
-    <t>Root.001|攻击</t>
-  </si>
-  <si>
-    <t>音效/利爪攻击</t>
-  </si>
-  <si>
-    <t>Root.001|死亡</t>
-  </si>
-  <si>
-    <t>音效/ZLaDth00</t>
-  </si>
-  <si>
-    <t>音效/pshield</t>
-  </si>
-  <si>
-    <t>音效/LASERHIT</t>
-  </si>
-  <si>
-    <t>骨架|death</t>
-  </si>
-  <si>
-    <t>音效/DragBull</t>
-  </si>
-  <si>
-    <t>pao002</t>
-  </si>
-  <si>
-    <t>音效/PhoFir00</t>
-  </si>
-  <si>
-    <t>音效/explo1</t>
   </si>
   <si>
     <t>音效/zhyDth00</t>
@@ -1413,7 +1410,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1474,8 +1471,8 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1483,16 +1480,16 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1500,16 +1497,16 @@
         <v>203</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1517,16 +1514,16 @@
         <v>204</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1534,16 +1531,16 @@
         <v>205</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1551,16 +1548,16 @@
         <v>206</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1568,16 +1565,16 @@
         <v>207</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1585,16 +1582,16 @@
         <v>208</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1602,16 +1599,16 @@
         <v>209</v>
       </c>
       <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1619,16 +1616,16 @@
         <v>210</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1636,10 +1633,10 @@
         <v>211</v>
       </c>
       <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1647,16 +1644,16 @@
         <v>212</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1664,16 +1661,16 @@
         <v>213</v>
       </c>
       <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1681,16 +1678,16 @@
         <v>301</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1698,16 +1695,16 @@
         <v>302</v>
       </c>
       <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1715,16 +1712,16 @@
         <v>303</v>
       </c>
       <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1732,16 +1729,16 @@
         <v>304</v>
       </c>
       <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1749,16 +1746,16 @@
         <v>305</v>
       </c>
       <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
         <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1766,16 +1763,16 @@
         <v>306</v>
       </c>
       <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1783,16 +1780,16 @@
         <v>307</v>
       </c>
       <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1800,16 +1797,16 @@
         <v>308</v>
       </c>
       <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
         <v>66</v>
       </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1817,13 +1814,13 @@
         <v>401</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
         <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1831,13 +1828,13 @@
         <v>402</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
         <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1845,16 +1842,16 @@
         <v>403</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
         <v>24</v>
       </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1880,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1897,7 +1894,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1914,7 +1911,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -1931,7 +1928,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1948,7 +1945,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -1965,7 +1962,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -1982,7 +1979,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -1999,7 +1996,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -2016,7 +2013,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>35</v>
@@ -2050,7 +2047,7 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2067,7 +2064,7 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -2084,7 +2081,7 @@
         <v>204</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -2101,7 +2098,7 @@
         <v>205</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2118,7 +2115,7 @@
         <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -2135,7 +2132,7 @@
         <v>207</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2152,7 +2149,7 @@
         <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -2169,7 +2166,7 @@
         <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2186,7 +2183,7 @@
         <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -2203,7 +2200,7 @@
         <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2220,7 +2217,7 @@
         <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -2237,7 +2234,7 @@
         <v>213</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22">
         <v>18</v>
@@ -2271,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2282,7 +2279,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2293,7 +2290,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2304,7 +2301,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2315,7 +2312,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2326,7 +2323,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -2337,7 +2334,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2348,7 +2345,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2359,7 +2356,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2378,7 +2375,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2393,22 +2390,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2419,19 +2416,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2439,19 +2436,19 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2459,19 +2456,19 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2479,19 +2476,19 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
         <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2499,22 +2496,22 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
         <v>90</v>
       </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2522,19 +2519,19 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -2542,22 +2539,22 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" t="s">
         <v>94</v>
       </c>
-      <c r="E8" t="s">
-        <v>95</v>
-      </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
@@ -2565,22 +2562,22 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
         <v>96</v>
       </c>
-      <c r="E9" t="s">
-        <v>97</v>
-      </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2588,22 +2585,22 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:7">
@@ -2611,22 +2608,22 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -2634,7 +2631,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:7">
@@ -2642,22 +2639,22 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:7">
@@ -2665,22 +2662,22 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:5">
@@ -2688,16 +2685,16 @@
         <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -2705,16 +2702,16 @@
         <v>402</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
         <v>96</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2722,16 +2719,16 @@
         <v>403</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2749,7 +2746,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K14" sqref="K14"/>
+      <selection pane="topRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2787,43 +2784,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2845,26 +2842,27 @@
       <c r="F2">
         <v>0.4</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2"/>
+      <c r="J2">
+        <v>400</v>
+      </c>
+      <c r="K2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" t="s">
         <v>113</v>
       </c>
-      <c r="J2">
-        <v>600</v>
-      </c>
-      <c r="K2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" t="s">
-        <v>116</v>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2872,7 +2870,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -2890,19 +2888,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" t="s">
         <v>117</v>
-      </c>
-      <c r="L3" t="s">
-        <v>118</v>
-      </c>
-      <c r="M3" t="s">
-        <v>119</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2913,7 +2911,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -2931,19 +2929,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2954,7 +2952,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -2969,25 +2967,25 @@
         <v>0.1</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" t="s">
         <v>122</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>123</v>
-      </c>
-      <c r="M5" t="s">
-        <v>124</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2998,7 +2996,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -3016,19 +3014,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" t="s">
         <v>125</v>
       </c>
-      <c r="L6" t="s">
-        <v>126</v>
-      </c>
       <c r="M6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -3039,7 +3037,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -3057,19 +3055,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -3080,7 +3078,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3098,19 +3096,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" t="s">
         <v>129</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>130</v>
-      </c>
-      <c r="M8" t="s">
-        <v>131</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -3121,7 +3119,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -3139,19 +3137,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" t="s">
         <v>133</v>
-      </c>
-      <c r="L9" t="s">
-        <v>125</v>
-      </c>
-      <c r="M9" t="s">
-        <v>134</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -3162,7 +3160,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3180,19 +3178,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -3203,7 +3201,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -3218,25 +3216,25 @@
         <v>0.3</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N11">
         <v>900</v>
@@ -3247,7 +3245,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3268,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3279,7 +3277,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3300,10 +3298,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3314,7 +3312,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -3334,14 +3332,14 @@
       <c r="J14">
         <v>600</v>
       </c>
-      <c r="K14" t="s">
-        <v>139</v>
+      <c r="K14">
+        <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N14">
         <v>300</v>
@@ -3352,7 +3350,7 @@
         <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3370,19 +3368,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J15">
         <v>400</v>
       </c>
       <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="s">
         <v>141</v>
-      </c>
-      <c r="L15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M15" t="s">
-        <v>12</v>
       </c>
       <c r="N15">
         <v>400</v>
@@ -3393,7 +3391,7 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -3411,19 +3409,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16">
         <v>300</v>
       </c>
       <c r="K16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3434,7 +3432,7 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3452,19 +3450,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J17">
         <v>400</v>
       </c>
       <c r="K17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" t="s">
         <v>133</v>
-      </c>
-      <c r="L17" t="s">
-        <v>130</v>
-      </c>
-      <c r="M17" t="s">
-        <v>134</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3475,7 +3473,7 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -3493,19 +3491,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J18">
         <v>600</v>
       </c>
       <c r="K18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" t="s">
         <v>125</v>
       </c>
-      <c r="L18" t="s">
-        <v>126</v>
-      </c>
       <c r="M18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N18">
         <v>300</v>
@@ -3533,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3544,7 +3542,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -3555,7 +3553,7 @@
         <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3566,7 +3564,7 @@
         <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -3577,7 +3575,7 @@
         <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>12</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="151">
   <si>
     <t>类型</t>
   </si>
@@ -49,6 +49,12 @@
     <t>空闲动作</t>
   </si>
   <si>
+    <t>str阵亡动作</t>
+  </si>
+  <si>
+    <t>str阵亡音效</t>
+  </si>
+  <si>
     <t>晶体矿</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>语音/是女声可爱版</t>
   </si>
   <si>
+    <t>TSCDth00</t>
+  </si>
+  <si>
     <t>枪兵</t>
   </si>
   <si>
@@ -82,6 +91,12 @@
     <t>idle</t>
   </si>
   <si>
+    <t>die01</t>
+  </si>
+  <si>
+    <t>TMaDth00</t>
+  </si>
+  <si>
     <t>近战兵</t>
   </si>
   <si>
@@ -91,6 +106,9 @@
     <t>tfbPss00</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>三色坦克</t>
   </si>
   <si>
@@ -100,6 +118,12 @@
     <t>音效/坦克行进声</t>
   </si>
   <si>
+    <t>die02</t>
+  </si>
+  <si>
+    <t>音效/TTaDth00</t>
+  </si>
+  <si>
     <t>工虫</t>
   </si>
   <si>
@@ -109,6 +133,9 @@
     <t>语音/zdrYes00</t>
   </si>
   <si>
+    <t>音效/zdrDth00</t>
+  </si>
+  <si>
     <t>飞机</t>
   </si>
   <si>
@@ -127,6 +154,12 @@
     <t>Root|待机.001</t>
   </si>
   <si>
+    <t>Root|死亡.001</t>
+  </si>
+  <si>
+    <t>音效/ZZeDth00</t>
+  </si>
+  <si>
     <t>近战虫</t>
   </si>
   <si>
@@ -136,6 +169,12 @@
     <t>Root.001|待机</t>
   </si>
   <si>
+    <t>Root.001|死亡</t>
+  </si>
+  <si>
+    <t>音效/ZDrHit00</t>
+  </si>
+  <si>
     <t>幼虫</t>
   </si>
   <si>
@@ -145,6 +184,9 @@
     <t>语音/ZLaPss00</t>
   </si>
   <si>
+    <t>音效/ZLaDth00</t>
+  </si>
+  <si>
     <t>绿色坦克</t>
   </si>
   <si>
@@ -166,6 +208,9 @@
     <t>骨架|stand</t>
   </si>
   <si>
+    <t>骨架|death</t>
+  </si>
+  <si>
     <t>飞虫</t>
   </si>
   <si>
@@ -181,6 +226,12 @@
     <t>tcsWht00</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>explo4</t>
+  </si>
+  <si>
     <t>兵营</t>
   </si>
   <si>
@@ -190,6 +241,9 @@
     <t>tacWht00</t>
   </si>
   <si>
+    <t>EXPLOMED</t>
+  </si>
+  <si>
     <t>民房</t>
   </si>
   <si>
@@ -217,6 +271,12 @@
     <t>平常状态</t>
   </si>
   <si>
+    <t>Take 001</t>
+  </si>
+  <si>
+    <t>音效/explo1</t>
+  </si>
+  <si>
     <t>虫巢</t>
   </si>
   <si>
@@ -235,6 +295,21 @@
     <t>建筑/重工厂</t>
   </si>
   <si>
+    <t>虫营</t>
+  </si>
+  <si>
+    <t>建筑/虫营</t>
+  </si>
+  <si>
+    <t>飞塔</t>
+  </si>
+  <si>
+    <t>建筑/飞塔</t>
+  </si>
+  <si>
+    <t>音效/zhyDth00</t>
+  </si>
+  <si>
     <t>枪怪</t>
   </si>
   <si>
@@ -361,57 +436,27 @@
     <t>str攻击音效</t>
   </si>
   <si>
-    <t>str阵亡音效</t>
-  </si>
-  <si>
-    <t>str阵亡动作</t>
-  </si>
-  <si>
     <t>dura后摇</t>
   </si>
   <si>
     <t>音效/TScFir00</t>
   </si>
   <si>
-    <t>TSCDth00</t>
-  </si>
-  <si>
     <t>attack</t>
   </si>
   <si>
     <t>音效/TTaFir00</t>
   </si>
   <si>
-    <t>TMaDth00</t>
-  </si>
-  <si>
-    <t>die01</t>
-  </si>
-  <si>
     <t>Tfrshoot</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>attack_loop</t>
   </si>
   <si>
     <t>音效/TTaFi200</t>
   </si>
   <si>
-    <t>音效/TTaDth00</t>
-  </si>
-  <si>
-    <t>die02</t>
-  </si>
-  <si>
-    <t>音效/ZDrHit00</t>
-  </si>
-  <si>
-    <t>音效/zdrDth00</t>
-  </si>
-  <si>
     <t>TMaFir00</t>
   </si>
   <si>
@@ -421,46 +466,22 @@
     <t>音效/发射骨针</t>
   </si>
   <si>
-    <t>音效/ZZeDth00</t>
-  </si>
-  <si>
-    <t>Root|死亡.001</t>
-  </si>
-  <si>
     <t>Root.001|攻击</t>
   </si>
   <si>
     <t>音效/利爪攻击</t>
   </si>
   <si>
-    <t>Root.001|死亡</t>
-  </si>
-  <si>
-    <t>音效/ZLaDth00</t>
-  </si>
-  <si>
     <t>音效/pshield</t>
   </si>
   <si>
     <t>音效/LASERHIT</t>
   </si>
   <si>
-    <t>骨架|death</t>
-  </si>
-  <si>
     <t>pao002</t>
   </si>
   <si>
     <t>音效/PhoFir00</t>
-  </si>
-  <si>
-    <t>音效/explo1</t>
-  </si>
-  <si>
-    <t>Take 001</t>
-  </si>
-  <si>
-    <t>音效/zhyDth00</t>
   </si>
   <si>
     <t>u16初始Hp</t>
@@ -476,7 +497,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +510,14 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -635,12 +664,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -955,76 +996,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1033,10 +1068,10 @@
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,10 +1080,10 @@
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,10 +1092,10 @@
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1069,10 +1104,10 @@
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,16 +1116,31 @@
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1403,23 +1453,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="5" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1435,197 +1485,263 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" spans="1:3">
+      <c r="A2" s="4">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="1:3">
+      <c r="A3" s="4">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1633,225 +1749,331 @@
         <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>212</v>
       </c>
       <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>213</v>
       </c>
       <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:7">
+      <c r="A17" s="2">
+        <v>301</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:7">
+      <c r="A18" s="2">
+        <v>302</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:7">
+      <c r="A19" s="2">
+        <v>303</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:7">
+      <c r="A20" s="2">
+        <v>304</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:7">
+      <c r="A21" s="2">
+        <v>305</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:7">
+      <c r="A22" s="2">
+        <v>306</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:7">
+      <c r="A23" s="2">
+        <v>307</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:7">
+      <c r="A24" s="2">
+        <v>308</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:7">
+      <c r="A25" s="2">
+        <v>309</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:7">
+      <c r="A26" s="2">
+        <v>310</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:7">
+      <c r="A27" s="4">
+        <v>401</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:7">
+      <c r="A28" s="4">
+        <v>402</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F28" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>301</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>302</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>303</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>304</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>305</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>306</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>307</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>308</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>401</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>402</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:7">
+      <c r="A29" s="4">
+        <v>403</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>403</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1864,386 +2086,424 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A23" sqref="A23:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
+    <row r="1" s="3" customFormat="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>300</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>400</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>12</v>
-      </c>
-      <c r="E8">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:5">
+      <c r="A16" s="2">
+        <v>302</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2">
         <v>25</v>
       </c>
-      <c r="C15">
+      <c r="D16" s="2">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:5">
+      <c r="A17" s="2">
+        <v>303</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2">
         <v>20</v>
       </c>
-      <c r="D15">
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:5">
+      <c r="A18" s="2">
+        <v>304</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:5">
+      <c r="A19" s="2">
+        <v>305</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:5">
+      <c r="A20" s="2">
+        <v>306</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="2">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:5">
+      <c r="A21" s="2">
+        <v>307</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="2">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:5">
+      <c r="A22" s="2">
+        <v>308</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="2">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:5">
+      <c r="A23" s="2">
+        <v>309</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="E23" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:5">
+      <c r="A24" s="2">
+        <v>310</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>207</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>208</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>209</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="D24" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>210</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>211</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>212</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>213</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>25</v>
+      <c r="E24" s="2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2255,10 +2515,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A10" sqref="A10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2268,10 +2528,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2279,7 +2539,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2290,7 +2550,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2301,7 +2561,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2312,7 +2572,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2323,7 +2583,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -2334,7 +2594,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2345,7 +2605,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2356,10 +2616,32 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>309</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>310</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -2390,22 +2672,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2413,22 +2695,22 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2436,19 +2718,19 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2456,19 +2738,19 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2476,19 +2758,19 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2496,22 +2778,22 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2519,19 +2801,19 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -2539,22 +2821,22 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
@@ -2562,22 +2844,22 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2585,22 +2867,22 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:7">
@@ -2608,22 +2890,22 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -2631,7 +2913,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:7">
@@ -2639,22 +2921,22 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:7">
@@ -2662,22 +2944,22 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:5">
@@ -2685,16 +2967,16 @@
         <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -2702,16 +2984,16 @@
         <v>402</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2719,16 +3001,16 @@
         <v>403</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2741,12 +3023,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N2" sqref="N2"/>
+      <selection pane="topRight" activeCell="L1" sqref="L$1:L$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2760,75 +3042,68 @@
     <col min="8" max="8" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="12.125" customWidth="1"/>
-    <col min="14" max="14" width="9.125" customWidth="1"/>
-    <col min="15" max="15" width="19.625" customWidth="1"/>
-    <col min="16" max="16" width="21.625" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="19" max="19" width="26" customWidth="1"/>
-    <col min="20" max="20" width="6.375" customWidth="1"/>
-    <col min="22" max="22" width="2.375" customWidth="1"/>
-    <col min="24" max="24" width="4.375" customWidth="1"/>
-    <col min="28" max="28" width="8.375" customWidth="1"/>
-    <col min="30" max="30" width="7.375" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="9.125" customWidth="1"/>
+    <col min="13" max="13" width="19.625" customWidth="1"/>
+    <col min="14" max="14" width="21.625" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="26" customWidth="1"/>
+    <col min="18" max="18" width="6.375" customWidth="1"/>
+    <col min="20" max="20" width="2.375" customWidth="1"/>
+    <col min="22" max="22" width="4.375" customWidth="1"/>
+    <col min="26" max="26" width="8.375" customWidth="1"/>
+    <col min="28" max="28" width="7.375" customWidth="1"/>
+    <col min="29" max="29" width="10.375" customWidth="1"/>
     <col min="31" max="31" width="10.375" customWidth="1"/>
-    <col min="33" max="33" width="10.375" customWidth="1"/>
-    <col min="35" max="35" width="6.375" customWidth="1"/>
-    <col min="36" max="36" width="8.375" customWidth="1"/>
-    <col min="37" max="37" width="12.625" customWidth="1"/>
+    <col min="33" max="33" width="6.375" customWidth="1"/>
+    <col min="34" max="34" width="8.375" customWidth="1"/>
+    <col min="35" max="35" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="H1" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="I1" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K1" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -2848,29 +3123,22 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2"/>
       <c r="J2">
         <v>400</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+        <v>135</v>
+      </c>
+      <c r="L2">
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -2888,30 +3156,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3">
+        <v>137</v>
+      </c>
+      <c r="L3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -2929,30 +3191,24 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N4">
+        <v>138</v>
+      </c>
+      <c r="L4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -2967,36 +3223,30 @@
         <v>0.1</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5">
+        <v>140</v>
+      </c>
+      <c r="L5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -3014,30 +3264,24 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N6">
+        <v>46</v>
+      </c>
+      <c r="L6">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -3055,30 +3299,24 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N7">
+        <v>141</v>
+      </c>
+      <c r="L7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3096,30 +3334,24 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" t="s">
-        <v>129</v>
-      </c>
-      <c r="M8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N8">
+        <v>143</v>
+      </c>
+      <c r="L8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -3137,30 +3369,24 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9" t="s">
-        <v>124</v>
-      </c>
-      <c r="M9" t="s">
-        <v>133</v>
-      </c>
-      <c r="N9">
+        <v>145</v>
+      </c>
+      <c r="L9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3178,30 +3404,24 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" t="s">
-        <v>134</v>
-      </c>
-      <c r="M10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10">
+        <v>46</v>
+      </c>
+      <c r="L10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:14">
+    <row r="11" customFormat="1" spans="1:12">
       <c r="A11">
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -3216,36 +3436,30 @@
         <v>0.3</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
-      </c>
-      <c r="L11" t="s">
-        <v>129</v>
-      </c>
-      <c r="M11" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11">
+        <v>146</v>
+      </c>
+      <c r="L11">
         <v>900</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:14">
+    <row r="12" customFormat="1" spans="1:12">
       <c r="A12">
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3266,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:14">
+        <v>147</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:12">
       <c r="A13">
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3297,22 +3511,16 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
-        <v>129</v>
-      </c>
-      <c r="M13" t="s">
-        <v>137</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:14">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:12">
       <c r="A14">
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -3335,22 +3543,16 @@
       <c r="K14">
         <v>2</v>
       </c>
-      <c r="L14" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" t="s">
-        <v>137</v>
-      </c>
-      <c r="N14">
+      <c r="L14">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3368,30 +3570,24 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J15">
         <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
-      </c>
-      <c r="L15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M15" t="s">
-        <v>141</v>
-      </c>
-      <c r="N15">
+        <v>149</v>
+      </c>
+      <c r="L15">
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -3409,30 +3605,24 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>300</v>
       </c>
       <c r="K16" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" t="s">
-        <v>142</v>
-      </c>
-      <c r="M16" t="s">
-        <v>130</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>143</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3450,30 +3640,24 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J17">
         <v>400</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
-      </c>
-      <c r="L17" t="s">
-        <v>129</v>
-      </c>
-      <c r="M17" t="s">
-        <v>133</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>145</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -3491,21 +3675,15 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="J18">
         <v>600</v>
       </c>
       <c r="K18" t="s">
-        <v>124</v>
-      </c>
-      <c r="L18" t="s">
-        <v>125</v>
-      </c>
-      <c r="M18" t="s">
-        <v>119</v>
-      </c>
-      <c r="N18">
+        <v>46</v>
+      </c>
+      <c r="L18">
         <v>300</v>
       </c>
     </row>
@@ -3531,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3542,7 +3720,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -3553,7 +3731,7 @@
         <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3564,7 +3742,7 @@
         <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -3575,7 +3753,7 @@
         <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>12</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="154">
   <si>
     <t>类型</t>
   </si>
@@ -46,6 +46,9 @@
     <t>选中音效</t>
   </si>
   <si>
+    <t>动画节点路径</t>
+  </si>
+  <si>
     <t>空闲动作</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>语音/是女声可爱版</t>
   </si>
   <si>
+    <t>wajueji_已绑定的模型</t>
+  </si>
+  <si>
     <t>TSCDth00</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>语音/zdrYes00</t>
   </si>
   <si>
+    <t>待机</t>
+  </si>
+  <si>
     <t>音效/zdrDth00</t>
   </si>
   <si>
@@ -151,6 +160,9 @@
     <t>活动单位/枪虫</t>
   </si>
   <si>
+    <t>甲壳虫500面带动作</t>
+  </si>
+  <si>
     <t>Root|待机.001</t>
   </si>
   <si>
@@ -166,6 +178,9 @@
     <t>活动单位/近战虫</t>
   </si>
   <si>
+    <t>蟑螂500面带动作</t>
+  </si>
+  <si>
     <t>Root.001|待机</t>
   </si>
   <si>
@@ -193,6 +208,9 @@
     <t>活动单位/绿色坦克</t>
   </si>
   <si>
+    <t>p_B_tank_01</t>
+  </si>
+  <si>
     <t>光刺</t>
   </si>
   <si>
@@ -217,6 +235,9 @@
     <t>活动单位/飞虫</t>
   </si>
   <si>
+    <t>飞虫-动作</t>
+  </si>
+  <si>
     <t>基地</t>
   </si>
   <si>
@@ -241,6 +262,9 @@
     <t>tacWht00</t>
   </si>
   <si>
+    <t>兵厂损毁</t>
+  </si>
+  <si>
     <t>EXPLOMED</t>
   </si>
   <si>
@@ -283,6 +307,9 @@
     <t>建筑/孵化场</t>
   </si>
   <si>
+    <t>虫巢死亡</t>
+  </si>
+  <si>
     <t>机场</t>
   </si>
   <si>
@@ -301,15 +328,15 @@
     <t>建筑/虫营</t>
   </si>
   <si>
+    <t>音效/zhyDth00</t>
+  </si>
+  <si>
     <t>飞塔</t>
   </si>
   <si>
     <t>建筑/飞塔</t>
   </si>
   <si>
-    <t>音效/zhyDth00</t>
-  </si>
-  <si>
     <t>枪怪</t>
   </si>
   <si>
@@ -337,9 +364,6 @@
     <t>入场语音</t>
   </si>
   <si>
-    <t>动画节点路径</t>
-  </si>
-  <si>
     <t>走路动作</t>
   </si>
   <si>
@@ -352,9 +376,6 @@
     <t>语音/工程车准备就绪女声可爱版</t>
   </si>
   <si>
-    <t>wajueji_已绑定的模型</t>
-  </si>
-  <si>
     <t>语音/明白女声可爱版</t>
   </si>
   <si>
@@ -379,33 +400,18 @@
     <t>语音/ZLaWht00</t>
   </si>
   <si>
-    <t>待机</t>
-  </si>
-  <si>
     <t>语音/飞机明白</t>
   </si>
   <si>
     <t>语音/zdrRdy00</t>
   </si>
   <si>
-    <t>甲壳虫500面带动作</t>
-  </si>
-  <si>
     <t>Root|走路.001</t>
   </si>
   <si>
-    <t>蟑螂500面带动作</t>
-  </si>
-  <si>
     <t>Root.001|走路</t>
   </si>
   <si>
-    <t>p_B_tank_01</t>
-  </si>
-  <si>
-    <t>飞虫-动作</t>
-  </si>
-  <si>
     <t xml:space="preserve">Root|走路.001 </t>
   </si>
   <si>
@@ -476,6 +482,9 @@
   </si>
   <si>
     <t>音效/LASERHIT</t>
+  </si>
+  <si>
+    <t>音效/DragBull</t>
   </si>
   <si>
     <t>pao002</t>
@@ -506,18 +515,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1130,17 +1139,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1453,23 +1462,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="6" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="6" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1491,257 +1501,279 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="1:3">
-      <c r="A2" s="4">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:3">
+      <c r="A2" s="3">
         <v>101</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:3">
-      <c r="A3" s="4">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:3">
+      <c r="A3" s="3">
         <v>102</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
       <c r="A10">
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:8">
       <c r="A11">
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1749,331 +1781,366 @@
         <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:8">
+      <c r="A17" s="1">
+        <v>301</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:8">
+      <c r="A18" s="1">
+        <v>302</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:8">
+      <c r="A19" s="1">
+        <v>303</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:8">
+      <c r="A20" s="1">
+        <v>304</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:8">
+      <c r="A21" s="1">
+        <v>305</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:8">
+      <c r="A22" s="1">
+        <v>306</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:8">
+      <c r="A23" s="1">
+        <v>307</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:8">
+      <c r="A24" s="1">
+        <v>308</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:8">
+      <c r="A25" s="1">
+        <v>309</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:8">
+      <c r="A26" s="1">
+        <v>310</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A27" s="3">
+        <v>401</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A28" s="3">
+        <v>402</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:7">
-      <c r="A17" s="2">
-        <v>301</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:7">
-      <c r="A18" s="2">
-        <v>302</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:7">
-      <c r="A19" s="2">
-        <v>303</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:7">
-      <c r="A20" s="2">
-        <v>304</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:7">
-      <c r="A21" s="2">
-        <v>305</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:7">
-      <c r="A22" s="2">
-        <v>306</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:7">
-      <c r="A23" s="2">
-        <v>307</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:7">
-      <c r="A24" s="2">
-        <v>308</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:7">
-      <c r="A25" s="2">
-        <v>309</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:7">
-      <c r="A26" s="2">
-        <v>310</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" spans="1:7">
-      <c r="A27" s="4">
-        <v>401</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="1" spans="1:7">
-      <c r="A28" s="4">
-        <v>402</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
         <v>45</v>
       </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="1:7">
-      <c r="A29" s="4">
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:8">
+      <c r="A29" s="3">
         <v>403</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
+      <c r="B29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2098,21 +2165,21 @@
     <col min="5" max="5" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>98</v>
+    <row r="1" s="2" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2120,7 +2187,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2137,7 +2204,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -2154,7 +2221,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -2171,7 +2238,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -2188,7 +2255,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2205,7 +2272,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -2222,7 +2289,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2239,7 +2306,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2256,7 +2323,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2273,7 +2340,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -2290,7 +2357,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2307,7 +2374,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -2324,7 +2391,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -2341,7 +2408,7 @@
         <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -2353,156 +2420,156 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:5">
-      <c r="A16" s="2">
+    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="A16" s="1">
         <v>302</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1">
         <v>25</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>9</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:5">
-      <c r="A17" s="2">
+    <row r="17" s="1" customFormat="1" spans="1:5">
+      <c r="A17" s="1">
         <v>303</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1">
         <v>20</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:5">
-      <c r="A18" s="2">
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18" s="1">
         <v>304</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1">
         <v>30</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>11</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:5">
-      <c r="A19" s="2">
+    <row r="19" s="1" customFormat="1" spans="1:5">
+      <c r="A19" s="1">
         <v>305</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="1">
         <v>25</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>8</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:5">
-      <c r="A20" s="2">
+    <row r="20" s="1" customFormat="1" spans="1:5">
+      <c r="A20" s="1">
         <v>306</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1">
         <v>35</v>
       </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:5">
-      <c r="A21" s="2">
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="1">
         <v>307</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="1">
         <v>35</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>12</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:5">
-      <c r="A22" s="2">
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="1">
         <v>308</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1">
         <v>35</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>12</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:5">
-      <c r="A23" s="2">
+    <row r="23" s="1" customFormat="1" spans="1:5">
+      <c r="A23" s="1">
         <v>309</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="1">
         <v>30</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>10</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:5">
-      <c r="A24" s="2">
+    <row r="24" s="1" customFormat="1" spans="1:5">
+      <c r="A24" s="1">
         <v>310</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="1">
         <v>30</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>10</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>120</v>
       </c>
     </row>
@@ -2528,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2539,7 +2606,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2550,7 +2617,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2561,7 +2628,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2572,7 +2639,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2583,7 +2650,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -2594,7 +2661,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2605,7 +2672,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2616,29 +2683,29 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>309</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>87</v>
+      <c r="B10" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>310</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>89</v>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -2654,258 +2721,237 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="4" width="30.75" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
       <c r="A11">
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -2913,104 +2959,89 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
       <c r="A13">
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
       <c r="A14">
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>402</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>403</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3025,10 +3056,10 @@
   <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L1" sqref="L$1:L$1048576"/>
+      <selection pane="topRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3065,37 +3096,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3103,7 +3134,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -3127,7 +3158,7 @@
         <v>400</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L2">
         <v>1500</v>
@@ -3138,7 +3169,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -3156,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -3173,7 +3204,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -3191,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -3208,7 +3239,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -3223,19 +3254,19 @@
         <v>0.1</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -3246,7 +3277,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -3264,13 +3295,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L6">
         <v>300</v>
@@ -3281,7 +3312,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -3299,13 +3330,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -3316,7 +3347,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3334,13 +3365,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -3351,7 +3382,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -3369,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -3386,7 +3417,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3404,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L10">
         <v>200</v>
@@ -3421,7 +3452,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -3436,19 +3467,19 @@
         <v>0.3</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L11">
         <v>900</v>
@@ -3459,7 +3490,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3480,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3491,7 +3522,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3520,7 +3551,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -3540,8 +3571,8 @@
       <c r="J14">
         <v>600</v>
       </c>
-      <c r="K14">
-        <v>2</v>
+      <c r="K14" t="s">
+        <v>150</v>
       </c>
       <c r="L14">
         <v>300</v>
@@ -3552,7 +3583,7 @@
         <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3570,13 +3601,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J15">
         <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L15">
         <v>400</v>
@@ -3587,7 +3618,7 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -3605,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J16">
         <v>300</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3622,7 +3653,7 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3640,13 +3671,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J17">
         <v>400</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3657,7 +3688,7 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -3675,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J18">
         <v>600</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L18">
         <v>300</v>
@@ -3709,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3720,7 +3751,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -3731,7 +3762,7 @@
         <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3742,7 +3773,7 @@
         <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -3753,7 +3784,7 @@
         <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>12</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="174">
   <si>
     <t>类型</t>
   </si>
@@ -115,6 +115,9 @@
     <t>died</t>
   </si>
   <si>
+    <t>TFbDth00</t>
+  </si>
+  <si>
     <t>三色坦克</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t>活动单位/枪虫</t>
   </si>
   <si>
+    <t>语音/zhyWht01</t>
+  </si>
+  <si>
     <t>甲壳虫500面带动作</t>
   </si>
   <si>
@@ -169,298 +175,352 @@
     <t>Root|死亡.001</t>
   </si>
   <si>
+    <t>音效/zhyDth00</t>
+  </si>
+  <si>
+    <t>近战虫</t>
+  </si>
+  <si>
+    <t>活动单位/近战虫</t>
+  </si>
+  <si>
+    <t>语音/ZZeWht00</t>
+  </si>
+  <si>
+    <t>蟑螂500面带动作</t>
+  </si>
+  <si>
+    <t>Root.001|待机</t>
+  </si>
+  <si>
+    <t>Root.001|死亡</t>
+  </si>
+  <si>
     <t>音效/ZZeDth00</t>
   </si>
   <si>
-    <t>近战虫</t>
-  </si>
-  <si>
-    <t>活动单位/近战虫</t>
-  </si>
-  <si>
-    <t>蟑螂500面带动作</t>
-  </si>
-  <si>
-    <t>Root.001|待机</t>
-  </si>
-  <si>
-    <t>Root.001|死亡</t>
+    <t>幼虫</t>
+  </si>
+  <si>
+    <t>活动单位/幼虫</t>
+  </si>
+  <si>
+    <t>语音/ZLaWht00</t>
+  </si>
+  <si>
+    <t>音效/ZLaDth00</t>
+  </si>
+  <si>
+    <t>绿色坦克</t>
+  </si>
+  <si>
+    <t>活动单位/绿色坦克</t>
+  </si>
+  <si>
+    <t>语音/ZLaPss00</t>
+  </si>
+  <si>
+    <t>p_B_tank_01</t>
+  </si>
+  <si>
+    <t>光刺</t>
+  </si>
+  <si>
+    <t>活动单位/光刺</t>
+  </si>
+  <si>
+    <t>房虫</t>
+  </si>
+  <si>
+    <t>活动单位/房虫</t>
+  </si>
+  <si>
+    <t>语音/zovWht00</t>
+  </si>
+  <si>
+    <t>骨架|stand</t>
+  </si>
+  <si>
+    <t>骨架|death</t>
+  </si>
+  <si>
+    <t>音效/zovDth00</t>
+  </si>
+  <si>
+    <t>飞虫</t>
+  </si>
+  <si>
+    <t>活动单位/飞虫</t>
+  </si>
+  <si>
+    <t>语音/zmuWht01</t>
+  </si>
+  <si>
+    <t>飞虫-动作</t>
+  </si>
+  <si>
+    <t>音效/zmuDth00</t>
+  </si>
+  <si>
+    <t>基地</t>
+  </si>
+  <si>
+    <t>建筑/基地</t>
+  </si>
+  <si>
+    <t>音效/BUTTON</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>explo4</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>建筑/兵厂</t>
+  </si>
+  <si>
+    <t>兵厂损毁</t>
+  </si>
+  <si>
+    <t>EXPLOMED</t>
+  </si>
+  <si>
+    <t>民房</t>
+  </si>
+  <si>
+    <t>建筑/民房</t>
+  </si>
+  <si>
+    <t>地堡</t>
+  </si>
+  <si>
+    <t>建筑/地堡</t>
+  </si>
+  <si>
+    <t>炮台</t>
+  </si>
+  <si>
+    <t>建筑/光子炮</t>
+  </si>
+  <si>
+    <t>平常状态</t>
+  </si>
+  <si>
+    <t>Take 001</t>
+  </si>
+  <si>
+    <t>音效/explo1</t>
+  </si>
+  <si>
+    <t>虫巢</t>
+  </si>
+  <si>
+    <t>建筑/孵化场</t>
+  </si>
+  <si>
+    <t>音效/zhaWht00</t>
+  </si>
+  <si>
+    <t>虫巢死亡</t>
+  </si>
+  <si>
+    <t>音效/ZBldgDth</t>
+  </si>
+  <si>
+    <t>机场</t>
+  </si>
+  <si>
+    <t>建筑/机场</t>
+  </si>
+  <si>
+    <t>重车厂</t>
+  </si>
+  <si>
+    <t>建筑/重工厂</t>
+  </si>
+  <si>
+    <t>虫营</t>
+  </si>
+  <si>
+    <t>建筑/虫营</t>
+  </si>
+  <si>
+    <t>音效/zspWht00</t>
+  </si>
+  <si>
+    <t>飞塔</t>
+  </si>
+  <si>
+    <t>建筑/飞塔</t>
+  </si>
+  <si>
+    <t>音效/zscWht00</t>
+  </si>
+  <si>
+    <t>枪怪</t>
+  </si>
+  <si>
+    <t>近战怪</t>
+  </si>
+  <si>
+    <t>工怪</t>
+  </si>
+  <si>
+    <t>枪兵怪</t>
+  </si>
+  <si>
+    <t>近战兵怪</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>消耗晶体矿</t>
+  </si>
+  <si>
+    <t>消耗燃气矿</t>
+  </si>
+  <si>
+    <t>初始HP</t>
+  </si>
+  <si>
+    <t>f半边长</t>
+  </si>
+  <si>
+    <t>入场语音</t>
+  </si>
+  <si>
+    <t>走路动作</t>
+  </si>
+  <si>
+    <t>普通走语音</t>
+  </si>
+  <si>
+    <t>强行走语音</t>
+  </si>
+  <si>
+    <t>语音/工程车准备就绪女声可爱版</t>
+  </si>
+  <si>
+    <t>语音/明白女声可爱版</t>
+  </si>
+  <si>
+    <t>语音/准备战斗男声正经版</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>语音/明白男声正经版</t>
+  </si>
+  <si>
+    <t>tfbRdy00</t>
+  </si>
+  <si>
+    <t>语音/ttardy00</t>
+  </si>
+  <si>
+    <t>语音/坦克明白</t>
+  </si>
+  <si>
+    <t>语音/飞机明白</t>
+  </si>
+  <si>
+    <t>语音/zhyRdy00</t>
+  </si>
+  <si>
+    <t>Root|走路.001</t>
+  </si>
+  <si>
+    <t>语音/zhyYes00</t>
+  </si>
+  <si>
+    <t>语音/zhyYes01</t>
+  </si>
+  <si>
+    <t>语音/ZZeRdy00</t>
+  </si>
+  <si>
+    <t>Root.001|走路</t>
+  </si>
+  <si>
+    <t>语音/ZZeYes00</t>
+  </si>
+  <si>
+    <t>语音/ZZeYes01</t>
+  </si>
+  <si>
+    <t>语音/zdrRdy00</t>
+  </si>
+  <si>
+    <t>语音/zovYes00</t>
+  </si>
+  <si>
+    <t>语音/zovYes01</t>
+  </si>
+  <si>
+    <t>语音/zmuYes00</t>
+  </si>
+  <si>
+    <t>语音/zmuYes01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root|走路.001 </t>
+  </si>
+  <si>
+    <t>f警戒距离</t>
+  </si>
+  <si>
+    <t>f攻击距离</t>
+  </si>
+  <si>
+    <t>i32伤害</t>
+  </si>
+  <si>
+    <t>f每帧移动距离</t>
+  </si>
+  <si>
+    <t>str前摇动作</t>
+  </si>
+  <si>
+    <t>dura开始播放攻击动作</t>
+  </si>
+  <si>
+    <t>str攻击动作</t>
+  </si>
+  <si>
+    <t>dura开始伤害</t>
+  </si>
+  <si>
+    <t>str攻击音效</t>
+  </si>
+  <si>
+    <t>dura后摇</t>
+  </si>
+  <si>
+    <t>音效/TScFir00</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>音效/TTaFir00</t>
+  </si>
+  <si>
+    <t>Tfrshoot</t>
+  </si>
+  <si>
+    <t>attack_loop</t>
+  </si>
+  <si>
+    <t>音效/TTaFi200</t>
   </si>
   <si>
     <t>音效/ZDrHit00</t>
-  </si>
-  <si>
-    <t>幼虫</t>
-  </si>
-  <si>
-    <t>活动单位/幼虫</t>
-  </si>
-  <si>
-    <t>语音/ZLaPss00</t>
-  </si>
-  <si>
-    <t>音效/ZLaDth00</t>
-  </si>
-  <si>
-    <t>绿色坦克</t>
-  </si>
-  <si>
-    <t>活动单位/绿色坦克</t>
-  </si>
-  <si>
-    <t>p_B_tank_01</t>
-  </si>
-  <si>
-    <t>光刺</t>
-  </si>
-  <si>
-    <t>活动单位/光刺</t>
-  </si>
-  <si>
-    <t>房虫</t>
-  </si>
-  <si>
-    <t>活动单位/房虫</t>
-  </si>
-  <si>
-    <t>骨架|stand</t>
-  </si>
-  <si>
-    <t>骨架|death</t>
-  </si>
-  <si>
-    <t>飞虫</t>
-  </si>
-  <si>
-    <t>活动单位/飞虫</t>
-  </si>
-  <si>
-    <t>飞虫-动作</t>
-  </si>
-  <si>
-    <t>基地</t>
-  </si>
-  <si>
-    <t>建筑/基地</t>
-  </si>
-  <si>
-    <t>tcsWht00</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>explo4</t>
-  </si>
-  <si>
-    <t>兵营</t>
-  </si>
-  <si>
-    <t>建筑/兵厂</t>
-  </si>
-  <si>
-    <t>tacWht00</t>
-  </si>
-  <si>
-    <t>兵厂损毁</t>
-  </si>
-  <si>
-    <t>EXPLOMED</t>
-  </si>
-  <si>
-    <t>民房</t>
-  </si>
-  <si>
-    <t>建筑/民房</t>
-  </si>
-  <si>
-    <t>tclWht00</t>
-  </si>
-  <si>
-    <t>地堡</t>
-  </si>
-  <si>
-    <t>建筑/地堡</t>
-  </si>
-  <si>
-    <t>音效/BUTTON</t>
-  </si>
-  <si>
-    <t>炮台</t>
-  </si>
-  <si>
-    <t>建筑/光子炮</t>
-  </si>
-  <si>
-    <t>平常状态</t>
-  </si>
-  <si>
-    <t>Take 001</t>
-  </si>
-  <si>
-    <t>音效/explo1</t>
-  </si>
-  <si>
-    <t>虫巢</t>
-  </si>
-  <si>
-    <t>建筑/孵化场</t>
-  </si>
-  <si>
-    <t>虫巢死亡</t>
-  </si>
-  <si>
-    <t>机场</t>
-  </si>
-  <si>
-    <t>建筑/机场</t>
-  </si>
-  <si>
-    <t>重车厂</t>
-  </si>
-  <si>
-    <t>建筑/重工厂</t>
-  </si>
-  <si>
-    <t>虫营</t>
-  </si>
-  <si>
-    <t>建筑/虫营</t>
-  </si>
-  <si>
-    <t>音效/zhyDth00</t>
-  </si>
-  <si>
-    <t>飞塔</t>
-  </si>
-  <si>
-    <t>建筑/飞塔</t>
-  </si>
-  <si>
-    <t>枪怪</t>
-  </si>
-  <si>
-    <t>近战怪</t>
-  </si>
-  <si>
-    <t>工怪</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>消耗晶体矿</t>
-  </si>
-  <si>
-    <t>消耗燃气矿</t>
-  </si>
-  <si>
-    <t>初始HP</t>
-  </si>
-  <si>
-    <t>f半边长</t>
-  </si>
-  <si>
-    <t>入场语音</t>
-  </si>
-  <si>
-    <t>走路动作</t>
-  </si>
-  <si>
-    <t>普通走语音</t>
-  </si>
-  <si>
-    <t>强行走语音</t>
-  </si>
-  <si>
-    <t>语音/工程车准备就绪女声可爱版</t>
-  </si>
-  <si>
-    <t>语音/明白女声可爱版</t>
-  </si>
-  <si>
-    <t>语音/准备战斗男声正经版</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>语音/明白男声正经版</t>
-  </si>
-  <si>
-    <t>tfbRdy00</t>
-  </si>
-  <si>
-    <t>语音/ttardy00</t>
-  </si>
-  <si>
-    <t>语音/坦克明白</t>
-  </si>
-  <si>
-    <t>语音/ZLaWht00</t>
-  </si>
-  <si>
-    <t>语音/飞机明白</t>
-  </si>
-  <si>
-    <t>语音/zdrRdy00</t>
-  </si>
-  <si>
-    <t>Root|走路.001</t>
-  </si>
-  <si>
-    <t>Root.001|走路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Root|走路.001 </t>
-  </si>
-  <si>
-    <t>f警戒距离</t>
-  </si>
-  <si>
-    <t>f攻击距离</t>
-  </si>
-  <si>
-    <t>i32伤害</t>
-  </si>
-  <si>
-    <t>f每帧移动距离</t>
-  </si>
-  <si>
-    <t>str前摇动作</t>
-  </si>
-  <si>
-    <t>dura开始播放攻击动作</t>
-  </si>
-  <si>
-    <t>str攻击动作</t>
-  </si>
-  <si>
-    <t>dura开始伤害</t>
-  </si>
-  <si>
-    <t>str攻击音效</t>
-  </si>
-  <si>
-    <t>dura后摇</t>
-  </si>
-  <si>
-    <t>音效/TScFir00</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>音效/TTaFir00</t>
-  </si>
-  <si>
-    <t>Tfrshoot</t>
-  </si>
-  <si>
-    <t>attack_loop</t>
-  </si>
-  <si>
-    <t>音效/TTaFi200</t>
   </si>
   <si>
     <t>TMaFir00</t>
@@ -682,13 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,10 +1202,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1462,14 +1522,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1505,25 +1565,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:3">
-      <c r="A2" s="3">
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1">
         <v>101</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:3">
-      <c r="A3" s="3">
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1">
         <v>102</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1566,7 +1626,6 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
@@ -1597,7 +1656,7 @@
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1605,22 +1664,22 @@
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1628,16 +1687,16 @@
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -1646,7 +1705,7 @@
         <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1654,13 +1713,13 @@
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -1669,7 +1728,7 @@
         <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:8">
@@ -1677,25 +1736,25 @@
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:8">
@@ -1703,25 +1762,25 @@
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1729,13 +1788,13 @@
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -1747,7 +1806,7 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1755,25 +1814,25 @@
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1781,10 +1840,10 @@
         <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1792,25 +1851,25 @@
         <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1818,329 +1877,375 @@
         <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:8">
-      <c r="A17" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:8">
+      <c r="A17" s="2">
         <v>301</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:8">
+      <c r="A18" s="2">
+        <v>302</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:8">
+      <c r="A19" s="2">
+        <v>303</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:8">
+      <c r="A20" s="2">
+        <v>304</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:8">
+      <c r="A21" s="2">
+        <v>305</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:8">
+      <c r="A22" s="2">
+        <v>306</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:8">
+      <c r="A23" s="2">
+        <v>307</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:8">
+      <c r="A24" s="2">
+        <v>308</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:8">
+      <c r="A25" s="2">
+        <v>309</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="G25" t="s">
         <v>69</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:8">
-      <c r="A18" s="1">
-        <v>302</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:8">
-      <c r="A19" s="1">
-        <v>303</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:8">
-      <c r="A20" s="1">
-        <v>304</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:8">
-      <c r="A21" s="1">
-        <v>305</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:8">
-      <c r="A22" s="1">
-        <v>306</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:8">
-      <c r="A23" s="1">
-        <v>307</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:8">
-      <c r="A24" s="1">
-        <v>308</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:8">
-      <c r="A25" s="1">
-        <v>309</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>64</v>
       </c>
       <c r="H25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:8">
-      <c r="A26" s="1">
+    <row r="26" s="2" customFormat="1" spans="1:8">
+      <c r="A26" s="2">
         <v>310</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
+      <c r="B26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A27" s="3">
+    <row r="27" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A27" s="1">
         <v>401</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A28" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A28" s="1">
         <v>402</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>47</v>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="1:8">
-      <c r="A29" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:8">
+      <c r="A29" s="1">
         <v>403</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G29" t="s">
         <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>404</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>405</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2165,21 +2270,21 @@
     <col min="5" max="5" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>107</v>
+    <row r="1" s="3" customFormat="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2238,7 +2343,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -2255,7 +2360,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2272,7 +2377,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -2289,7 +2394,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2306,7 +2411,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2323,7 +2428,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2340,7 +2445,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -2357,7 +2462,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2374,7 +2479,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -2391,7 +2496,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -2408,7 +2513,7 @@
         <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -2420,156 +2525,156 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="1">
+    <row r="16" s="2" customFormat="1" spans="1:5">
+      <c r="A16" s="2">
         <v>302</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2">
         <v>25</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>9</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="1">
+    <row r="17" s="2" customFormat="1" spans="1:5">
+      <c r="A17" s="2">
         <v>303</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2">
         <v>20</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="1">
+    <row r="18" s="2" customFormat="1" spans="1:5">
+      <c r="A18" s="2">
         <v>304</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="2">
         <v>30</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>11</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="1">
+    <row r="19" s="2" customFormat="1" spans="1:5">
+      <c r="A19" s="2">
         <v>305</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="2">
         <v>25</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>8</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="1">
+    <row r="20" s="2" customFormat="1" spans="1:5">
+      <c r="A20" s="2">
         <v>306</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="2">
         <v>35</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="1">
+    <row r="21" s="2" customFormat="1" spans="1:5">
+      <c r="A21" s="2">
         <v>307</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="2">
         <v>35</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>12</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="1">
+    <row r="22" s="2" customFormat="1" spans="1:5">
+      <c r="A22" s="2">
         <v>308</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2">
         <v>35</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>12</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="1">
+    <row r="23" s="2" customFormat="1" spans="1:5">
+      <c r="A23" s="2">
         <v>309</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2">
         <v>30</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="1">
+    <row r="24" s="2" customFormat="1" spans="1:5">
+      <c r="A24" s="2">
         <v>310</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="2">
         <v>30</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>10</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>120</v>
       </c>
     </row>
@@ -2595,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2606,7 +2711,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2617,7 +2722,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2628,7 +2733,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2639,7 +2744,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2650,7 +2755,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -2661,7 +2766,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2672,7 +2777,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2683,29 +2788,29 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>309</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>96</v>
+      <c r="B10" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>310</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>99</v>
+      <c r="B11" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -2721,10 +2826,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2739,19 +2844,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2762,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2771,7 +2876,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2782,16 +2887,16 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2802,16 +2907,16 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2819,19 +2924,19 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2839,19 +2944,19 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2859,19 +2964,19 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2879,19 +2984,19 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2899,19 +3004,19 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2919,19 +3024,19 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
@@ -2939,19 +3044,19 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -2959,7 +3064,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
@@ -2967,19 +3072,19 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -2987,19 +3092,19 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3007,13 +3112,13 @@
         <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3021,13 +3126,13 @@
         <v>402</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3035,13 +3140,53 @@
         <v>403</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>404</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>405</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3054,12 +3199,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K22" sqref="K22"/>
+      <selection pane="topRight" activeCell="C17" sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3096,37 +3241,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="K1" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="L1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3158,7 +3303,7 @@
         <v>400</v>
       </c>
       <c r="K2" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="L2">
         <v>1500</v>
@@ -3187,13 +3332,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -3222,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -3239,7 +3384,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -3260,13 +3405,13 @@
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -3277,7 +3422,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -3295,13 +3440,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="L6">
         <v>300</v>
@@ -3312,7 +3457,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -3330,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -3347,7 +3492,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3365,13 +3510,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -3382,7 +3527,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -3400,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -3417,7 +3562,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3435,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="L10">
         <v>200</v>
@@ -3452,7 +3597,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -3473,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="L11">
         <v>900</v>
@@ -3490,7 +3635,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3511,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3522,7 +3667,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3551,7 +3696,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -3572,7 +3717,7 @@
         <v>600</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L14">
         <v>300</v>
@@ -3583,7 +3728,7 @@
         <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3601,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="J15">
         <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L15">
         <v>400</v>
@@ -3618,16 +3763,16 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C16">
         <v>20</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>0.3</v>
@@ -3636,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="J16">
         <v>300</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3653,16 +3798,16 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>0.4</v>
@@ -3671,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="J17">
         <v>400</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3688,10 +3833,10 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -3706,16 +3851,86 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="J18">
         <v>600</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="L18">
         <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>404</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19">
+        <v>900</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>405</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20">
+        <v>600</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3727,23 +3942,23 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:C5"/>
+      <selection activeCell="C7" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3751,7 +3966,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -3762,7 +3977,7 @@
         <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3773,10 +3988,10 @@
         <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3784,10 +3999,32 @@
         <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>404</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>405</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="178">
   <si>
     <t>类型</t>
   </si>
@@ -64,6 +64,9 @@
     <t>资源/晶体矿</t>
   </si>
   <si>
+    <t>音效/BUTTON</t>
+  </si>
+  <si>
     <t>燃气矿</t>
   </si>
   <si>
@@ -139,7 +142,7 @@
     <t>活动单位/工虫</t>
   </si>
   <si>
-    <t>语音/zdrYes00</t>
+    <t>音效/zdrWht00</t>
   </si>
   <si>
     <t>待机</t>
@@ -163,7 +166,7 @@
     <t>活动单位/枪虫</t>
   </si>
   <si>
-    <t>语音/zhyWht01</t>
+    <t>音效/zhyWht01</t>
   </si>
   <si>
     <t>甲壳虫500面带动作</t>
@@ -184,7 +187,7 @@
     <t>活动单位/近战虫</t>
   </si>
   <si>
-    <t>语音/ZZeWht00</t>
+    <t>音效/ZZeWht00</t>
   </si>
   <si>
     <t>蟑螂500面带动作</t>
@@ -205,7 +208,7 @@
     <t>活动单位/幼虫</t>
   </si>
   <si>
-    <t>语音/ZLaWht00</t>
+    <t>音效/ZLaWht00</t>
   </si>
   <si>
     <t>音效/ZLaDth00</t>
@@ -217,7 +220,7 @@
     <t>活动单位/绿色坦克</t>
   </si>
   <si>
-    <t>语音/ZLaPss00</t>
+    <t>音效/ZLaPss00</t>
   </si>
   <si>
     <t>p_B_tank_01</t>
@@ -235,7 +238,7 @@
     <t>活动单位/房虫</t>
   </si>
   <si>
-    <t>语音/zovWht00</t>
+    <t>音效/zovWht00</t>
   </si>
   <si>
     <t>骨架|stand</t>
@@ -253,7 +256,7 @@
     <t>活动单位/飞虫</t>
   </si>
   <si>
-    <t>语音/zmuWht01</t>
+    <t>音效/zmuWht01</t>
   </si>
   <si>
     <t>飞虫-动作</t>
@@ -268,9 +271,6 @@
     <t>建筑/基地</t>
   </si>
   <si>
-    <t>音效/BUTTON</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
@@ -325,7 +325,7 @@
     <t>音效/zhaWht00</t>
   </si>
   <si>
-    <t>虫巢死亡</t>
+    <t>hatchery_skin</t>
   </si>
   <si>
     <t>音效/ZBldgDth</t>
@@ -427,46 +427,58 @@
     <t>语音/坦克明白</t>
   </si>
   <si>
+    <t>音效/zdrRdy00</t>
+  </si>
+  <si>
+    <t>音效/zdrYes00</t>
+  </si>
+  <si>
+    <t>音效/zdrYes01</t>
+  </si>
+  <si>
     <t>语音/飞机明白</t>
   </si>
   <si>
-    <t>语音/zhyRdy00</t>
+    <t>音效/zhyRdy00</t>
   </si>
   <si>
     <t>Root|走路.001</t>
   </si>
   <si>
-    <t>语音/zhyYes00</t>
-  </si>
-  <si>
-    <t>语音/zhyYes01</t>
-  </si>
-  <si>
-    <t>语音/ZZeRdy00</t>
+    <t>音效/zhyYes00</t>
+  </si>
+  <si>
+    <t>音效/zhyYes01</t>
+  </si>
+  <si>
+    <t>音效/ZZeRdy00</t>
   </si>
   <si>
     <t>Root.001|走路</t>
   </si>
   <si>
-    <t>语音/ZZeYes00</t>
-  </si>
-  <si>
-    <t>语音/ZZeYes01</t>
-  </si>
-  <si>
-    <t>语音/zdrRdy00</t>
-  </si>
-  <si>
-    <t>语音/zovYes00</t>
-  </si>
-  <si>
-    <t>语音/zovYes01</t>
-  </si>
-  <si>
-    <t>语音/zmuYes00</t>
-  </si>
-  <si>
-    <t>语音/zmuYes01</t>
+    <t>音效/ZZeYes00</t>
+  </si>
+  <si>
+    <t>音效/ZZeYes01</t>
+  </si>
+  <si>
+    <t>音效/zovRdy00</t>
+  </si>
+  <si>
+    <t>音效/zovYes00</t>
+  </si>
+  <si>
+    <t>音效/zovYes01</t>
+  </si>
+  <si>
+    <t>音效/zmuRdy00</t>
+  </si>
+  <si>
+    <t>音效/zmuYes00</t>
+  </si>
+  <si>
+    <t>音效/zmuYes01</t>
   </si>
   <si>
     <t xml:space="preserve">Root|走路.001 </t>
@@ -1529,7 +1541,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1565,7 +1577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -1575,16 +1587,22 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="1">
         <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1592,16 +1610,16 @@
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1610,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1618,22 +1636,22 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1641,22 +1659,22 @@
         <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1664,22 +1682,22 @@
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1687,25 +1705,25 @@
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1713,22 +1731,22 @@
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:8">
@@ -1736,25 +1754,25 @@
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:8">
@@ -1762,25 +1780,25 @@
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1788,25 +1806,25 @@
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1814,25 +1832,25 @@
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1840,10 +1858,10 @@
         <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1851,25 +1869,25 @@
         <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1877,25 +1895,25 @@
         <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:8">
@@ -1903,16 +1921,16 @@
         <v>301</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>79</v>
@@ -1932,10 +1950,10 @@
         <v>82</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>83</v>
@@ -1955,10 +1973,10 @@
         <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>84</v>
@@ -1975,14 +1993,14 @@
         <v>88</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>84</v>
@@ -1999,7 +2017,7 @@
         <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E21"/>
       <c r="F21" s="2" t="s">
@@ -2025,12 +2043,14 @@
       <c r="D22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E22"/>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="E22" t="s">
         <v>97</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>98</v>
@@ -2047,11 +2067,11 @@
         <v>100</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E23"/>
       <c r="F23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>84</v>
@@ -2068,11 +2088,11 @@
         <v>102</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E24"/>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>84</v>
@@ -2095,10 +2115,10 @@
         <v>103</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
         <v>98</v>
@@ -2121,10 +2141,10 @@
         <v>106</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H26" t="s">
         <v>98</v>
@@ -2138,19 +2158,19 @@
         <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="14.25" spans="1:8">
@@ -2161,19 +2181,19 @@
         <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:8">
@@ -2184,22 +2204,22 @@
         <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2210,19 +2230,19 @@
         <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2233,19 +2253,19 @@
         <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2292,7 +2312,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2309,7 +2329,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -2326,7 +2346,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -2343,7 +2363,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -2360,7 +2380,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2377,7 +2397,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -2394,7 +2414,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2411,7 +2431,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2428,7 +2448,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2445,7 +2465,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -2462,7 +2482,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2479,7 +2499,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -2496,7 +2516,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -2513,7 +2533,7 @@
         <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -2711,7 +2731,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2829,7 +2849,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2864,7 +2884,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -2873,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>124</v>
@@ -2884,7 +2904,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -2893,7 +2913,7 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>127</v>
@@ -2904,7 +2924,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>128</v>
@@ -2913,7 +2933,7 @@
         <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>127</v>
@@ -2924,7 +2944,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>129</v>
@@ -2933,7 +2953,7 @@
         <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>130</v>
@@ -2944,19 +2964,19 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
         <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2964,19 +2984,19 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2984,19 +3004,19 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3004,19 +3024,19 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3024,19 +3044,19 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
@@ -3044,19 +3064,19 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
         <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -3064,7 +3084,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
@@ -3072,19 +3092,19 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -3092,19 +3112,19 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3115,10 +3135,10 @@
         <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3129,10 +3149,10 @@
         <v>110</v>
       </c>
       <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
         <v>140</v>
-      </c>
-      <c r="D16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3143,7 +3163,7 @@
         <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
         <v>126</v>
@@ -3163,7 +3183,7 @@
         <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
         <v>127</v>
@@ -3183,7 +3203,7 @@
         <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -3204,7 +3224,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C17" sqref="A1:L20"/>
+      <selection pane="topRight" activeCell="D20" sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3244,34 +3264,34 @@
         <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3279,7 +3299,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -3303,7 +3323,7 @@
         <v>400</v>
       </c>
       <c r="K2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L2">
         <v>1500</v>
@@ -3314,7 +3334,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -3332,13 +3352,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -3349,7 +3369,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -3367,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -3384,7 +3404,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -3399,19 +3419,19 @@
         <v>0.1</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -3422,7 +3442,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -3440,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L6">
         <v>300</v>
@@ -3457,7 +3477,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -3475,13 +3495,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -3492,7 +3512,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3510,13 +3530,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -3527,7 +3547,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -3545,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -3562,7 +3582,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3580,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L10">
         <v>200</v>
@@ -3597,7 +3617,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -3612,19 +3632,19 @@
         <v>0.3</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L11">
         <v>900</v>
@@ -3635,7 +3655,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3656,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3667,7 +3687,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3696,7 +3716,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -3717,7 +3737,7 @@
         <v>600</v>
       </c>
       <c r="K14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L14">
         <v>300</v>
@@ -3746,13 +3766,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J15">
         <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L15">
         <v>400</v>
@@ -3766,10 +3786,10 @@
         <v>109</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -3781,13 +3801,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J16">
         <v>300</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3801,10 +3821,10 @@
         <v>110</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -3816,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J17">
         <v>400</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3836,10 +3856,10 @@
         <v>111</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -3851,13 +3871,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J18">
         <v>600</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L18">
         <v>300</v>
@@ -3886,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J19">
         <v>900</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L19">
         <v>100</v>
@@ -3921,13 +3941,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J20">
         <v>600</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -3958,7 +3978,7 @@
         <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3966,7 +3986,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>60</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -1536,7 +1536,7 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3221,10 +3221,10 @@
   <sheetPr/>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D20" sqref="A1:L20"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3302,10 +3302,10 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K2" t="s">
         <v>160</v>
       </c>
       <c r="L2">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="179">
   <si>
     <t>类型</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>近战兵怪</t>
+  </si>
+  <si>
+    <t>工程车怪</t>
   </si>
   <si>
     <t>备注</t>
@@ -1534,14 +1537,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1625,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -2266,6 +2269,32 @@
       </c>
       <c r="H31" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>406</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2295,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2710,7 +2739,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2720,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2846,10 +2875,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2864,19 +2893,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2887,7 +2916,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2896,7 +2925,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2907,16 +2936,16 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2927,16 +2956,16 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2947,16 +2976,16 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2967,16 +2996,16 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +3019,13 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3007,16 +3036,16 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3027,16 +3056,16 @@
         <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3050,7 +3079,7 @@
         <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
         <v>62</v>
@@ -3067,16 +3096,16 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -3095,16 +3124,16 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -3115,16 +3144,16 @@
         <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
         <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3135,10 +3164,10 @@
         <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3149,10 +3178,10 @@
         <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3163,10 +3192,10 @@
         <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3177,16 +3206,16 @@
         <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3197,16 +3226,36 @@
         <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>406</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3219,12 +3268,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="C21" sqref="C21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3261,37 +3310,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3323,7 +3372,7 @@
         <v>500</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -3352,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -3387,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -3425,13 +3474,13 @@
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -3460,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L6">
         <v>300</v>
@@ -3495,13 +3544,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -3530,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -3565,13 +3614,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -3600,13 +3649,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L10">
         <v>200</v>
@@ -3638,13 +3687,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L11">
         <v>900</v>
@@ -3676,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3737,7 +3786,7 @@
         <v>600</v>
       </c>
       <c r="K14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L14">
         <v>300</v>
@@ -3766,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J15">
         <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L15">
         <v>400</v>
@@ -3801,13 +3850,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J16">
         <v>300</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3836,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J17">
         <v>400</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3871,13 +3920,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J18">
         <v>600</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L18">
         <v>300</v>
@@ -3906,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J19">
         <v>900</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L19">
         <v>100</v>
@@ -3941,16 +3990,51 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J20">
         <v>600</v>
       </c>
       <c r="K20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L20">
         <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>406</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.4</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>500</v>
+      </c>
+      <c r="K21" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3962,23 +4046,23 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4045,6 +4129,17 @@
       </c>
       <c r="C7">
         <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>406</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -2309,8 +2309,8 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2554,7 +2554,7 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4048,7 +4048,7 @@
   <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="179">
   <si>
     <t>类型</t>
   </si>
@@ -1544,7 +1544,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:B32"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2309,8 +2309,8 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2739,7 +2739,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2878,7 +2878,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3273,7 +3273,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C21" sqref="C21:L21"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4046,13 +4046,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -4078,67 +4078,78 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>401</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
+        <v>402</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>403</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>111</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>404</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
+        <v>405</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
         <v>406</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>114</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>25</v>
       </c>
     </row>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="199">
   <si>
     <t>类型</t>
   </si>
@@ -58,6 +58,9 @@
     <t>str阵亡音效</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>晶体矿</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>TSCDth00</t>
   </si>
   <si>
+    <t>可采集资源，可建造建筑</t>
+  </si>
+  <si>
     <t>枪兵</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t>TMaDth00</t>
   </si>
   <si>
+    <t>远程攻击</t>
+  </si>
+  <si>
     <t>近战兵</t>
   </si>
   <si>
@@ -121,6 +130,9 @@
     <t>TFbDth00</t>
   </si>
   <si>
+    <t>近程攻击</t>
+  </si>
+  <si>
     <t>三色坦克</t>
   </si>
   <si>
@@ -136,6 +148,9 @@
     <t>音效/TTaDth00</t>
   </si>
   <si>
+    <t>超远距离范围攻击，前摇较长，克制炮台。爆炸溅射可能会伤害己方单位。</t>
+  </si>
+  <si>
     <t>工虫</t>
   </si>
   <si>
@@ -151,6 +166,9 @@
     <t>音效/zdrDth00</t>
   </si>
   <si>
+    <t>可采集资源，可变成建筑</t>
+  </si>
+  <si>
     <t>飞机</t>
   </si>
   <si>
@@ -160,6 +178,9 @@
     <t>音效/飞机声</t>
   </si>
   <si>
+    <t>可飞越障碍物</t>
+  </si>
+  <si>
     <t>枪虫</t>
   </si>
   <si>
@@ -214,6 +235,9 @@
     <t>音效/ZLaDth00</t>
   </si>
   <si>
+    <t>可蜕变为其它活动单位</t>
+  </si>
+  <si>
     <t>绿色坦克</t>
   </si>
   <si>
@@ -226,6 +250,9 @@
     <t>p_B_tank_01</t>
   </si>
   <si>
+    <t>超远距离发射光刺，光刺会遭到障碍物阻挡。</t>
+  </si>
+  <si>
     <t>光刺</t>
   </si>
   <si>
@@ -250,6 +277,9 @@
     <t>音效/zovDth00</t>
   </si>
   <si>
+    <t>可增加活动单位上限</t>
+  </si>
+  <si>
     <t>飞虫</t>
   </si>
   <si>
@@ -265,6 +295,9 @@
     <t>音效/zmuDth00</t>
   </si>
   <si>
+    <t>可飞跃障碍物</t>
+  </si>
+  <si>
     <t>基地</t>
   </si>
   <si>
@@ -277,6 +310,9 @@
     <t>explo4</t>
   </si>
   <si>
+    <t>可产出工程车</t>
+  </si>
+  <si>
     <t>兵营</t>
   </si>
   <si>
@@ -289,6 +325,9 @@
     <t>EXPLOMED</t>
   </si>
   <si>
+    <t>可产出枪兵和近战兵</t>
+  </si>
+  <si>
     <t>民房</t>
   </si>
   <si>
@@ -301,6 +340,9 @@
     <t>建筑/地堡</t>
   </si>
   <si>
+    <t>高HP，可派遣步兵进入地堡</t>
+  </si>
+  <si>
     <t>炮台</t>
   </si>
   <si>
@@ -316,6 +358,9 @@
     <t>音效/explo1</t>
   </si>
   <si>
+    <t>克制除了坦克以外的一切单位</t>
+  </si>
+  <si>
     <t>虫巢</t>
   </si>
   <si>
@@ -331,18 +376,27 @@
     <t>音效/ZBldgDth</t>
   </si>
   <si>
+    <t>可产出幼虫</t>
+  </si>
+  <si>
     <t>机场</t>
   </si>
   <si>
     <t>建筑/机场</t>
   </si>
   <si>
+    <t>可产出飞机</t>
+  </si>
+  <si>
     <t>重车厂</t>
   </si>
   <si>
     <t>建筑/重工厂</t>
   </si>
   <si>
+    <t>可产出三色坦克</t>
+  </si>
+  <si>
     <t>虫营</t>
   </si>
   <si>
@@ -352,6 +406,9 @@
     <t>音效/zspWht00</t>
   </si>
   <si>
+    <t>近战虫和枪虫的前置建筑</t>
+  </si>
+  <si>
     <t>飞塔</t>
   </si>
   <si>
@@ -359,6 +416,9 @@
   </si>
   <si>
     <t>音效/zscWht00</t>
+  </si>
+  <si>
+    <t>飞虫的前置建筑</t>
   </si>
   <si>
     <t>枪怪</t>
@@ -1537,24 +1597,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:B13"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="7" width="14.625" customWidth="1"/>
+    <col min="6" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1578,6 +1639,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -1585,13 +1649,13 @@
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
@@ -1599,30 +1663,30 @@
         <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1631,229 +1695,259 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:9">
       <c r="A10">
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:9">
       <c r="A11">
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>55</v>
+      <c r="I13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1861,193 +1955,214 @@
         <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:9">
       <c r="A17" s="2">
         <v>301</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:9">
       <c r="A18" s="2">
         <v>302</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:9">
       <c r="A19" s="2">
         <v>303</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:9">
       <c r="A20" s="2">
         <v>304</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:9">
       <c r="A21" s="2">
         <v>305</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21"/>
       <c r="F21" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:9">
       <c r="A22" s="2">
         <v>306</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2056,101 +2171,116 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:9">
       <c r="A23" s="2">
         <v>307</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23"/>
       <c r="F23" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:9">
       <c r="A24" s="2">
         <v>308</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24"/>
       <c r="F24" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:9">
       <c r="A25" s="2">
         <v>309</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:9">
       <c r="A26" s="2">
         <v>310</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>113</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="14.25" spans="1:8">
@@ -2158,22 +2288,22 @@
         <v>401</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="14.25" spans="1:8">
@@ -2181,22 +2311,22 @@
         <v>402</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:8">
@@ -2204,25 +2334,25 @@
         <v>403</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2230,22 +2360,22 @@
         <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2253,22 +2383,22 @@
         <v>405</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2276,16 +2406,16 @@
         <v>406</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2294,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2324,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2341,7 +2471,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2358,7 +2488,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -2375,7 +2505,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -2392,7 +2522,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -2409,7 +2539,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2426,7 +2556,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -2443,7 +2573,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2460,7 +2590,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2477,7 +2607,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2494,7 +2624,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -2511,7 +2641,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2528,7 +2658,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -2545,7 +2675,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -2562,7 +2692,7 @@
         <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -2579,7 +2709,7 @@
         <v>302</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2">
         <v>25</v>
@@ -2596,7 +2726,7 @@
         <v>303</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -2613,7 +2743,7 @@
         <v>304</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2">
         <v>30</v>
@@ -2630,7 +2760,7 @@
         <v>305</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2">
         <v>25</v>
@@ -2647,7 +2777,7 @@
         <v>306</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2">
         <v>35</v>
@@ -2664,7 +2794,7 @@
         <v>307</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2">
         <v>35</v>
@@ -2681,7 +2811,7 @@
         <v>308</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C22" s="2">
         <v>35</v>
@@ -2698,7 +2828,7 @@
         <v>309</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C23" s="2">
         <v>30</v>
@@ -2715,7 +2845,7 @@
         <v>310</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C24" s="2">
         <v>30</v>
@@ -2749,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2760,7 +2890,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2771,7 +2901,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2782,7 +2912,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2793,7 +2923,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2804,7 +2934,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -2815,7 +2945,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2826,7 +2956,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2837,7 +2967,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2848,7 +2978,7 @@
         <v>309</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -2859,7 +2989,7 @@
         <v>310</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -2893,19 +3023,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2913,19 +3043,19 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2933,19 +3063,19 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2953,19 +3083,19 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2973,19 +3103,19 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2993,19 +3123,19 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3013,19 +3143,19 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3033,19 +3163,19 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3053,19 +3183,19 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3073,19 +3203,19 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
@@ -3093,19 +3223,19 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -3113,7 +3243,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
@@ -3121,19 +3251,19 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -3141,19 +3271,19 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3161,13 +3291,13 @@
         <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3175,13 +3305,13 @@
         <v>402</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3189,13 +3319,13 @@
         <v>403</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3203,19 +3333,19 @@
         <v>404</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3223,19 +3353,19 @@
         <v>405</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3243,19 +3373,19 @@
         <v>406</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3310,37 +3440,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="I1" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="J1" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="K1" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3348,7 +3478,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -3372,7 +3502,7 @@
         <v>500</v>
       </c>
       <c r="K2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -3383,7 +3513,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -3401,13 +3531,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J3">
         <v>900</v>
       </c>
       <c r="K3" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -3418,7 +3548,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -3436,13 +3566,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -3453,7 +3583,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -3468,19 +3598,19 @@
         <v>0.1</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>5000</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -3491,7 +3621,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -3509,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="L6">
         <v>300</v>
@@ -3526,7 +3656,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -3544,13 +3674,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -3561,7 +3691,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3579,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J8">
         <v>600</v>
       </c>
       <c r="K8" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -3596,7 +3726,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -3614,13 +3744,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -3631,7 +3761,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3649,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="L10">
         <v>200</v>
@@ -3666,7 +3796,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -3681,19 +3811,19 @@
         <v>0.3</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L11">
         <v>900</v>
@@ -3704,7 +3834,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3725,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3736,7 +3866,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3765,7 +3895,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -3786,7 +3916,7 @@
         <v>600</v>
       </c>
       <c r="K14" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L14">
         <v>300</v>
@@ -3797,7 +3927,7 @@
         <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3815,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J15">
         <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="L15">
         <v>400</v>
@@ -3832,7 +3962,7 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -3850,13 +3980,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J16">
         <v>300</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3867,7 +3997,7 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -3885,13 +4015,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J17">
         <v>400</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3902,7 +4032,7 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -3920,13 +4050,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J18">
         <v>600</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="L18">
         <v>300</v>
@@ -3937,7 +4067,7 @@
         <v>404</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -3955,13 +4085,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J19">
         <v>900</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="L19">
         <v>100</v>
@@ -3972,7 +4102,7 @@
         <v>405</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -3990,13 +4120,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J20">
         <v>600</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -4007,7 +4137,7 @@
         <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -4031,7 +4161,7 @@
         <v>500</v>
       </c>
       <c r="K21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="L21">
         <v>500</v>
@@ -4048,7 +4178,7 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4059,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4070,7 +4200,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -4081,7 +4211,7 @@
         <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -4092,7 +4222,7 @@
         <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -4103,7 +4233,7 @@
         <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -4114,7 +4244,7 @@
         <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4125,7 +4255,7 @@
         <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -4136,7 +4266,7 @@
         <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -4147,7 +4277,7 @@
         <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C9">
         <v>25</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="204">
   <si>
     <t>类型</t>
   </si>
@@ -421,6 +421,15 @@
     <t>飞虫的前置建筑</t>
   </si>
   <si>
+    <t>拟态源</t>
+  </si>
+  <si>
+    <t>建筑/拟态源</t>
+  </si>
+  <si>
+    <t>绿色坦克的前置建筑</t>
+  </si>
+  <si>
     <t>枪怪</t>
   </si>
   <si>
@@ -554,6 +563,12 @@
   </si>
   <si>
     <t>i32伤害</t>
+  </si>
+  <si>
+    <t>i32攻击</t>
+  </si>
+  <si>
+    <t>i32防御</t>
   </si>
   <si>
     <t>f每帧移动距离</t>
@@ -1597,14 +1612,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2283,147 +2298,167 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A27" s="1">
-        <v>401</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="27" s="2" customFormat="1" spans="1:9">
+      <c r="A27" s="2">
+        <v>311</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" t="s">
-        <v>55</v>
+      <c r="C27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A28" s="1">
+        <v>401</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A29" s="1">
         <v>402</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>61</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:8">
-      <c r="A29" s="1">
+    <row r="30" s="1" customFormat="1" spans="1:8">
+      <c r="A30" s="1">
         <v>403</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>41</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>30</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>404</v>
-      </c>
-      <c r="B30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
         <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
+        <v>405</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
         <v>406</v>
       </c>
-      <c r="B32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>17</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>3</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2437,10 +2472,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2454,16 +2489,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2837,7 +2872,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:5">
@@ -2854,6 +2889,23 @@
         <v>10</v>
       </c>
       <c r="E24" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>311</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
         <v>120</v>
       </c>
     </row>
@@ -2866,10 +2918,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2879,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2993,6 +3045,17 @@
       </c>
       <c r="C11">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>311</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3023,19 +3086,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3046,7 +3109,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3055,7 +3118,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3066,16 +3129,16 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3086,16 +3149,16 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3106,16 +3169,16 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
         <v>150</v>
-      </c>
-      <c r="D5" t="s">
-        <v>147</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3126,16 +3189,16 @@
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3149,13 +3212,13 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3166,16 +3229,16 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3186,16 +3249,16 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3209,7 +3272,7 @@
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
         <v>70</v>
@@ -3226,16 +3289,16 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -3254,16 +3317,16 @@
         <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -3274,16 +3337,16 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3291,13 +3354,13 @@
         <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3305,13 +3368,13 @@
         <v>402</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3319,13 +3382,13 @@
         <v>403</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3333,19 +3396,19 @@
         <v>404</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3353,19 +3416,19 @@
         <v>405</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3373,10 +3436,10 @@
         <v>406</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3385,7 +3448,7 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3398,12 +3461,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H4" sqref="H4"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3411,69 +3474,75 @@
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
     <col min="3" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="19.625" customWidth="1"/>
-    <col min="14" max="14" width="21.625" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="18" max="18" width="6.375" customWidth="1"/>
-    <col min="20" max="20" width="2.375" customWidth="1"/>
-    <col min="22" max="22" width="4.375" customWidth="1"/>
-    <col min="26" max="26" width="8.375" customWidth="1"/>
-    <col min="28" max="28" width="7.375" customWidth="1"/>
-    <col min="29" max="29" width="10.375" customWidth="1"/>
+    <col min="5" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="9.125" customWidth="1"/>
+    <col min="15" max="15" width="19.625" customWidth="1"/>
+    <col min="16" max="16" width="21.625" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="19" max="19" width="26" customWidth="1"/>
+    <col min="20" max="20" width="6.375" customWidth="1"/>
+    <col min="22" max="22" width="2.375" customWidth="1"/>
+    <col min="24" max="24" width="4.375" customWidth="1"/>
+    <col min="28" max="28" width="8.375" customWidth="1"/>
+    <col min="30" max="30" width="7.375" customWidth="1"/>
     <col min="31" max="31" width="10.375" customWidth="1"/>
-    <col min="33" max="33" width="6.375" customWidth="1"/>
-    <col min="34" max="34" width="8.375" customWidth="1"/>
-    <col min="35" max="35" width="12.625" customWidth="1"/>
+    <col min="33" max="33" width="10.375" customWidth="1"/>
+    <col min="35" max="35" width="6.375" customWidth="1"/>
+    <col min="36" max="36" width="8.375" customWidth="1"/>
+    <col min="37" max="37" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>183</v>
+      </c>
+      <c r="M1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>201</v>
       </c>
@@ -3490,25 +3559,31 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0.4</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>500</v>
-      </c>
-      <c r="K2" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>202</v>
       </c>
@@ -3525,25 +3600,31 @@
         <v>3</v>
       </c>
       <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0.5</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>182</v>
-      </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3">
         <v>900</v>
       </c>
-      <c r="K3" t="s">
-        <v>183</v>
-      </c>
-      <c r="L3">
+      <c r="M3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>203</v>
       </c>
@@ -3560,25 +3641,31 @@
         <v>5</v>
       </c>
       <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0.6</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>182</v>
-      </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4">
         <v>600</v>
       </c>
-      <c r="K4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4">
+      <c r="M4" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>204</v>
       </c>
@@ -3595,28 +3682,34 @@
         <v>30</v>
       </c>
       <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>5000</v>
       </c>
-      <c r="I5" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5">
+      <c r="K5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5">
         <v>300</v>
       </c>
-      <c r="K5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L5">
+      <c r="M5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>205</v>
       </c>
@@ -3633,25 +3726,31 @@
         <v>1</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0.5</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>182</v>
-      </c>
       <c r="J6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>187</v>
       </c>
       <c r="L6">
+        <v>500</v>
+      </c>
+      <c r="M6" t="s">
+        <v>192</v>
+      </c>
+      <c r="N6">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>206</v>
       </c>
@@ -3668,25 +3767,31 @@
         <v>5</v>
       </c>
       <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>0.8</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>182</v>
-      </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7">
         <v>500</v>
       </c>
-      <c r="K7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L7">
+      <c r="M7" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>207</v>
       </c>
@@ -3703,25 +3808,31 @@
         <v>4</v>
       </c>
       <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0.6</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>189</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8">
         <v>600</v>
       </c>
-      <c r="K8" t="s">
-        <v>190</v>
-      </c>
-      <c r="L8">
+      <c r="M8" t="s">
+        <v>195</v>
+      </c>
+      <c r="N8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>208</v>
       </c>
@@ -3738,25 +3849,31 @@
         <v>6</v>
       </c>
       <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0.7</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>191</v>
-      </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9">
         <v>500</v>
       </c>
-      <c r="K9" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9">
+      <c r="M9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>209</v>
       </c>
@@ -3773,25 +3890,31 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0.1</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>182</v>
-      </c>
       <c r="J10">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
         <v>187</v>
       </c>
       <c r="L10">
+        <v>600</v>
+      </c>
+      <c r="M10" t="s">
+        <v>192</v>
+      </c>
+      <c r="N10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:12">
+    <row r="11" customFormat="1" spans="1:14">
       <c r="A11">
         <v>210</v>
       </c>
@@ -3808,28 +3931,34 @@
         <v>1</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>0.3</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>23</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>185</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11">
         <v>500</v>
       </c>
-      <c r="K11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L11">
+      <c r="M11" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11">
         <v>900</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:12">
+    <row r="12" customFormat="1" spans="1:14">
       <c r="A12">
         <v>211</v>
       </c>
@@ -3846,22 +3975,28 @@
         <v>6</v>
       </c>
       <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0.6</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>194</v>
-      </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:12">
+      <c r="M12" t="s">
+        <v>199</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:14">
       <c r="A13">
         <v>212</v>
       </c>
@@ -3878,19 +4013,25 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0.1</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:12">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:14">
       <c r="A14">
         <v>213</v>
       </c>
@@ -3907,22 +4048,28 @@
         <v>3</v>
       </c>
       <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>0.8</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>600</v>
       </c>
-      <c r="K14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L14">
+      <c r="M14" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>305</v>
       </c>
@@ -3939,30 +4086,36 @@
         <v>4</v>
       </c>
       <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>196</v>
-      </c>
       <c r="J15">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L15">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" t="s">
+        <v>202</v>
+      </c>
+      <c r="N15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -3974,30 +4127,36 @@
         <v>4</v>
       </c>
       <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0.3</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>189</v>
-      </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16">
         <v>300</v>
       </c>
-      <c r="K16" t="s">
-        <v>190</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" t="s">
+        <v>195</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -4009,30 +4168,36 @@
         <v>6</v>
       </c>
       <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0.4</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>191</v>
-      </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17">
         <v>400</v>
       </c>
-      <c r="K17" t="s">
-        <v>192</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" t="s">
+        <v>197</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -4044,30 +4209,36 @@
         <v>2</v>
       </c>
       <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>0.5</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>182</v>
-      </c>
       <c r="J18">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>187</v>
       </c>
       <c r="L18">
+        <v>600</v>
+      </c>
+      <c r="M18" t="s">
+        <v>192</v>
+      </c>
+      <c r="N18">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>404</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -4079,30 +4250,36 @@
         <v>3</v>
       </c>
       <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0.5</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>182</v>
-      </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19">
         <v>900</v>
       </c>
-      <c r="K19" t="s">
-        <v>183</v>
-      </c>
-      <c r="L19">
+      <c r="M19" t="s">
+        <v>188</v>
+      </c>
+      <c r="N19">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>405</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -4114,30 +4291,36 @@
         <v>5</v>
       </c>
       <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0.6</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>182</v>
-      </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20">
         <v>600</v>
       </c>
-      <c r="K20" t="s">
-        <v>184</v>
-      </c>
-      <c r="L20">
+      <c r="M20" t="s">
+        <v>189</v>
+      </c>
+      <c r="N20">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -4149,21 +4332,27 @@
         <v>1</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0.4</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>500</v>
       </c>
-      <c r="K21" t="s">
-        <v>181</v>
-      </c>
-      <c r="L21">
+      <c r="M21" t="s">
+        <v>186</v>
+      </c>
+      <c r="N21">
         <v>500</v>
       </c>
     </row>
@@ -4189,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4222,7 +4411,7 @@
         <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -4233,7 +4422,7 @@
         <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -4244,7 +4433,7 @@
         <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4255,7 +4444,7 @@
         <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -4266,7 +4455,7 @@
         <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -4277,7 +4466,7 @@
         <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <v>25</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="活动单位" sheetId="2" r:id="rId4"/>
     <sheet name="战斗" sheetId="5" r:id="rId5"/>
     <sheet name="怪" sheetId="7" r:id="rId6"/>
+    <sheet name="单位属性等级" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="207">
   <si>
     <t>类型</t>
   </si>
@@ -644,6 +645,15 @@
   </si>
   <si>
     <t>u16初始Hp</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>加数值</t>
   </si>
 </sst>
 </file>
@@ -656,10 +666,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1155,150 +1173,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1619,7 +1643,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:B27"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1659,31 +1683,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" s="3" customFormat="1" spans="1:4">
+      <c r="A2" s="3">
         <v>101</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="1">
+    <row r="3" s="3" customFormat="1" spans="1:4">
+      <c r="A3" s="3">
         <v>102</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1862,7 +1886,7 @@
       <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F10" t="s">
@@ -1891,7 +1915,7 @@
       <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F11" t="s">
@@ -2034,123 +2058,123 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:9">
-      <c r="A17" s="2">
+    <row r="17" s="4" customFormat="1" spans="1:9">
+      <c r="A17" s="4">
         <v>301</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:9">
-      <c r="A18" s="2">
+    <row r="18" s="4" customFormat="1" spans="1:9">
+      <c r="A18" s="4">
         <v>302</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:9">
-      <c r="A19" s="2">
+    <row r="19" s="4" customFormat="1" spans="1:9">
+      <c r="A19" s="4">
         <v>303</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:9">
-      <c r="A20" s="2">
+    <row r="20" s="4" customFormat="1" spans="1:9">
+      <c r="A20" s="4">
         <v>304</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E20"/>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:9">
-      <c r="A21" s="2">
+    <row r="21" s="4" customFormat="1" spans="1:9">
+      <c r="A21" s="4">
         <v>305</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E21"/>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>105</v>
       </c>
       <c r="G21" t="s">
@@ -2159,104 +2183,104 @@
       <c r="H21" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:9">
-      <c r="A22" s="2">
+    <row r="22" s="4" customFormat="1" spans="1:9">
+      <c r="A22" s="4">
         <v>306</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E22" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
         <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:9">
-      <c r="A23" s="2">
+    <row r="23" s="4" customFormat="1" spans="1:9">
+      <c r="A23" s="4">
         <v>307</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E23"/>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:9">
-      <c r="A24" s="2">
+    <row r="24" s="4" customFormat="1" spans="1:9">
+      <c r="A24" s="4">
         <v>308</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E24"/>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:9">
-      <c r="A25" s="2">
+    <row r="25" s="4" customFormat="1" spans="1:9">
+      <c r="A25" s="4">
         <v>309</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E25" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G25" t="s">
@@ -2265,27 +2289,27 @@
       <c r="H25" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:9">
-      <c r="A26" s="2">
+    <row r="26" s="4" customFormat="1" spans="1:9">
+      <c r="A26" s="4">
         <v>310</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E26" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G26" t="s">
@@ -2294,44 +2318,44 @@
       <c r="H26" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:9">
-      <c r="A27" s="2">
+    <row r="27" s="4" customFormat="1" spans="1:9">
+      <c r="A27" s="4">
         <v>311</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A28" s="1">
+    <row r="28" s="3" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A28" s="3">
         <v>401</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G28" t="s">
@@ -2341,20 +2365,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A29" s="1">
+    <row r="29" s="3" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A29" s="3">
         <v>402</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G29" t="s">
@@ -2364,14 +2388,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:8">
-      <c r="A30" s="1">
+    <row r="30" s="3" customFormat="1" spans="1:8">
+      <c r="A30" s="3">
         <v>403</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
@@ -2380,7 +2404,7 @@
       <c r="E30" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G30" t="s">
@@ -2391,7 +2415,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>404</v>
       </c>
       <c r="B31" t="s">
@@ -2414,7 +2438,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>405</v>
       </c>
       <c r="B32" t="s">
@@ -2437,7 +2461,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>406</v>
       </c>
       <c r="B33" t="s">
@@ -2484,20 +2508,20 @@
     <col min="5" max="5" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2739,164 +2763,164 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:5">
-      <c r="A16" s="2">
+    <row r="16" s="4" customFormat="1" spans="1:5">
+      <c r="A16" s="4">
         <v>302</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>25</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>9</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:5">
-      <c r="A17" s="2">
+    <row r="17" s="4" customFormat="1" spans="1:5">
+      <c r="A17" s="4">
         <v>303</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>20</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>3</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:5">
-      <c r="A18" s="2">
+    <row r="18" s="4" customFormat="1" spans="1:5">
+      <c r="A18" s="4">
         <v>304</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>30</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>11</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>350</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:5">
-      <c r="A19" s="2">
+    <row r="19" s="4" customFormat="1" spans="1:5">
+      <c r="A19" s="4">
         <v>305</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>25</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>8</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:5">
-      <c r="A20" s="2">
+    <row r="20" s="4" customFormat="1" spans="1:5">
+      <c r="A20" s="4">
         <v>306</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>35</v>
       </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:5">
-      <c r="A21" s="2">
+    <row r="21" s="4" customFormat="1" spans="1:5">
+      <c r="A21" s="4">
         <v>307</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>35</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>12</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:5">
-      <c r="A22" s="2">
+    <row r="22" s="4" customFormat="1" spans="1:5">
+      <c r="A22" s="4">
         <v>308</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>35</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>12</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:5">
-      <c r="A23" s="2">
+    <row r="23" s="4" customFormat="1" spans="1:5">
+      <c r="A23" s="4">
         <v>309</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>30</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>10</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:5">
-      <c r="A24" s="2">
+    <row r="24" s="4" customFormat="1" spans="1:5">
+      <c r="A24" s="4">
         <v>310</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>30</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>10</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>311</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C25">
@@ -2920,7 +2944,7 @@
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3026,10 +3050,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>309</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C10">
@@ -3037,10 +3061,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>310</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C11">
@@ -3048,10 +3072,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>311</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C12">
@@ -3392,7 +3416,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>404</v>
       </c>
       <c r="B18" t="s">
@@ -3412,7 +3436,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>405</v>
       </c>
       <c r="B19" t="s">
@@ -3432,7 +3456,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>406</v>
       </c>
       <c r="B20" t="s">
@@ -3466,7 +3490,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4234,7 +4258,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>404</v>
       </c>
       <c r="B19" t="s">
@@ -4275,7 +4299,7 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>405</v>
       </c>
       <c r="B20" t="s">
@@ -4316,7 +4340,7 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>406</v>
       </c>
       <c r="B21" t="s">
@@ -4440,7 +4464,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>404</v>
       </c>
       <c r="B7" t="s">
@@ -4451,7 +4475,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>405</v>
       </c>
       <c r="B8" t="s">
@@ -4462,7 +4486,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>406</v>
       </c>
       <c r="B9" t="s">
@@ -4470,6 +4494,74 @@
       </c>
       <c r="C9">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="战斗" sheetId="5" r:id="rId5"/>
     <sheet name="怪" sheetId="7" r:id="rId6"/>
     <sheet name="单位属性等级" sheetId="8" r:id="rId7"/>
+    <sheet name="单位解锁" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="207">
   <si>
     <t>类型</t>
   </si>
@@ -677,7 +678,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="4"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -685,7 +686,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1310,16 +1311,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1643,7 +1644,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:B11"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1683,31 +1684,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" s="4" customFormat="1" spans="1:4">
+      <c r="A2" s="4">
         <v>101</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:4">
-      <c r="A3" s="3">
+    <row r="3" s="4" customFormat="1" spans="1:4">
+      <c r="A3" s="4">
         <v>102</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2058,123 +2059,123 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:9">
-      <c r="A17" s="4">
+    <row r="17" s="5" customFormat="1" spans="1:9">
+      <c r="A17" s="5">
         <v>301</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:9">
-      <c r="A18" s="4">
+    <row r="18" s="5" customFormat="1" spans="1:9">
+      <c r="A18" s="5">
         <v>302</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:9">
-      <c r="A19" s="4">
+    <row r="19" s="5" customFormat="1" spans="1:9">
+      <c r="A19" s="5">
         <v>303</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:9">
-      <c r="A20" s="4">
+    <row r="20" s="5" customFormat="1" spans="1:9">
+      <c r="A20" s="5">
         <v>304</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E20"/>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" spans="1:9">
-      <c r="A21" s="4">
+    <row r="21" s="5" customFormat="1" spans="1:9">
+      <c r="A21" s="5">
         <v>305</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E21"/>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>105</v>
       </c>
       <c r="G21" t="s">
@@ -2183,104 +2184,104 @@
       <c r="H21" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" spans="1:9">
-      <c r="A22" s="4">
+    <row r="22" s="5" customFormat="1" spans="1:9">
+      <c r="A22" s="5">
         <v>306</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E22" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
         <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" spans="1:9">
-      <c r="A23" s="4">
+    <row r="23" s="5" customFormat="1" spans="1:9">
+      <c r="A23" s="5">
         <v>307</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E23"/>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:9">
-      <c r="A24" s="4">
+    <row r="24" s="5" customFormat="1" spans="1:9">
+      <c r="A24" s="5">
         <v>308</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E24"/>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:9">
-      <c r="A25" s="4">
+    <row r="25" s="5" customFormat="1" spans="1:9">
+      <c r="A25" s="5">
         <v>309</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>123</v>
       </c>
       <c r="E25" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G25" t="s">
@@ -2289,27 +2290,27 @@
       <c r="H25" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" spans="1:9">
-      <c r="A26" s="4">
+    <row r="26" s="5" customFormat="1" spans="1:9">
+      <c r="A26" s="5">
         <v>310</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>127</v>
       </c>
       <c r="E26" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G26" t="s">
@@ -2318,44 +2319,44 @@
       <c r="H26" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="1" spans="1:9">
-      <c r="A27" s="4">
+    <row r="27" s="5" customFormat="1" spans="1:9">
+      <c r="A27" s="5">
         <v>311</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>127</v>
       </c>
       <c r="E27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A28" s="3">
+    <row r="28" s="4" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A28" s="4">
         <v>401</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G28" t="s">
@@ -2365,20 +2366,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A29" s="3">
+    <row r="29" s="4" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A29" s="4">
         <v>402</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G29" t="s">
@@ -2388,14 +2389,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:8">
-      <c r="A30" s="3">
+    <row r="30" s="4" customFormat="1" spans="1:8">
+      <c r="A30" s="4">
         <v>403</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
@@ -2404,7 +2405,7 @@
       <c r="E30" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G30" t="s">
@@ -2415,7 +2416,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>404</v>
       </c>
       <c r="B31" t="s">
@@ -2438,7 +2439,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>405</v>
       </c>
       <c r="B32" t="s">
@@ -2461,7 +2462,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>406</v>
       </c>
       <c r="B33" t="s">
@@ -2499,7 +2500,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B25"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2508,20 +2509,20 @@
     <col min="5" max="5" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2763,164 +2764,164 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" spans="1:5">
-      <c r="A16" s="4">
+    <row r="16" s="5" customFormat="1" spans="1:5">
+      <c r="A16" s="5">
         <v>302</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>25</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>9</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:5">
-      <c r="A17" s="4">
+    <row r="17" s="5" customFormat="1" spans="1:5">
+      <c r="A17" s="5">
         <v>303</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>20</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>3</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:5">
-      <c r="A18" s="4">
+    <row r="18" s="5" customFormat="1" spans="1:5">
+      <c r="A18" s="5">
         <v>304</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>30</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>11</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>350</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:5">
-      <c r="A19" s="4">
+    <row r="19" s="5" customFormat="1" spans="1:5">
+      <c r="A19" s="5">
         <v>305</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>25</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>8</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:5">
-      <c r="A20" s="4">
+    <row r="20" s="5" customFormat="1" spans="1:5">
+      <c r="A20" s="5">
         <v>306</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>35</v>
       </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" spans="1:5">
-      <c r="A21" s="4">
+    <row r="21" s="5" customFormat="1" spans="1:5">
+      <c r="A21" s="5">
         <v>307</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>35</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>12</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" spans="1:5">
-      <c r="A22" s="4">
+    <row r="22" s="5" customFormat="1" spans="1:5">
+      <c r="A22" s="5">
         <v>308</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>35</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>12</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" spans="1:5">
-      <c r="A23" s="4">
+    <row r="23" s="5" customFormat="1" spans="1:5">
+      <c r="A23" s="5">
         <v>309</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>30</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>10</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:5">
-      <c r="A24" s="4">
+    <row r="24" s="5" customFormat="1" spans="1:5">
+      <c r="A24" s="5">
         <v>310</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>30</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>10</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>311</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C25">
@@ -3050,10 +3051,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>309</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C10">
@@ -3061,10 +3062,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>310</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C11">
@@ -3072,10 +3073,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>311</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C12">
@@ -3416,7 +3417,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>404</v>
       </c>
       <c r="B18" t="s">
@@ -3436,7 +3437,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>405</v>
       </c>
       <c r="B19" t="s">
@@ -3456,7 +3457,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>406</v>
       </c>
       <c r="B20" t="s">
@@ -4258,7 +4259,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>404</v>
       </c>
       <c r="B19" t="s">
@@ -4299,7 +4300,7 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>405</v>
       </c>
       <c r="B20" t="s">
@@ -4340,7 +4341,7 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>406</v>
       </c>
       <c r="B21" t="s">
@@ -4464,7 +4465,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>404</v>
       </c>
       <c r="B7" t="s">
@@ -4475,7 +4476,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>405</v>
       </c>
       <c r="B8" t="s">
@@ -4486,7 +4487,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>406</v>
       </c>
       <c r="B9" t="s">
@@ -4505,63 +4506,146 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="6" max="7" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="207">
   <si>
     <t>类型</t>
   </si>
@@ -667,7 +667,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,6 +687,12 @@
       <b/>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1174,137 +1180,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1314,16 +1320,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1655,60 +1670,60 @@
     <col min="9" max="9" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:4">
-      <c r="A2" s="4">
+    <row r="2" s="6" customFormat="1" spans="1:4">
+      <c r="A2" s="6">
         <v>101</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:4">
-      <c r="A3" s="4">
+    <row r="3" s="6" customFormat="1" spans="1:4">
+      <c r="A3" s="6">
         <v>102</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1887,7 +1902,7 @@
       <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F10" t="s">
@@ -1916,7 +1931,7 @@
       <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F11" t="s">
@@ -2059,431 +2074,424 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" spans="1:9">
-      <c r="A17" s="5">
+    <row r="17" s="4" customFormat="1" spans="1:9">
+      <c r="A17" s="4">
         <v>301</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="1:9">
-      <c r="A18" s="5">
+    <row r="18" s="4" customFormat="1" spans="1:9">
+      <c r="A18" s="4">
         <v>302</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" spans="1:9">
-      <c r="A19" s="5">
+    <row r="19" s="4" customFormat="1" spans="1:9">
+      <c r="A19" s="4">
         <v>303</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" spans="1:9">
-      <c r="A20" s="5">
+    <row r="20" s="4" customFormat="1" spans="1:9">
+      <c r="A20" s="4">
         <v>304</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E20"/>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="1" spans="1:9">
-      <c r="A21" s="5">
+    <row r="21" s="4" customFormat="1" spans="1:9">
+      <c r="A21" s="4">
         <v>305</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E21"/>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" spans="1:9">
-      <c r="A22" s="5">
+    <row r="22" s="4" customFormat="1" spans="1:9">
+      <c r="A22" s="4">
         <v>306</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
         <v>1</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" spans="1:9">
-      <c r="A23" s="5">
+    <row r="23" s="4" customFormat="1" spans="1:9">
+      <c r="A23" s="4">
         <v>307</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23"/>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" spans="1:9">
-      <c r="A24" s="5">
+    <row r="24" s="4" customFormat="1" spans="1:9">
+      <c r="A24" s="4">
         <v>308</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E24"/>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" spans="1:9">
-      <c r="A25" s="5">
+    <row r="25" s="4" customFormat="1" spans="1:9">
+      <c r="A25" s="4">
         <v>309</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:9">
-      <c r="A26" s="5">
+    <row r="26" s="4" customFormat="1" spans="1:9">
+      <c r="A26" s="4">
         <v>310</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="1" spans="1:9">
-      <c r="A27" s="5">
+    <row r="27" s="4" customFormat="1" spans="1:9">
+      <c r="A27" s="4">
         <v>311</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A28" s="4">
+    <row r="28" s="7" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A28" s="7">
         <v>401</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" s="4" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A29" s="4">
+    <row r="29" s="7" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A29" s="7">
         <v>402</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" s="4" customFormat="1" spans="1:8">
-      <c r="A30" s="4">
+    <row r="30" s="7" customFormat="1" spans="1:8">
+      <c r="A30" s="7">
         <v>403</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="4">
+    <row r="31" s="7" customFormat="1" spans="1:8">
+      <c r="A31" s="7">
         <v>404</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="4">
+    <row r="32" s="7" customFormat="1" spans="1:8">
+      <c r="A32" s="7">
         <v>405</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="4">
+    <row r="33" s="7" customFormat="1" spans="1:8">
+      <c r="A33" s="7">
         <v>406</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
         <v>3</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2764,164 +2772,164 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" spans="1:5">
-      <c r="A16" s="5">
+    <row r="16" s="4" customFormat="1" spans="1:5">
+      <c r="A16" s="4">
         <v>302</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>25</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>9</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" spans="1:5">
-      <c r="A17" s="5">
+    <row r="17" s="4" customFormat="1" spans="1:5">
+      <c r="A17" s="4">
         <v>303</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>20</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>3</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="1:5">
-      <c r="A18" s="5">
+    <row r="18" s="4" customFormat="1" spans="1:5">
+      <c r="A18" s="4">
         <v>304</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>30</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>11</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>350</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" spans="1:5">
-      <c r="A19" s="5">
+    <row r="19" s="4" customFormat="1" spans="1:5">
+      <c r="A19" s="4">
         <v>305</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>25</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>8</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" spans="1:5">
-      <c r="A20" s="5">
+    <row r="20" s="4" customFormat="1" spans="1:5">
+      <c r="A20" s="4">
         <v>306</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>35</v>
       </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="1" spans="1:5">
-      <c r="A21" s="5">
+    <row r="21" s="4" customFormat="1" spans="1:5">
+      <c r="A21" s="4">
         <v>307</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>35</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>12</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" spans="1:5">
-      <c r="A22" s="5">
+    <row r="22" s="4" customFormat="1" spans="1:5">
+      <c r="A22" s="4">
         <v>308</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>35</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>12</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" spans="1:5">
-      <c r="A23" s="5">
+    <row r="23" s="4" customFormat="1" spans="1:5">
+      <c r="A23" s="4">
         <v>309</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>30</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>10</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" spans="1:5">
-      <c r="A24" s="5">
+    <row r="24" s="4" customFormat="1" spans="1:5">
+      <c r="A24" s="4">
         <v>310</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>30</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>10</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>311</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C25">
@@ -3051,10 +3059,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>309</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C10">
@@ -3062,10 +3070,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>310</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C11">
@@ -3073,10 +3081,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>311</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C12">
@@ -3417,7 +3425,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>404</v>
       </c>
       <c r="B18" t="s">
@@ -3437,7 +3445,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>405</v>
       </c>
       <c r="B19" t="s">
@@ -3457,7 +3465,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>406</v>
       </c>
       <c r="B20" t="s">
@@ -4259,7 +4267,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>404</v>
       </c>
       <c r="B19" t="s">
@@ -4300,7 +4308,7 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>405</v>
       </c>
       <c r="B20" t="s">
@@ -4341,7 +4349,7 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>406</v>
       </c>
       <c r="B21" t="s">
@@ -4465,7 +4473,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>404</v>
       </c>
       <c r="B7" t="s">
@@ -4476,7 +4484,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>405</v>
       </c>
       <c r="B8" t="s">
@@ -4487,7 +4495,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>406</v>
       </c>
       <c r="B9" t="s">
@@ -4506,31 +4514,31 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="6" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -4565,13 +4573,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4580,9 +4588,55 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>25</v>
       </c>
-      <c r="G3">
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
         <v>8</v>
       </c>
     </row>
@@ -4597,7 +4651,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -2507,8 +2507,8 @@
   <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4516,7 +4516,7 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="212">
   <si>
     <t>类型</t>
   </si>
@@ -564,9 +564,6 @@
     <t>f攻击距离</t>
   </si>
   <si>
-    <t>i32伤害</t>
-  </si>
-  <si>
     <t>i32攻击</t>
   </si>
   <si>
@@ -648,6 +645,9 @@
     <t>u16初始Hp</t>
   </si>
   <si>
+    <t>备注2</t>
+  </si>
+  <si>
     <t>属性</t>
   </si>
   <si>
@@ -655,6 +655,21 @@
   </si>
   <si>
     <t>加数值</t>
+  </si>
+  <si>
+    <t>数值</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>移速</t>
+  </si>
+  <si>
+    <t>攻速</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1674,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:B10"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A7:B7 A9:B9 A13:B13 A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2507,7 +2522,7 @@
   <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -3494,12 +3509,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="A1:B2"/>
+      <selection pane="topRight" activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3507,31 +3522,31 @@
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
     <col min="3" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="13.25" customWidth="1"/>
-    <col min="13" max="13" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="9.125" customWidth="1"/>
-    <col min="15" max="15" width="19.625" customWidth="1"/>
-    <col min="16" max="16" width="21.625" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="19" max="19" width="26" customWidth="1"/>
-    <col min="20" max="20" width="6.375" customWidth="1"/>
-    <col min="22" max="22" width="2.375" customWidth="1"/>
-    <col min="24" max="24" width="4.375" customWidth="1"/>
-    <col min="28" max="28" width="8.375" customWidth="1"/>
-    <col min="30" max="30" width="7.375" customWidth="1"/>
-    <col min="31" max="31" width="10.375" customWidth="1"/>
-    <col min="33" max="33" width="10.375" customWidth="1"/>
-    <col min="35" max="35" width="6.375" customWidth="1"/>
-    <col min="36" max="36" width="8.375" customWidth="1"/>
-    <col min="37" max="37" width="12.625" customWidth="1"/>
+    <col min="5" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="9.125" customWidth="1"/>
+    <col min="14" max="14" width="19.625" customWidth="1"/>
+    <col min="15" max="15" width="21.625" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="26" customWidth="1"/>
+    <col min="19" max="19" width="6.375" customWidth="1"/>
+    <col min="21" max="21" width="2.375" customWidth="1"/>
+    <col min="23" max="23" width="4.375" customWidth="1"/>
+    <col min="27" max="27" width="8.375" customWidth="1"/>
+    <col min="29" max="29" width="7.375" customWidth="1"/>
+    <col min="30" max="30" width="10.375" customWidth="1"/>
+    <col min="32" max="32" width="10.375" customWidth="1"/>
+    <col min="34" max="34" width="6.375" customWidth="1"/>
+    <col min="35" max="35" width="8.375" customWidth="1"/>
+    <col min="36" max="36" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3571,11 +3586,8 @@
       <c r="M1" t="s">
         <v>184</v>
       </c>
-      <c r="N1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>201</v>
       </c>
@@ -3592,31 +3604,28 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.4</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.4</v>
-      </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>500</v>
       </c>
-      <c r="M2" t="s">
-        <v>186</v>
-      </c>
-      <c r="N2">
+      <c r="L2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>202</v>
       </c>
@@ -3633,31 +3642,28 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>0.5</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3">
+        <v>900</v>
+      </c>
+      <c r="L3" t="s">
         <v>187</v>
       </c>
-      <c r="L3">
-        <v>900</v>
-      </c>
-      <c r="M3" t="s">
-        <v>188</v>
-      </c>
-      <c r="N3">
+      <c r="M3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>203</v>
       </c>
@@ -3674,31 +3680,28 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
         <v>0.6</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4">
         <v>600</v>
       </c>
-      <c r="M4" t="s">
-        <v>189</v>
-      </c>
-      <c r="N4">
+      <c r="L4" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>204</v>
       </c>
@@ -3715,34 +3718,31 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <v>5000</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5" t="s">
         <v>190</v>
       </c>
-      <c r="L5">
-        <v>300</v>
-      </c>
-      <c r="M5" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5">
+      <c r="M5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>205</v>
       </c>
@@ -3759,31 +3759,28 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
         <v>0.5</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>187</v>
-      </c>
-      <c r="L6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6">
         <v>500</v>
       </c>
-      <c r="M6" t="s">
-        <v>192</v>
-      </c>
-      <c r="N6">
+      <c r="L6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>206</v>
       </c>
@@ -3800,31 +3797,28 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
         <v>0.8</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7">
         <v>500</v>
       </c>
-      <c r="M7" t="s">
-        <v>193</v>
-      </c>
-      <c r="N7">
+      <c r="L7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>207</v>
       </c>
@@ -3841,31 +3835,28 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
         <v>0.6</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8">
+        <v>600</v>
+      </c>
+      <c r="L8" t="s">
         <v>194</v>
       </c>
-      <c r="L8">
-        <v>600</v>
-      </c>
-      <c r="M8" t="s">
-        <v>195</v>
-      </c>
-      <c r="N8">
+      <c r="M8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>208</v>
       </c>
@@ -3882,31 +3873,28 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
         <v>0.7</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K9">
+        <v>500</v>
+      </c>
+      <c r="L9" t="s">
         <v>196</v>
       </c>
-      <c r="L9">
-        <v>500</v>
-      </c>
-      <c r="M9" t="s">
-        <v>197</v>
-      </c>
-      <c r="N9">
+      <c r="M9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>209</v>
       </c>
@@ -3926,28 +3914,25 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
         <v>0.1</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>187</v>
-      </c>
-      <c r="L10">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10">
         <v>600</v>
       </c>
-      <c r="M10" t="s">
-        <v>192</v>
-      </c>
-      <c r="N10">
+      <c r="L10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:14">
+    <row r="11" customFormat="1" spans="1:13">
       <c r="A11">
         <v>210</v>
       </c>
@@ -3967,31 +3952,28 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
         <v>0.3</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
         <v>23</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>190</v>
-      </c>
-      <c r="L11">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11">
         <v>500</v>
       </c>
-      <c r="M11" t="s">
-        <v>198</v>
-      </c>
-      <c r="N11">
+      <c r="L11" t="s">
+        <v>197</v>
+      </c>
+      <c r="M11">
         <v>900</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:14">
+    <row r="12" customFormat="1" spans="1:13">
       <c r="A12">
         <v>211</v>
       </c>
@@ -4008,28 +3990,25 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
         <v>0.6</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>199</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:14">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>198</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:13">
       <c r="A13">
         <v>212</v>
       </c>
@@ -4049,22 +4028,19 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
         <v>0.1</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:14">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:13">
       <c r="A14">
         <v>213</v>
       </c>
@@ -4081,28 +4057,25 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
         <v>0.8</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>600</v>
       </c>
-      <c r="M14" t="s">
-        <v>200</v>
-      </c>
-      <c r="N14">
+      <c r="L14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M14">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>305</v>
       </c>
@@ -4119,31 +4092,28 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>200</v>
+      </c>
+      <c r="K15">
+        <v>400</v>
+      </c>
+      <c r="L15" t="s">
         <v>201</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>400</v>
       </c>
-      <c r="M15" t="s">
-        <v>202</v>
-      </c>
-      <c r="N15">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>401</v>
       </c>
@@ -4160,31 +4130,28 @@
         <v>4</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
         <v>0.3</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16">
+        <v>300</v>
+      </c>
+      <c r="L16" t="s">
         <v>194</v>
       </c>
-      <c r="L16">
-        <v>300</v>
-      </c>
-      <c r="M16" t="s">
-        <v>195</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>402</v>
       </c>
@@ -4201,31 +4168,28 @@
         <v>6</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
         <v>0.4</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>195</v>
+      </c>
+      <c r="K17">
+        <v>400</v>
+      </c>
+      <c r="L17" t="s">
         <v>196</v>
       </c>
-      <c r="L17">
-        <v>400</v>
-      </c>
-      <c r="M17" t="s">
-        <v>197</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>403</v>
       </c>
@@ -4242,31 +4206,28 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
         <v>0.5</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>187</v>
-      </c>
-      <c r="L18">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18">
         <v>600</v>
       </c>
-      <c r="M18" t="s">
-        <v>192</v>
-      </c>
-      <c r="N18">
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:13">
       <c r="A19" s="3">
         <v>404</v>
       </c>
@@ -4283,31 +4244,28 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
         <v>0.5</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19">
+        <v>900</v>
+      </c>
+      <c r="L19" t="s">
         <v>187</v>
       </c>
-      <c r="L19">
-        <v>900</v>
-      </c>
-      <c r="M19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N19">
+      <c r="M19">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:13">
       <c r="A20" s="3">
         <v>405</v>
       </c>
@@ -4324,31 +4282,28 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
         <v>0.6</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>187</v>
-      </c>
-      <c r="L20">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20">
         <v>600</v>
       </c>
-      <c r="M20" t="s">
-        <v>189</v>
-      </c>
-      <c r="N20">
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>406</v>
       </c>
@@ -4365,27 +4320,24 @@
         <v>1</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.4</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0.4</v>
-      </c>
       <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>500</v>
       </c>
-      <c r="M21" t="s">
-        <v>186</v>
-      </c>
-      <c r="N21">
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21">
         <v>500</v>
       </c>
     </row>
@@ -4414,7 +4366,7 @@
         <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4514,18 +4466,18 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:7">
+    <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4533,30 +4485,36 @@
         <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>208</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4565,79 +4523,219 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3">
         <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>210</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>207</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>25</v>
       </c>
-      <c r="G5">
+      <c r="I6">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>208</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>210</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="211">
   <si>
     <t>类型</t>
   </si>
@@ -567,7 +567,10 @@
     <t>i32攻击</t>
   </si>
   <si>
-    <t>i32防御</t>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>防御</t>
   </si>
   <si>
     <t>f每帧移动距离</t>
@@ -658,12 +661,6 @@
   </si>
   <si>
     <t>数值</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>防御</t>
   </si>
   <si>
     <t>移速</t>
@@ -1674,7 +1671,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A7:B7 A9:B9 A13:B13 A16:B16"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3509,12 +3506,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3522,31 +3519,31 @@
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
     <col min="3" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="6" width="8.125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="13.25" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="9.125" customWidth="1"/>
-    <col min="14" max="14" width="19.625" customWidth="1"/>
-    <col min="15" max="15" width="21.625" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="26" customWidth="1"/>
-    <col min="19" max="19" width="6.375" customWidth="1"/>
-    <col min="21" max="21" width="2.375" customWidth="1"/>
-    <col min="23" max="23" width="4.375" customWidth="1"/>
-    <col min="27" max="27" width="8.375" customWidth="1"/>
-    <col min="29" max="29" width="7.375" customWidth="1"/>
-    <col min="30" max="30" width="10.375" customWidth="1"/>
-    <col min="32" max="32" width="10.375" customWidth="1"/>
-    <col min="34" max="34" width="6.375" customWidth="1"/>
-    <col min="35" max="35" width="8.375" customWidth="1"/>
-    <col min="36" max="36" width="12.625" customWidth="1"/>
+    <col min="5" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="9.125" customWidth="1"/>
+    <col min="15" max="15" width="19.625" customWidth="1"/>
+    <col min="16" max="16" width="21.625" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="19" max="19" width="26" customWidth="1"/>
+    <col min="20" max="20" width="6.375" customWidth="1"/>
+    <col min="22" max="22" width="2.375" customWidth="1"/>
+    <col min="24" max="24" width="4.375" customWidth="1"/>
+    <col min="28" max="28" width="8.375" customWidth="1"/>
+    <col min="30" max="30" width="7.375" customWidth="1"/>
+    <col min="31" max="31" width="10.375" customWidth="1"/>
+    <col min="33" max="33" width="10.375" customWidth="1"/>
+    <col min="35" max="35" width="6.375" customWidth="1"/>
+    <col min="36" max="36" width="8.375" customWidth="1"/>
+    <col min="37" max="37" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3586,8 +3583,11 @@
       <c r="M1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>201</v>
       </c>
@@ -3604,28 +3604,31 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0.4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>500</v>
       </c>
-      <c r="L2" t="s">
-        <v>185</v>
-      </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>202</v>
       </c>
@@ -3642,28 +3645,31 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0.5</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3">
         <v>900</v>
       </c>
-      <c r="L3" t="s">
-        <v>187</v>
-      </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>203</v>
       </c>
@@ -3680,28 +3686,31 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0.6</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>186</v>
-      </c>
-      <c r="K4">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4">
         <v>600</v>
       </c>
-      <c r="L4" t="s">
-        <v>188</v>
-      </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>204</v>
       </c>
@@ -3718,31 +3727,34 @@
         <v>30</v>
       </c>
       <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5000</v>
       </c>
-      <c r="J5" t="s">
-        <v>189</v>
-      </c>
-      <c r="K5">
+      <c r="K5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5">
         <v>300</v>
       </c>
-      <c r="L5" t="s">
-        <v>190</v>
-      </c>
-      <c r="M5">
+      <c r="M5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>205</v>
       </c>
@@ -3759,28 +3771,31 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0.5</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>186</v>
-      </c>
-      <c r="K6">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6">
         <v>500</v>
       </c>
-      <c r="L6" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6">
+      <c r="M6" t="s">
+        <v>192</v>
+      </c>
+      <c r="N6">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>206</v>
       </c>
@@ -3797,28 +3812,31 @@
         <v>5</v>
       </c>
       <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.8</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K7">
-        <v>500</v>
-      </c>
-      <c r="L7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M7">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7">
+        <v>800</v>
+      </c>
+      <c r="M7" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>207</v>
       </c>
@@ -3835,28 +3853,31 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0.6</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K8">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8">
         <v>600</v>
       </c>
-      <c r="L8" t="s">
-        <v>194</v>
-      </c>
-      <c r="M8">
+      <c r="M8" t="s">
+        <v>195</v>
+      </c>
+      <c r="N8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>208</v>
       </c>
@@ -3873,28 +3894,31 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0.7</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>195</v>
-      </c>
-      <c r="K9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9">
         <v>500</v>
       </c>
-      <c r="L9" t="s">
-        <v>196</v>
-      </c>
-      <c r="M9">
+      <c r="M9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>209</v>
       </c>
@@ -3914,25 +3938,28 @@
         <v>0</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0.1</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>186</v>
-      </c>
-      <c r="K10">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10">
         <v>600</v>
       </c>
-      <c r="L10" t="s">
-        <v>191</v>
-      </c>
-      <c r="M10">
+      <c r="M10" t="s">
+        <v>192</v>
+      </c>
+      <c r="N10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:13">
+    <row r="11" customFormat="1" spans="1:14">
       <c r="A11">
         <v>210</v>
       </c>
@@ -3952,28 +3979,31 @@
         <v>1</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>0.3</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>23</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>189</v>
-      </c>
-      <c r="K11">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11">
         <v>500</v>
       </c>
-      <c r="L11" t="s">
-        <v>197</v>
-      </c>
-      <c r="M11">
+      <c r="M11" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11">
         <v>900</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:13">
+    <row r="12" customFormat="1" spans="1:14">
       <c r="A12">
         <v>211</v>
       </c>
@@ -3990,25 +4020,28 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0.6</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>198</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:13">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>199</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:14">
       <c r="A13">
         <v>212</v>
       </c>
@@ -4028,19 +4061,22 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0.1</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:13">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:14">
       <c r="A14">
         <v>213</v>
       </c>
@@ -4057,25 +4093,28 @@
         <v>3</v>
       </c>
       <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.8</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>600</v>
       </c>
-      <c r="L14" t="s">
-        <v>199</v>
-      </c>
-      <c r="M14">
+      <c r="M14" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>305</v>
       </c>
@@ -4092,252 +4131,757 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>200</v>
-      </c>
-      <c r="K15">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L15">
         <v>400</v>
       </c>
-      <c r="L15" t="s">
-        <v>201</v>
-      </c>
-      <c r="M15">
+      <c r="M15" t="s">
+        <v>202</v>
+      </c>
+      <c r="N15">
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
+    <row r="16" spans="1:14">
+      <c r="A16" s="4">
+        <v>301</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4">
+        <v>302</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4">
+        <v>303</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4">
+        <v>304</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4">
+        <v>305</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4">
+        <v>306</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="4">
+        <v>307</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="4">
+        <v>308</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4">
+        <v>309</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="4">
+        <v>310</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="4">
+        <v>311</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27">
         <v>401</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B27" t="s">
         <v>132</v>
       </c>
-      <c r="C16">
+      <c r="C27">
         <v>18</v>
       </c>
-      <c r="D16">
+      <c r="D27">
         <v>8</v>
       </c>
-      <c r="E16">
+      <c r="E27">
         <v>4</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>0.3</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>193</v>
-      </c>
-      <c r="K16">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>194</v>
+      </c>
+      <c r="L27">
         <v>300</v>
       </c>
-      <c r="L16" t="s">
-        <v>194</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
+      <c r="M27" t="s">
+        <v>195</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
         <v>402</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B28" t="s">
         <v>133</v>
       </c>
-      <c r="C17">
+      <c r="C28">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="E28">
         <v>6</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>0.4</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>195</v>
-      </c>
-      <c r="K17">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28">
         <v>400</v>
       </c>
-      <c r="L17" t="s">
-        <v>196</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
+      <c r="M28" t="s">
+        <v>197</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29">
         <v>403</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B29" t="s">
         <v>134</v>
       </c>
-      <c r="C18">
+      <c r="C29">
         <v>8</v>
       </c>
-      <c r="D18">
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="E18">
+      <c r="E29">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>0.5</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29">
+        <v>600</v>
+      </c>
+      <c r="M29" t="s">
+        <v>192</v>
+      </c>
+      <c r="N29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="3">
+        <v>404</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0.5</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>187</v>
+      </c>
+      <c r="L30">
+        <v>900</v>
+      </c>
+      <c r="M30" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="3">
+        <v>405</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0.6</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>187</v>
+      </c>
+      <c r="L31">
+        <v>600</v>
+      </c>
+      <c r="M31" t="s">
+        <v>189</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="3">
+        <v>406</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.4</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>500</v>
+      </c>
+      <c r="M32" t="s">
         <v>186</v>
       </c>
-      <c r="K18">
-        <v>600</v>
-      </c>
-      <c r="L18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="3">
-        <v>404</v>
-      </c>
-      <c r="B19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0.5</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>186</v>
-      </c>
-      <c r="K19">
-        <v>900</v>
-      </c>
-      <c r="L19" t="s">
-        <v>187</v>
-      </c>
-      <c r="M19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3">
-        <v>405</v>
-      </c>
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0.6</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>186</v>
-      </c>
-      <c r="K20">
-        <v>600</v>
-      </c>
-      <c r="L20" t="s">
-        <v>188</v>
-      </c>
-      <c r="M20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="3">
-        <v>406</v>
-      </c>
-      <c r="B21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0.4</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>500</v>
-      </c>
-      <c r="L21" t="s">
-        <v>185</v>
-      </c>
-      <c r="M21">
+      <c r="N32">
         <v>500</v>
       </c>
     </row>
@@ -4366,7 +4910,7 @@
         <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4468,8 +5012,8 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4485,19 +5029,19 @@
         <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>139</v>
@@ -4514,7 +5058,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4543,7 +5087,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -4572,7 +5116,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -4584,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -4601,7 +5145,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -4613,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>-100</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -4630,7 +5174,7 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4659,7 +5203,7 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4688,7 +5232,7 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -4717,7 +5261,7 @@
         <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -4729,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H9">
         <v>30</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="214">
   <si>
     <t>类型</t>
   </si>
@@ -298,6 +298,15 @@
   </si>
   <si>
     <t>可飞跃障碍物</t>
+  </si>
+  <si>
+    <t>医疗兵</t>
+  </si>
+  <si>
+    <t>活动单位/医疗兵</t>
+  </si>
+  <si>
+    <t>Dwarf Idle</t>
   </si>
   <si>
     <t>基地</t>
@@ -1664,14 +1673,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:B27"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2086,41 +2095,35 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:9">
-      <c r="A17" s="4">
-        <v>301</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="17" customFormat="1" spans="1:7">
+      <c r="A17">
+        <v>214</v>
+      </c>
+      <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="E17" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>92</v>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:9">
       <c r="A18" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>11</v>
@@ -2129,24 +2132,24 @@
         <v>23</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:9">
       <c r="A19" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>11</v>
@@ -2154,22 +2157,25 @@
       <c r="F19" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="G19" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H19" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:9">
       <c r="A20" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>11</v>
@@ -2177,19 +2183,16 @@
       <c r="F20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:9">
       <c r="A21" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>103</v>
@@ -2201,65 +2204,68 @@
         <v>11</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:9">
       <c r="A22" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:9">
       <c r="A23" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>117</v>
@@ -2267,7 +2273,7 @@
     </row>
     <row r="24" s="4" customFormat="1" spans="1:9">
       <c r="A24" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>118</v>
@@ -2282,7 +2288,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>120</v>
@@ -2290,7 +2296,7 @@
     </row>
     <row r="25" s="4" customFormat="1" spans="1:9">
       <c r="A25" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>121</v>
@@ -2299,39 +2305,33 @@
         <v>122</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:9">
       <c r="A26" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>78</v>
@@ -2340,170 +2340,199 @@
         <v>79</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:9">
       <c r="A27" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>127</v>
+      <c r="E27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A28" s="7">
-        <v>401</v>
-      </c>
-      <c r="B28" s="7" t="s">
+    <row r="28" s="4" customFormat="1" spans="1:9">
+      <c r="A28" s="4">
+        <v>311</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>55</v>
+      <c r="C28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="29" s="7" customFormat="1" ht="14.25" spans="1:8">
       <c r="A29" s="7">
+        <v>401</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" s="7" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A30" s="7">
         <v>402</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="30" s="7" customFormat="1" spans="1:8">
-      <c r="A30" s="7">
-        <v>403</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="31" s="7" customFormat="1" spans="1:8">
       <c r="A31" s="7">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" s="7" customFormat="1" spans="1:8">
       <c r="A32" s="7">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" s="7" customFormat="1" spans="1:8">
       <c r="A33" s="7">
+        <v>405</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" s="7" customFormat="1" spans="1:8">
+      <c r="A34" s="7">
         <v>406</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B34" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
         <v>3</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2517,10 +2546,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2534,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2769,126 +2798,126 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
       </c>
       <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>301</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16">
         <v>50</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>300</v>
-      </c>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="1:5">
-      <c r="A16" s="4">
-        <v>302</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="4">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4">
-        <v>100</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:5">
       <c r="A17" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D17" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E17" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:5">
       <c r="A18" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E18" s="4">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:5">
       <c r="A19" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E19" s="4">
-        <v>100</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:5">
       <c r="A20" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C20" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E20" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:5">
       <c r="A21" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C21" s="4">
         <v>35</v>
       </c>
       <c r="D21" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:5">
       <c r="A22" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>118</v>
@@ -2905,27 +2934,27 @@
     </row>
     <row r="23" s="4" customFormat="1" spans="1:5">
       <c r="A23" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C23" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D23" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" s="4">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:5">
       <c r="A24" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="4">
         <v>30</v>
@@ -2934,23 +2963,40 @@
         <v>10</v>
       </c>
       <c r="E24" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:5">
+      <c r="A25" s="4">
+        <v>310</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="4">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4">
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
         <v>311</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25">
+      <c r="B26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26">
         <v>30</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>120</v>
       </c>
     </row>
@@ -2976,10 +3022,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2987,7 +3033,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2998,7 +3044,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -3009,7 +3055,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3020,7 +3066,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3031,7 +3077,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -3042,7 +3088,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3053,7 +3099,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -3064,7 +3110,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3075,7 +3121,7 @@
         <v>309</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -3086,7 +3132,7 @@
         <v>310</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -3097,7 +3143,7 @@
         <v>311</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -3113,10 +3159,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3131,19 +3177,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3154,7 +3200,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3163,7 +3209,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3174,16 +3220,16 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3194,16 +3240,16 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3214,16 +3260,16 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
         <v>153</v>
-      </c>
-      <c r="D5" t="s">
-        <v>150</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3234,16 +3280,16 @@
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3257,13 +3303,13 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3274,16 +3320,16 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3294,16 +3340,16 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3317,7 +3363,7 @@
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
         <v>70</v>
@@ -3334,16 +3380,16 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -3362,16 +3408,16 @@
         <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -3382,118 +3428,129 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:4">
       <c r="A15">
-        <v>401</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" t="s">
-        <v>173</v>
+        <v>88</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
+        <v>402</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>403</v>
       </c>
-      <c r="B17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3">
-        <v>404</v>
-      </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
         <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3">
+        <v>405</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
         <v>406</v>
       </c>
-      <c r="B20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>16</v>
       </c>
-      <c r="F20" t="s">
-        <v>148</v>
+      <c r="F21" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3506,12 +3563,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3548,43 +3605,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3622,7 +3679,7 @@
         <v>500</v>
       </c>
       <c r="M2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N2">
         <v>500</v>
@@ -3657,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L3">
         <v>900</v>
       </c>
       <c r="M3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -3698,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L4">
         <v>600</v>
       </c>
       <c r="M4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -3742,13 +3799,13 @@
         <v>5000</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L5">
         <v>300</v>
       </c>
       <c r="M5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -3783,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L6">
         <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -3824,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L7">
         <v>800</v>
       </c>
       <c r="M7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -3865,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L8">
         <v>600</v>
       </c>
       <c r="M8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -3906,13 +3963,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L9">
         <v>500</v>
       </c>
       <c r="M9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -3947,13 +4004,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L10">
         <v>600</v>
       </c>
       <c r="M10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -3991,13 +4048,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L11">
         <v>500</v>
       </c>
       <c r="M11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N11">
         <v>900</v>
@@ -4035,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -4108,103 +4165,103 @@
         <v>600</v>
       </c>
       <c r="M14" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N14">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" customFormat="1" spans="1:14">
       <c r="A15">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
         <v>305</v>
       </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>20</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>201</v>
-      </c>
-      <c r="L15">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>204</v>
+      </c>
+      <c r="L16">
         <v>400</v>
       </c>
-      <c r="M15" t="s">
-        <v>202</v>
-      </c>
-      <c r="N15">
+      <c r="M16" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16">
         <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="4">
-        <v>301</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4245,10 +4302,10 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4289,10 +4346,10 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4333,7 +4390,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>103</v>
@@ -4377,10 +4434,10 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4421,10 +4478,10 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4465,7 +4522,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>118</v>
@@ -4509,7 +4566,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>121</v>
@@ -4553,10 +4610,10 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4597,84 +4654,87 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="4">
+        <v>310</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="4">
         <v>311</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27">
-        <v>401</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" t="s">
-        <v>194</v>
+      <c r="K27">
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>300</v>
-      </c>
-      <c r="M27" t="s">
-        <v>195</v>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4682,40 +4742,40 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
       <c r="F28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L28">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4723,63 +4783,63 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.4</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>199</v>
+      </c>
+      <c r="L29">
+        <v>400</v>
+      </c>
+      <c r="M29" t="s">
+        <v>200</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <v>403</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
         <v>2</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>2</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0.5</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>187</v>
-      </c>
-      <c r="L29">
-        <v>600</v>
-      </c>
-      <c r="M29" t="s">
-        <v>192</v>
-      </c>
-      <c r="N29">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="3">
-        <v>404</v>
-      </c>
-      <c r="B30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30">
-        <v>20</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -4791,54 +4851,54 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L30">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M30" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="N30">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="3">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L31">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -4846,42 +4906,83 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="3">
+        <v>405</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.6</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>190</v>
+      </c>
+      <c r="L32">
+        <v>600</v>
+      </c>
+      <c r="M32" t="s">
+        <v>192</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="3">
         <v>406</v>
       </c>
-      <c r="B32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32">
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33">
         <v>12</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>8</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>1</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>1</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>0.4</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>500</v>
       </c>
-      <c r="M32" t="s">
-        <v>186</v>
-      </c>
-      <c r="N32">
+      <c r="M33" t="s">
+        <v>189</v>
+      </c>
+      <c r="N33">
         <v>500</v>
       </c>
     </row>
@@ -4907,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4940,7 +5041,7 @@
         <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -4951,7 +5052,7 @@
         <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -4962,7 +5063,7 @@
         <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4973,7 +5074,7 @@
         <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -4984,7 +5085,7 @@
         <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -4995,7 +5096,7 @@
         <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -5026,28 +5127,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5058,7 +5159,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5087,7 +5188,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5116,7 +5217,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5145,7 +5246,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5174,7 +5275,7 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5203,7 +5304,7 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5232,7 +5333,7 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5261,7 +5362,7 @@
         <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -5307,13 +5408,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -3568,7 +3568,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4179,16 +4179,16 @@
         <v>88</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -4196,23 +4196,20 @@
       <c r="H15">
         <v>0.4</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:14">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="214">
   <si>
     <t>类型</t>
   </si>
@@ -3563,12 +3563,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -4213,23 +4213,23 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16">
-        <v>305</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
+      <c r="A16" s="4">
+        <v>301</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -4237,28 +4237,31 @@
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
-        <v>204</v>
+      <c r="K16">
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>400</v>
-      </c>
-      <c r="M16" t="s">
-        <v>205</v>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="4">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4299,10 +4302,10 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="4">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4343,10 +4346,10 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4386,23 +4389,23 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="4">
-        <v>304</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>103</v>
+      <c r="A20">
+        <v>305</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -4410,31 +4413,28 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
+      <c r="K20" t="s">
+        <v>204</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="M20" t="s">
+        <v>205</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="4">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4475,10 +4475,10 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="4">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4519,10 +4519,10 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4563,10 +4563,10 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="4">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4607,10 +4607,10 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="4">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4651,10 +4651,10 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="4">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4694,44 +4694,41 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="4">
-        <v>311</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>132</v>
+      <c r="A27">
+        <v>401</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>0</v>
+      <c r="K27" t="s">
+        <v>197</v>
       </c>
       <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="M27" t="s">
+        <v>198</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4739,40 +4736,40 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L28">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4780,63 +4777,63 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="L29">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M29" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30">
-        <v>403</v>
+      <c r="A30" s="3">
+        <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -4851,39 +4848,39 @@
         <v>190</v>
       </c>
       <c r="L30">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N30">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="3">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -4892,10 +4889,10 @@
         <v>190</v>
       </c>
       <c r="L31">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -4903,83 +4900,42 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="3">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.6</v>
+        <v>0.4</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32" t="s">
-        <v>190</v>
-      </c>
       <c r="L32">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="3">
-        <v>406</v>
-      </c>
-      <c r="B33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33">
-        <v>12</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0.4</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>500</v>
-      </c>
-      <c r="M33" t="s">
-        <v>189</v>
-      </c>
-      <c r="N33">
         <v>500</v>
       </c>
     </row>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="221">
   <si>
     <t>类型</t>
   </si>
@@ -306,9 +306,18 @@
     <t>活动单位/医疗兵</t>
   </si>
   <si>
+    <t>语音/TMdWht00</t>
+  </si>
+  <si>
     <t>Dwarf Idle</t>
   </si>
   <si>
+    <t>语音/TMdDth00</t>
+  </si>
+  <si>
+    <t>可给友方单位恢复HP</t>
+  </si>
+  <si>
     <t>基地</t>
   </si>
   <si>
@@ -564,6 +573,15 @@
     <t>音效/zmuYes01</t>
   </si>
   <si>
+    <t>语音/TMdRdy00</t>
+  </si>
+  <si>
+    <t>语音/TMdYes00</t>
+  </si>
+  <si>
+    <t>语音/TMdYes01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Root|走路.001 </t>
   </si>
   <si>
@@ -646,6 +664,9 @@
   </si>
   <si>
     <t>音效/DragBull</t>
+  </si>
+  <si>
+    <t>音效/Tmedheal</t>
   </si>
   <si>
     <t>pao002</t>
@@ -1680,7 +1701,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:B17"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2095,7 +2116,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:7">
+    <row r="17" customFormat="1" spans="1:9">
       <c r="A17">
         <v>214</v>
       </c>
@@ -2105,14 +2126,23 @@
       <c r="C17" t="s">
         <v>89</v>
       </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
         <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:9">
@@ -2120,10 +2150,10 @@
         <v>301</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>11</v>
@@ -2132,13 +2162,13 @@
         <v>23</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:9">
@@ -2146,10 +2176,10 @@
         <v>302</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>11</v>
@@ -2158,13 +2188,13 @@
         <v>23</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:9">
@@ -2172,10 +2202,10 @@
         <v>303</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>11</v>
@@ -2184,7 +2214,7 @@
         <v>23</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>81</v>
@@ -2195,10 +2225,10 @@
         <v>304</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>11</v>
@@ -2210,10 +2240,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:9">
@@ -2221,25 +2251,25 @@
         <v>305</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:9">
@@ -2247,16 +2277,16 @@
         <v>306</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -2265,10 +2295,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:9">
@@ -2276,10 +2306,10 @@
         <v>307</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>11</v>
@@ -2288,10 +2318,10 @@
         <v>23</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:9">
@@ -2299,10 +2329,10 @@
         <v>308</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
@@ -2311,10 +2341,10 @@
         <v>23</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:9">
@@ -2322,16 +2352,16 @@
         <v>309</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>78</v>
@@ -2340,10 +2370,10 @@
         <v>79</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:9">
@@ -2351,16 +2381,16 @@
         <v>310</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>78</v>
@@ -2369,10 +2399,10 @@
         <v>79</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:9">
@@ -2380,16 +2410,16 @@
         <v>311</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" s="7" customFormat="1" ht="14.25" spans="1:8">
@@ -2397,7 +2427,7 @@
         <v>401</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>50</v>
@@ -2420,7 +2450,7 @@
         <v>402</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>57</v>
@@ -2443,7 +2473,7 @@
         <v>403</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>40</v>
@@ -2469,7 +2499,7 @@
         <v>404</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>21</v>
@@ -2492,7 +2522,7 @@
         <v>405</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>28</v>
@@ -2515,7 +2545,7 @@
         <v>406</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>15</v>
@@ -2563,16 +2593,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2818,7 +2848,7 @@
         <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -2835,7 +2865,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C17" s="4">
         <v>25</v>
@@ -2852,7 +2882,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C18" s="4">
         <v>20</v>
@@ -2869,7 +2899,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C19" s="4">
         <v>30</v>
@@ -2886,7 +2916,7 @@
         <v>305</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C20" s="4">
         <v>25</v>
@@ -2903,7 +2933,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C21" s="4">
         <v>35</v>
@@ -2920,7 +2950,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C22" s="4">
         <v>35</v>
@@ -2937,7 +2967,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4">
         <v>35</v>
@@ -2954,7 +2984,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C24" s="4">
         <v>30</v>
@@ -2971,7 +3001,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C25" s="4">
         <v>30</v>
@@ -2988,7 +3018,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C26">
         <v>30</v>
@@ -3022,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3033,7 +3063,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -3044,7 +3074,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -3055,7 +3085,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3066,7 +3096,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3077,7 +3107,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -3088,7 +3118,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3099,7 +3129,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -3110,7 +3140,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3121,7 +3151,7 @@
         <v>309</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -3132,7 +3162,7 @@
         <v>310</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -3143,7 +3173,7 @@
         <v>311</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -3162,7 +3192,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3177,19 +3207,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3200,7 +3230,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3209,7 +3239,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3220,16 +3250,16 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3240,16 +3270,16 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3260,16 +3290,16 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
         <v>156</v>
-      </c>
-      <c r="D5" t="s">
-        <v>153</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3280,16 +3310,16 @@
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3303,13 +3333,13 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3320,16 +3350,16 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3340,16 +3370,16 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3363,7 +3393,7 @@
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
         <v>70</v>
@@ -3380,16 +3410,16 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -3408,16 +3438,16 @@
         <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -3428,27 +3458,36 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
       <c r="A15">
         <v>214</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
       </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
       <c r="D15">
         <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3456,13 +3495,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3470,13 +3509,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3484,13 +3523,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3498,19 +3537,19 @@
         <v>404</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3518,19 +3557,19 @@
         <v>405</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3538,10 +3577,10 @@
         <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3550,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3607,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A20" sqref="$A20:$XFD20"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3605,43 +3644,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="N1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3679,7 +3718,7 @@
         <v>500</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N2">
         <v>500</v>
@@ -3714,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L3">
         <v>900</v>
       </c>
       <c r="M3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -3755,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L4">
         <v>600</v>
       </c>
       <c r="M4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -3799,13 +3838,13 @@
         <v>5000</v>
       </c>
       <c r="K5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L5">
         <v>300</v>
       </c>
       <c r="M5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -3840,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L6">
         <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -3881,13 +3920,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L7">
         <v>800</v>
       </c>
       <c r="M7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -3922,13 +3961,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L8">
         <v>600</v>
       </c>
       <c r="M8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -3963,13 +4002,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L9">
         <v>500</v>
       </c>
       <c r="M9" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -4004,13 +4043,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L10">
         <v>600</v>
       </c>
       <c r="M10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -4048,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L11">
         <v>500</v>
       </c>
       <c r="M11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N11">
         <v>900</v>
@@ -4092,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -4165,7 +4204,7 @@
         <v>600</v>
       </c>
       <c r="M14" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N14">
         <v>300</v>
@@ -4205,8 +4244,8 @@
       <c r="L15">
         <v>1000</v>
       </c>
-      <c r="M15">
-        <v>0</v>
+      <c r="M15" t="s">
+        <v>210</v>
       </c>
       <c r="N15">
         <v>100</v>
@@ -4217,7 +4256,7 @@
         <v>301</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4261,7 +4300,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4305,7 +4344,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4349,7 +4388,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4393,7 +4432,7 @@
         <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -4417,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L20">
         <v>400</v>
       </c>
       <c r="M20" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N20">
         <v>400</v>
@@ -4434,7 +4473,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4478,7 +4517,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4522,7 +4561,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4566,7 +4605,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4610,7 +4649,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4654,7 +4693,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4698,7 +4737,7 @@
         <v>401</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C27">
         <v>18</v>
@@ -4722,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L27">
         <v>300</v>
       </c>
       <c r="M27" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4739,7 +4778,7 @@
         <v>402</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -4763,13 +4802,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L28">
         <v>400</v>
       </c>
       <c r="M28" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4780,7 +4819,7 @@
         <v>403</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -4804,13 +4843,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L29">
         <v>600</v>
       </c>
       <c r="M29" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N29">
         <v>300</v>
@@ -4821,7 +4860,7 @@
         <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -4845,13 +4884,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L30">
         <v>900</v>
       </c>
       <c r="M30" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N30">
         <v>100</v>
@@ -4862,7 +4901,7 @@
         <v>405</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -4886,13 +4925,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L31">
         <v>600</v>
       </c>
       <c r="M31" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -4903,7 +4942,7 @@
         <v>406</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -4933,7 +4972,7 @@
         <v>500</v>
       </c>
       <c r="M32" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N32">
         <v>500</v>
@@ -4961,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4994,7 +5033,7 @@
         <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -5005,7 +5044,7 @@
         <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -5016,7 +5055,7 @@
         <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -5027,7 +5066,7 @@
         <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -5038,7 +5077,7 @@
         <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -5049,7 +5088,7 @@
         <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -5080,28 +5119,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5112,7 +5151,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5141,7 +5180,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5170,7 +5209,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5199,7 +5238,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5228,7 +5267,7 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5257,7 +5296,7 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5286,7 +5325,7 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5315,7 +5354,7 @@
         <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -5361,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="225">
   <si>
     <t>类型</t>
   </si>
@@ -234,6 +234,15 @@
     <t>音效/ZLaWht00</t>
   </si>
   <si>
+    <t>幼虫已加动作</t>
+  </si>
+  <si>
+    <t>Armature|Armature.001|Take 001|BaseLayer</t>
+  </si>
+  <si>
+    <t>Armature|Armature.004|Take 001|BaseLayer</t>
+  </si>
+  <si>
     <t>音效/ZLaDth00</t>
   </si>
   <si>
@@ -553,6 +562,9 @@
   </si>
   <si>
     <t>音效/ZZeYes01</t>
+  </si>
+  <si>
+    <t>Armature|Armature.002|Take 001|BaseLayer</t>
   </si>
   <si>
     <t>音效/zovRdy00</t>
@@ -1696,12 +1708,12 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2003,19 +2015,19 @@
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2023,16 +2035,16 @@
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -2044,7 +2056,7 @@
         <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2052,10 +2064,10 @@
         <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2063,28 +2075,28 @@
         <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2092,28 +2104,28 @@
         <v>213</v>
       </c>
       <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:9">
@@ -2121,16 +2133,16 @@
         <v>214</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2139,10 +2151,10 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:9">
@@ -2150,10 +2162,10 @@
         <v>301</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>11</v>
@@ -2162,13 +2174,13 @@
         <v>23</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:9">
@@ -2176,10 +2188,10 @@
         <v>302</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>11</v>
@@ -2188,13 +2200,13 @@
         <v>23</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:9">
@@ -2202,10 +2214,10 @@
         <v>303</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>11</v>
@@ -2214,10 +2226,10 @@
         <v>23</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:9">
@@ -2225,10 +2237,10 @@
         <v>304</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>11</v>
@@ -2240,10 +2252,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:9">
@@ -2251,25 +2263,25 @@
         <v>305</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:9">
@@ -2277,16 +2289,16 @@
         <v>306</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -2295,10 +2307,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:9">
@@ -2306,10 +2318,10 @@
         <v>307</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>11</v>
@@ -2318,10 +2330,10 @@
         <v>23</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:9">
@@ -2329,10 +2341,10 @@
         <v>308</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
@@ -2341,10 +2353,10 @@
         <v>23</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:9">
@@ -2352,28 +2364,28 @@
         <v>309</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:9">
@@ -2381,28 +2393,28 @@
         <v>310</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:9">
@@ -2410,16 +2422,16 @@
         <v>311</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" s="7" customFormat="1" ht="14.25" spans="1:8">
@@ -2427,7 +2439,7 @@
         <v>401</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>50</v>
@@ -2450,7 +2462,7 @@
         <v>402</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>57</v>
@@ -2473,7 +2485,7 @@
         <v>403</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>40</v>
@@ -2499,7 +2511,7 @@
         <v>404</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>21</v>
@@ -2522,7 +2534,7 @@
         <v>405</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>28</v>
@@ -2545,7 +2557,7 @@
         <v>406</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>15</v>
@@ -2593,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2763,7 +2775,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -2780,7 +2792,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2797,7 +2809,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -2814,7 +2826,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -2831,7 +2843,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2848,7 +2860,7 @@
         <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -2865,7 +2877,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C17" s="4">
         <v>25</v>
@@ -2882,7 +2894,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C18" s="4">
         <v>20</v>
@@ -2899,7 +2911,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C19" s="4">
         <v>30</v>
@@ -2916,7 +2928,7 @@
         <v>305</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C20" s="4">
         <v>25</v>
@@ -2933,7 +2945,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C21" s="4">
         <v>35</v>
@@ -2950,7 +2962,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C22" s="4">
         <v>35</v>
@@ -2967,7 +2979,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C23" s="4">
         <v>35</v>
@@ -2984,7 +2996,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C24" s="4">
         <v>30</v>
@@ -3001,7 +3013,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C25" s="4">
         <v>30</v>
@@ -3018,7 +3030,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C26">
         <v>30</v>
@@ -3052,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3063,7 +3075,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -3074,7 +3086,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -3085,7 +3097,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3096,7 +3108,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3107,7 +3119,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -3118,7 +3130,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3129,7 +3141,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -3140,7 +3152,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3151,7 +3163,7 @@
         <v>309</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -3162,7 +3174,7 @@
         <v>310</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -3173,7 +3185,7 @@
         <v>311</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -3192,7 +3204,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3207,19 +3219,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3230,7 +3242,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3239,7 +3251,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3250,16 +3262,16 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3270,16 +3282,16 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3290,16 +3302,16 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
         <v>159</v>
-      </c>
-      <c r="D5" t="s">
-        <v>156</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3310,16 +3322,16 @@
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3333,13 +3345,13 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3350,16 +3362,16 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3370,16 +3382,16 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3393,13 +3405,13 @@
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
@@ -3407,19 +3419,19 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -3427,7 +3439,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
@@ -3435,19 +3447,19 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -3455,19 +3467,19 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
@@ -3475,19 +3487,19 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3495,13 +3507,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3509,13 +3521,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3523,13 +3535,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3537,19 +3549,19 @@
         <v>404</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3557,19 +3569,19 @@
         <v>405</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3577,10 +3589,10 @@
         <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3589,7 +3601,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +3616,7 @@
   <sheetPr/>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="M15" sqref="M15"/>
@@ -3644,43 +3656,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3718,7 +3730,7 @@
         <v>500</v>
       </c>
       <c r="M2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N2">
         <v>500</v>
@@ -3753,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L3">
         <v>900</v>
       </c>
       <c r="M3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -3794,13 +3806,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L4">
         <v>600</v>
       </c>
       <c r="M4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -3838,13 +3850,13 @@
         <v>5000</v>
       </c>
       <c r="K5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L5">
         <v>300</v>
       </c>
       <c r="M5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -3879,13 +3891,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L6">
         <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -3920,13 +3932,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L7">
         <v>800</v>
       </c>
       <c r="M7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -3961,13 +3973,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L8">
         <v>600</v>
       </c>
       <c r="M8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -4002,13 +4014,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L9">
         <v>500</v>
       </c>
       <c r="M9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -4043,13 +4055,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L10">
         <v>600</v>
       </c>
       <c r="M10" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -4060,7 +4072,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -4087,13 +4099,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L11">
         <v>500</v>
       </c>
       <c r="M11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="N11">
         <v>900</v>
@@ -4104,7 +4116,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4131,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -4142,7 +4154,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4177,7 +4189,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -4204,7 +4216,7 @@
         <v>600</v>
       </c>
       <c r="M14" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N14">
         <v>300</v>
@@ -4215,7 +4227,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -4245,7 +4257,7 @@
         <v>1000</v>
       </c>
       <c r="M15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N15">
         <v>100</v>
@@ -4256,7 +4268,7 @@
         <v>301</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4300,7 +4312,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4344,7 +4356,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4388,7 +4400,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4432,7 +4444,7 @@
         <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -4456,13 +4468,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L20">
         <v>400</v>
       </c>
       <c r="M20" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N20">
         <v>400</v>
@@ -4473,7 +4485,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4517,7 +4529,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4561,7 +4573,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4605,7 +4617,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4649,7 +4661,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4693,7 +4705,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4737,7 +4749,7 @@
         <v>401</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C27">
         <v>18</v>
@@ -4761,13 +4773,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L27">
         <v>300</v>
       </c>
       <c r="M27" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4778,7 +4790,7 @@
         <v>402</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -4802,13 +4814,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L28">
         <v>400</v>
       </c>
       <c r="M28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4819,7 +4831,7 @@
         <v>403</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -4843,13 +4855,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L29">
         <v>600</v>
       </c>
       <c r="M29" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N29">
         <v>300</v>
@@ -4860,7 +4872,7 @@
         <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -4884,13 +4896,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L30">
         <v>900</v>
       </c>
       <c r="M30" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N30">
         <v>100</v>
@@ -4901,7 +4913,7 @@
         <v>405</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -4925,13 +4937,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L31">
         <v>600</v>
       </c>
       <c r="M31" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -4942,7 +4954,7 @@
         <v>406</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -4972,7 +4984,7 @@
         <v>500</v>
       </c>
       <c r="M32" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N32">
         <v>500</v>
@@ -5000,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5022,7 +5034,7 @@
         <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -5033,7 +5045,7 @@
         <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -5044,7 +5056,7 @@
         <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -5055,7 +5067,7 @@
         <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -5066,7 +5078,7 @@
         <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -5077,7 +5089,7 @@
         <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -5088,7 +5100,7 @@
         <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -5119,28 +5131,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5151,7 +5163,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5180,7 +5192,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5209,7 +5221,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5238,7 +5250,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5267,7 +5279,7 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5296,7 +5308,7 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5322,10 +5334,10 @@
         <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5351,10 +5363,10 @@
         <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -5400,13 +5412,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="229">
   <si>
     <t>类型</t>
   </si>
@@ -457,6 +457,18 @@
   </si>
   <si>
     <t>绿色坦克的前置建筑</t>
+  </si>
+  <si>
+    <t>太岁</t>
+  </si>
+  <si>
+    <t>建筑/太岁</t>
+  </si>
+  <si>
+    <t>苔蔓</t>
+  </si>
+  <si>
+    <t>建筑/苔蔓</t>
   </si>
   <si>
     <t>枪怪</t>
@@ -1706,14 +1718,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2434,113 +2446,89 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A29" s="7">
+    <row r="29" s="4" customFormat="1" spans="1:3">
+      <c r="A29" s="4">
+        <v>312</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:3">
+      <c r="A30" s="4">
+        <v>313</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" s="7" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A31" s="7">
         <v>401</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A30" s="7">
+    <row r="32" s="7" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A32" s="7">
         <v>402</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="31" s="7" customFormat="1" spans="1:8">
-      <c r="A31" s="7">
-        <v>403</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" s="7" customFormat="1" spans="1:8">
-      <c r="A32" s="7">
-        <v>404</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="33" s="7" customFormat="1" spans="1:8">
       <c r="A33" s="7">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>23</v>
@@ -2549,32 +2537,78 @@
         <v>30</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" s="7" customFormat="1" spans="1:8">
       <c r="A34" s="7">
+        <v>404</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" s="7" customFormat="1" spans="1:8">
+      <c r="A35" s="7">
+        <v>405</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" s="7" customFormat="1" spans="1:8">
+      <c r="A36" s="7">
         <v>406</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B36" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
         <v>3</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2588,10 +2622,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A27" sqref="A27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2605,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3040,6 +3074,40 @@
       </c>
       <c r="E26">
         <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4">
+        <v>312</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4">
+        <v>313</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3051,10 +3119,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3064,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3189,6 +3257,28 @@
       </c>
       <c r="C12">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4">
+        <v>312</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4">
+        <v>313</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3219,19 +3309,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3242,7 +3332,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3251,7 +3341,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3262,16 +3352,16 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3282,16 +3372,16 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3302,16 +3392,16 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3322,16 +3412,16 @@
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3345,13 +3435,13 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3362,16 +3452,16 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3382,16 +3472,16 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3405,7 +3495,7 @@
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
         <v>73</v>
@@ -3422,16 +3512,16 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -3450,16 +3540,16 @@
         <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -3470,16 +3560,16 @@
         <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
@@ -3490,16 +3580,16 @@
         <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3507,13 +3597,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3521,13 +3611,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3535,13 +3625,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3549,19 +3639,19 @@
         <v>404</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3569,19 +3659,19 @@
         <v>405</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3589,10 +3679,10 @@
         <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3601,7 +3691,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3656,43 +3746,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3730,7 +3820,7 @@
         <v>500</v>
       </c>
       <c r="M2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N2">
         <v>500</v>
@@ -3765,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L3">
         <v>900</v>
       </c>
       <c r="M3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -3806,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L4">
         <v>600</v>
       </c>
       <c r="M4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -3850,13 +3940,13 @@
         <v>5000</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L5">
         <v>300</v>
       </c>
       <c r="M5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -3891,13 +3981,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L6">
         <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -3932,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L7">
         <v>800</v>
       </c>
       <c r="M7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -3973,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L8">
         <v>600</v>
       </c>
       <c r="M8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -4014,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L9">
         <v>500</v>
       </c>
       <c r="M9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -4055,13 +4145,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L10">
         <v>600</v>
       </c>
       <c r="M10" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -4099,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L11">
         <v>500</v>
       </c>
       <c r="M11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N11">
         <v>900</v>
@@ -4143,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -4216,7 +4306,7 @@
         <v>600</v>
       </c>
       <c r="M14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N14">
         <v>300</v>
@@ -4257,7 +4347,7 @@
         <v>1000</v>
       </c>
       <c r="M15" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N15">
         <v>100</v>
@@ -4468,13 +4558,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L20">
         <v>400</v>
       </c>
       <c r="M20" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N20">
         <v>400</v>
@@ -4749,7 +4839,7 @@
         <v>401</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C27">
         <v>18</v>
@@ -4773,13 +4863,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L27">
         <v>300</v>
       </c>
       <c r="M27" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4790,7 +4880,7 @@
         <v>402</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -4814,13 +4904,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L28">
         <v>400</v>
       </c>
       <c r="M28" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4831,7 +4921,7 @@
         <v>403</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -4855,13 +4945,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L29">
         <v>600</v>
       </c>
       <c r="M29" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N29">
         <v>300</v>
@@ -4872,7 +4962,7 @@
         <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -4896,13 +4986,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L30">
         <v>900</v>
       </c>
       <c r="M30" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N30">
         <v>100</v>
@@ -4913,7 +5003,7 @@
         <v>405</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -4937,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L31">
         <v>600</v>
       </c>
       <c r="M31" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -4954,7 +5044,7 @@
         <v>406</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -4984,7 +5074,7 @@
         <v>500</v>
       </c>
       <c r="M32" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N32">
         <v>500</v>
@@ -5012,10 +5102,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5045,7 +5135,7 @@
         <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -5056,7 +5146,7 @@
         <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -5067,7 +5157,7 @@
         <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -5078,7 +5168,7 @@
         <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -5089,7 +5179,7 @@
         <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -5100,7 +5190,7 @@
         <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -5131,28 +5221,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5163,7 +5253,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5192,7 +5282,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5221,7 +5311,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5250,7 +5340,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5279,7 +5369,7 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5308,7 +5398,7 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5337,7 +5427,7 @@
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5366,7 +5456,7 @@
         <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -5412,13 +5502,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="230">
   <si>
     <t>类型</t>
   </si>
   <si>
     <t>名字</t>
+  </si>
+  <si>
+    <t>种族</t>
   </si>
   <si>
     <t>PrefabPathName</t>
@@ -1718,25 +1721,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29:B30"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="4" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="30.75" customWidth="1"/>
+    <col min="7" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:9">
+    <row r="1" s="5" customFormat="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1764,44 +1767,53 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="6" customFormat="1" spans="1:4">
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:5">
       <c r="A2" s="6">
         <v>101</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:4">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:5">
       <c r="A3" s="6">
         <v>102</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
         <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1809,33 +1821,36 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
         <v>21</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
       <c r="G5" t="s">
@@ -1847,25 +1862,28 @@
       <c r="I5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
         <v>28</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
+      <c r="E6" t="s">
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
@@ -1873,25 +1891,28 @@
       <c r="I6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
         <v>34</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
+      <c r="E7" t="s">
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
         <v>37</v>
@@ -1899,16 +1920,19 @@
       <c r="I7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
         <v>40</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1917,61 +1941,67 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
         <v>46</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
+      <c r="E9" t="s">
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:10">
       <c r="A10">
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
         <v>50</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G10" t="s">
@@ -1981,26 +2011,29 @@
         <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:10">
       <c r="A11">
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
         <v>57</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G11" t="s">
@@ -2010,18 +2043,21 @@
         <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
         <v>64</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
@@ -2041,16 +2077,19 @@
       <c r="I12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
         <v>72</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>73</v>
@@ -2059,47 +2098,53 @@
         <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
         <v>79</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
         <v>82</v>
@@ -2110,16 +2155,19 @@
       <c r="I15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s">
         <v>86</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>87</v>
@@ -2128,27 +2176,30 @@
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
         <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:9">
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:10">
       <c r="A17">
         <v>214</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
         <v>92</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>93</v>
@@ -2156,37 +2207,40 @@
       <c r="E17" t="s">
         <v>94</v>
       </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="F17" t="s">
+        <v>95</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>95</v>
       </c>
       <c r="I17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="1:9">
+      <c r="J17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" spans="1:10">
       <c r="A18" s="4">
         <v>301</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
       <c r="D18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>23</v>
+        <v>99</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>100</v>
@@ -2194,25 +2248,28 @@
       <c r="I18" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="1:9">
+      <c r="J18" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="1" spans="1:10">
       <c r="A19" s="4">
         <v>302</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>105</v>
@@ -2220,71 +2277,80 @@
       <c r="I19" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="1:9">
+      <c r="J19" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" spans="1:10">
       <c r="A20" s="4">
         <v>303</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" s="4" customFormat="1" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="1" spans="1:10">
       <c r="A21" s="4">
         <v>304</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
       <c r="D21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>23</v>
+        <v>111</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" s="4" customFormat="1" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="1" spans="1:10">
       <c r="A22" s="4">
         <v>305</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
       <c r="D22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="4" t="s">
         <v>114</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>115</v>
@@ -2295,16 +2361,19 @@
       <c r="I22" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="23" s="4" customFormat="1" spans="1:9">
+      <c r="J22" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" s="4" customFormat="1" spans="1:10">
       <c r="A23" s="4">
         <v>306</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="4" t="s">
         <v>119</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>120</v>
@@ -2312,176 +2381,200 @@
       <c r="E23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="4">
-        <v>0</v>
+      <c r="F23" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="24" s="4" customFormat="1" spans="1:9">
+      <c r="J23" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" s="4" customFormat="1" spans="1:10">
       <c r="A24" s="4">
         <v>307</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
       <c r="D24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>105</v>
+        <v>126</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" s="4" customFormat="1" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:10">
       <c r="A25" s="4">
         <v>308</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
       <c r="D25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>105</v>
+        <v>129</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:10">
       <c r="A26" s="4">
         <v>309</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="4" t="s">
         <v>131</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:10">
       <c r="A27" s="4">
         <v>310</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="4" t="s">
         <v>135</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="1" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:10">
       <c r="A28" s="4">
         <v>311</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
       <c r="D28" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I28" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="1:3">
+      <c r="E28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:4">
       <c r="A29" s="4">
         <v>312</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" s="4" customFormat="1" spans="1:3">
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:4">
       <c r="A30" s="4">
         <v>313</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="31" s="7" customFormat="1" ht="14.25" spans="1:8">
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" s="7" customFormat="1" ht="14.25" spans="1:9">
       <c r="A31" s="7">
         <v>401</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="7" t="s">
@@ -2490,21 +2583,24 @@
       <c r="H31" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" s="7" customFormat="1" ht="14.25" spans="1:8">
+      <c r="I31" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" s="7" customFormat="1" ht="14.25" spans="1:9">
       <c r="A32" s="7">
         <v>402</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -2513,16 +2609,19 @@
       <c r="H32" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" s="7" customFormat="1" spans="1:8">
+      <c r="I32" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" s="7" customFormat="1" spans="1:9">
       <c r="A33" s="7">
         <v>403</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>40</v>
+        <v>148</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>41</v>
@@ -2531,29 +2630,32 @@
         <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" s="7" customFormat="1" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" s="7" customFormat="1" spans="1:9">
       <c r="A34" s="7">
         <v>404</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="7" t="s">
@@ -2562,39 +2664,45 @@
       <c r="H34" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" s="7" customFormat="1" spans="1:8">
+      <c r="I34" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" s="7" customFormat="1" spans="1:9">
       <c r="A35" s="7">
         <v>405</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>28</v>
+        <v>150</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>23</v>
+      <c r="E35" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" s="7" customFormat="1" spans="1:8">
+      <c r="I35" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" s="7" customFormat="1" spans="1:9">
       <c r="A36" s="7">
         <v>406</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>16</v>
@@ -2602,14 +2710,17 @@
       <c r="E36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="7">
-        <v>0</v>
+      <c r="F36" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
         <v>3</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>18</v>
+      <c r="I36" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2639,16 +2750,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2656,7 +2767,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2673,7 +2784,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -2690,7 +2801,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -2707,7 +2818,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -2724,7 +2835,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2741,7 +2852,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -2758,7 +2869,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2775,7 +2886,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2792,7 +2903,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2809,7 +2920,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -2826,7 +2937,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2843,7 +2954,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -2860,7 +2971,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -2877,7 +2988,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2894,7 +3005,7 @@
         <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -2911,7 +3022,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" s="4">
         <v>25</v>
@@ -2928,7 +3039,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="4">
         <v>20</v>
@@ -2945,7 +3056,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19" s="4">
         <v>30</v>
@@ -2962,7 +3073,7 @@
         <v>305</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" s="4">
         <v>25</v>
@@ -2979,7 +3090,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C21" s="4">
         <v>35</v>
@@ -2996,7 +3107,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" s="4">
         <v>35</v>
@@ -3013,7 +3124,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" s="4">
         <v>35</v>
@@ -3030,7 +3141,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" s="4">
         <v>30</v>
@@ -3047,7 +3158,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C25" s="4">
         <v>30</v>
@@ -3064,7 +3175,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26">
         <v>30</v>
@@ -3081,7 +3192,7 @@
         <v>312</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -3098,7 +3209,7 @@
         <v>313</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3121,7 +3232,7 @@
   <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3132,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3143,7 +3254,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -3154,7 +3265,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -3165,7 +3276,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3176,7 +3287,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3187,7 +3298,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -3198,7 +3309,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3209,7 +3320,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -3220,7 +3331,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3231,7 +3342,7 @@
         <v>309</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -3242,7 +3353,7 @@
         <v>310</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -3253,7 +3364,7 @@
         <v>311</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -3264,7 +3375,7 @@
         <v>312</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -3275,7 +3386,7 @@
         <v>313</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3309,19 +3420,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3329,19 +3440,19 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3349,19 +3460,19 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3369,19 +3480,19 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>165</v>
-      </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3389,19 +3500,19 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3409,19 +3520,19 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3429,19 +3540,19 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3449,19 +3560,19 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3469,19 +3580,19 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3489,19 +3600,19 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
@@ -3509,19 +3620,19 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -3529,7 +3640,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
@@ -3537,19 +3648,19 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -3557,19 +3668,19 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
@@ -3577,19 +3688,19 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3597,13 +3708,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3611,13 +3722,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3625,13 +3736,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3639,19 +3750,19 @@
         <v>404</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3659,19 +3770,19 @@
         <v>405</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
         <v>165</v>
-      </c>
-      <c r="D20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3679,19 +3790,19 @@
         <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3746,43 +3857,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3790,7 +3901,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -3820,7 +3931,7 @@
         <v>500</v>
       </c>
       <c r="M2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N2">
         <v>500</v>
@@ -3831,7 +3942,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -3855,13 +3966,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L3">
         <v>900</v>
       </c>
       <c r="M3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -3872,7 +3983,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -3896,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L4">
         <v>600</v>
       </c>
       <c r="M4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -3913,7 +4024,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -3934,19 +4045,19 @@
         <v>0.1</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5">
         <v>5000</v>
       </c>
       <c r="K5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L5">
         <v>300</v>
       </c>
       <c r="M5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -3957,7 +4068,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -3981,13 +4092,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L6">
         <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -3998,7 +4109,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -4022,13 +4133,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L7">
         <v>800</v>
       </c>
       <c r="M7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -4039,7 +4150,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -4063,13 +4174,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L8">
         <v>600</v>
       </c>
       <c r="M8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -4080,7 +4191,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -4104,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L9">
         <v>500</v>
       </c>
       <c r="M9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -4121,7 +4232,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4145,13 +4256,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L10">
         <v>600</v>
       </c>
       <c r="M10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -4162,7 +4273,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -4183,19 +4294,19 @@
         <v>0.3</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L11">
         <v>500</v>
       </c>
       <c r="M11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N11">
         <v>900</v>
@@ -4206,7 +4317,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4233,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -4244,7 +4355,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4279,7 +4390,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -4306,7 +4417,7 @@
         <v>600</v>
       </c>
       <c r="M14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N14">
         <v>300</v>
@@ -4317,7 +4428,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -4347,7 +4458,7 @@
         <v>1000</v>
       </c>
       <c r="M15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N15">
         <v>100</v>
@@ -4358,7 +4469,7 @@
         <v>301</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4402,7 +4513,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4446,7 +4557,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4490,7 +4601,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4534,7 +4645,7 @@
         <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -4558,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L20">
         <v>400</v>
       </c>
       <c r="M20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20">
         <v>400</v>
@@ -4575,7 +4686,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4619,7 +4730,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4663,7 +4774,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4707,7 +4818,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4751,7 +4862,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4795,7 +4906,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4839,7 +4950,7 @@
         <v>401</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27">
         <v>18</v>
@@ -4863,13 +4974,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L27">
         <v>300</v>
       </c>
       <c r="M27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4880,7 +4991,7 @@
         <v>402</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -4904,13 +5015,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L28">
         <v>400</v>
       </c>
       <c r="M28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4921,7 +5032,7 @@
         <v>403</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -4945,13 +5056,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L29">
         <v>600</v>
       </c>
       <c r="M29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N29">
         <v>300</v>
@@ -4962,7 +5073,7 @@
         <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -4986,13 +5097,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30">
         <v>900</v>
       </c>
       <c r="M30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N30">
         <v>100</v>
@@ -5003,7 +5114,7 @@
         <v>405</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -5027,13 +5138,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L31">
         <v>600</v>
       </c>
       <c r="M31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -5044,7 +5155,7 @@
         <v>406</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -5074,7 +5185,7 @@
         <v>500</v>
       </c>
       <c r="M32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N32">
         <v>500</v>
@@ -5102,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5113,7 +5224,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -5124,7 +5235,7 @@
         <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -5135,7 +5246,7 @@
         <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -5146,7 +5257,7 @@
         <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -5157,7 +5268,7 @@
         <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -5168,7 +5279,7 @@
         <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -5179,7 +5290,7 @@
         <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -5190,7 +5301,7 @@
         <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -5221,28 +5332,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5250,10 +5361,10 @@
         <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5279,10 +5390,10 @@
         <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5308,10 +5419,10 @@
         <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5337,10 +5448,10 @@
         <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5366,10 +5477,10 @@
         <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5395,10 +5506,10 @@
         <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5424,10 +5535,10 @@
         <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5453,10 +5564,10 @@
         <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -5502,13 +5613,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5516,7 +5627,7 @@
         <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -5530,7 +5641,7 @@
         <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>25</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="232">
   <si>
     <t>类型</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>视口</t>
   </si>
   <si>
     <t>晶体矿</t>
@@ -1379,7 +1385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1396,6 +1402,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1721,14 +1730,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1771,9 +1780,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:5">
+    <row r="2" s="6" customFormat="1" spans="1:3">
       <c r="A2" s="6">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>10</v>
@@ -1781,946 +1790,968 @@
       <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" spans="1:5">
+      <c r="A4" s="7">
+        <v>101</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:5">
-      <c r="A3" s="6">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" spans="1:5">
+      <c r="A5" s="7">
         <v>102</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>201</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>202</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="12" ht="14.25" spans="1:10">
+      <c r="A12">
+        <v>207</v>
+      </c>
+      <c r="B12" t="s">
         <v>52</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:10">
-      <c r="A11">
-        <v>208</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>209</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:10">
       <c r="A13">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>209</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" t="s">
         <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>211</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>80</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>82</v>
       </c>
-      <c r="H15" t="s">
+      <c r="E17" t="s">
         <v>83</v>
       </c>
-      <c r="I15" t="s">
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
         <v>84</v>
       </c>
-      <c r="J15" t="s">
+      <c r="H17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
         <v>213</v>
       </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D18" t="s">
         <v>89</v>
       </c>
-      <c r="G16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="E18" t="s">
         <v>90</v>
       </c>
-      <c r="J16" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:10">
-      <c r="A17">
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:10">
+      <c r="A19">
         <v>214</v>
       </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B19" t="s">
         <v>94</v>
       </c>
-      <c r="F17" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>95</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="I17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="1:10">
-      <c r="A18" s="4">
-        <v>301</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="I19" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="J19" t="s">
         <v>99</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="1:10">
-      <c r="A19" s="4">
-        <v>302</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:10">
       <c r="A20" s="4">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:10">
       <c r="A21" s="4">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:10">
       <c r="A22" s="4">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C22" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:10">
       <c r="A23" s="4">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:10">
       <c r="A24" s="4">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C24" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>24</v>
+        <v>117</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:10">
       <c r="A25" s="4">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>24</v>
+        <v>123</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:10">
       <c r="A26" s="4">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:10">
       <c r="A27" s="4">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:10">
       <c r="A28" s="4">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:10">
+      <c r="A29" s="4">
+        <v>310</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="1:4">
-      <c r="A29" s="4">
-        <v>312</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" s="4" customFormat="1" spans="1:4">
+        <v>138</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:10">
       <c r="A30" s="4">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1" spans="1:4">
+      <c r="A31" s="4">
+        <v>312</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A31" s="7">
+    <row r="32" s="4" customFormat="1" spans="1:4">
+      <c r="A32" s="4">
+        <v>313</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" s="8" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A33" s="8">
         <v>401</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="B33" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="8">
         <v>2</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="7" t="s">
+      <c r="F33" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="G33" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" s="7" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A32" s="7">
+      <c r="H33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" s="8" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A34" s="8">
         <v>402</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="B34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="8">
         <v>2</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="7" t="s">
+      <c r="F34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="G34" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" s="7" customFormat="1" spans="1:9">
-      <c r="A33" s="7">
+      <c r="H34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" s="8" customFormat="1" spans="1:9">
+      <c r="A35" s="8">
         <v>403</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="B35" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="8">
         <v>2</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="D35" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="E35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" s="8" customFormat="1" spans="1:9">
+      <c r="A36" s="8">
+        <v>404</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="E36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" s="8" customFormat="1" spans="1:9">
+      <c r="A37" s="8">
+        <v>405</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" s="7" customFormat="1" spans="1:9">
-      <c r="A34" s="7">
-        <v>404</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="7" t="s">
+      <c r="E37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" s="7" customFormat="1" spans="1:9">
-      <c r="A35" s="7">
-        <v>405</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" s="7" customFormat="1" spans="1:9">
-      <c r="A36" s="7">
+      <c r="H37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" s="8" customFormat="1" spans="1:9">
+      <c r="A38" s="8">
         <v>406</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="B38" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
+      <c r="E38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
         <v>3</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>19</v>
+      <c r="I38" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2750,16 +2781,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2767,7 +2798,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2784,7 +2815,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -2801,7 +2832,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -2818,7 +2849,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -2835,7 +2866,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2852,7 +2883,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -2869,7 +2900,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2886,7 +2917,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2903,7 +2934,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2920,7 +2951,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -2937,7 +2968,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2954,7 +2985,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -2971,7 +3002,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -2988,7 +3019,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -3005,7 +3036,7 @@
         <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -3022,7 +3053,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C17" s="4">
         <v>25</v>
@@ -3039,7 +3070,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C18" s="4">
         <v>20</v>
@@ -3056,7 +3087,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C19" s="4">
         <v>30</v>
@@ -3073,7 +3104,7 @@
         <v>305</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4">
         <v>25</v>
@@ -3090,7 +3121,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C21" s="4">
         <v>35</v>
@@ -3107,7 +3138,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C22" s="4">
         <v>35</v>
@@ -3124,7 +3155,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C23" s="4">
         <v>35</v>
@@ -3141,7 +3172,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C24" s="4">
         <v>30</v>
@@ -3158,7 +3189,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C25" s="4">
         <v>30</v>
@@ -3175,7 +3206,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C26">
         <v>30</v>
@@ -3192,7 +3223,7 @@
         <v>312</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -3209,7 +3240,7 @@
         <v>313</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3243,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3254,7 +3285,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -3265,7 +3296,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -3276,7 +3307,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3287,7 +3318,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3298,7 +3329,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C6">
         <v>2.5</v>
@@ -3309,7 +3340,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3320,7 +3351,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -3331,7 +3362,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3342,7 +3373,7 @@
         <v>309</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -3353,7 +3384,7 @@
         <v>310</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -3364,7 +3395,7 @@
         <v>311</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -3375,7 +3406,7 @@
         <v>312</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -3386,7 +3417,7 @@
         <v>313</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3420,19 +3451,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3440,19 +3471,19 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3460,19 +3491,19 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3480,19 +3511,19 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
         <v>166</v>
       </c>
-      <c r="D4" t="s">
-        <v>164</v>
-      </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3500,19 +3531,19 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3520,19 +3551,19 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3540,19 +3571,19 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3560,19 +3591,19 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3580,19 +3611,19 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3600,19 +3631,19 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
@@ -3620,19 +3651,19 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -3640,7 +3671,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
@@ -3648,19 +3679,19 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -3668,19 +3699,19 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
@@ -3688,19 +3719,19 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3708,13 +3739,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3722,13 +3753,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3736,13 +3767,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3750,19 +3781,19 @@
         <v>404</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3770,19 +3801,19 @@
         <v>405</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" t="s">
         <v>166</v>
       </c>
-      <c r="D20" t="s">
-        <v>164</v>
-      </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3790,19 +3821,19 @@
         <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3857,43 +3888,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3901,7 +3932,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -3931,7 +3962,7 @@
         <v>500</v>
       </c>
       <c r="M2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N2">
         <v>500</v>
@@ -3942,7 +3973,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -3966,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L3">
         <v>900</v>
       </c>
       <c r="M3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -3983,7 +4014,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -4007,13 +4038,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L4">
         <v>600</v>
       </c>
       <c r="M4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -4024,7 +4055,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -4045,19 +4076,19 @@
         <v>0.1</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>5000</v>
       </c>
       <c r="K5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L5">
         <v>300</v>
       </c>
       <c r="M5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -4068,7 +4099,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4092,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L6">
         <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -4109,7 +4140,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -4133,13 +4164,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L7">
         <v>800</v>
       </c>
       <c r="M7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -4150,7 +4181,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -4174,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L8">
         <v>600</v>
       </c>
       <c r="M8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -4191,7 +4222,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -4215,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L9">
         <v>500</v>
       </c>
       <c r="M9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -4232,7 +4263,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4256,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10">
         <v>600</v>
       </c>
       <c r="M10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -4273,7 +4304,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -4294,19 +4325,19 @@
         <v>0.3</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L11">
         <v>500</v>
       </c>
       <c r="M11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N11">
         <v>900</v>
@@ -4317,7 +4348,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4344,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -4355,7 +4386,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4390,7 +4421,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -4417,7 +4448,7 @@
         <v>600</v>
       </c>
       <c r="M14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N14">
         <v>300</v>
@@ -4428,7 +4459,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -4458,7 +4489,7 @@
         <v>1000</v>
       </c>
       <c r="M15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N15">
         <v>100</v>
@@ -4469,7 +4500,7 @@
         <v>301</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4513,7 +4544,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4557,7 +4588,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4601,7 +4632,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4645,7 +4676,7 @@
         <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -4669,13 +4700,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L20">
         <v>400</v>
       </c>
       <c r="M20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N20">
         <v>400</v>
@@ -4686,7 +4717,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4730,7 +4761,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4774,7 +4805,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4818,7 +4849,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4862,7 +4893,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4906,7 +4937,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4950,7 +4981,7 @@
         <v>401</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C27">
         <v>18</v>
@@ -4974,13 +5005,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L27">
         <v>300</v>
       </c>
       <c r="M27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4991,7 +5022,7 @@
         <v>402</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -5015,13 +5046,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L28">
         <v>400</v>
       </c>
       <c r="M28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -5032,7 +5063,7 @@
         <v>403</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -5056,13 +5087,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L29">
         <v>600</v>
       </c>
       <c r="M29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N29">
         <v>300</v>
@@ -5073,7 +5104,7 @@
         <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -5097,13 +5128,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L30">
         <v>900</v>
       </c>
       <c r="M30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N30">
         <v>100</v>
@@ -5114,7 +5145,7 @@
         <v>405</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -5138,13 +5169,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L31">
         <v>600</v>
       </c>
       <c r="M31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -5155,7 +5186,7 @@
         <v>406</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -5185,7 +5216,7 @@
         <v>500</v>
       </c>
       <c r="M32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N32">
         <v>500</v>
@@ -5213,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5224,7 +5255,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -5235,7 +5266,7 @@
         <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -5246,7 +5277,7 @@
         <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -5257,7 +5288,7 @@
         <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -5268,7 +5299,7 @@
         <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -5279,7 +5310,7 @@
         <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -5290,7 +5321,7 @@
         <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -5301,7 +5332,7 @@
         <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -5332,28 +5363,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5361,10 +5392,10 @@
         <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5390,10 +5421,10 @@
         <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5419,10 +5450,10 @@
         <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5448,10 +5479,10 @@
         <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5477,10 +5508,10 @@
         <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5506,10 +5537,10 @@
         <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5535,10 +5566,10 @@
         <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5564,10 +5595,10 @@
         <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -5613,13 +5644,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5627,7 +5658,7 @@
         <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -5641,7 +5672,7 @@
         <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>25</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="234">
   <si>
     <t>类型</t>
   </si>
@@ -474,40 +474,46 @@
     <t>建筑/太岁</t>
   </si>
   <si>
+    <t>苔蔓(wàn)</t>
+  </si>
+  <si>
+    <t>建筑/苔蔓</t>
+  </si>
+  <si>
+    <t>可扩张苔蔓(wàn)</t>
+  </si>
+  <si>
+    <t>枪怪</t>
+  </si>
+  <si>
+    <t>近战怪</t>
+  </si>
+  <si>
+    <t>工怪</t>
+  </si>
+  <si>
+    <t>枪兵怪</t>
+  </si>
+  <si>
+    <t>近战兵怪</t>
+  </si>
+  <si>
+    <t>工程车怪</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>消耗晶体矿</t>
+  </si>
+  <si>
+    <t>消耗燃气矿</t>
+  </si>
+  <si>
+    <t>初始HP</t>
+  </si>
+  <si>
     <t>苔蔓</t>
-  </si>
-  <si>
-    <t>建筑/苔蔓</t>
-  </si>
-  <si>
-    <t>枪怪</t>
-  </si>
-  <si>
-    <t>近战怪</t>
-  </si>
-  <si>
-    <t>工怪</t>
-  </si>
-  <si>
-    <t>枪兵怪</t>
-  </si>
-  <si>
-    <t>近战兵怪</t>
-  </si>
-  <si>
-    <t>工程车怪</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>消耗晶体矿</t>
-  </si>
-  <si>
-    <t>消耗燃气矿</t>
-  </si>
-  <si>
-    <t>初始HP</t>
   </si>
   <si>
     <t>f半边长</t>
@@ -1732,12 +1738,12 @@
   <sheetPr/>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2578,7 +2584,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" s="4" customFormat="1" spans="1:4">
+    <row r="32" s="4" customFormat="1" spans="1:10">
       <c r="A32" s="4">
         <v>313</v>
       </c>
@@ -2590,6 +2596,9 @@
       </c>
       <c r="D32" s="4" t="s">
         <v>147</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="33" s="8" customFormat="1" ht="14.25" spans="1:9">
@@ -2597,7 +2606,7 @@
         <v>401</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C33" s="8">
         <v>2</v>
@@ -2623,7 +2632,7 @@
         <v>402</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C34" s="8">
         <v>2</v>
@@ -2649,7 +2658,7 @@
         <v>403</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C35" s="8">
         <v>2</v>
@@ -2678,7 +2687,7 @@
         <v>404</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -2704,7 +2713,7 @@
         <v>405</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C37" s="8">
         <v>1</v>
@@ -2730,7 +2739,7 @@
         <v>406</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -2766,8 +2775,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2781,16 +2790,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3226,13 +3235,13 @@
         <v>144</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3240,7 +3249,7 @@
         <v>313</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3274,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3417,7 +3426,7 @@
         <v>313</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3451,19 +3460,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3474,7 +3483,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3483,7 +3492,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3494,16 +3503,16 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3514,16 +3523,16 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
         <v>168</v>
-      </c>
-      <c r="D4" t="s">
-        <v>166</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3534,16 +3543,16 @@
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3554,16 +3563,16 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3577,13 +3586,13 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3594,16 +3603,16 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3614,16 +3623,16 @@
         <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3637,7 +3646,7 @@
         <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
         <v>76</v>
@@ -3654,16 +3663,16 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -3682,16 +3691,16 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -3702,16 +3711,16 @@
         <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
@@ -3722,16 +3731,16 @@
         <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3739,13 +3748,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3753,13 +3762,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3767,13 +3776,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3781,19 +3790,19 @@
         <v>404</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3801,19 +3810,19 @@
         <v>405</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
         <v>168</v>
-      </c>
-      <c r="D20" t="s">
-        <v>166</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3821,10 +3830,10 @@
         <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3833,7 +3842,7 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3888,43 +3897,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3962,7 +3971,7 @@
         <v>500</v>
       </c>
       <c r="M2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N2">
         <v>500</v>
@@ -3997,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L3">
         <v>900</v>
       </c>
       <c r="M3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -4038,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L4">
         <v>600</v>
       </c>
       <c r="M4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -4082,13 +4091,13 @@
         <v>5000</v>
       </c>
       <c r="K5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L5">
         <v>300</v>
       </c>
       <c r="M5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -4123,13 +4132,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L6">
         <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -4164,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L7">
         <v>800</v>
       </c>
       <c r="M7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -4205,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L8">
         <v>600</v>
       </c>
       <c r="M8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -4246,13 +4255,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L9">
         <v>500</v>
       </c>
       <c r="M9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -4287,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L10">
         <v>600</v>
       </c>
       <c r="M10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -4331,13 +4340,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L11">
         <v>500</v>
       </c>
       <c r="M11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N11">
         <v>900</v>
@@ -4375,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -4448,7 +4457,7 @@
         <v>600</v>
       </c>
       <c r="M14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N14">
         <v>300</v>
@@ -4489,7 +4498,7 @@
         <v>1000</v>
       </c>
       <c r="M15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N15">
         <v>100</v>
@@ -4700,13 +4709,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L20">
         <v>400</v>
       </c>
       <c r="M20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N20">
         <v>400</v>
@@ -4981,7 +4990,7 @@
         <v>401</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27">
         <v>18</v>
@@ -5005,13 +5014,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L27">
         <v>300</v>
       </c>
       <c r="M27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -5022,7 +5031,7 @@
         <v>402</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -5046,13 +5055,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L28">
         <v>400</v>
       </c>
       <c r="M28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -5063,7 +5072,7 @@
         <v>403</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -5087,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L29">
         <v>600</v>
       </c>
       <c r="M29" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N29">
         <v>300</v>
@@ -5104,7 +5113,7 @@
         <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -5128,13 +5137,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L30">
         <v>900</v>
       </c>
       <c r="M30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N30">
         <v>100</v>
@@ -5145,7 +5154,7 @@
         <v>405</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -5169,13 +5178,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L31">
         <v>600</v>
       </c>
       <c r="M31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -5186,7 +5195,7 @@
         <v>406</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -5216,7 +5225,7 @@
         <v>500</v>
       </c>
       <c r="M32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N32">
         <v>500</v>
@@ -5244,10 +5253,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5277,7 +5286,7 @@
         <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -5288,7 +5297,7 @@
         <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -5299,7 +5308,7 @@
         <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -5310,7 +5319,7 @@
         <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -5321,7 +5330,7 @@
         <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -5332,7 +5341,7 @@
         <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -5363,28 +5372,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5395,7 +5404,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5424,7 +5433,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5453,7 +5462,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5482,7 +5491,7 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5511,7 +5520,7 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5540,7 +5549,7 @@
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5569,7 +5578,7 @@
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5598,7 +5607,7 @@
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -5644,13 +5653,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="怪" sheetId="7" r:id="rId6"/>
     <sheet name="单位属性等级" sheetId="8" r:id="rId7"/>
     <sheet name="单位解锁" sheetId="9" r:id="rId8"/>
+    <sheet name="Buff" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="241">
   <si>
     <t>类型</t>
   </si>
@@ -736,6 +737,27 @@
   </si>
   <si>
     <t>攻速</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>变化值</t>
+  </si>
+  <si>
+    <t>间隔时长</t>
+  </si>
+  <si>
+    <t>苔蔓给虫单位加移动速度</t>
+  </si>
+  <si>
+    <t>苔蔓给人建筑持续扣血</t>
+  </si>
+  <si>
+    <t>离开苔蔓的虫建筑持续扣血</t>
+  </si>
+  <si>
+    <t>虫活动单位持续加血</t>
   </si>
 </sst>
 </file>
@@ -2775,7 +2797,7 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -5694,4 +5716,109 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -73,6 +73,15 @@
     <t>视口</t>
   </si>
   <si>
+    <t>苔蔓(wàn)</t>
+  </si>
+  <si>
+    <t>建筑/苔蔓</t>
+  </si>
+  <si>
+    <t>可扩张苔蔓(wàn)</t>
+  </si>
+  <si>
     <t>晶体矿</t>
   </si>
   <si>
@@ -473,15 +482,6 @@
   </si>
   <si>
     <t>建筑/太岁</t>
-  </si>
-  <si>
-    <t>苔蔓(wàn)</t>
-  </si>
-  <si>
-    <t>建筑/苔蔓</t>
-  </si>
-  <si>
-    <t>可扩张苔蔓(wàn)</t>
   </si>
   <si>
     <t>枪怪</t>
@@ -1765,7 +1765,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1830,26 +1830,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:5">
-      <c r="A4" s="7">
-        <v>101</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:10">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="1" spans="1:5">
       <c r="A5" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>15</v>
@@ -1861,622 +1861,613 @@
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>201</v>
-      </c>
-      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="6" s="7" customFormat="1" spans="1:5">
+      <c r="A6" s="7">
+        <v>102</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="J7" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="J8" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
+      <c r="J9" t="s">
         <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
         <v>42</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="J10" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
+        <v>205</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
         <v>206</v>
       </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:10">
-      <c r="A12">
-        <v>207</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
         <v>54</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:10">
       <c r="A13">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:10">
+      <c r="A14">
+        <v>208</v>
+      </c>
+      <c r="B14" t="s">
         <v>62</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>209</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
+      <c r="I14" t="s">
         <v>68</v>
       </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>72</v>
-      </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" t="s">
+      <c r="J15" t="s">
         <v>76</v>
       </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
         <v>77</v>
       </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>211</v>
       </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>212</v>
-      </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
         <v>89</v>
       </c>
-      <c r="E18" t="s">
+      <c r="J18" t="s">
         <v>90</v>
       </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>213</v>
+      </c>
+      <c r="B19" t="s">
         <v>91</v>
       </c>
-      <c r="G18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
         <v>92</v>
       </c>
-      <c r="J18" t="s">
+      <c r="E19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:10">
-      <c r="A19">
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:10">
+      <c r="A20">
         <v>214</v>
       </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="B20" t="s">
         <v>97</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="I19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="1:10">
-      <c r="A20" s="4">
-        <v>301</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="I20" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="J20" t="s">
         <v>102</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:10">
       <c r="A21" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:10">
       <c r="A22" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="J22" s="4" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:10">
       <c r="A23" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:10">
       <c r="A24" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>116</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:10">
       <c r="A25" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="4">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:10">
       <c r="A26" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>129</v>
@@ -2484,7 +2475,7 @@
     </row>
     <row r="27" s="4" customFormat="1" spans="1:10">
       <c r="A27" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>130</v>
@@ -2496,13 +2487,13 @@
         <v>131</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>132</v>
@@ -2510,91 +2501,97 @@
     </row>
     <row r="28" s="4" customFormat="1" spans="1:10">
       <c r="A28" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:10">
       <c r="A29" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:10">
       <c r="A30" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>139</v>
+      <c r="F30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1" spans="1:4">
+    <row r="31" s="4" customFormat="1" spans="1:10">
       <c r="A31" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>144</v>
@@ -2605,21 +2602,24 @@
       <c r="D31" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="32" s="4" customFormat="1" spans="1:10">
+      <c r="E31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" spans="1:4">
       <c r="A32" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J32" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2634,19 +2634,19 @@
         <v>2</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" ht="14.25" spans="1:9">
@@ -2660,19 +2660,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" s="8" customFormat="1" spans="1:9">
@@ -2686,22 +2686,22 @@
         <v>2</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" s="8" customFormat="1" spans="1:9">
@@ -2715,19 +2715,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" s="8" customFormat="1" spans="1:9">
@@ -2741,19 +2741,19 @@
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="1" spans="1:9">
@@ -2767,13 +2767,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G38" s="8">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +2829,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2846,7 +2846,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -2863,7 +2863,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -2880,7 +2880,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -2897,7 +2897,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2914,7 +2914,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -2931,7 +2931,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2948,7 +2948,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2965,7 +2965,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -2999,7 +2999,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -3033,7 +3033,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3050,7 +3050,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -3067,7 +3067,7 @@
         <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -3084,7 +3084,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C17" s="4">
         <v>25</v>
@@ -3101,7 +3101,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C18" s="4">
         <v>20</v>
@@ -3118,7 +3118,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C19" s="4">
         <v>30</v>
@@ -3135,7 +3135,7 @@
         <v>305</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C20" s="4">
         <v>25</v>
@@ -3152,7 +3152,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C21" s="4">
         <v>35</v>
@@ -3169,7 +3169,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C22" s="4">
         <v>35</v>
@@ -3186,7 +3186,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C23" s="4">
         <v>35</v>
@@ -3203,7 +3203,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C24" s="4">
         <v>30</v>
@@ -3220,7 +3220,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C25" s="4">
         <v>30</v>
@@ -3237,7 +3237,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C26">
         <v>30</v>
@@ -3254,7 +3254,7 @@
         <v>312</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C27">
         <v>15</v>
@@ -3292,10 +3292,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3312,44 +3312,44 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>301</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
+      <c r="A2" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3357,40 +3357,40 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
         <v>115</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
         <v>130</v>
@@ -3400,10 +3400,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4">
-        <v>309</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10">
+        <v>308</v>
+      </c>
+      <c r="B10" t="s">
         <v>133</v>
       </c>
       <c r="C10">
@@ -3412,47 +3412,51 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3502,7 +3506,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -3511,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>166</v>
@@ -3522,7 +3526,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>167</v>
@@ -3531,7 +3535,7 @@
         <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
         <v>169</v>
@@ -3542,7 +3546,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>170</v>
@@ -3551,7 +3555,7 @@
         <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>169</v>
@@ -3562,7 +3566,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>171</v>
@@ -3571,7 +3575,7 @@
         <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>172</v>
@@ -3582,7 +3586,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>173</v>
@@ -3602,16 +3606,16 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
         <v>176</v>
@@ -3622,7 +3626,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>177</v>
@@ -3642,7 +3646,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>181</v>
@@ -3662,19 +3666,19 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
@@ -3682,7 +3686,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>173</v>
@@ -3702,7 +3706,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
@@ -3710,13 +3714,13 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
         <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
         <v>187</v>
@@ -3730,13 +3734,13 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
         <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>190</v>
@@ -3750,7 +3754,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
         <v>192</v>
@@ -3821,7 +3825,7 @@
         <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
         <v>169</v>
@@ -3841,7 +3845,7 @@
         <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
         <v>169</v>
@@ -3861,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>166</v>
@@ -3963,7 +3967,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -4004,7 +4008,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -4045,7 +4049,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -4086,7 +4090,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -4107,7 +4111,7 @@
         <v>0.1</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J5">
         <v>5000</v>
@@ -4130,7 +4134,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4171,7 +4175,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -4212,7 +4216,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -4253,7 +4257,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -4294,7 +4298,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4335,7 +4339,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -4356,7 +4360,7 @@
         <v>0.3</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4379,7 +4383,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4417,7 +4421,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4452,7 +4456,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -4490,7 +4494,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -4531,7 +4535,7 @@
         <v>301</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4575,7 +4579,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4619,7 +4623,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4663,7 +4667,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4707,7 +4711,7 @@
         <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -4748,7 +4752,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4792,7 +4796,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4836,7 +4840,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4880,7 +4884,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4924,7 +4928,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4968,7 +4972,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5286,7 +5290,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -5297,7 +5301,7 @@
         <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -5423,7 +5427,7 @@
         <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>199</v>
@@ -5452,7 +5456,7 @@
         <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>200</v>
@@ -5481,7 +5485,7 @@
         <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>232</v>
@@ -5510,7 +5514,7 @@
         <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>233</v>
@@ -5539,7 +5543,7 @@
         <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>200</v>
@@ -5568,7 +5572,7 @@
         <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>199</v>
@@ -5597,7 +5601,7 @@
         <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -5626,7 +5630,7 @@
         <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>232</v>
@@ -5689,7 +5693,7 @@
         <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -5703,7 +5707,7 @@
         <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -5723,7 +5727,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="241">
   <si>
     <t>类型</t>
   </si>
@@ -1765,7 +1765,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:B4"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3294,7 +3294,7 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3881,12 +3881,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M15" sqref="M15"/>
+      <selection pane="topRight" activeCell="C27" sqref="C27:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5012,41 +5012,44 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27">
-        <v>401</v>
-      </c>
-      <c r="B27" t="s">
-        <v>149</v>
+      <c r="A27" s="4">
+        <v>312</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" t="s">
-        <v>216</v>
+      <c r="K27">
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>300</v>
-      </c>
-      <c r="M27" t="s">
-        <v>217</v>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -5054,40 +5057,40 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
       <c r="F28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L28">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -5095,63 +5098,63 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.4</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29">
+        <v>400</v>
+      </c>
+      <c r="M29" t="s">
+        <v>219</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <v>403</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
         <v>2</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>2</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0.5</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>209</v>
-      </c>
-      <c r="L29">
-        <v>600</v>
-      </c>
-      <c r="M29" t="s">
-        <v>214</v>
-      </c>
-      <c r="N29">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="3">
-        <v>404</v>
-      </c>
-      <c r="B30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30">
-        <v>20</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5166,39 +5169,39 @@
         <v>209</v>
       </c>
       <c r="L30">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M30" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N30">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="3">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -5207,10 +5210,10 @@
         <v>209</v>
       </c>
       <c r="L31">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -5218,42 +5221,83 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="3">
+        <v>405</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.6</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32">
+        <v>600</v>
+      </c>
+      <c r="M32" t="s">
+        <v>211</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="3">
         <v>406</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>154</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>12</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>8</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>0.4</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>500</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M33" t="s">
         <v>208</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>500</v>
       </c>
     </row>
@@ -5666,7 +5710,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -5728,7 +5772,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -5767,7 +5811,7 @@
         <v>0.2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5784,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5801,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5818,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -3883,7 +3883,7 @@
   <sheetPr/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="C27" sqref="C27:N27"/>
@@ -5771,8 +5771,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -5825,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E3">
         <v>2000</v>
@@ -5842,7 +5842,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E4">
         <v>2000</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -79,409 +79,409 @@
     <t>建筑/苔蔓</t>
   </si>
   <si>
+    <t>晶体矿</t>
+  </si>
+  <si>
+    <t>资源/晶体矿</t>
+  </si>
+  <si>
+    <t>音效/BUTTON</t>
+  </si>
+  <si>
+    <t>燃气矿</t>
+  </si>
+  <si>
+    <t>资源/燃气矿</t>
+  </si>
+  <si>
+    <t>工程车</t>
+  </si>
+  <si>
+    <t>活动单位/工程车</t>
+  </si>
+  <si>
+    <t>语音/是女声可爱版</t>
+  </si>
+  <si>
+    <t>wajueji_已绑定的模型</t>
+  </si>
+  <si>
+    <t>TSCDth00</t>
+  </si>
+  <si>
+    <t>可采集资源，可建造建筑</t>
+  </si>
+  <si>
+    <t>枪兵</t>
+  </si>
+  <si>
+    <t>活动单位/步兵</t>
+  </si>
+  <si>
+    <t>语音/是男声正经版</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>die01</t>
+  </si>
+  <si>
+    <t>TMaDth00</t>
+  </si>
+  <si>
+    <t>远程攻击</t>
+  </si>
+  <si>
+    <t>近战兵</t>
+  </si>
+  <si>
+    <t>活动单位/近战兵</t>
+  </si>
+  <si>
+    <t>tfbPss00</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>TFbDth00</t>
+  </si>
+  <si>
+    <t>近程攻击</t>
+  </si>
+  <si>
+    <t>三色坦克</t>
+  </si>
+  <si>
+    <t>活动单位/三色坦克</t>
+  </si>
+  <si>
+    <t>音效/坦克行进声</t>
+  </si>
+  <si>
+    <t>die02</t>
+  </si>
+  <si>
+    <t>音效/TTaDth00</t>
+  </si>
+  <si>
+    <t>超远距离范围攻击，前摇较长，克制炮台。爆炸溅射可能会伤害己方单位。</t>
+  </si>
+  <si>
+    <t>工虫</t>
+  </si>
+  <si>
+    <t>活动单位/工虫</t>
+  </si>
+  <si>
+    <t>音效/zdrWht00</t>
+  </si>
+  <si>
+    <t>待机</t>
+  </si>
+  <si>
+    <t>音效/zdrDth00</t>
+  </si>
+  <si>
+    <t>可采集资源，可变成建筑</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>活动单位/飞机</t>
+  </si>
+  <si>
+    <t>音效/飞机声</t>
+  </si>
+  <si>
+    <t>可飞越障碍物</t>
+  </si>
+  <si>
+    <t>枪虫</t>
+  </si>
+  <si>
+    <t>活动单位/枪虫</t>
+  </si>
+  <si>
+    <t>音效/zhyWht01</t>
+  </si>
+  <si>
+    <t>甲壳虫500面带动作</t>
+  </si>
+  <si>
+    <t>Root|待机.001</t>
+  </si>
+  <si>
+    <t>Root|死亡.001</t>
+  </si>
+  <si>
+    <t>音效/zhyDth00</t>
+  </si>
+  <si>
+    <t>近战虫</t>
+  </si>
+  <si>
+    <t>活动单位/近战虫</t>
+  </si>
+  <si>
+    <t>音效/ZZeWht00</t>
+  </si>
+  <si>
+    <t>蟑螂500面带动作</t>
+  </si>
+  <si>
+    <t>Root.001|待机</t>
+  </si>
+  <si>
+    <t>Root.001|死亡</t>
+  </si>
+  <si>
+    <t>音效/ZZeDth00</t>
+  </si>
+  <si>
+    <t>幼虫</t>
+  </si>
+  <si>
+    <t>活动单位/幼虫</t>
+  </si>
+  <si>
+    <t>音效/ZLaWht00</t>
+  </si>
+  <si>
+    <t>幼虫已加动作</t>
+  </si>
+  <si>
+    <t>Armature|Armature.001|Take 001|BaseLayer</t>
+  </si>
+  <si>
+    <t>Armature|Armature.004|Take 001|BaseLayer</t>
+  </si>
+  <si>
+    <t>音效/ZLaDth00</t>
+  </si>
+  <si>
+    <t>可蜕变为其它活动单位</t>
+  </si>
+  <si>
+    <t>绿色坦克</t>
+  </si>
+  <si>
+    <t>活动单位/绿色坦克</t>
+  </si>
+  <si>
+    <t>音效/ZLaPss00</t>
+  </si>
+  <si>
+    <t>p_B_tank_01</t>
+  </si>
+  <si>
+    <t>超远距离发射光刺，光刺会遭到障碍物阻挡。</t>
+  </si>
+  <si>
+    <t>光刺</t>
+  </si>
+  <si>
+    <t>活动单位/光刺</t>
+  </si>
+  <si>
+    <t>房虫</t>
+  </si>
+  <si>
+    <t>活动单位/房虫</t>
+  </si>
+  <si>
+    <t>音效/zovWht00</t>
+  </si>
+  <si>
+    <t>骨架|stand</t>
+  </si>
+  <si>
+    <t>骨架|death</t>
+  </si>
+  <si>
+    <t>音效/zovDth00</t>
+  </si>
+  <si>
+    <t>可增加活动单位上限</t>
+  </si>
+  <si>
+    <t>飞虫</t>
+  </si>
+  <si>
+    <t>活动单位/飞虫</t>
+  </si>
+  <si>
+    <t>音效/zmuWht01</t>
+  </si>
+  <si>
+    <t>飞虫-动作</t>
+  </si>
+  <si>
+    <t>音效/zmuDth00</t>
+  </si>
+  <si>
+    <t>可飞跃障碍物</t>
+  </si>
+  <si>
+    <t>医疗兵</t>
+  </si>
+  <si>
+    <t>活动单位/医疗兵</t>
+  </si>
+  <si>
+    <t>语音/TMdWht00</t>
+  </si>
+  <si>
+    <t>Dwarf Idle</t>
+  </si>
+  <si>
+    <t>语音/TMdDth00</t>
+  </si>
+  <si>
+    <t>可给友方单位恢复HP</t>
+  </si>
+  <si>
+    <t>基地</t>
+  </si>
+  <si>
+    <t>建筑/基地</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>explo4</t>
+  </si>
+  <si>
+    <t>可产出工程车</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>建筑/兵厂</t>
+  </si>
+  <si>
+    <t>兵厂损毁</t>
+  </si>
+  <si>
+    <t>EXPLOMED</t>
+  </si>
+  <si>
+    <t>可产出枪兵和近战兵</t>
+  </si>
+  <si>
+    <t>民房</t>
+  </si>
+  <si>
+    <t>建筑/民房</t>
+  </si>
+  <si>
+    <t>地堡</t>
+  </si>
+  <si>
+    <t>建筑/地堡</t>
+  </si>
+  <si>
+    <t>高HP，可派遣步兵进入地堡</t>
+  </si>
+  <si>
+    <t>炮台</t>
+  </si>
+  <si>
+    <t>建筑/光子炮</t>
+  </si>
+  <si>
+    <t>平常状态</t>
+  </si>
+  <si>
+    <t>Take 001</t>
+  </si>
+  <si>
+    <t>音效/explo1</t>
+  </si>
+  <si>
+    <t>克制除了坦克以外的一切单位</t>
+  </si>
+  <si>
+    <t>虫巢</t>
+  </si>
+  <si>
+    <t>建筑/孵化场</t>
+  </si>
+  <si>
+    <t>音效/zhaWht00</t>
+  </si>
+  <si>
+    <t>hatchery_skin</t>
+  </si>
+  <si>
+    <t>音效/ZBldgDth</t>
+  </si>
+  <si>
+    <t>可产出幼虫</t>
+  </si>
+  <si>
+    <t>机场</t>
+  </si>
+  <si>
+    <t>建筑/机场</t>
+  </si>
+  <si>
+    <t>可产出飞机</t>
+  </si>
+  <si>
+    <t>重车厂</t>
+  </si>
+  <si>
+    <t>建筑/重工厂</t>
+  </si>
+  <si>
+    <t>可产出三色坦克</t>
+  </si>
+  <si>
+    <t>虫营</t>
+  </si>
+  <si>
+    <t>建筑/虫营</t>
+  </si>
+  <si>
+    <t>音效/zspWht00</t>
+  </si>
+  <si>
+    <t>近战虫和枪虫的前置建筑</t>
+  </si>
+  <si>
+    <t>飞塔</t>
+  </si>
+  <si>
+    <t>建筑/飞塔</t>
+  </si>
+  <si>
+    <t>音效/zscWht00</t>
+  </si>
+  <si>
+    <t>飞虫的前置建筑</t>
+  </si>
+  <si>
+    <t>拟态源</t>
+  </si>
+  <si>
+    <t>建筑/拟态源</t>
+  </si>
+  <si>
+    <t>绿色坦克的前置建筑</t>
+  </si>
+  <si>
+    <t>太岁</t>
+  </si>
+  <si>
+    <t>建筑/太岁</t>
+  </si>
+  <si>
     <t>可扩张苔蔓(wàn)</t>
-  </si>
-  <si>
-    <t>晶体矿</t>
-  </si>
-  <si>
-    <t>资源/晶体矿</t>
-  </si>
-  <si>
-    <t>音效/BUTTON</t>
-  </si>
-  <si>
-    <t>燃气矿</t>
-  </si>
-  <si>
-    <t>资源/燃气矿</t>
-  </si>
-  <si>
-    <t>工程车</t>
-  </si>
-  <si>
-    <t>活动单位/工程车</t>
-  </si>
-  <si>
-    <t>语音/是女声可爱版</t>
-  </si>
-  <si>
-    <t>wajueji_已绑定的模型</t>
-  </si>
-  <si>
-    <t>TSCDth00</t>
-  </si>
-  <si>
-    <t>可采集资源，可建造建筑</t>
-  </si>
-  <si>
-    <t>枪兵</t>
-  </si>
-  <si>
-    <t>活动单位/步兵</t>
-  </si>
-  <si>
-    <t>语音/是男声正经版</t>
-  </si>
-  <si>
-    <t>idle</t>
-  </si>
-  <si>
-    <t>die01</t>
-  </si>
-  <si>
-    <t>TMaDth00</t>
-  </si>
-  <si>
-    <t>远程攻击</t>
-  </si>
-  <si>
-    <t>近战兵</t>
-  </si>
-  <si>
-    <t>活动单位/近战兵</t>
-  </si>
-  <si>
-    <t>tfbPss00</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>TFbDth00</t>
-  </si>
-  <si>
-    <t>近程攻击</t>
-  </si>
-  <si>
-    <t>三色坦克</t>
-  </si>
-  <si>
-    <t>活动单位/三色坦克</t>
-  </si>
-  <si>
-    <t>音效/坦克行进声</t>
-  </si>
-  <si>
-    <t>die02</t>
-  </si>
-  <si>
-    <t>音效/TTaDth00</t>
-  </si>
-  <si>
-    <t>超远距离范围攻击，前摇较长，克制炮台。爆炸溅射可能会伤害己方单位。</t>
-  </si>
-  <si>
-    <t>工虫</t>
-  </si>
-  <si>
-    <t>活动单位/工虫</t>
-  </si>
-  <si>
-    <t>音效/zdrWht00</t>
-  </si>
-  <si>
-    <t>待机</t>
-  </si>
-  <si>
-    <t>音效/zdrDth00</t>
-  </si>
-  <si>
-    <t>可采集资源，可变成建筑</t>
-  </si>
-  <si>
-    <t>飞机</t>
-  </si>
-  <si>
-    <t>活动单位/飞机</t>
-  </si>
-  <si>
-    <t>音效/飞机声</t>
-  </si>
-  <si>
-    <t>可飞越障碍物</t>
-  </si>
-  <si>
-    <t>枪虫</t>
-  </si>
-  <si>
-    <t>活动单位/枪虫</t>
-  </si>
-  <si>
-    <t>音效/zhyWht01</t>
-  </si>
-  <si>
-    <t>甲壳虫500面带动作</t>
-  </si>
-  <si>
-    <t>Root|待机.001</t>
-  </si>
-  <si>
-    <t>Root|死亡.001</t>
-  </si>
-  <si>
-    <t>音效/zhyDth00</t>
-  </si>
-  <si>
-    <t>近战虫</t>
-  </si>
-  <si>
-    <t>活动单位/近战虫</t>
-  </si>
-  <si>
-    <t>音效/ZZeWht00</t>
-  </si>
-  <si>
-    <t>蟑螂500面带动作</t>
-  </si>
-  <si>
-    <t>Root.001|待机</t>
-  </si>
-  <si>
-    <t>Root.001|死亡</t>
-  </si>
-  <si>
-    <t>音效/ZZeDth00</t>
-  </si>
-  <si>
-    <t>幼虫</t>
-  </si>
-  <si>
-    <t>活动单位/幼虫</t>
-  </si>
-  <si>
-    <t>音效/ZLaWht00</t>
-  </si>
-  <si>
-    <t>幼虫已加动作</t>
-  </si>
-  <si>
-    <t>Armature|Armature.001|Take 001|BaseLayer</t>
-  </si>
-  <si>
-    <t>Armature|Armature.004|Take 001|BaseLayer</t>
-  </si>
-  <si>
-    <t>音效/ZLaDth00</t>
-  </si>
-  <si>
-    <t>可蜕变为其它活动单位</t>
-  </si>
-  <si>
-    <t>绿色坦克</t>
-  </si>
-  <si>
-    <t>活动单位/绿色坦克</t>
-  </si>
-  <si>
-    <t>音效/ZLaPss00</t>
-  </si>
-  <si>
-    <t>p_B_tank_01</t>
-  </si>
-  <si>
-    <t>超远距离发射光刺，光刺会遭到障碍物阻挡。</t>
-  </si>
-  <si>
-    <t>光刺</t>
-  </si>
-  <si>
-    <t>活动单位/光刺</t>
-  </si>
-  <si>
-    <t>房虫</t>
-  </si>
-  <si>
-    <t>活动单位/房虫</t>
-  </si>
-  <si>
-    <t>音效/zovWht00</t>
-  </si>
-  <si>
-    <t>骨架|stand</t>
-  </si>
-  <si>
-    <t>骨架|death</t>
-  </si>
-  <si>
-    <t>音效/zovDth00</t>
-  </si>
-  <si>
-    <t>可增加活动单位上限</t>
-  </si>
-  <si>
-    <t>飞虫</t>
-  </si>
-  <si>
-    <t>活动单位/飞虫</t>
-  </si>
-  <si>
-    <t>音效/zmuWht01</t>
-  </si>
-  <si>
-    <t>飞虫-动作</t>
-  </si>
-  <si>
-    <t>音效/zmuDth00</t>
-  </si>
-  <si>
-    <t>可飞跃障碍物</t>
-  </si>
-  <si>
-    <t>医疗兵</t>
-  </si>
-  <si>
-    <t>活动单位/医疗兵</t>
-  </si>
-  <si>
-    <t>语音/TMdWht00</t>
-  </si>
-  <si>
-    <t>Dwarf Idle</t>
-  </si>
-  <si>
-    <t>语音/TMdDth00</t>
-  </si>
-  <si>
-    <t>可给友方单位恢复HP</t>
-  </si>
-  <si>
-    <t>基地</t>
-  </si>
-  <si>
-    <t>建筑/基地</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>explo4</t>
-  </si>
-  <si>
-    <t>可产出工程车</t>
-  </si>
-  <si>
-    <t>兵营</t>
-  </si>
-  <si>
-    <t>建筑/兵厂</t>
-  </si>
-  <si>
-    <t>兵厂损毁</t>
-  </si>
-  <si>
-    <t>EXPLOMED</t>
-  </si>
-  <si>
-    <t>可产出枪兵和近战兵</t>
-  </si>
-  <si>
-    <t>民房</t>
-  </si>
-  <si>
-    <t>建筑/民房</t>
-  </si>
-  <si>
-    <t>地堡</t>
-  </si>
-  <si>
-    <t>建筑/地堡</t>
-  </si>
-  <si>
-    <t>高HP，可派遣步兵进入地堡</t>
-  </si>
-  <si>
-    <t>炮台</t>
-  </si>
-  <si>
-    <t>建筑/光子炮</t>
-  </si>
-  <si>
-    <t>平常状态</t>
-  </si>
-  <si>
-    <t>Take 001</t>
-  </si>
-  <si>
-    <t>音效/explo1</t>
-  </si>
-  <si>
-    <t>克制除了坦克以外的一切单位</t>
-  </si>
-  <si>
-    <t>虫巢</t>
-  </si>
-  <si>
-    <t>建筑/孵化场</t>
-  </si>
-  <si>
-    <t>音效/zhaWht00</t>
-  </si>
-  <si>
-    <t>hatchery_skin</t>
-  </si>
-  <si>
-    <t>音效/ZBldgDth</t>
-  </si>
-  <si>
-    <t>可产出幼虫</t>
-  </si>
-  <si>
-    <t>机场</t>
-  </si>
-  <si>
-    <t>建筑/机场</t>
-  </si>
-  <si>
-    <t>可产出飞机</t>
-  </si>
-  <si>
-    <t>重车厂</t>
-  </si>
-  <si>
-    <t>建筑/重工厂</t>
-  </si>
-  <si>
-    <t>可产出三色坦克</t>
-  </si>
-  <si>
-    <t>虫营</t>
-  </si>
-  <si>
-    <t>建筑/虫营</t>
-  </si>
-  <si>
-    <t>音效/zspWht00</t>
-  </si>
-  <si>
-    <t>近战虫和枪虫的前置建筑</t>
-  </si>
-  <si>
-    <t>飞塔</t>
-  </si>
-  <si>
-    <t>建筑/飞塔</t>
-  </si>
-  <si>
-    <t>音效/zscWht00</t>
-  </si>
-  <si>
-    <t>飞虫的前置建筑</t>
-  </si>
-  <si>
-    <t>拟态源</t>
-  </si>
-  <si>
-    <t>建筑/拟态源</t>
-  </si>
-  <si>
-    <t>绿色坦克的前置建筑</t>
-  </si>
-  <si>
-    <t>太岁</t>
-  </si>
-  <si>
-    <t>建筑/太岁</t>
   </si>
   <si>
     <t>枪怪</t>
@@ -1765,7 +1765,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:B32"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:10">
+    <row r="4" s="4" customFormat="1" spans="1:4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1842,9 +1842,6 @@
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="1" spans="1:5">
@@ -1852,16 +1849,16 @@
         <v>101</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" s="7" customFormat="1" spans="1:5">
@@ -1869,16 +1866,16 @@
         <v>102</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1886,19 +1883,19 @@
         <v>201</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1907,10 +1904,10 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
         <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1918,28 +1915,28 @@
         <v>202</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1947,28 +1944,28 @@
         <v>203</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>36</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1976,28 +1973,28 @@
         <v>204</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>42</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2005,31 +2002,31 @@
         <v>205</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
         <v>48</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>49</v>
-      </c>
-      <c r="J11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2037,28 +2034,28 @@
         <v>206</v>
       </c>
       <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
         <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:10">
@@ -2066,31 +2063,31 @@
         <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>59</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>60</v>
       </c>
-      <c r="I13" t="s">
-        <v>61</v>
-      </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:10">
@@ -2098,31 +2095,31 @@
         <v>208</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" t="s">
         <v>65</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>66</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>67</v>
       </c>
-      <c r="I14" t="s">
-        <v>68</v>
-      </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2130,31 +2127,31 @@
         <v>209</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
         <v>70</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>71</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>72</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>73</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>74</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>75</v>
-      </c>
-      <c r="J15" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2162,31 +2159,31 @@
         <v>210</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
         <v>78</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>79</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" t="s">
         <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2194,13 +2191,13 @@
         <v>211</v>
       </c>
       <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
         <v>82</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2208,31 +2205,31 @@
         <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
         <v>85</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
         <v>86</v>
       </c>
-      <c r="F18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>88</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>89</v>
-      </c>
-      <c r="J18" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2240,31 +2237,31 @@
         <v>213</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>93</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" t="s">
         <v>94</v>
       </c>
-      <c r="G19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>95</v>
-      </c>
-      <c r="J19" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2272,19 +2269,19 @@
         <v>214</v>
       </c>
       <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>97</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>98</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>99</v>
-      </c>
-      <c r="F20" t="s">
-        <v>100</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2293,10 +2290,10 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" t="s">
         <v>101</v>
-      </c>
-      <c r="J20" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:10">
@@ -2304,28 +2301,28 @@
         <v>301</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:10">
@@ -2333,28 +2330,28 @@
         <v>302</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:10">
@@ -2362,25 +2359,25 @@
         <v>303</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:10">
@@ -2388,28 +2385,28 @@
         <v>304</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:10">
@@ -2417,28 +2414,28 @@
         <v>305</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="4">
         <v>3</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:10">
@@ -2446,31 +2443,31 @@
         <v>306</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:10">
@@ -2478,25 +2475,25 @@
         <v>307</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:10">
@@ -2504,25 +2501,25 @@
         <v>308</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:10">
@@ -2530,31 +2527,31 @@
         <v>309</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:10">
@@ -2562,31 +2559,31 @@
         <v>310</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:10">
@@ -2594,32 +2591,35 @@
         <v>311</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" s="4" customFormat="1" spans="1:4">
+    </row>
+    <row r="32" s="4" customFormat="1" spans="1:10">
       <c r="A32" s="4">
         <v>312</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2634,19 +2634,19 @@
         <v>2</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" ht="14.25" spans="1:9">
@@ -2660,19 +2660,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" s="8" customFormat="1" spans="1:9">
@@ -2686,22 +2686,22 @@
         <v>2</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="G35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="36" s="8" customFormat="1" spans="1:9">
@@ -2715,19 +2715,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="37" s="8" customFormat="1" spans="1:9">
@@ -2741,19 +2741,19 @@
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="G37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="8" t="s">
+      <c r="I37" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="1" spans="1:9">
@@ -2767,13 +2767,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="G38" s="8">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +2829,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2846,7 +2846,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -2863,7 +2863,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -2880,7 +2880,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -2897,7 +2897,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2914,7 +2914,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -2931,7 +2931,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2948,7 +2948,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2965,7 +2965,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -2999,7 +2999,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -3033,7 +3033,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3050,7 +3050,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -3067,7 +3067,7 @@
         <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -3084,7 +3084,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="4">
         <v>25</v>
@@ -3101,7 +3101,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="4">
         <v>20</v>
@@ -3118,7 +3118,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="4">
         <v>30</v>
@@ -3135,7 +3135,7 @@
         <v>305</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="4">
         <v>25</v>
@@ -3152,7 +3152,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="4">
         <v>35</v>
@@ -3169,7 +3169,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="4">
         <v>35</v>
@@ -3186,7 +3186,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="4">
         <v>35</v>
@@ -3203,7 +3203,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="4">
         <v>30</v>
@@ -3220,7 +3220,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="4">
         <v>30</v>
@@ -3237,7 +3237,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26">
         <v>30</v>
@@ -3254,7 +3254,7 @@
         <v>312</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27">
         <v>15</v>
@@ -3327,7 +3327,7 @@
         <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -3338,7 +3338,7 @@
         <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -3349,7 +3349,7 @@
         <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3360,7 +3360,7 @@
         <v>304</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -3371,7 +3371,7 @@
         <v>305</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7">
         <v>2.5</v>
@@ -3382,7 +3382,7 @@
         <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -3393,7 +3393,7 @@
         <v>307</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3404,7 +3404,7 @@
         <v>308</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -3415,7 +3415,7 @@
         <v>309</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -3426,7 +3426,7 @@
         <v>310</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12">
         <v>2.5</v>
@@ -3437,7 +3437,7 @@
         <v>311</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -3448,7 +3448,7 @@
         <v>312</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -3506,7 +3506,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>166</v>
@@ -3526,7 +3526,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>167</v>
@@ -3535,7 +3535,7 @@
         <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>169</v>
@@ -3546,7 +3546,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>170</v>
@@ -3555,7 +3555,7 @@
         <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>169</v>
@@ -3566,7 +3566,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>171</v>
@@ -3575,7 +3575,7 @@
         <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>172</v>
@@ -3586,7 +3586,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>173</v>
@@ -3606,16 +3606,16 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>176</v>
@@ -3626,7 +3626,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>177</v>
@@ -3646,7 +3646,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>181</v>
@@ -3666,19 +3666,19 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>173</v>
@@ -3706,7 +3706,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
@@ -3714,13 +3714,13 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>187</v>
@@ -3734,13 +3734,13 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
         <v>190</v>
@@ -3754,7 +3754,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
         <v>192</v>
@@ -3825,7 +3825,7 @@
         <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
         <v>169</v>
@@ -3845,7 +3845,7 @@
         <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
         <v>169</v>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
         <v>166</v>
@@ -3883,10 +3883,10 @@
   <sheetPr/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C27" sqref="C27:N27"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3967,7 +3967,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -4008,7 +4008,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -4049,7 +4049,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -4090,7 +4090,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -4111,7 +4111,7 @@
         <v>0.1</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>5000</v>
@@ -4134,7 +4134,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4175,7 +4175,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -4216,7 +4216,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -4257,7 +4257,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -4298,7 +4298,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -4348,10 +4348,10 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>0.3</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4421,7 +4421,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -4494,7 +4494,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -4535,7 +4535,7 @@
         <v>301</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4623,7 +4623,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -4752,7 +4752,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>312</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5334,7 +5334,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -5345,7 +5345,7 @@
         <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -5471,7 +5471,7 @@
         <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>199</v>
@@ -5500,7 +5500,7 @@
         <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>200</v>
@@ -5529,7 +5529,7 @@
         <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>232</v>
@@ -5558,7 +5558,7 @@
         <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>233</v>
@@ -5587,7 +5587,7 @@
         <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>200</v>
@@ -5616,7 +5616,7 @@
         <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>199</v>
@@ -5645,7 +5645,7 @@
         <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -5674,7 +5674,7 @@
         <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
         <v>232</v>
@@ -5737,7 +5737,7 @@
         <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -5751,7 +5751,7 @@
         <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -5771,7 +5771,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="240">
   <si>
     <t>类型</t>
   </si>
@@ -725,9 +725,6 @@
   </si>
   <si>
     <t>等级</t>
-  </si>
-  <si>
-    <t>加数值</t>
   </si>
   <si>
     <t>数值</t>
@@ -1765,7 +1762,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3883,7 +3880,7 @@
   <sheetPr/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="E11" sqref="E11"/>
@@ -5426,18 +5423,18 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="8" max="9" width="11.5" customWidth="1"/>
+    <col min="7" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:9">
+    <row r="1" s="2" customFormat="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5457,16 +5454,13 @@
         <v>230</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>202</v>
       </c>
@@ -5486,16 +5480,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>203</v>
       </c>
@@ -5515,16 +5506,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>204</v>
       </c>
@@ -5532,7 +5520,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5541,19 +5529,16 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>35</v>
-      </c>
-      <c r="I4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>206</v>
       </c>
@@ -5561,7 +5546,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5570,19 +5555,16 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>-100</v>
       </c>
       <c r="G5">
-        <v>-100</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>35</v>
-      </c>
-      <c r="I5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>207</v>
       </c>
@@ -5602,16 +5584,13 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>25</v>
-      </c>
-      <c r="I6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>208</v>
       </c>
@@ -5631,16 +5610,13 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H7">
-        <v>25</v>
-      </c>
-      <c r="I7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>210</v>
       </c>
@@ -5648,7 +5624,7 @@
         <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5660,16 +5636,13 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>30</v>
-      </c>
-      <c r="I8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>213</v>
       </c>
@@ -5677,7 +5650,7 @@
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -5686,15 +5659,12 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>30</v>
-      </c>
-      <c r="I9">
         <v>12</v>
       </c>
     </row>
@@ -5782,7 +5752,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
         <v>155</v>
@@ -5791,10 +5761,10 @@
         <v>228</v>
       </c>
       <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
         <v>235</v>
-      </c>
-      <c r="E1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5802,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -5819,7 +5789,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -5836,7 +5806,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -5853,7 +5823,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5">
         <v>3</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -409,7 +409,7 @@
     <t>虫巢</t>
   </si>
   <si>
-    <t>建筑/孵化场</t>
+    <t>建筑/虫巢</t>
   </si>
   <si>
     <t>音效/zhaWht00</t>
@@ -1757,12 +1757,12 @@
   <sheetPr/>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5425,7 +5425,7 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="239">
   <si>
     <t>类型</t>
   </si>
@@ -629,9 +629,6 @@
   </si>
   <si>
     <t>f攻击距离</t>
-  </si>
-  <si>
-    <t>i32攻击</t>
   </si>
   <si>
     <t>攻击</t>
@@ -1757,7 +1754,7 @@
   <sheetPr/>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2795,7 +2792,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2931,7 +2928,7 @@
         <v>54</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2948,7 +2945,7 @@
         <v>61</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3878,12 +3875,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3891,31 +3888,31 @@
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
     <col min="3" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="13.25" customWidth="1"/>
-    <col min="13" max="13" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="9.125" customWidth="1"/>
-    <col min="15" max="15" width="19.625" customWidth="1"/>
-    <col min="16" max="16" width="21.625" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="19" max="19" width="26" customWidth="1"/>
-    <col min="20" max="20" width="6.375" customWidth="1"/>
-    <col min="22" max="22" width="2.375" customWidth="1"/>
-    <col min="24" max="24" width="4.375" customWidth="1"/>
-    <col min="28" max="28" width="8.375" customWidth="1"/>
-    <col min="30" max="30" width="7.375" customWidth="1"/>
-    <col min="31" max="31" width="10.375" customWidth="1"/>
-    <col min="33" max="33" width="10.375" customWidth="1"/>
-    <col min="35" max="35" width="6.375" customWidth="1"/>
-    <col min="36" max="36" width="8.375" customWidth="1"/>
-    <col min="37" max="37" width="12.625" customWidth="1"/>
+    <col min="5" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="9.125" customWidth="1"/>
+    <col min="14" max="14" width="19.625" customWidth="1"/>
+    <col min="15" max="15" width="21.625" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="26" customWidth="1"/>
+    <col min="19" max="19" width="6.375" customWidth="1"/>
+    <col min="21" max="21" width="2.375" customWidth="1"/>
+    <col min="23" max="23" width="4.375" customWidth="1"/>
+    <col min="27" max="27" width="8.375" customWidth="1"/>
+    <col min="29" max="29" width="7.375" customWidth="1"/>
+    <col min="30" max="30" width="10.375" customWidth="1"/>
+    <col min="32" max="32" width="10.375" customWidth="1"/>
+    <col min="34" max="34" width="6.375" customWidth="1"/>
+    <col min="35" max="35" width="8.375" customWidth="1"/>
+    <col min="36" max="36" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3955,11 +3952,8 @@
       <c r="M1" t="s">
         <v>206</v>
       </c>
-      <c r="N1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>201</v>
       </c>
@@ -3976,31 +3970,28 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.4</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.4</v>
-      </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>500</v>
       </c>
-      <c r="M2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N2">
+      <c r="L2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>202</v>
       </c>
@@ -4017,31 +4008,28 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>0.5</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K3">
+        <v>900</v>
+      </c>
+      <c r="L3" t="s">
         <v>209</v>
       </c>
-      <c r="L3">
-        <v>900</v>
-      </c>
-      <c r="M3" t="s">
-        <v>210</v>
-      </c>
-      <c r="N3">
+      <c r="M3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>203</v>
       </c>
@@ -4058,31 +4046,28 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
         <v>0.6</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L4">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4">
         <v>600</v>
       </c>
-      <c r="M4" t="s">
-        <v>211</v>
-      </c>
-      <c r="N4">
+      <c r="L4" t="s">
+        <v>210</v>
+      </c>
+      <c r="M4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>204</v>
       </c>
@@ -4099,34 +4084,31 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <v>5000</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5" t="s">
         <v>212</v>
       </c>
-      <c r="L5">
-        <v>300</v>
-      </c>
-      <c r="M5" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5">
+      <c r="M5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>205</v>
       </c>
@@ -4143,31 +4125,28 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
         <v>0.5</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>209</v>
-      </c>
-      <c r="L6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6">
         <v>500</v>
       </c>
-      <c r="M6" t="s">
-        <v>214</v>
-      </c>
-      <c r="N6">
+      <c r="L6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>206</v>
       </c>
@@ -4184,31 +4163,28 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
         <v>0.8</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L7">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7">
         <v>800</v>
       </c>
-      <c r="M7" t="s">
-        <v>215</v>
-      </c>
-      <c r="N7">
+      <c r="L7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>207</v>
       </c>
@@ -4225,31 +4201,28 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
         <v>0.6</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8">
+        <v>600</v>
+      </c>
+      <c r="L8" t="s">
         <v>216</v>
       </c>
-      <c r="L8">
-        <v>600</v>
-      </c>
-      <c r="M8" t="s">
-        <v>217</v>
-      </c>
-      <c r="N8">
+      <c r="M8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>208</v>
       </c>
@@ -4266,31 +4239,28 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
         <v>0.7</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9">
+        <v>500</v>
+      </c>
+      <c r="L9" t="s">
         <v>218</v>
       </c>
-      <c r="L9">
-        <v>500</v>
-      </c>
-      <c r="M9" t="s">
-        <v>219</v>
-      </c>
-      <c r="N9">
+      <c r="M9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>209</v>
       </c>
@@ -4310,28 +4280,25 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
         <v>0.1</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>209</v>
-      </c>
-      <c r="L10">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10">
         <v>600</v>
       </c>
-      <c r="M10" t="s">
-        <v>214</v>
-      </c>
-      <c r="N10">
+      <c r="L10" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:14">
+    <row r="11" customFormat="1" spans="1:13">
       <c r="A11">
         <v>210</v>
       </c>
@@ -4348,34 +4315,31 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
         <v>0.3</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
         <v>28</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11">
         <v>500</v>
       </c>
-      <c r="M11" t="s">
-        <v>220</v>
-      </c>
-      <c r="N11">
+      <c r="L11" t="s">
+        <v>219</v>
+      </c>
+      <c r="M11">
         <v>900</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:14">
+    <row r="12" customFormat="1" spans="1:13">
       <c r="A12">
         <v>211</v>
       </c>
@@ -4392,28 +4356,25 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
         <v>0.6</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>221</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:14">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>220</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:13">
       <c r="A13">
         <v>212</v>
       </c>
@@ -4433,22 +4394,19 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
         <v>0.1</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:14">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:13">
       <c r="A14">
         <v>213</v>
       </c>
@@ -4462,31 +4420,28 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
         <v>0.8</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>600</v>
       </c>
-      <c r="M14" t="s">
-        <v>222</v>
-      </c>
-      <c r="N14">
+      <c r="L14" t="s">
+        <v>221</v>
+      </c>
+      <c r="M14">
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:14">
+    <row r="15" customFormat="1" spans="1:13">
       <c r="A15">
         <v>214</v>
       </c>
@@ -4503,31 +4458,28 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
         <v>0.4</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
       <c r="J15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
         <v>1000</v>
       </c>
-      <c r="M15" t="s">
-        <v>223</v>
-      </c>
-      <c r="N15">
+      <c r="L15" t="s">
+        <v>222</v>
+      </c>
+      <c r="M15">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="A16" s="4">
         <v>301</v>
       </c>
@@ -4567,11 +4519,8 @@
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="4">
         <v>302</v>
       </c>
@@ -4611,11 +4560,8 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="4">
         <v>303</v>
       </c>
@@ -4655,11 +4601,8 @@
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="4">
         <v>304</v>
       </c>
@@ -4699,11 +4642,8 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>305</v>
       </c>
@@ -4720,31 +4660,28 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>223</v>
+      </c>
+      <c r="K20">
+        <v>400</v>
+      </c>
+      <c r="L20" t="s">
         <v>224</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>400</v>
       </c>
-      <c r="M20" t="s">
-        <v>225</v>
-      </c>
-      <c r="N20">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="4">
         <v>306</v>
       </c>
@@ -4784,11 +4721,8 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="4">
         <v>307</v>
       </c>
@@ -4828,11 +4762,8 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="4">
         <v>308</v>
       </c>
@@ -4872,11 +4803,8 @@
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="4">
         <v>309</v>
       </c>
@@ -4916,11 +4844,8 @@
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="4">
         <v>310</v>
       </c>
@@ -4960,11 +4885,8 @@
       <c r="M25">
         <v>0</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="4">
         <v>311</v>
       </c>
@@ -5004,11 +4926,8 @@
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="4">
         <v>312</v>
       </c>
@@ -5048,11 +4967,8 @@
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>401</v>
       </c>
@@ -5069,31 +4985,28 @@
         <v>4</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
         <v>0.3</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28">
+        <v>300</v>
+      </c>
+      <c r="L28" t="s">
         <v>216</v>
       </c>
-      <c r="L28">
-        <v>300</v>
-      </c>
-      <c r="M28" t="s">
-        <v>217</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>402</v>
       </c>
@@ -5110,31 +5023,28 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
         <v>0.4</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29">
+        <v>400</v>
+      </c>
+      <c r="L29" t="s">
         <v>218</v>
       </c>
-      <c r="L29">
-        <v>400</v>
-      </c>
-      <c r="M29" t="s">
-        <v>219</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>403</v>
       </c>
@@ -5151,31 +5061,28 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
         <v>0.5</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
-        <v>209</v>
-      </c>
-      <c r="L30">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30">
         <v>600</v>
       </c>
-      <c r="M30" t="s">
-        <v>214</v>
-      </c>
-      <c r="N30">
+      <c r="L30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:13">
       <c r="A31" s="3">
         <v>404</v>
       </c>
@@ -5192,31 +5099,28 @@
         <v>3</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
         <v>0.5</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31">
+        <v>900</v>
+      </c>
+      <c r="L31" t="s">
         <v>209</v>
       </c>
-      <c r="L31">
-        <v>900</v>
-      </c>
-      <c r="M31" t="s">
-        <v>210</v>
-      </c>
-      <c r="N31">
+      <c r="M31">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:13">
       <c r="A32" s="3">
         <v>405</v>
       </c>
@@ -5233,31 +5137,28 @@
         <v>5</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
         <v>0.6</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>209</v>
-      </c>
-      <c r="L32">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32">
         <v>600</v>
       </c>
-      <c r="M32" t="s">
-        <v>211</v>
-      </c>
-      <c r="N32">
+      <c r="L32" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:13">
       <c r="A33" s="3">
         <v>406</v>
       </c>
@@ -5274,27 +5175,24 @@
         <v>1</v>
       </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0.4</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0.4</v>
-      </c>
       <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>500</v>
       </c>
-      <c r="M33" t="s">
-        <v>208</v>
-      </c>
-      <c r="N33">
+      <c r="L33" t="s">
+        <v>207</v>
+      </c>
+      <c r="M33">
         <v>500</v>
       </c>
     </row>
@@ -5323,7 +5221,7 @@
         <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5442,16 +5340,16 @@
         <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>156</v>
@@ -5468,7 +5366,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5494,7 +5392,7 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5520,7 +5418,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5546,7 +5444,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5572,7 +5470,7 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5598,7 +5496,7 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5624,7 +5522,7 @@
         <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5650,7 +5548,7 @@
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -5752,19 +5650,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
         <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" t="s">
         <v>234</v>
-      </c>
-      <c r="E1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5772,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -5789,7 +5687,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -5806,7 +5704,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -5823,7 +5721,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5">
         <v>3</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="241">
   <si>
     <t>类型</t>
   </si>
@@ -79,6 +79,15 @@
     <t>建筑/苔蔓</t>
   </si>
   <si>
+    <t>方墩</t>
+  </si>
+  <si>
+    <t>建筑/方墩</t>
+  </si>
+  <si>
+    <t>永久阻挡，不会损坏</t>
+  </si>
+  <si>
     <t>晶体矿</t>
   </si>
   <si>
@@ -512,9 +521,6 @@
   </si>
   <si>
     <t>初始HP</t>
-  </si>
-  <si>
-    <t>苔蔓</t>
   </si>
   <si>
     <t>f半边长</t>
@@ -1752,14 +1758,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1838,26 +1844,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:5">
-      <c r="A5" s="7">
-        <v>101</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="5" s="4" customFormat="1" spans="1:10">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" s="7" customFormat="1" spans="1:5">
       <c r="A6" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
@@ -1869,622 +1875,613 @@
         <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>201</v>
-      </c>
-      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:5">
+      <c r="A7" s="7">
+        <v>102</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="J8" t="s">
         <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="J9" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="J10" t="s">
         <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
         <v>44</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="I11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
+      <c r="J11" t="s">
         <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
+        <v>205</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
         <v>206</v>
       </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:10">
-      <c r="A13">
-        <v>207</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
         <v>56</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:10">
       <c r="A14">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" t="s">
         <v>62</v>
       </c>
-      <c r="E14" t="s">
+      <c r="I14" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:10">
+      <c r="A15">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
         <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>209</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
         <v>69</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I15" t="s">
         <v>70</v>
       </c>
-      <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s">
-        <v>74</v>
-      </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
         <v>77</v>
       </c>
-      <c r="E16" t="s">
+      <c r="J16" t="s">
         <v>78</v>
       </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>210</v>
+      </c>
+      <c r="B17" t="s">
         <v>79</v>
       </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>211</v>
       </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>212</v>
-      </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
         <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
         <v>91</v>
       </c>
-      <c r="E19" t="s">
+      <c r="J19" t="s">
         <v>92</v>
       </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>213</v>
+      </c>
+      <c r="B20" t="s">
         <v>93</v>
       </c>
-      <c r="G19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
         <v>94</v>
       </c>
-      <c r="J19" t="s">
+      <c r="E20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:10">
-      <c r="A20">
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:10">
+      <c r="A21">
         <v>214</v>
       </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20">
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="I20" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" s="4" customFormat="1" spans="1:10">
-      <c r="A21" s="4">
-        <v>301</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="I21" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="J21" t="s">
         <v>104</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:10">
       <c r="A22" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:10">
       <c r="A23" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="J23" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:10">
       <c r="A24" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:10">
       <c r="A25" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:10">
       <c r="A26" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="4">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:10">
       <c r="A27" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>131</v>
@@ -2492,7 +2489,7 @@
     </row>
     <row r="28" s="4" customFormat="1" spans="1:10">
       <c r="A28" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>132</v>
@@ -2504,13 +2501,13 @@
         <v>133</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>134</v>
@@ -2518,83 +2515,89 @@
     </row>
     <row r="29" s="4" customFormat="1" spans="1:10">
       <c r="A29" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:10">
       <c r="A30" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:10">
       <c r="A31" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>141</v>
+      <c r="F31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>145</v>
@@ -2602,7 +2605,7 @@
     </row>
     <row r="32" s="4" customFormat="1" spans="1:10">
       <c r="A32" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>146</v>
@@ -2613,170 +2616,190 @@
       <c r="D32" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="E32" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="J32" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" s="8" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A33" s="8">
-        <v>401</v>
-      </c>
-      <c r="B33" s="8" t="s">
+    <row r="33" s="4" customFormat="1" spans="1:10">
+      <c r="A33" s="4">
+        <v>312</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="4">
         <v>2</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>60</v>
+      <c r="D33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" ht="14.25" spans="1:9">
       <c r="A34" s="8">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C34" s="8">
         <v>2</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="I34" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" s="8" customFormat="1" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" s="8" customFormat="1" ht="14.25" spans="1:9">
       <c r="A35" s="8">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C35" s="8">
         <v>2</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>47</v>
+        <v>65</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" s="8" customFormat="1" spans="1:9">
       <c r="A36" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C36" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" s="8" customFormat="1" spans="1:9">
       <c r="A37" s="8">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C37" s="8">
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="1" spans="1:9">
       <c r="A38" s="8">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0</v>
-      </c>
-      <c r="H38" s="8">
+        <v>37</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" s="8" customFormat="1" spans="1:9">
+      <c r="A39" s="8">
+        <v>406</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
         <v>3</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>23</v>
+      <c r="I39" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2789,10 +2812,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2806,378 +2829,378 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>201</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="4">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>25</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>20</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>18</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
         <v>301</v>
       </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16">
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17">
         <v>50</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>300</v>
-      </c>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="1:5">
-      <c r="A17" s="4">
-        <v>302</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="4">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4">
-        <v>100</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:5">
       <c r="A18" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E18" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:5">
       <c r="A19" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C19" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E19" s="4">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:5">
       <c r="A20" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C20" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E20" s="4">
-        <v>100</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:5">
       <c r="A21" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C21" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D21" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E21" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:5">
       <c r="A22" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C22" s="4">
         <v>35</v>
       </c>
       <c r="D22" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E22" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:5">
       <c r="A23" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>132</v>
@@ -3194,27 +3217,27 @@
     </row>
     <row r="24" s="4" customFormat="1" spans="1:5">
       <c r="A24" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C24" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D24" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24" s="4">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:5">
       <c r="A25" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="4">
         <v>30</v>
@@ -3223,59 +3246,63 @@
         <v>10</v>
       </c>
       <c r="E25" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:5">
       <c r="A26" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26">
+        <v>142</v>
+      </c>
+      <c r="C26" s="4">
         <v>30</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3286,9 +3313,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3299,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3317,44 +3344,44 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>301</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
+      <c r="A3" s="4">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -3362,40 +3389,40 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
         <v>117</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
         <v>132</v>
@@ -3405,10 +3432,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4">
-        <v>309</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11">
+        <v>308</v>
+      </c>
+      <c r="B11" t="s">
         <v>135</v>
       </c>
       <c r="C11">
@@ -3417,40 +3444,51 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
+        <v>312</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3480,19 +3518,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3500,19 +3538,19 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3520,19 +3558,19 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3540,19 +3578,19 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
         <v>170</v>
       </c>
-      <c r="D4" t="s">
-        <v>168</v>
-      </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3560,19 +3598,19 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3580,19 +3618,19 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3600,19 +3638,19 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3620,19 +3658,19 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3640,19 +3678,19 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3660,19 +3698,19 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
@@ -3680,19 +3718,19 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -3700,7 +3738,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
@@ -3708,19 +3746,19 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -3728,19 +3766,19 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
@@ -3748,19 +3786,19 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3768,13 +3806,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3782,13 +3820,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3796,13 +3834,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3810,19 +3848,19 @@
         <v>404</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3830,19 +3868,19 @@
         <v>405</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
         <v>170</v>
       </c>
-      <c r="D20" t="s">
-        <v>168</v>
-      </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3850,19 +3888,19 @@
         <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3877,7 +3915,7 @@
   <sheetPr/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
@@ -3917,40 +3955,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3958,7 +3996,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -3985,7 +4023,7 @@
         <v>500</v>
       </c>
       <c r="L2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M2">
         <v>500</v>
@@ -3996,7 +4034,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -4017,13 +4055,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K3">
         <v>900</v>
       </c>
       <c r="L3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -4034,7 +4072,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -4055,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K4">
         <v>600</v>
       </c>
       <c r="L4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -4072,7 +4110,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -4090,19 +4128,19 @@
         <v>0.1</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I5">
         <v>5000</v>
       </c>
       <c r="J5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K5">
         <v>300</v>
       </c>
       <c r="L5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -4113,7 +4151,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4134,13 +4172,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K6">
         <v>500</v>
       </c>
       <c r="L6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M6">
         <v>300</v>
@@ -4151,7 +4189,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -4172,13 +4210,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K7">
         <v>800</v>
       </c>
       <c r="L7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -4189,7 +4227,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -4210,13 +4248,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K8">
         <v>600</v>
       </c>
       <c r="L8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M8">
         <v>100</v>
@@ -4227,7 +4265,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -4248,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K9">
         <v>500</v>
       </c>
       <c r="L9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -4265,7 +4303,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4286,13 +4324,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K10">
         <v>600</v>
       </c>
       <c r="L10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M10">
         <v>200</v>
@@ -4303,7 +4341,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -4321,19 +4359,19 @@
         <v>0.3</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K11">
         <v>500</v>
       </c>
       <c r="L11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M11">
         <v>900</v>
@@ -4344,7 +4382,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4368,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -4379,7 +4417,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4411,7 +4449,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -4435,7 +4473,7 @@
         <v>600</v>
       </c>
       <c r="L14" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M14">
         <v>300</v>
@@ -4446,7 +4484,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -4473,7 +4511,7 @@
         <v>1000</v>
       </c>
       <c r="L15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M15">
         <v>100</v>
@@ -4484,7 +4522,7 @@
         <v>301</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4525,7 +4563,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4566,7 +4604,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4607,7 +4645,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4648,7 +4686,7 @@
         <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -4669,13 +4707,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K20">
         <v>400</v>
       </c>
       <c r="L20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M20">
         <v>400</v>
@@ -4686,7 +4724,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4727,7 +4765,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4768,7 +4806,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4809,7 +4847,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4850,7 +4888,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4891,7 +4929,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4932,7 +4970,7 @@
         <v>312</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4973,7 +5011,7 @@
         <v>401</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C28">
         <v>18</v>
@@ -4994,13 +5032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K28">
         <v>300</v>
       </c>
       <c r="L28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5011,7 +5049,7 @@
         <v>402</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -5032,13 +5070,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K29">
         <v>400</v>
       </c>
       <c r="L29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -5049,7 +5087,7 @@
         <v>403</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -5070,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K30">
         <v>600</v>
       </c>
       <c r="L30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M30">
         <v>300</v>
@@ -5087,7 +5125,7 @@
         <v>404</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -5108,13 +5146,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K31">
         <v>900</v>
       </c>
       <c r="L31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M31">
         <v>100</v>
@@ -5125,7 +5163,7 @@
         <v>405</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C32">
         <v>15</v>
@@ -5146,13 +5184,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K32">
         <v>600</v>
       </c>
       <c r="L32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M32">
         <v>100</v>
@@ -5163,7 +5201,7 @@
         <v>406</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -5190,7 +5228,7 @@
         <v>500</v>
       </c>
       <c r="L33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M33">
         <v>500</v>
@@ -5218,10 +5256,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5229,7 +5267,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -5240,7 +5278,7 @@
         <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -5251,7 +5289,7 @@
         <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -5262,7 +5300,7 @@
         <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -5273,7 +5311,7 @@
         <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -5284,7 +5322,7 @@
         <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -5295,7 +5333,7 @@
         <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -5306,7 +5344,7 @@
         <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -5337,25 +5375,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5363,10 +5401,10 @@
         <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5389,10 +5427,10 @@
         <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5415,10 +5453,10 @@
         <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5441,10 +5479,10 @@
         <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5467,10 +5505,10 @@
         <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5493,10 +5531,10 @@
         <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5519,10 +5557,10 @@
         <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5545,10 +5583,10 @@
         <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -5591,13 +5629,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5605,7 +5643,7 @@
         <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -5619,7 +5657,7 @@
         <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -5650,19 +5688,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5670,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -5687,7 +5725,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -5704,7 +5742,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -5721,7 +5759,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C5">
         <v>3</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="244">
   <si>
     <t>类型</t>
   </si>
@@ -758,6 +758,15 @@
   </si>
   <si>
     <t>虫活动单位持续加血</t>
+  </si>
+  <si>
+    <t>医疗兵自动恢复能量</t>
+  </si>
+  <si>
+    <t>蝎子自动恢复能量</t>
+  </si>
+  <si>
+    <t>科学球自动恢复能量</t>
   </si>
 </sst>
 </file>
@@ -3315,8 +3324,8 @@
   <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5675,13 +5684,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="23.375" customWidth="1"/>
   </cols>
@@ -5771,6 +5780,57 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -3924,10 +3924,10 @@
   <sheetPr/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4502,7 +4502,7 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -5686,8 +5686,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -5788,13 +5788,13 @@
         <v>241</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5805,13 +5805,13 @@
         <v>242</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5822,13 +5822,13 @@
         <v>243</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -3924,7 +3924,7 @@
   <sheetPr/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
@@ -5370,8 +5370,8 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5578,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>-100</v>
       </c>
       <c r="G8">
         <v>30</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -2824,7 +2824,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3000,7 +3000,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5254,8 +5254,8 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5301,7 +5301,7 @@
         <v>152</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5312,7 +5312,7 @@
         <v>153</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5334,7 +5334,7 @@
         <v>155</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5345,7 +5345,7 @@
         <v>156</v>
       </c>
       <c r="C8">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5370,7 +5370,7 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="244">
   <si>
     <t>类型</t>
   </si>
@@ -1774,7 +1774,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:B5"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2824,7 +2824,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5252,10 +5252,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5295,67 +5295,78 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>401</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3">
-        <v>404</v>
+      <c r="A7">
+        <v>403</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3">
+        <v>405</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
         <v>406</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>157</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>25</v>
       </c>
     </row>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="单位属性等级" sheetId="8" r:id="rId7"/>
     <sheet name="单位解锁" sheetId="9" r:id="rId8"/>
     <sheet name="Buff" sheetId="10" r:id="rId9"/>
+    <sheet name="战局" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="267">
   <si>
     <t>类型</t>
   </si>
@@ -767,6 +768,75 @@
   </si>
   <si>
     <t>科学球自动恢复能量</t>
+  </si>
+  <si>
+    <t>strSceneName</t>
+  </si>
+  <si>
+    <t>寻路文件</t>
+  </si>
+  <si>
+    <t>Https音乐</t>
+  </si>
+  <si>
+    <t>训练战_人</t>
+  </si>
+  <si>
+    <t>scene战斗</t>
+  </si>
+  <si>
+    <t>all_tiles_tilecache.bin</t>
+  </si>
+  <si>
+    <t>https://www.rtsgame.online/music/Suno_Edge_of_Collapse.mp3</t>
+  </si>
+  <si>
+    <t>训练战_虫</t>
+  </si>
+  <si>
+    <t>防守战_人,</t>
+  </si>
+  <si>
+    <t>scene防守战</t>
+  </si>
+  <si>
+    <t>防守战.bin</t>
+  </si>
+  <si>
+    <t>https://www.rtsgame.online/music/Suno_Edge_of_Collapse_2.mp3</t>
+  </si>
+  <si>
+    <t>防守战_虫,</t>
+  </si>
+  <si>
+    <t>攻坚战_人,</t>
+  </si>
+  <si>
+    <t>scene攻坚战</t>
+  </si>
+  <si>
+    <t>攻坚战.bin</t>
+  </si>
+  <si>
+    <t>攻坚战_虫,</t>
+  </si>
+  <si>
+    <t>反空降战_人,</t>
+  </si>
+  <si>
+    <t>空降战_虫,</t>
+  </si>
+  <si>
+    <t>四方对战</t>
+  </si>
+  <si>
+    <t>scene四方对战</t>
+  </si>
+  <si>
+    <t>四方对战.bin</t>
+  </si>
+  <si>
+    <t>多玩家混战</t>
   </si>
 </sst>
 </file>
@@ -2818,6 +2888,215 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="64.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -5254,7 +5533,7 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -1492,8 +1492,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1855,122 +1858,122 @@
     <col min="10" max="10" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:10">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:3">
-      <c r="A2" s="6">
+    <row r="2" s="7" customFormat="1" spans="1:3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:3">
-      <c r="A3" s="6">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:4">
-      <c r="A4" s="4">
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:10">
-      <c r="A5" s="4">
+    <row r="5" s="5" customFormat="1" spans="1:10">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" s="8" customFormat="1" spans="1:5">
+      <c r="A6" s="8">
         <v>101</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:5">
-      <c r="A7" s="7">
+    <row r="7" s="8" customFormat="1" spans="1:5">
+      <c r="A7" s="8">
         <v>102</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2170,7 +2173,7 @@
       <c r="E14" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="G14" t="s">
@@ -2202,7 +2205,7 @@
       <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>67</v>
       </c>
       <c r="G15" t="s">
@@ -2392,492 +2395,492 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" spans="1:10">
-      <c r="A22" s="4">
+    <row r="22" s="5" customFormat="1" spans="1:10">
+      <c r="A22" s="5">
         <v>301</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" spans="1:10">
-      <c r="A23" s="4">
+    <row r="23" s="5" customFormat="1" spans="1:10">
+      <c r="A23" s="5">
         <v>302</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>1</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:10">
-      <c r="A24" s="4">
+    <row r="24" s="5" customFormat="1" spans="1:10">
+      <c r="A24" s="5">
         <v>303</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:10">
-      <c r="A25" s="4">
+    <row r="25" s="5" customFormat="1" spans="1:10">
+      <c r="A25" s="5">
         <v>304</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" spans="1:10">
-      <c r="A26" s="4">
+    <row r="26" s="5" customFormat="1" spans="1:10">
+      <c r="A26" s="5">
         <v>305</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>3</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="1" spans="1:10">
-      <c r="A27" s="4">
+    <row r="27" s="5" customFormat="1" spans="1:10">
+      <c r="A27" s="5">
         <v>306</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="5">
         <v>2</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>1</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1" spans="1:10">
-      <c r="A28" s="4">
+    <row r="28" s="5" customFormat="1" spans="1:10">
+      <c r="A28" s="5">
         <v>307</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <v>1</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" s="4" customFormat="1" spans="1:10">
-      <c r="A29" s="4">
+    <row r="29" s="5" customFormat="1" spans="1:10">
+      <c r="A29" s="5">
         <v>308</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <v>1</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" s="4" customFormat="1" spans="1:10">
-      <c r="A30" s="4">
+    <row r="30" s="5" customFormat="1" spans="1:10">
+      <c r="A30" s="5">
         <v>309</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>2</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1" spans="1:10">
-      <c r="A31" s="4">
+    <row r="31" s="5" customFormat="1" spans="1:10">
+      <c r="A31" s="5">
         <v>310</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <v>2</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" s="4" customFormat="1" spans="1:10">
-      <c r="A32" s="4">
+    <row r="32" s="5" customFormat="1" spans="1:10">
+      <c r="A32" s="5">
         <v>311</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>2</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" s="4" customFormat="1" spans="1:10">
-      <c r="A33" s="4">
+    <row r="33" s="5" customFormat="1" spans="1:10">
+      <c r="A33" s="5">
         <v>312</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>2</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" s="8" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A34" s="8">
+    <row r="34" s="9" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A34" s="9">
         <v>401</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>2</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" s="8" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A35" s="8">
+    <row r="35" s="9" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A35" s="9">
         <v>402</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="9">
         <v>2</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" s="8" customFormat="1" spans="1:9">
-      <c r="A36" s="8">
+    <row r="36" s="9" customFormat="1" spans="1:9">
+      <c r="A36" s="9">
         <v>403</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="9">
         <v>2</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" s="8" customFormat="1" spans="1:9">
-      <c r="A37" s="8">
+    <row r="37" s="9" customFormat="1" spans="1:9">
+      <c r="A37" s="9">
         <v>404</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="9">
         <v>1</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" s="8" customFormat="1" spans="1:9">
-      <c r="A38" s="8">
+    <row r="38" s="9" customFormat="1" spans="1:9">
+      <c r="A38" s="9">
         <v>405</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>1</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" s="8" customFormat="1" spans="1:9">
-      <c r="A39" s="8">
+    <row r="39" s="9" customFormat="1" spans="1:9">
+      <c r="A39" s="9">
         <v>406</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>1</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8">
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
         <v>3</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2894,30 +2897,31 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="3" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="64.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3112,37 +3116,37 @@
     <col min="5" max="5" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="4">
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="5">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>20</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3401,164 +3405,164 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:5">
-      <c r="A18" s="4">
+    <row r="18" s="5" customFormat="1" spans="1:5">
+      <c r="A18" s="5">
         <v>302</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>25</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>9</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:5">
-      <c r="A19" s="4">
+    <row r="19" s="5" customFormat="1" spans="1:5">
+      <c r="A19" s="5">
         <v>303</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>20</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>3</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:5">
-      <c r="A20" s="4">
+    <row r="20" s="5" customFormat="1" spans="1:5">
+      <c r="A20" s="5">
         <v>304</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>30</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>11</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>350</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" spans="1:5">
-      <c r="A21" s="4">
+    <row r="21" s="5" customFormat="1" spans="1:5">
+      <c r="A21" s="5">
         <v>305</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>25</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>8</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" spans="1:5">
-      <c r="A22" s="4">
+    <row r="22" s="5" customFormat="1" spans="1:5">
+      <c r="A22" s="5">
         <v>306</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>35</v>
       </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" spans="1:5">
-      <c r="A23" s="4">
+    <row r="23" s="5" customFormat="1" spans="1:5">
+      <c r="A23" s="5">
         <v>307</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>35</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>12</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:5">
-      <c r="A24" s="4">
+    <row r="24" s="5" customFormat="1" spans="1:5">
+      <c r="A24" s="5">
         <v>308</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>35</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>12</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:5">
-      <c r="A25" s="4">
+    <row r="25" s="5" customFormat="1" spans="1:5">
+      <c r="A25" s="5">
         <v>309</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>30</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>10</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" spans="1:5">
-      <c r="A26" s="4">
+    <row r="26" s="5" customFormat="1" spans="1:5">
+      <c r="A26" s="5">
         <v>310</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>30</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <v>10</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>311</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C27">
@@ -3572,10 +3576,10 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>312</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C28">
@@ -3589,8 +3593,8 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3621,10 +3625,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C2">
@@ -3632,10 +3636,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C3">
@@ -3731,10 +3735,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>309</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C12">
@@ -3742,10 +3746,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>310</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C13">
@@ -3753,10 +3757,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>311</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C14">
@@ -3764,10 +3768,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>312</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C15">
@@ -3775,8 +3779,8 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4132,7 +4136,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>404</v>
       </c>
       <c r="B19" t="s">
@@ -4152,7 +4156,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>405</v>
       </c>
       <c r="B20" t="s">
@@ -4172,7 +4176,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>406</v>
       </c>
       <c r="B21" t="s">
@@ -4806,10 +4810,10 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>301</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C16">
@@ -4847,10 +4851,10 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>302</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C17">
@@ -4888,10 +4892,10 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>303</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C18">
@@ -4929,10 +4933,10 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>304</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C19">
@@ -5008,10 +5012,10 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>306</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C21">
@@ -5049,10 +5053,10 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>307</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C22">
@@ -5090,10 +5094,10 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>308</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C23">
@@ -5131,10 +5135,10 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>309</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C24">
@@ -5172,10 +5176,10 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>310</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C25">
@@ -5213,10 +5217,10 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>311</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C26">
@@ -5254,10 +5258,10 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>312</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C27">
@@ -5409,7 +5413,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>404</v>
       </c>
       <c r="B31" t="s">
@@ -5447,7 +5451,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>405</v>
       </c>
       <c r="B32" t="s">
@@ -5485,7 +5489,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>406</v>
       </c>
       <c r="B33" t="s">
@@ -5617,7 +5621,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>404</v>
       </c>
       <c r="B8" t="s">
@@ -5628,7 +5632,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>405</v>
       </c>
       <c r="B9" t="s">
@@ -5639,7 +5643,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>406</v>
       </c>
       <c r="B10" t="s">
@@ -5669,29 +5673,29 @@
     <col min="7" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5924,16 +5928,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>160</v>
       </c>
     </row>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="270">
   <si>
     <t>类型</t>
   </si>
@@ -779,18 +779,39 @@
     <t>Https音乐</t>
   </si>
   <si>
+    <t>新手训练_战备运营_人</t>
+  </si>
+  <si>
+    <t>scene战斗</t>
+  </si>
+  <si>
+    <t>all_tiles_tilecache.bin</t>
+  </si>
+  <si>
+    <t>https://www.rtsgame.online/music/suno后勤运营低音质.mp3</t>
+  </si>
+  <si>
+    <t>新手训练_战备运营_虫</t>
+  </si>
+  <si>
+    <t>反空降战_人,</t>
+  </si>
+  <si>
+    <t>scene攻坚战</t>
+  </si>
+  <si>
+    <t>攻坚战.bin</t>
+  </si>
+  <si>
+    <t>https://www.rtsgame.online/music/Suno_Edge_of_Collapse.mp3</t>
+  </si>
+  <si>
+    <t>空降战_虫,</t>
+  </si>
+  <si>
     <t>训练战_人</t>
   </si>
   <si>
-    <t>scene战斗</t>
-  </si>
-  <si>
-    <t>all_tiles_tilecache.bin</t>
-  </si>
-  <si>
-    <t>https://www.rtsgame.online/music/Suno_Edge_of_Collapse.mp3</t>
-  </si>
-  <si>
     <t>训练战_虫</t>
   </si>
   <si>
@@ -812,19 +833,7 @@
     <t>攻坚战_人,</t>
   </si>
   <si>
-    <t>scene攻坚战</t>
-  </si>
-  <si>
-    <t>攻坚战.bin</t>
-  </si>
-  <si>
     <t>攻坚战_虫,</t>
-  </si>
-  <si>
-    <t>反空降战_人,</t>
-  </si>
-  <si>
-    <t>空降战_虫,</t>
   </si>
   <si>
     <t>四方对战</t>
@@ -866,6 +875,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="4"/>
@@ -884,14 +901,6 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1362,7 +1371,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1492,17 +1501,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1511,22 +1526,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1858,122 +1873,122 @@
     <col min="10" max="10" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:10">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:10">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:3">
-      <c r="A2" s="7">
+    <row r="2" s="9" customFormat="1" spans="1:3">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:3">
-      <c r="A3" s="7">
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:4">
-      <c r="A4" s="5">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" spans="1:4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:10">
-      <c r="A5" s="5">
+    <row r="5" s="7" customFormat="1" spans="1:10">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:5">
-      <c r="A6" s="8">
+    <row r="6" s="10" customFormat="1" spans="1:5">
+      <c r="A6" s="10">
         <v>101</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:5">
-      <c r="A7" s="8">
+    <row r="7" s="10" customFormat="1" spans="1:5">
+      <c r="A7" s="10">
         <v>102</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2173,7 +2188,7 @@
       <c r="E14" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="12" t="s">
         <v>60</v>
       </c>
       <c r="G14" t="s">
@@ -2205,7 +2220,7 @@
       <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G15" t="s">
@@ -2395,492 +2410,492 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" spans="1:10">
-      <c r="A22" s="5">
+    <row r="22" s="7" customFormat="1" spans="1:10">
+      <c r="A22" s="7">
         <v>301</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" spans="1:10">
-      <c r="A23" s="5">
+    <row r="23" s="7" customFormat="1" spans="1:10">
+      <c r="A23" s="7">
         <v>302</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" spans="1:10">
-      <c r="A24" s="5">
+    <row r="24" s="7" customFormat="1" spans="1:10">
+      <c r="A24" s="7">
         <v>303</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" spans="1:10">
-      <c r="A25" s="5">
+    <row r="25" s="7" customFormat="1" spans="1:10">
+      <c r="A25" s="7">
         <v>304</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:10">
-      <c r="A26" s="5">
+    <row r="26" s="7" customFormat="1" spans="1:10">
+      <c r="A26" s="7">
         <v>305</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="1" spans="1:10">
-      <c r="A27" s="5">
+    <row r="27" s="7" customFormat="1" spans="1:10">
+      <c r="A27" s="7">
         <v>306</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="7">
         <v>2</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
         <v>1</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="1" spans="1:10">
-      <c r="A28" s="5">
+    <row r="28" s="7" customFormat="1" spans="1:10">
+      <c r="A28" s="7">
         <v>307</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="7">
         <v>1</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" s="5" customFormat="1" spans="1:10">
-      <c r="A29" s="5">
+    <row r="29" s="7" customFormat="1" spans="1:10">
+      <c r="A29" s="7">
         <v>308</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" s="5" customFormat="1" spans="1:10">
-      <c r="A30" s="5">
+    <row r="30" s="7" customFormat="1" spans="1:10">
+      <c r="A30" s="7">
         <v>309</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="7">
         <v>2</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="1" spans="1:10">
-      <c r="A31" s="5">
+    <row r="31" s="7" customFormat="1" spans="1:10">
+      <c r="A31" s="7">
         <v>310</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="7">
         <v>2</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" s="5" customFormat="1" spans="1:10">
-      <c r="A32" s="5">
+    <row r="32" s="7" customFormat="1" spans="1:10">
+      <c r="A32" s="7">
         <v>311</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" s="5" customFormat="1" spans="1:10">
-      <c r="A33" s="5">
+    <row r="33" s="7" customFormat="1" spans="1:10">
+      <c r="A33" s="7">
         <v>312</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="7">
         <v>2</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" s="9" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A34" s="9">
+    <row r="34" s="11" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A34" s="11">
         <v>401</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="11">
         <v>2</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" s="9" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A35" s="9">
+    <row r="35" s="11" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A35" s="11">
         <v>402</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="11">
         <v>2</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" s="9" customFormat="1" spans="1:9">
-      <c r="A36" s="9">
+    <row r="36" s="11" customFormat="1" spans="1:9">
+      <c r="A36" s="11">
         <v>403</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="11">
         <v>2</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" s="9" customFormat="1" spans="1:9">
-      <c r="A37" s="9">
+    <row r="37" s="11" customFormat="1" spans="1:9">
+      <c r="A37" s="11">
         <v>404</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="11">
         <v>1</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" s="9" customFormat="1" spans="1:9">
-      <c r="A38" s="9">
+    <row r="38" s="11" customFormat="1" spans="1:9">
+      <c r="A38" s="11">
         <v>405</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="11">
         <v>1</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" s="9" customFormat="1" spans="1:9">
-      <c r="A39" s="9">
+    <row r="39" s="11" customFormat="1" spans="1:9">
+      <c r="A39" s="11">
         <v>406</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="11">
         <v>1</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
         <v>3</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2894,42 +2909,42 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="64.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C2" t="s">
@@ -2938,15 +2953,15 @@
       <c r="D2" t="s">
         <v>249</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C3" t="s">
@@ -2955,12 +2970,12 @@
       <c r="D3" t="s">
         <v>249</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2977,7 +2992,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2994,108 +3009,146 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>257</v>
       </c>
       <c r="C6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>258</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>259</v>
       </c>
-      <c r="E6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>260</v>
       </c>
-      <c r="C7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>261</v>
       </c>
-      <c r="C8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" t="s">
-        <v>259</v>
-      </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" t="s">
         <v>262</v>
       </c>
-      <c r="C9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
-        <v>101</v>
+      <c r="A10" s="2">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>201</v>
       </c>
-      <c r="B11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" t="s">
         <v>248</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>249</v>
       </c>
-      <c r="E11" t="s">
-        <v>250</v>
+      <c r="E13" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.rtsgame.online/music/suno后勤运营低音质.mp3"/>
+    <hyperlink ref="E3" r:id="rId1" display="https://www.rtsgame.online/music/suno后勤运营低音质.mp3"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3116,37 +3169,37 @@
     <col min="5" max="5" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
-      <c r="A2" s="5">
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="7">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>20</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3405,164 +3458,164 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="1:5">
-      <c r="A18" s="5">
+    <row r="18" s="7" customFormat="1" spans="1:5">
+      <c r="A18" s="7">
         <v>302</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>25</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="7">
         <v>9</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" spans="1:5">
-      <c r="A19" s="5">
+    <row r="19" s="7" customFormat="1" spans="1:5">
+      <c r="A19" s="7">
         <v>303</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>20</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="7">
         <v>3</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" spans="1:5">
-      <c r="A20" s="5">
+    <row r="20" s="7" customFormat="1" spans="1:5">
+      <c r="A20" s="7">
         <v>304</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>30</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="7">
         <v>11</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <v>350</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="1" spans="1:5">
-      <c r="A21" s="5">
+    <row r="21" s="7" customFormat="1" spans="1:5">
+      <c r="A21" s="7">
         <v>305</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>25</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="7">
         <v>8</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" spans="1:5">
-      <c r="A22" s="5">
+    <row r="22" s="7" customFormat="1" spans="1:5">
+      <c r="A22" s="7">
         <v>306</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <v>35</v>
       </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" spans="1:5">
-      <c r="A23" s="5">
+    <row r="23" s="7" customFormat="1" spans="1:5">
+      <c r="A23" s="7">
         <v>307</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <v>35</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="7">
         <v>12</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" spans="1:5">
-      <c r="A24" s="5">
+    <row r="24" s="7" customFormat="1" spans="1:5">
+      <c r="A24" s="7">
         <v>308</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="7">
         <v>35</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="7">
         <v>12</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" spans="1:5">
-      <c r="A25" s="5">
+    <row r="25" s="7" customFormat="1" spans="1:5">
+      <c r="A25" s="7">
         <v>309</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="7">
         <v>30</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="7">
         <v>10</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:5">
-      <c r="A26" s="5">
+    <row r="26" s="7" customFormat="1" spans="1:5">
+      <c r="A26" s="7">
         <v>310</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="7">
         <v>30</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="7">
         <v>10</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5">
+      <c r="A27" s="7">
         <v>311</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C27">
@@ -3576,10 +3629,10 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5">
+      <c r="A28" s="7">
         <v>312</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C28">
@@ -3593,8 +3646,8 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3625,10 +3678,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C2">
@@ -3636,10 +3689,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3">
@@ -3735,10 +3788,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>309</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C12">
@@ -3746,10 +3799,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>310</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C13">
@@ -3757,10 +3810,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>311</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C14">
@@ -3768,10 +3821,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>312</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C15">
@@ -3779,8 +3832,8 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4136,7 +4189,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>404</v>
       </c>
       <c r="B19" t="s">
@@ -4156,7 +4209,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>405</v>
       </c>
       <c r="B20" t="s">
@@ -4176,7 +4229,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4">
+      <c r="A21" s="6">
         <v>406</v>
       </c>
       <c r="B21" t="s">
@@ -4810,10 +4863,10 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>301</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C16">
@@ -4851,10 +4904,10 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>302</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C17">
@@ -4892,10 +4945,10 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>303</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C18">
@@ -4933,10 +4986,10 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>304</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>117</v>
       </c>
       <c r="C19">
@@ -5012,10 +5065,10 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="5">
+      <c r="A21" s="7">
         <v>306</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C21">
@@ -5053,10 +5106,10 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>307</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C22">
@@ -5094,10 +5147,10 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="5">
+      <c r="A23" s="7">
         <v>308</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C23">
@@ -5135,10 +5188,10 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="5">
+      <c r="A24" s="7">
         <v>309</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C24">
@@ -5176,10 +5229,10 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="5">
+      <c r="A25" s="7">
         <v>310</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C25">
@@ -5217,10 +5270,10 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="5">
+      <c r="A26" s="7">
         <v>311</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C26">
@@ -5258,10 +5311,10 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="5">
+      <c r="A27" s="7">
         <v>312</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C27">
@@ -5413,7 +5466,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="4">
+      <c r="A31" s="6">
         <v>404</v>
       </c>
       <c r="B31" t="s">
@@ -5451,7 +5504,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="4">
+      <c r="A32" s="6">
         <v>405</v>
       </c>
       <c r="B32" t="s">
@@ -5489,7 +5542,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="4">
+      <c r="A33" s="6">
         <v>406</v>
       </c>
       <c r="B33" t="s">
@@ -5621,7 +5674,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>404</v>
       </c>
       <c r="B8" t="s">
@@ -5632,7 +5685,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>405</v>
       </c>
       <c r="B9" t="s">
@@ -5643,7 +5696,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>406</v>
       </c>
       <c r="B10" t="s">
@@ -5673,29 +5726,29 @@
     <col min="7" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5928,16 +5981,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>160</v>
       </c>
     </row>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="270">
   <si>
     <t>类型</t>
   </si>
@@ -1501,14 +1501,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1862,7 +1859,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19:B19"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1873,122 +1870,122 @@
     <col min="10" max="10" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:10">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:3">
-      <c r="A2" s="9">
+    <row r="2" s="8" customFormat="1" spans="1:3">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:3">
-      <c r="A3" s="9">
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="1" spans="1:3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="7" customFormat="1" spans="1:4">
-      <c r="A4" s="7">
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:10">
-      <c r="A5" s="7">
+    <row r="5" s="6" customFormat="1" spans="1:10">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+    <row r="6" s="9" customFormat="1" spans="1:5">
+      <c r="A6" s="9">
         <v>101</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
+    <row r="7" s="9" customFormat="1" spans="1:5">
+      <c r="A7" s="9">
         <v>102</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2188,7 +2185,7 @@
       <c r="E14" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G14" t="s">
@@ -2220,7 +2217,7 @@
       <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G15" t="s">
@@ -2410,492 +2407,492 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" spans="1:10">
-      <c r="A22" s="7">
+    <row r="22" s="6" customFormat="1" spans="1:10">
+      <c r="A22" s="6">
         <v>301</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>1</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" spans="1:10">
-      <c r="A23" s="7">
+    <row r="23" s="6" customFormat="1" spans="1:10">
+      <c r="A23" s="6">
         <v>302</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>1</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" spans="1:10">
-      <c r="A24" s="7">
+    <row r="24" s="6" customFormat="1" spans="1:10">
+      <c r="A24" s="6">
         <v>303</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>1</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" spans="1:10">
-      <c r="A25" s="7">
+    <row r="25" s="6" customFormat="1" spans="1:10">
+      <c r="A25" s="6">
         <v>304</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>1</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="1:10">
-      <c r="A26" s="7">
+    <row r="26" s="6" customFormat="1" spans="1:10">
+      <c r="A26" s="6">
         <v>305</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>3</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" spans="1:10">
-      <c r="A27" s="7">
+    <row r="27" s="6" customFormat="1" spans="1:10">
+      <c r="A27" s="6">
         <v>306</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>2</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
         <v>1</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" spans="1:10">
-      <c r="A28" s="7">
+    <row r="28" s="6" customFormat="1" spans="1:10">
+      <c r="A28" s="6">
         <v>307</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" spans="1:10">
-      <c r="A29" s="7">
+    <row r="29" s="6" customFormat="1" spans="1:10">
+      <c r="A29" s="6">
         <v>308</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>1</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" spans="1:10">
-      <c r="A30" s="7">
+    <row r="30" s="6" customFormat="1" spans="1:10">
+      <c r="A30" s="6">
         <v>309</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>2</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" spans="1:10">
-      <c r="A31" s="7">
+    <row r="31" s="6" customFormat="1" spans="1:10">
+      <c r="A31" s="6">
         <v>310</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>2</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" spans="1:10">
-      <c r="A32" s="7">
+    <row r="32" s="6" customFormat="1" spans="1:10">
+      <c r="A32" s="6">
         <v>311</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>2</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="1:10">
-      <c r="A33" s="7">
+    <row r="33" s="6" customFormat="1" spans="1:10">
+      <c r="A33" s="6">
         <v>312</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>2</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" s="11" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A34" s="11">
+    <row r="34" s="10" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A34" s="10">
         <v>401</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>2</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" s="11" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A35" s="11">
+    <row r="35" s="10" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A35" s="10">
         <v>402</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>2</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" s="11" customFormat="1" spans="1:9">
-      <c r="A36" s="11">
+    <row r="36" s="10" customFormat="1" spans="1:9">
+      <c r="A36" s="10">
         <v>403</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>2</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:9">
-      <c r="A37" s="11">
+    <row r="37" s="10" customFormat="1" spans="1:9">
+      <c r="A37" s="10">
         <v>404</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>1</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" s="11" customFormat="1" spans="1:9">
-      <c r="A38" s="11">
+    <row r="38" s="10" customFormat="1" spans="1:9">
+      <c r="A38" s="10">
         <v>405</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>1</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" s="11" customFormat="1" spans="1:9">
-      <c r="A39" s="11">
+    <row r="39" s="10" customFormat="1" spans="1:9">
+      <c r="A39" s="10">
         <v>406</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>1</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="11">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11">
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
         <v>3</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2911,8 +2908,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2953,7 +2950,7 @@
       <c r="D2" t="s">
         <v>249</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2970,7 +2967,7 @@
       <c r="D3" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3111,7 +3108,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>101</v>
       </c>
       <c r="B12" t="s">
@@ -3128,7 +3125,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>201</v>
       </c>
       <c r="B13" t="s">
@@ -3160,7 +3157,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3187,16 +3184,16 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>20</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="1">
@@ -3458,164 +3455,164 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="1" spans="1:5">
-      <c r="A18" s="7">
+    <row r="18" s="6" customFormat="1" spans="1:5">
+      <c r="A18" s="6">
         <v>302</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>25</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>9</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" spans="1:5">
-      <c r="A19" s="7">
+    <row r="19" s="6" customFormat="1" spans="1:5">
+      <c r="A19" s="6">
         <v>303</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>20</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>3</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" spans="1:5">
-      <c r="A20" s="7">
+    <row r="20" s="6" customFormat="1" spans="1:5">
+      <c r="A20" s="6">
         <v>304</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>30</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>11</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>350</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="1:5">
-      <c r="A21" s="7">
+    <row r="21" s="6" customFormat="1" spans="1:5">
+      <c r="A21" s="6">
         <v>305</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>25</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>8</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" spans="1:5">
-      <c r="A22" s="7">
+    <row r="22" s="6" customFormat="1" spans="1:5">
+      <c r="A22" s="6">
         <v>306</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>35</v>
       </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" spans="1:5">
-      <c r="A23" s="7">
+    <row r="23" s="6" customFormat="1" spans="1:5">
+      <c r="A23" s="6">
         <v>307</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>35</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>12</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" spans="1:5">
-      <c r="A24" s="7">
+    <row r="24" s="6" customFormat="1" spans="1:5">
+      <c r="A24" s="6">
         <v>308</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>35</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>12</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" spans="1:5">
-      <c r="A25" s="7">
+    <row r="25" s="6" customFormat="1" spans="1:5">
+      <c r="A25" s="6">
         <v>309</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>30</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>10</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="1:5">
-      <c r="A26" s="7">
+    <row r="26" s="6" customFormat="1" spans="1:5">
+      <c r="A26" s="6">
         <v>310</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>30</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>10</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>311</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C27">
@@ -3629,10 +3626,10 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>312</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C28">
@@ -3646,8 +3643,8 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3678,10 +3675,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C2">
@@ -3689,10 +3686,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C3">
@@ -3788,10 +3785,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>309</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C12">
@@ -3799,10 +3796,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>310</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C13">
@@ -3810,10 +3807,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>311</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C14">
@@ -3821,10 +3818,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>312</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C15">
@@ -3832,8 +3829,8 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4189,7 +4186,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>404</v>
       </c>
       <c r="B19" t="s">
@@ -4209,7 +4206,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>405</v>
       </c>
       <c r="B20" t="s">
@@ -4229,7 +4226,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>406</v>
       </c>
       <c r="B21" t="s">
@@ -4863,10 +4860,10 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>301</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C16">
@@ -4904,10 +4901,10 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>302</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C17">
@@ -4945,10 +4942,10 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>303</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C18">
@@ -4986,10 +4983,10 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>304</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C19">
@@ -5065,10 +5062,10 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>306</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C21">
@@ -5106,10 +5103,10 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>307</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C22">
@@ -5147,10 +5144,10 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>308</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C23">
@@ -5188,10 +5185,10 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>309</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C24">
@@ -5229,10 +5226,10 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>310</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C25">
@@ -5270,10 +5267,10 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>311</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C26">
@@ -5311,10 +5308,10 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>312</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C27">
@@ -5466,7 +5463,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>404</v>
       </c>
       <c r="B31" t="s">
@@ -5504,7 +5501,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>405</v>
       </c>
       <c r="B32" t="s">
@@ -5542,7 +5539,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>406</v>
       </c>
       <c r="B33" t="s">
@@ -5588,10 +5585,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5642,67 +5639,78 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>401</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6">
+      <c r="A8">
+        <v>403</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
         <v>404</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>155</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6">
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
         <v>405</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>156</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6">
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
         <v>406</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>157</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>25</v>
       </c>
     </row>
@@ -5726,29 +5734,29 @@
     <col min="7" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5987,10 +5995,10 @@
       <c r="B1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>160</v>
       </c>
     </row>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="271">
   <si>
     <t>类型</t>
   </si>
@@ -803,13 +803,16 @@
     <t>攻坚战.bin</t>
   </si>
   <si>
+    <t>https://www.rtsgame.online/music/suno后勤运营2低音质.mp3</t>
+  </si>
+  <si>
+    <t>空降战_虫,</t>
+  </si>
+  <si>
+    <t>训练战_人</t>
+  </si>
+  <si>
     <t>https://www.rtsgame.online/music/Suno_Edge_of_Collapse.mp3</t>
-  </si>
-  <si>
-    <t>空降战_虫,</t>
-  </si>
-  <si>
-    <t>训练战_人</t>
   </si>
   <si>
     <t>训练战_虫</t>
@@ -877,6 +880,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -901,14 +912,6 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1371,10 +1374,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1501,7 +1504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1511,10 +1514,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1523,22 +1529,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1870,122 +1876,122 @@
     <col min="10" max="10" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:10">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:10">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:3">
-      <c r="A2" s="8">
+    <row r="2" s="9" customFormat="1" spans="1:3">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="8" customFormat="1" spans="1:3">
-      <c r="A3" s="8">
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" spans="1:4">
-      <c r="A4" s="6">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" spans="1:4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" spans="1:10">
-      <c r="A5" s="6">
+    <row r="5" s="7" customFormat="1" spans="1:10">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:5">
-      <c r="A6" s="9">
+    <row r="6" s="10" customFormat="1" spans="1:5">
+      <c r="A6" s="10">
         <v>101</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:5">
-      <c r="A7" s="9">
+    <row r="7" s="10" customFormat="1" spans="1:5">
+      <c r="A7" s="10">
         <v>102</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2185,7 +2191,7 @@
       <c r="E14" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>60</v>
       </c>
       <c r="G14" t="s">
@@ -2217,7 +2223,7 @@
       <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G15" t="s">
@@ -2407,492 +2413,492 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:10">
-      <c r="A22" s="6">
+    <row r="22" s="7" customFormat="1" spans="1:10">
+      <c r="A22" s="7">
         <v>301</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" spans="1:10">
-      <c r="A23" s="6">
+    <row r="23" s="7" customFormat="1" spans="1:10">
+      <c r="A23" s="7">
         <v>302</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:10">
-      <c r="A24" s="6">
+    <row r="24" s="7" customFormat="1" spans="1:10">
+      <c r="A24" s="7">
         <v>303</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" spans="1:10">
-      <c r="A25" s="6">
+    <row r="25" s="7" customFormat="1" spans="1:10">
+      <c r="A25" s="7">
         <v>304</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" spans="1:10">
-      <c r="A26" s="6">
+    <row r="26" s="7" customFormat="1" spans="1:10">
+      <c r="A26" s="7">
         <v>305</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:10">
-      <c r="A27" s="6">
+    <row r="27" s="7" customFormat="1" spans="1:10">
+      <c r="A27" s="7">
         <v>306</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>2</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
         <v>1</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" spans="1:10">
-      <c r="A28" s="6">
+    <row r="28" s="7" customFormat="1" spans="1:10">
+      <c r="A28" s="7">
         <v>307</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>1</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="1" spans="1:10">
-      <c r="A29" s="6">
+    <row r="29" s="7" customFormat="1" spans="1:10">
+      <c r="A29" s="7">
         <v>308</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" spans="1:10">
-      <c r="A30" s="6">
+    <row r="30" s="7" customFormat="1" spans="1:10">
+      <c r="A30" s="7">
         <v>309</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="7">
         <v>2</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="1" spans="1:10">
-      <c r="A31" s="6">
+    <row r="31" s="7" customFormat="1" spans="1:10">
+      <c r="A31" s="7">
         <v>310</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="7">
         <v>2</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" spans="1:10">
-      <c r="A32" s="6">
+    <row r="32" s="7" customFormat="1" spans="1:10">
+      <c r="A32" s="7">
         <v>311</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" s="6" customFormat="1" spans="1:10">
-      <c r="A33" s="6">
+    <row r="33" s="7" customFormat="1" spans="1:10">
+      <c r="A33" s="7">
         <v>312</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="7">
         <v>2</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" s="10" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A34" s="10">
+    <row r="34" s="11" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A34" s="11">
         <v>401</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="11">
         <v>2</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" s="10" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A35" s="10">
+    <row r="35" s="11" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A35" s="11">
         <v>402</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="11">
         <v>2</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" s="10" customFormat="1" spans="1:9">
-      <c r="A36" s="10">
+    <row r="36" s="11" customFormat="1" spans="1:9">
+      <c r="A36" s="11">
         <v>403</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="11">
         <v>2</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" s="10" customFormat="1" spans="1:9">
-      <c r="A37" s="10">
+    <row r="37" s="11" customFormat="1" spans="1:9">
+      <c r="A37" s="11">
         <v>404</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="11">
         <v>1</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" s="10" customFormat="1" spans="1:9">
-      <c r="A38" s="10">
+    <row r="38" s="11" customFormat="1" spans="1:9">
+      <c r="A38" s="11">
         <v>405</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="11">
         <v>1</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" s="10" customFormat="1" spans="1:9">
-      <c r="A39" s="10">
+    <row r="39" s="11" customFormat="1" spans="1:9">
+      <c r="A39" s="11">
         <v>406</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="11">
         <v>1</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="10">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10">
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
         <v>3</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2908,8 +2914,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2967,7 +2973,7 @@
       <c r="D3" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2984,7 +2990,7 @@
       <c r="D4" t="s">
         <v>254</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3001,7 +3007,7 @@
       <c r="D5" t="s">
         <v>254</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3019,7 +3025,7 @@
         <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3027,7 +3033,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
         <v>248</v>
@@ -3036,7 +3042,7 @@
         <v>249</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3044,16 +3050,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3061,16 +3067,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" t="s">
         <v>263</v>
-      </c>
-      <c r="C9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E9" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3078,7 +3084,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
         <v>253</v>
@@ -3087,7 +3093,7 @@
         <v>254</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3095,7 +3101,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
         <v>253</v>
@@ -3104,7 +3110,7 @@
         <v>254</v>
       </c>
       <c r="E11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3112,16 +3118,16 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3129,7 +3135,7 @@
         <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C13" t="s">
         <v>248</v>
@@ -3138,13 +3144,15 @@
         <v>249</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://www.rtsgame.online/music/suno后勤运营低音质.mp3"/>
     <hyperlink ref="E3" r:id="rId1" display="https://www.rtsgame.online/music/suno后勤运营低音质.mp3"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://www.rtsgame.online/music/suno后勤运营2低音质.mp3" tooltip="https://www.rtsgame.online/music/suno后勤运营2低音质.mp3"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://www.rtsgame.online/music/suno后勤运营2低音质.mp3" tooltip="https://www.rtsgame.online/music/suno后勤运营2低音质.mp3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3157,7 +3165,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3184,16 +3192,16 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>20</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="1">
@@ -3455,164 +3463,164 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="1" spans="1:5">
-      <c r="A18" s="6">
+    <row r="18" s="7" customFormat="1" spans="1:5">
+      <c r="A18" s="7">
         <v>302</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>25</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>9</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" spans="1:5">
-      <c r="A19" s="6">
+    <row r="19" s="7" customFormat="1" spans="1:5">
+      <c r="A19" s="7">
         <v>303</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>20</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <v>3</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:5">
-      <c r="A20" s="6">
+    <row r="20" s="7" customFormat="1" spans="1:5">
+      <c r="A20" s="7">
         <v>304</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>30</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>11</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <v>350</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" spans="1:5">
-      <c r="A21" s="6">
+    <row r="21" s="7" customFormat="1" spans="1:5">
+      <c r="A21" s="7">
         <v>305</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>25</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="7">
         <v>8</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:5">
-      <c r="A22" s="6">
+    <row r="22" s="7" customFormat="1" spans="1:5">
+      <c r="A22" s="7">
         <v>306</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>35</v>
       </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" spans="1:5">
-      <c r="A23" s="6">
+    <row r="23" s="7" customFormat="1" spans="1:5">
+      <c r="A23" s="7">
         <v>307</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>35</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="7">
         <v>12</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:5">
-      <c r="A24" s="6">
+    <row r="24" s="7" customFormat="1" spans="1:5">
+      <c r="A24" s="7">
         <v>308</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>35</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="7">
         <v>12</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" spans="1:5">
-      <c r="A25" s="6">
+    <row r="25" s="7" customFormat="1" spans="1:5">
+      <c r="A25" s="7">
         <v>309</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>30</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="7">
         <v>10</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" spans="1:5">
-      <c r="A26" s="6">
+    <row r="26" s="7" customFormat="1" spans="1:5">
+      <c r="A26" s="7">
         <v>310</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>30</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>10</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="6">
+      <c r="A27" s="7">
         <v>311</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C27">
@@ -3626,10 +3634,10 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="6">
+      <c r="A28" s="7">
         <v>312</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C28">
@@ -3643,8 +3651,8 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3675,10 +3683,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C2">
@@ -3686,10 +3694,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3">
@@ -3785,10 +3793,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>309</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C12">
@@ -3796,10 +3804,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>310</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C13">
@@ -3807,10 +3815,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>311</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C14">
@@ -3818,10 +3826,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>312</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C15">
@@ -3829,8 +3837,8 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4186,7 +4194,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>404</v>
       </c>
       <c r="B19" t="s">
@@ -4206,7 +4214,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>405</v>
       </c>
       <c r="B20" t="s">
@@ -4226,7 +4234,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>406</v>
       </c>
       <c r="B21" t="s">
@@ -4260,7 +4268,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+      <selection pane="topRight" activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4860,10 +4868,10 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>301</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C16">
@@ -4901,10 +4909,10 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>302</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C17">
@@ -4942,10 +4950,10 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>303</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C18">
@@ -4983,10 +4991,10 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>304</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>117</v>
       </c>
       <c r="C19">
@@ -5062,10 +5070,10 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="6">
+      <c r="A21" s="7">
         <v>306</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C21">
@@ -5103,10 +5111,10 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="6">
+      <c r="A22" s="7">
         <v>307</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C22">
@@ -5144,10 +5152,10 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="6">
+      <c r="A23" s="7">
         <v>308</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C23">
@@ -5185,10 +5193,10 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="6">
+      <c r="A24" s="7">
         <v>309</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C24">
@@ -5226,10 +5234,10 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="6">
+      <c r="A25" s="7">
         <v>310</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C25">
@@ -5267,10 +5275,10 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="6">
+      <c r="A26" s="7">
         <v>311</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C26">
@@ -5308,10 +5316,10 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="6">
+      <c r="A27" s="7">
         <v>312</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C27">
@@ -5463,7 +5471,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>404</v>
       </c>
       <c r="B31" t="s">
@@ -5501,7 +5509,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <v>405</v>
       </c>
       <c r="B32" t="s">
@@ -5539,7 +5547,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>406</v>
       </c>
       <c r="B33" t="s">
@@ -5587,7 +5595,7 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -5682,7 +5690,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>404</v>
       </c>
       <c r="B9" t="s">
@@ -5693,7 +5701,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>405</v>
       </c>
       <c r="B10" t="s">
@@ -5704,7 +5712,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>406</v>
       </c>
       <c r="B11" t="s">
@@ -5734,29 +5742,29 @@
     <col min="7" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5995,10 +6003,10 @@
       <c r="B1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>160</v>
       </c>
     </row>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="9"/>
+    <workbookView windowHeight="17655" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="273">
   <si>
     <t>类型</t>
   </si>
@@ -656,6 +656,9 @@
     <t>str攻击动作</t>
   </si>
   <si>
+    <t>str弹丸特效</t>
+  </si>
+  <si>
     <t>dura开始伤害</t>
   </si>
   <si>
@@ -714,6 +717,9 @@
   </si>
   <si>
     <t>pao002</t>
+  </si>
+  <si>
+    <t>特效/黄泡泡</t>
   </si>
   <si>
     <t>音效/PhoFir00</t>
@@ -2914,7 +2920,7 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2934,13 +2940,13 @@
         <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -2948,16 +2954,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -2965,16 +2971,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" t="s">
         <v>251</v>
       </c>
-      <c r="C3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" t="s">
-        <v>249</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2982,16 +2988,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2999,16 +3005,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" t="s">
         <v>256</v>
       </c>
-      <c r="C5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" t="s">
-        <v>254</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3016,16 +3022,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3033,16 +3039,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3050,16 +3056,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3067,16 +3073,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" t="s">
         <v>264</v>
       </c>
-      <c r="C9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" t="s">
-        <v>262</v>
-      </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3084,16 +3090,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3101,16 +3107,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3118,16 +3124,16 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3135,16 +3141,16 @@
         <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4263,12 +4269,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4281,26 +4287,27 @@
     <col min="8" max="8" width="12.125" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="13.25" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="9.125" customWidth="1"/>
-    <col min="14" max="14" width="19.625" customWidth="1"/>
-    <col min="15" max="15" width="21.625" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="26" customWidth="1"/>
-    <col min="19" max="19" width="6.375" customWidth="1"/>
-    <col min="21" max="21" width="2.375" customWidth="1"/>
-    <col min="23" max="23" width="4.375" customWidth="1"/>
-    <col min="27" max="27" width="8.375" customWidth="1"/>
-    <col min="29" max="29" width="7.375" customWidth="1"/>
-    <col min="30" max="30" width="10.375" customWidth="1"/>
-    <col min="32" max="32" width="10.375" customWidth="1"/>
-    <col min="34" max="34" width="6.375" customWidth="1"/>
-    <col min="35" max="35" width="8.375" customWidth="1"/>
-    <col min="36" max="36" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="9.125" customWidth="1"/>
+    <col min="15" max="15" width="19.625" customWidth="1"/>
+    <col min="16" max="16" width="21.625" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="19" max="19" width="26" customWidth="1"/>
+    <col min="20" max="20" width="6.375" customWidth="1"/>
+    <col min="22" max="22" width="2.375" customWidth="1"/>
+    <col min="24" max="24" width="4.375" customWidth="1"/>
+    <col min="28" max="28" width="8.375" customWidth="1"/>
+    <col min="30" max="30" width="7.375" customWidth="1"/>
+    <col min="31" max="31" width="10.375" customWidth="1"/>
+    <col min="33" max="33" width="10.375" customWidth="1"/>
+    <col min="35" max="35" width="6.375" customWidth="1"/>
+    <col min="36" max="36" width="8.375" customWidth="1"/>
+    <col min="37" max="37" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4340,8 +4347,11 @@
       <c r="M1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>201</v>
       </c>
@@ -4369,17 +4379,17 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>500</v>
       </c>
-      <c r="L2" t="s">
-        <v>209</v>
-      </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>202</v>
       </c>
@@ -4405,19 +4415,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K3">
+        <v>211</v>
+      </c>
+      <c r="L3">
         <v>900</v>
       </c>
-      <c r="L3" t="s">
-        <v>211</v>
-      </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>203</v>
       </c>
@@ -4443,19 +4453,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K4">
+        <v>211</v>
+      </c>
+      <c r="L4">
         <v>600</v>
       </c>
-      <c r="L4" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>204</v>
       </c>
@@ -4484,19 +4494,19 @@
         <v>5000</v>
       </c>
       <c r="J5" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5">
+        <v>214</v>
+      </c>
+      <c r="L5">
         <v>300</v>
       </c>
-      <c r="L5" t="s">
-        <v>214</v>
-      </c>
-      <c r="M5">
+      <c r="M5" t="s">
+        <v>215</v>
+      </c>
+      <c r="N5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>205</v>
       </c>
@@ -4522,19 +4532,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K6">
+        <v>211</v>
+      </c>
+      <c r="L6">
         <v>500</v>
       </c>
-      <c r="L6" t="s">
-        <v>215</v>
-      </c>
-      <c r="M6">
+      <c r="M6" t="s">
+        <v>216</v>
+      </c>
+      <c r="N6">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>206</v>
       </c>
@@ -4560,19 +4570,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K7">
+        <v>211</v>
+      </c>
+      <c r="L7">
         <v>800</v>
       </c>
-      <c r="L7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M7">
+      <c r="M7" t="s">
+        <v>217</v>
+      </c>
+      <c r="N7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>207</v>
       </c>
@@ -4598,19 +4608,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>217</v>
-      </c>
-      <c r="K8">
+        <v>218</v>
+      </c>
+      <c r="L8">
         <v>600</v>
       </c>
-      <c r="L8" t="s">
-        <v>218</v>
-      </c>
-      <c r="M8">
+      <c r="M8" t="s">
+        <v>219</v>
+      </c>
+      <c r="N8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>208</v>
       </c>
@@ -4636,19 +4646,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>219</v>
-      </c>
-      <c r="K9">
+        <v>220</v>
+      </c>
+      <c r="L9">
         <v>500</v>
       </c>
-      <c r="L9" t="s">
-        <v>220</v>
-      </c>
-      <c r="M9">
+      <c r="M9" t="s">
+        <v>221</v>
+      </c>
+      <c r="N9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>209</v>
       </c>
@@ -4674,19 +4684,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10">
+        <v>211</v>
+      </c>
+      <c r="L10">
         <v>600</v>
       </c>
-      <c r="L10" t="s">
-        <v>215</v>
-      </c>
-      <c r="M10">
+      <c r="M10" t="s">
+        <v>216</v>
+      </c>
+      <c r="N10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:13">
+    <row r="11" customFormat="1" spans="1:14">
       <c r="A11">
         <v>210</v>
       </c>
@@ -4715,19 +4725,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>213</v>
-      </c>
-      <c r="K11">
+        <v>214</v>
+      </c>
+      <c r="L11">
         <v>500</v>
       </c>
-      <c r="L11" t="s">
-        <v>221</v>
-      </c>
-      <c r="M11">
+      <c r="M11" t="s">
+        <v>222</v>
+      </c>
+      <c r="N11">
         <v>900</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:13">
+    <row r="12" customFormat="1" spans="1:14">
       <c r="A12">
         <v>211</v>
       </c>
@@ -4752,17 +4762,17 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>222</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:13">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>223</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:14">
       <c r="A13">
         <v>212</v>
       </c>
@@ -4787,14 +4797,14 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:13">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:14">
       <c r="A14">
         <v>213</v>
       </c>
@@ -4819,17 +4829,17 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>600</v>
       </c>
-      <c r="L14" t="s">
-        <v>223</v>
-      </c>
-      <c r="M14">
+      <c r="M14" t="s">
+        <v>224</v>
+      </c>
+      <c r="N14">
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:13">
+    <row r="15" customFormat="1" spans="1:14">
       <c r="A15">
         <v>214</v>
       </c>
@@ -4857,17 +4867,17 @@
       <c r="J15">
         <v>3</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1000</v>
       </c>
-      <c r="L15" t="s">
-        <v>224</v>
-      </c>
-      <c r="M15">
+      <c r="M15" t="s">
+        <v>225</v>
+      </c>
+      <c r="N15">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="7">
         <v>301</v>
       </c>
@@ -4898,17 +4908,17 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="7">
         <v>302</v>
       </c>
@@ -4939,17 +4949,17 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="7">
         <v>303</v>
       </c>
@@ -4980,17 +4990,17 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="7">
         <v>304</v>
       </c>
@@ -5021,17 +5031,17 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>305</v>
       </c>
@@ -5057,19 +5067,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20">
+        <v>226</v>
+      </c>
+      <c r="K20" t="s">
+        <v>227</v>
+      </c>
+      <c r="L20">
         <v>400</v>
       </c>
-      <c r="L20" t="s">
-        <v>226</v>
-      </c>
-      <c r="M20">
+      <c r="M20" t="s">
+        <v>228</v>
+      </c>
+      <c r="N20">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="7">
         <v>306</v>
       </c>
@@ -5100,17 +5113,17 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="7">
         <v>307</v>
       </c>
@@ -5141,17 +5154,17 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="7">
         <v>308</v>
       </c>
@@ -5182,17 +5195,17 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="7">
         <v>309</v>
       </c>
@@ -5223,17 +5236,17 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="7">
         <v>310</v>
       </c>
@@ -5264,17 +5277,17 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="7">
         <v>311</v>
       </c>
@@ -5305,17 +5318,17 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="7">
         <v>312</v>
       </c>
@@ -5346,17 +5359,17 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>401</v>
       </c>
@@ -5382,19 +5395,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
-      </c>
-      <c r="K28">
+        <v>218</v>
+      </c>
+      <c r="L28">
         <v>300</v>
       </c>
-      <c r="L28" t="s">
-        <v>218</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="M28" t="s">
+        <v>219</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>402</v>
       </c>
@@ -5420,19 +5433,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>219</v>
-      </c>
-      <c r="K29">
+        <v>220</v>
+      </c>
+      <c r="L29">
         <v>400</v>
       </c>
-      <c r="L29" t="s">
-        <v>220</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="M29" t="s">
+        <v>221</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>403</v>
       </c>
@@ -5458,19 +5471,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30">
+        <v>211</v>
+      </c>
+      <c r="L30">
         <v>600</v>
       </c>
-      <c r="L30" t="s">
-        <v>215</v>
-      </c>
-      <c r="M30">
+      <c r="M30" t="s">
+        <v>216</v>
+      </c>
+      <c r="N30">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" s="6">
         <v>404</v>
       </c>
@@ -5496,19 +5509,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>210</v>
-      </c>
-      <c r="K31">
+        <v>211</v>
+      </c>
+      <c r="L31">
         <v>900</v>
       </c>
-      <c r="L31" t="s">
-        <v>211</v>
-      </c>
-      <c r="M31">
+      <c r="M31" t="s">
+        <v>212</v>
+      </c>
+      <c r="N31">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" s="6">
         <v>405</v>
       </c>
@@ -5534,19 +5547,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K32">
+        <v>211</v>
+      </c>
+      <c r="L32">
         <v>600</v>
       </c>
-      <c r="L32" t="s">
-        <v>212</v>
-      </c>
-      <c r="M32">
+      <c r="M32" t="s">
+        <v>213</v>
+      </c>
+      <c r="N32">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14">
       <c r="A33" s="6">
         <v>406</v>
       </c>
@@ -5574,13 +5587,13 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>500</v>
       </c>
-      <c r="L33" t="s">
-        <v>209</v>
-      </c>
-      <c r="M33">
+      <c r="M33" t="s">
+        <v>210</v>
+      </c>
+      <c r="N33">
         <v>500</v>
       </c>
     </row>
@@ -5609,7 +5622,7 @@
         <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5750,16 +5763,16 @@
         <v>158</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>159</v>
@@ -5828,7 +5841,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5854,7 +5867,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5932,7 +5945,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5958,7 +5971,7 @@
         <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -6060,19 +6073,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
         <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6080,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6097,7 +6110,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -6114,7 +6127,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -6131,7 +6144,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -6148,7 +6161,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -6165,7 +6178,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -6182,7 +6195,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C8">
         <v>8</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="274">
   <si>
     <t>类型</t>
   </si>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>attack</t>
+  </si>
+  <si>
+    <t>特效/弹丸</t>
   </si>
   <si>
     <t>音效/TTaFir00</t>
@@ -2940,13 +2943,13 @@
         <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -2954,16 +2957,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -2971,16 +2974,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="C3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2988,16 +2991,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3005,16 +3008,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="C5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3022,16 +3025,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3039,16 +3042,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" t="s">
         <v>261</v>
-      </c>
-      <c r="C7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3056,16 +3059,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3073,16 +3076,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" t="s">
         <v>266</v>
-      </c>
-      <c r="C9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E9" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3090,16 +3093,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3107,16 +3110,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3124,16 +3127,16 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3141,16 +3144,16 @@
         <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4274,7 +4277,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K21" sqref="K21"/>
+      <selection pane="topRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4417,11 +4420,14 @@
       <c r="J3" t="s">
         <v>211</v>
       </c>
+      <c r="K3" t="s">
+        <v>212</v>
+      </c>
       <c r="L3">
         <v>900</v>
       </c>
       <c r="M3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -4459,7 +4465,7 @@
         <v>600</v>
       </c>
       <c r="M4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -4494,13 +4500,13 @@
         <v>5000</v>
       </c>
       <c r="J5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L5">
         <v>300</v>
       </c>
       <c r="M5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -4538,7 +4544,7 @@
         <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -4572,11 +4578,14 @@
       <c r="J7" t="s">
         <v>211</v>
       </c>
+      <c r="K7" t="s">
+        <v>212</v>
+      </c>
       <c r="L7">
         <v>800</v>
       </c>
       <c r="M7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -4608,13 +4617,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="K8" t="s">
+        <v>212</v>
       </c>
       <c r="L8">
         <v>600</v>
       </c>
       <c r="M8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -4646,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L9">
         <v>500</v>
       </c>
       <c r="M9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -4690,7 +4702,7 @@
         <v>600</v>
       </c>
       <c r="M10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -4725,13 +4737,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L11">
         <v>500</v>
       </c>
       <c r="M11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N11">
         <v>900</v>
@@ -4766,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -4829,11 +4841,14 @@
       <c r="I14">
         <v>0</v>
       </c>
+      <c r="K14" t="s">
+        <v>212</v>
+      </c>
       <c r="L14">
         <v>600</v>
       </c>
       <c r="M14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N14">
         <v>300</v>
@@ -4871,7 +4886,7 @@
         <v>1000</v>
       </c>
       <c r="M15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N15">
         <v>100</v>
@@ -5067,16 +5082,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L20">
         <v>400</v>
       </c>
       <c r="M20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N20">
         <v>400</v>
@@ -5395,13 +5410,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
       </c>
       <c r="L28">
         <v>300</v>
       </c>
       <c r="M28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -5433,13 +5451,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L29">
         <v>400</v>
       </c>
       <c r="M29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -5477,7 +5495,7 @@
         <v>600</v>
       </c>
       <c r="M30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N30">
         <v>300</v>
@@ -5511,11 +5529,14 @@
       <c r="J31" t="s">
         <v>211</v>
       </c>
+      <c r="K31" t="s">
+        <v>212</v>
+      </c>
       <c r="L31">
         <v>900</v>
       </c>
       <c r="M31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -5553,7 +5574,7 @@
         <v>600</v>
       </c>
       <c r="M32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N32">
         <v>100</v>
@@ -5622,7 +5643,7 @@
         <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5763,16 +5784,16 @@
         <v>158</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>159</v>
@@ -5841,7 +5862,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5867,7 +5888,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5945,7 +5966,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5971,7 +5992,7 @@
         <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -6073,19 +6094,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
         <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6093,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6110,7 +6131,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -6127,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -6144,7 +6165,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -6161,7 +6182,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -6178,7 +6199,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -6195,7 +6216,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C8">
         <v>8</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="275">
   <si>
     <t>类型</t>
   </si>
@@ -657,6 +657,9 @@
   </si>
   <si>
     <t>str弹丸特效</t>
+  </si>
+  <si>
+    <t>f弹丸起始高度</t>
   </si>
   <si>
     <t>dura开始伤害</t>
@@ -2943,13 +2946,13 @@
         <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -2957,16 +2960,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -2974,16 +2977,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="C3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2991,16 +2994,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3008,16 +3011,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3025,16 +3028,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3042,16 +3045,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" t="s">
         <v>262</v>
-      </c>
-      <c r="C7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3059,16 +3062,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3076,16 +3079,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" t="s">
         <v>267</v>
-      </c>
-      <c r="C9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3093,16 +3096,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3110,16 +3113,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3127,16 +3130,16 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3144,16 +3147,16 @@
         <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4272,12 +4275,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K31" sqref="K31"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4290,27 +4293,27 @@
     <col min="8" max="8" width="12.125" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="13.25" customWidth="1"/>
-    <col min="13" max="13" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="9.125" customWidth="1"/>
-    <col min="15" max="15" width="19.625" customWidth="1"/>
-    <col min="16" max="16" width="21.625" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="19" max="19" width="26" customWidth="1"/>
-    <col min="20" max="20" width="6.375" customWidth="1"/>
-    <col min="22" max="22" width="2.375" customWidth="1"/>
-    <col min="24" max="24" width="4.375" customWidth="1"/>
-    <col min="28" max="28" width="8.375" customWidth="1"/>
-    <col min="30" max="30" width="7.375" customWidth="1"/>
-    <col min="31" max="31" width="10.375" customWidth="1"/>
-    <col min="33" max="33" width="10.375" customWidth="1"/>
-    <col min="35" max="35" width="6.375" customWidth="1"/>
-    <col min="36" max="36" width="8.375" customWidth="1"/>
-    <col min="37" max="37" width="12.625" customWidth="1"/>
+    <col min="11" max="12" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="9.125" customWidth="1"/>
+    <col min="16" max="16" width="19.625" customWidth="1"/>
+    <col min="17" max="17" width="21.625" customWidth="1"/>
+    <col min="18" max="18" width="11.5" customWidth="1"/>
+    <col min="20" max="20" width="26" customWidth="1"/>
+    <col min="21" max="21" width="6.375" customWidth="1"/>
+    <col min="23" max="23" width="2.375" customWidth="1"/>
+    <col min="25" max="25" width="4.375" customWidth="1"/>
+    <col min="29" max="29" width="8.375" customWidth="1"/>
+    <col min="31" max="31" width="7.375" customWidth="1"/>
+    <col min="32" max="32" width="10.375" customWidth="1"/>
+    <col min="34" max="34" width="10.375" customWidth="1"/>
+    <col min="36" max="36" width="6.375" customWidth="1"/>
+    <col min="37" max="37" width="8.375" customWidth="1"/>
+    <col min="38" max="38" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4353,8 +4356,11 @@
       <c r="N1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>201</v>
       </c>
@@ -4382,17 +4388,17 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>500</v>
       </c>
-      <c r="M2" t="s">
-        <v>210</v>
-      </c>
-      <c r="N2">
+      <c r="N2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>202</v>
       </c>
@@ -4418,22 +4424,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L3">
+        <v>3.8</v>
+      </c>
+      <c r="M3">
         <v>900</v>
       </c>
-      <c r="M3" t="s">
-        <v>213</v>
-      </c>
-      <c r="N3">
+      <c r="N3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>203</v>
       </c>
@@ -4459,19 +4468,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>211</v>
-      </c>
-      <c r="L4">
+        <v>212</v>
+      </c>
+      <c r="M4">
         <v>600</v>
       </c>
-      <c r="M4" t="s">
-        <v>214</v>
-      </c>
-      <c r="N4">
+      <c r="N4" t="s">
+        <v>215</v>
+      </c>
+      <c r="O4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>204</v>
       </c>
@@ -4500,19 +4509,19 @@
         <v>5000</v>
       </c>
       <c r="J5" t="s">
-        <v>215</v>
-      </c>
-      <c r="L5">
+        <v>216</v>
+      </c>
+      <c r="M5">
         <v>300</v>
       </c>
-      <c r="M5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N5">
+      <c r="N5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>205</v>
       </c>
@@ -4538,19 +4547,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>211</v>
-      </c>
-      <c r="L6">
+        <v>212</v>
+      </c>
+      <c r="M6">
         <v>500</v>
       </c>
-      <c r="M6" t="s">
-        <v>217</v>
-      </c>
-      <c r="N6">
+      <c r="N6" t="s">
+        <v>218</v>
+      </c>
+      <c r="O6">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>206</v>
       </c>
@@ -4576,22 +4585,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
         <v>800</v>
       </c>
-      <c r="M7" t="s">
-        <v>218</v>
-      </c>
-      <c r="N7">
+      <c r="N7" t="s">
+        <v>219</v>
+      </c>
+      <c r="O7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>207</v>
       </c>
@@ -4617,22 +4629,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
         <v>600</v>
       </c>
-      <c r="M8" t="s">
-        <v>220</v>
-      </c>
-      <c r="N8">
+      <c r="N8" t="s">
+        <v>221</v>
+      </c>
+      <c r="O8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>208</v>
       </c>
@@ -4658,19 +4673,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>221</v>
-      </c>
-      <c r="L9">
+        <v>222</v>
+      </c>
+      <c r="M9">
         <v>500</v>
       </c>
-      <c r="M9" t="s">
-        <v>222</v>
-      </c>
-      <c r="N9">
+      <c r="N9" t="s">
+        <v>223</v>
+      </c>
+      <c r="O9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>209</v>
       </c>
@@ -4696,19 +4711,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>211</v>
-      </c>
-      <c r="L10">
+        <v>212</v>
+      </c>
+      <c r="M10">
         <v>600</v>
       </c>
-      <c r="M10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N10">
+      <c r="N10" t="s">
+        <v>218</v>
+      </c>
+      <c r="O10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:14">
+    <row r="11" customFormat="1" spans="1:15">
       <c r="A11">
         <v>210</v>
       </c>
@@ -4737,19 +4752,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>215</v>
-      </c>
-      <c r="L11">
+        <v>216</v>
+      </c>
+      <c r="M11">
         <v>500</v>
       </c>
-      <c r="M11" t="s">
-        <v>223</v>
-      </c>
-      <c r="N11">
+      <c r="N11" t="s">
+        <v>224</v>
+      </c>
+      <c r="O11">
         <v>900</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:14">
+    <row r="12" customFormat="1" spans="1:15">
       <c r="A12">
         <v>211</v>
       </c>
@@ -4774,17 +4789,17 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>224</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:14">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>225</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:15">
       <c r="A13">
         <v>212</v>
       </c>
@@ -4809,14 +4824,14 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:14">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:15">
       <c r="A14">
         <v>213</v>
       </c>
@@ -4842,19 +4857,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
         <v>600</v>
       </c>
-      <c r="M14" t="s">
-        <v>225</v>
-      </c>
-      <c r="N14">
+      <c r="N14" t="s">
+        <v>226</v>
+      </c>
+      <c r="O14">
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:14">
+    <row r="15" customFormat="1" spans="1:15">
       <c r="A15">
         <v>214</v>
       </c>
@@ -4882,17 +4900,17 @@
       <c r="J15">
         <v>3</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1000</v>
       </c>
-      <c r="M15" t="s">
-        <v>226</v>
-      </c>
-      <c r="N15">
+      <c r="N15" t="s">
+        <v>227</v>
+      </c>
+      <c r="O15">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="7">
         <v>301</v>
       </c>
@@ -4923,17 +4941,17 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="7">
         <v>302</v>
       </c>
@@ -4964,17 +4982,17 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="7">
         <v>303</v>
       </c>
@@ -5005,17 +5023,17 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="7">
         <v>304</v>
       </c>
@@ -5046,17 +5064,17 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>305</v>
       </c>
@@ -5082,22 +5100,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
         <v>400</v>
       </c>
-      <c r="M20" t="s">
-        <v>229</v>
-      </c>
-      <c r="N20">
+      <c r="N20" t="s">
+        <v>230</v>
+      </c>
+      <c r="O20">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" s="7">
         <v>306</v>
       </c>
@@ -5128,17 +5149,17 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="7">
         <v>307</v>
       </c>
@@ -5169,17 +5190,17 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="7">
         <v>308</v>
       </c>
@@ -5210,17 +5231,17 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="7">
         <v>309</v>
       </c>
@@ -5251,17 +5272,17 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="7">
         <v>310</v>
       </c>
@@ -5292,17 +5313,17 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="7">
         <v>311</v>
       </c>
@@ -5333,17 +5354,17 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="7">
         <v>312</v>
       </c>
@@ -5374,17 +5395,17 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>401</v>
       </c>
@@ -5410,22 +5431,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
         <v>300</v>
       </c>
-      <c r="M28" t="s">
-        <v>220</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="N28" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>402</v>
       </c>
@@ -5451,19 +5475,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L29">
+        <v>222</v>
+      </c>
+      <c r="M29">
         <v>400</v>
       </c>
-      <c r="M29" t="s">
-        <v>222</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>403</v>
       </c>
@@ -5489,19 +5513,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>211</v>
-      </c>
-      <c r="L30">
+        <v>212</v>
+      </c>
+      <c r="M30">
         <v>600</v>
       </c>
-      <c r="M30" t="s">
-        <v>217</v>
-      </c>
-      <c r="N30">
+      <c r="N30" t="s">
+        <v>218</v>
+      </c>
+      <c r="O30">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" s="6">
         <v>404</v>
       </c>
@@ -5527,22 +5551,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
         <v>900</v>
       </c>
-      <c r="M31" t="s">
-        <v>213</v>
-      </c>
-      <c r="N31">
+      <c r="N31" t="s">
+        <v>214</v>
+      </c>
+      <c r="O31">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32" s="6">
         <v>405</v>
       </c>
@@ -5568,19 +5595,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>211</v>
-      </c>
-      <c r="L32">
+        <v>212</v>
+      </c>
+      <c r="M32">
         <v>600</v>
       </c>
-      <c r="M32" t="s">
-        <v>214</v>
-      </c>
-      <c r="N32">
+      <c r="N32" t="s">
+        <v>215</v>
+      </c>
+      <c r="O32">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15">
       <c r="A33" s="6">
         <v>406</v>
       </c>
@@ -5608,13 +5635,13 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>500</v>
       </c>
-      <c r="M33" t="s">
-        <v>210</v>
-      </c>
-      <c r="N33">
+      <c r="N33" t="s">
+        <v>211</v>
+      </c>
+      <c r="O33">
         <v>500</v>
       </c>
     </row>
@@ -5643,7 +5670,7 @@
         <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5784,16 +5811,16 @@
         <v>158</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>159</v>
@@ -5862,7 +5889,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5888,7 +5915,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5966,7 +5993,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5992,7 +6019,7 @@
         <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -6094,19 +6121,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
         <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6114,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6131,7 +6158,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -6148,7 +6175,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -6165,7 +6192,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -6182,7 +6209,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -6199,7 +6226,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -6216,7 +6243,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C8">
         <v>8</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="19890" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="276">
   <si>
     <t>类型</t>
   </si>
@@ -461,7 +461,7 @@
     <t>音效/zspWht00</t>
   </si>
   <si>
-    <t>近战虫和枪虫的前置建筑</t>
+    <t>近战虫和枪虫的前置建筑，只需1个就够了</t>
   </si>
   <si>
     <t>飞塔</t>
@@ -473,7 +473,7 @@
     <t>音效/zscWht00</t>
   </si>
   <si>
-    <t>飞虫的前置建筑</t>
+    <t>飞虫的前置建筑，只需1个就够了</t>
   </si>
   <si>
     <t>拟态源</t>
@@ -482,7 +482,7 @@
     <t>建筑/拟态源</t>
   </si>
   <si>
-    <t>绿色坦克的前置建筑</t>
+    <t>绿色坦克的前置建筑，只需1个就够了</t>
   </si>
   <si>
     <t>太岁</t>
@@ -491,7 +491,7 @@
     <t>建筑/太岁</t>
   </si>
   <si>
-    <t>可扩张苔蔓(wàn)</t>
+    <t>可扩张苔蔓(wàn)，扩张完成后可分裂另一个太岁</t>
   </si>
   <si>
     <t>枪怪</t>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>初始HP</t>
+  </si>
+  <si>
+    <t>前置单位</t>
   </si>
   <si>
     <t>f半边长</t>
@@ -1873,11 +1876,11 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:B20"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2946,13 +2949,13 @@
         <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -2960,16 +2963,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -2977,16 +2980,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="C3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2994,16 +2997,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3011,16 +3014,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3028,16 +3031,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3045,16 +3048,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" t="s">
         <v>263</v>
-      </c>
-      <c r="C7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3062,16 +3065,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3079,16 +3082,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" t="s">
         <v>268</v>
-      </c>
-      <c r="C9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3096,16 +3099,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3113,16 +3116,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3130,16 +3133,16 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3147,16 +3150,16 @@
         <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3174,19 +3177,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3202,8 +3205,11 @@
       <c r="E1" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="7">
         <v>4</v>
       </c>
@@ -3216,11 +3222,14 @@
       <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>201</v>
       </c>
@@ -3236,8 +3245,11 @@
       <c r="E3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>202</v>
       </c>
@@ -3253,8 +3265,11 @@
       <c r="E4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>203</v>
       </c>
@@ -3270,8 +3285,11 @@
       <c r="E5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>204</v>
       </c>
@@ -3287,8 +3305,11 @@
       <c r="E6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>205</v>
       </c>
@@ -3304,8 +3325,11 @@
       <c r="E7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>206</v>
       </c>
@@ -3321,8 +3345,11 @@
       <c r="E8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>207</v>
       </c>
@@ -3338,8 +3365,11 @@
       <c r="E9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>208</v>
       </c>
@@ -3355,8 +3385,11 @@
       <c r="E10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>209</v>
       </c>
@@ -3372,8 +3405,11 @@
       <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>210</v>
       </c>
@@ -3389,8 +3425,11 @@
       <c r="E12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>211</v>
       </c>
@@ -3406,8 +3445,11 @@
       <c r="E13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>212</v>
       </c>
@@ -3423,8 +3465,11 @@
       <c r="E14">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>213</v>
       </c>
@@ -3440,8 +3485,11 @@
       <c r="E15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>214</v>
       </c>
@@ -3457,8 +3505,11 @@
       <c r="E16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>301</v>
       </c>
@@ -3474,8 +3525,11 @@
       <c r="E17">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" s="7" customFormat="1" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="1" spans="1:6">
       <c r="A18" s="7">
         <v>302</v>
       </c>
@@ -3491,8 +3545,11 @@
       <c r="E18" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" s="7" customFormat="1" spans="1:5">
+      <c r="F18" s="7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" s="7" customFormat="1" spans="1:6">
       <c r="A19" s="7">
         <v>303</v>
       </c>
@@ -3508,8 +3565,11 @@
       <c r="E19" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" s="7" customFormat="1" spans="1:5">
+      <c r="F19" s="7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" s="7" customFormat="1" spans="1:6">
       <c r="A20" s="7">
         <v>304</v>
       </c>
@@ -3525,8 +3585,11 @@
       <c r="E20" s="7">
         <v>350</v>
       </c>
-    </row>
-    <row r="21" s="7" customFormat="1" spans="1:5">
+      <c r="F20" s="7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" s="7" customFormat="1" spans="1:6">
       <c r="A21" s="7">
         <v>305</v>
       </c>
@@ -3542,8 +3605,11 @@
       <c r="E21" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" s="7" customFormat="1" spans="1:5">
+      <c r="F21" s="7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" s="7" customFormat="1" spans="1:6">
       <c r="A22" s="7">
         <v>306</v>
       </c>
@@ -3559,8 +3625,11 @@
       <c r="E22" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" s="7" customFormat="1" spans="1:5">
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="7" customFormat="1" spans="1:6">
       <c r="A23" s="7">
         <v>307</v>
       </c>
@@ -3576,8 +3645,11 @@
       <c r="E23" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="24" s="7" customFormat="1" spans="1:5">
+      <c r="F23" s="7">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" s="7" customFormat="1" spans="1:6">
       <c r="A24" s="7">
         <v>308</v>
       </c>
@@ -3593,8 +3665,11 @@
       <c r="E24" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" s="7" customFormat="1" spans="1:5">
+      <c r="F24" s="7">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" s="7" customFormat="1" spans="1:6">
       <c r="A25" s="7">
         <v>309</v>
       </c>
@@ -3610,8 +3685,11 @@
       <c r="E25" s="7">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" s="7" customFormat="1" spans="1:5">
+      <c r="F25" s="7">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" s="7" customFormat="1" spans="1:6">
       <c r="A26" s="7">
         <v>310</v>
       </c>
@@ -3627,8 +3705,11 @@
       <c r="E26" s="7">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="7">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="7">
         <v>311</v>
       </c>
@@ -3644,8 +3725,11 @@
       <c r="E27">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="7">
         <v>312</v>
       </c>
@@ -3660,6 +3744,9 @@
       </c>
       <c r="E28">
         <v>15</v>
+      </c>
+      <c r="F28">
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3691,7 +3778,7 @@
         <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3883,16 +3970,16 @@
         <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3903,7 +3990,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3912,7 +3999,7 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3923,16 +4010,16 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3943,16 +4030,16 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3963,16 +4050,16 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3983,16 +4070,16 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4006,13 +4093,13 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
         <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4023,16 +4110,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4043,16 +4130,16 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4066,7 +4153,7 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
         <v>81</v>
@@ -4083,16 +4170,16 @@
         <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -4111,16 +4198,16 @@
         <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -4131,16 +4218,16 @@
         <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
         <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
@@ -4151,16 +4238,16 @@
         <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4171,10 +4258,10 @@
         <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4185,10 +4272,10 @@
         <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4199,10 +4286,10 @@
         <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4213,16 +4300,16 @@
         <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4233,16 +4320,16 @@
         <v>156</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4253,7 +4340,7 @@
         <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4262,7 +4349,7 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4277,7 +4364,7 @@
   <sheetPr/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="L3" sqref="L3"/>
@@ -4321,43 +4408,43 @@
         <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4392,7 +4479,7 @@
         <v>500</v>
       </c>
       <c r="N2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O2">
         <v>500</v>
@@ -4424,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L3">
         <v>3.8</v>
@@ -4436,7 +4523,7 @@
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -4468,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -4509,13 +4596,13 @@
         <v>5000</v>
       </c>
       <c r="J5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M5">
         <v>300</v>
       </c>
       <c r="N5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -4547,13 +4634,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M6">
         <v>500</v>
       </c>
       <c r="N6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O6">
         <v>300</v>
@@ -4585,10 +4672,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -4597,7 +4684,7 @@
         <v>800</v>
       </c>
       <c r="N7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -4629,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -4641,7 +4728,7 @@
         <v>600</v>
       </c>
       <c r="N8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -4673,13 +4760,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M9">
         <v>500</v>
       </c>
       <c r="N9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O9">
         <v>100</v>
@@ -4711,13 +4798,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M10">
         <v>600</v>
       </c>
       <c r="N10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O10">
         <v>200</v>
@@ -4752,13 +4839,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M11">
         <v>500</v>
       </c>
       <c r="N11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O11">
         <v>900</v>
@@ -4793,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -4857,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -4866,7 +4953,7 @@
         <v>600</v>
       </c>
       <c r="N14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O14">
         <v>300</v>
@@ -4904,7 +4991,7 @@
         <v>1000</v>
       </c>
       <c r="N15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O15">
         <v>100</v>
@@ -5100,10 +5187,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L20">
         <v>4</v>
@@ -5112,7 +5199,7 @@
         <v>400</v>
       </c>
       <c r="N20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O20">
         <v>400</v>
@@ -5431,10 +5518,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -5443,7 +5530,7 @@
         <v>300</v>
       </c>
       <c r="N28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -5475,13 +5562,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M29">
         <v>400</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -5513,13 +5600,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M30">
         <v>600</v>
       </c>
       <c r="N30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O30">
         <v>300</v>
@@ -5551,10 +5638,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L31">
         <v>4</v>
@@ -5563,7 +5650,7 @@
         <v>900</v>
       </c>
       <c r="N31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O31">
         <v>100</v>
@@ -5595,13 +5682,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M32">
         <v>600</v>
       </c>
       <c r="N32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O32">
         <v>100</v>
@@ -5639,7 +5726,7 @@
         <v>500</v>
       </c>
       <c r="N33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O33">
         <v>500</v>
@@ -5670,7 +5757,7 @@
         <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5811,16 +5898,16 @@
         <v>158</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>159</v>
@@ -5837,7 +5924,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5863,7 +5950,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5889,7 +5976,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5915,7 +6002,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5941,7 +6028,7 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5967,7 +6054,7 @@
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5993,7 +6080,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -6019,7 +6106,7 @@
         <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -6121,19 +6208,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
         <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6141,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6158,7 +6245,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -6175,7 +6262,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -6192,7 +6279,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -6209,7 +6296,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -6226,7 +6313,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -6243,7 +6330,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C8">
         <v>8</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7575" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -818,7 +818,7 @@
     <t>攻坚战.bin</t>
   </si>
   <si>
-    <t>https://www.rtsgame.online/music/suno后勤运营2低音质.mp3</t>
+    <t>https://www.rtsgame.online/music/suno重工业浪漫低音质.mp3</t>
   </si>
   <si>
     <t>空降战_虫,</t>
@@ -2929,8 +2929,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3166,8 +3166,8 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://www.rtsgame.online/music/suno后勤运营低音质.mp3"/>
     <hyperlink ref="E3" r:id="rId1" display="https://www.rtsgame.online/music/suno后勤运营低音质.mp3"/>
-    <hyperlink ref="E4" r:id="rId2" display="https://www.rtsgame.online/music/suno后勤运营2低音质.mp3" tooltip="https://www.rtsgame.online/music/suno后勤运营2低音质.mp3"/>
-    <hyperlink ref="E5" r:id="rId2" display="https://www.rtsgame.online/music/suno后勤运营2低音质.mp3" tooltip="https://www.rtsgame.online/music/suno后勤运营2低音质.mp3"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://www.rtsgame.online/music/suno重工业浪漫低音质.mp3" tooltip="https://www.rtsgame.online/music/suno重工业浪漫低音质.mp3"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://www.rtsgame.online/music/suno重工业浪漫低音质.mp3" tooltip="https://www.rtsgame.online/music/suno重工业浪漫低音质.mp3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3179,7 +3179,7 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -2929,7 +2929,7 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3179,8 +3179,8 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3326,7 +3326,7 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>120</v>
       </c>
       <c r="F26" s="7">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:6">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -3180,7 +3180,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3606,7 +3606,7 @@
         <v>100</v>
       </c>
       <c r="F21" s="7">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" s="7" customFormat="1" spans="1:6">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="276">
   <si>
     <t>类型</t>
   </si>
@@ -1875,12 +1875,12 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2733,6 +2733,18 @@
       </c>
       <c r="E32" s="7" t="s">
         <v>144</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>148</v>
@@ -3179,7 +3191,7 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="277">
   <si>
     <t>类型</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>str阵亡音效</t>
+  </si>
+  <si>
+    <t>受击高度</t>
   </si>
   <si>
     <t>描述</t>
@@ -1873,25 +1876,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="5" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="7" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="19.125" customWidth="1"/>
+    <col min="7" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:10">
+    <row r="1" s="8" customFormat="1" spans="1:11">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1922,112 +1925,133 @@
       <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:3">
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="9" customFormat="1" spans="1:10">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:3">
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:10">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" s="7" customFormat="1" spans="1:4">
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" spans="1:10">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="1" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" spans="1:11">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" s="10" customFormat="1" spans="1:5">
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" s="10" customFormat="1" spans="1:10">
       <c r="A6" s="10">
         <v>101</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10">
         <v>0</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:10">
       <c r="A7" s="10">
         <v>102</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2036,384 +2060,423 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>205</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>206</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:11">
       <c r="A14">
         <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:10">
+        <v>64</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:11">
       <c r="A15">
         <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>209</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>210</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
         <v>87</v>
       </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" t="s">
-        <v>86</v>
-      </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>213</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:10">
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:11">
       <c r="A21">
         <v>214</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2422,172 +2485,190 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" s="7" customFormat="1" spans="1:10">
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" s="7" customFormat="1" spans="1:11">
       <c r="A22" s="7">
         <v>301</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J22" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="23" s="7" customFormat="1" spans="1:10">
+      <c r="J22" s="7">
+        <v>3</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" s="7" customFormat="1" spans="1:11">
       <c r="A23" s="7">
         <v>302</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" s="7" customFormat="1" spans="1:10">
+      <c r="J23" s="7">
+        <v>3</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" s="7" customFormat="1" spans="1:11">
       <c r="A24" s="7">
         <v>303</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" s="7" customFormat="1" spans="1:10">
+        <v>114</v>
+      </c>
+      <c r="J24" s="7">
+        <v>3</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" s="7" customFormat="1" spans="1:11">
       <c r="A25" s="7">
         <v>304</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" s="7" customFormat="1" spans="1:10">
+        <v>114</v>
+      </c>
+      <c r="J25" s="7">
+        <v>3</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" s="7" customFormat="1" spans="1:11">
       <c r="A26" s="7">
         <v>305</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" s="7" customFormat="1" spans="1:10">
+      <c r="J26" s="7">
+        <v>3</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" s="7" customFormat="1" spans="1:11">
       <c r="A27" s="7">
         <v>306</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -2596,146 +2677,161 @@
         <v>1</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J27" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="28" s="7" customFormat="1" spans="1:10">
+      <c r="J27" s="7">
+        <v>3</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" s="7" customFormat="1" spans="1:11">
       <c r="A28" s="7">
         <v>307</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" s="7" customFormat="1" spans="1:10">
+        <v>114</v>
+      </c>
+      <c r="J28" s="7">
+        <v>3</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" s="7" customFormat="1" spans="1:11">
       <c r="A29" s="7">
         <v>308</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" s="7" customFormat="1" spans="1:10">
+        <v>114</v>
+      </c>
+      <c r="J29" s="7">
+        <v>3</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" s="7" customFormat="1" spans="1:11">
       <c r="A30" s="7">
         <v>309</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" s="7" customFormat="1" spans="1:10">
+        <v>131</v>
+      </c>
+      <c r="J30" s="7">
+        <v>3</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" s="7" customFormat="1" spans="1:11">
       <c r="A31" s="7">
         <v>310</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C31" s="7">
         <v>2</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" s="7" customFormat="1" spans="1:10">
+        <v>131</v>
+      </c>
+      <c r="J31" s="7">
+        <v>4</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" s="7" customFormat="1" spans="1:11">
       <c r="A32" s="7">
         <v>311</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -2744,180 +2840,201 @@
         <v>1</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" s="7" customFormat="1" spans="1:10">
+        <v>131</v>
+      </c>
+      <c r="J32" s="7">
+        <v>3</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" s="7" customFormat="1" spans="1:11">
       <c r="A33" s="7">
         <v>312</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C33" s="7">
         <v>2</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="34" s="11" customFormat="1" ht="14.25" spans="1:9">
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" s="11" customFormat="1" ht="14.25" spans="1:10">
       <c r="A34" s="11">
         <v>401</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C34" s="11">
         <v>2</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" s="11" customFormat="1" ht="14.25" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J34" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="1" ht="14.25" spans="1:10">
       <c r="A35" s="11">
         <v>402</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C35" s="11">
         <v>2</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" s="11" customFormat="1" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J35" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" s="11" customFormat="1" spans="1:10">
       <c r="A36" s="11">
         <v>403</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C36" s="11">
         <v>2</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" s="11" customFormat="1" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J36" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" s="11" customFormat="1" spans="1:10">
       <c r="A37" s="11">
         <v>404</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C37" s="11">
         <v>1</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" s="11" customFormat="1" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J37" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" s="11" customFormat="1" spans="1:10">
       <c r="A38" s="11">
         <v>405</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C38" s="11">
         <v>1</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" s="11" customFormat="1" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J38" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" s="11" customFormat="1" spans="1:10">
       <c r="A39" s="11">
         <v>406</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C39" s="11">
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G39" s="11">
         <v>0</v>
@@ -2926,7 +3043,10 @@
         <v>3</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="J39" s="11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2958,16 +3078,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -2975,16 +3095,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -2992,16 +3112,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3009,16 +3129,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3026,16 +3146,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="C5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3043,16 +3163,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3060,16 +3180,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" t="s">
         <v>264</v>
-      </c>
-      <c r="C7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3077,16 +3197,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3094,16 +3214,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" t="s">
         <v>269</v>
-      </c>
-      <c r="C9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3111,16 +3231,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3128,16 +3248,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3145,16 +3265,16 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3162,16 +3282,16 @@
         <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3206,19 +3326,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
@@ -3226,7 +3346,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7">
         <v>20</v>
@@ -3246,7 +3366,7 @@
         <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -3266,7 +3386,7 @@
         <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3286,7 +3406,7 @@
         <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -3306,7 +3426,7 @@
         <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -3326,7 +3446,7 @@
         <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3346,7 +3466,7 @@
         <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -3366,7 +3486,7 @@
         <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -3386,7 +3506,7 @@
         <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -3406,7 +3526,7 @@
         <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3426,7 +3546,7 @@
         <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>15</v>
@@ -3446,7 +3566,7 @@
         <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3466,7 +3586,7 @@
         <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3486,7 +3606,7 @@
         <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -3506,7 +3626,7 @@
         <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -3526,7 +3646,7 @@
         <v>301</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -3546,7 +3666,7 @@
         <v>302</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" s="7">
         <v>25</v>
@@ -3566,7 +3686,7 @@
         <v>303</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" s="7">
         <v>20</v>
@@ -3586,7 +3706,7 @@
         <v>304</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C20" s="7">
         <v>30</v>
@@ -3606,7 +3726,7 @@
         <v>305</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" s="7">
         <v>25</v>
@@ -3626,7 +3746,7 @@
         <v>306</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" s="7">
         <v>35</v>
@@ -3646,7 +3766,7 @@
         <v>307</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C23" s="7">
         <v>35</v>
@@ -3666,7 +3786,7 @@
         <v>308</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C24" s="7">
         <v>35</v>
@@ -3686,7 +3806,7 @@
         <v>309</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" s="7">
         <v>30</v>
@@ -3706,7 +3826,7 @@
         <v>310</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="7">
         <v>30</v>
@@ -3726,7 +3846,7 @@
         <v>311</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27">
         <v>30</v>
@@ -3746,7 +3866,7 @@
         <v>312</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -3787,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3798,7 +3918,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3809,7 +3929,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3820,7 +3940,7 @@
         <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3831,7 +3951,7 @@
         <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3842,7 +3962,7 @@
         <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -3853,7 +3973,7 @@
         <v>304</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -3864,7 +3984,7 @@
         <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8">
         <v>2.5</v>
@@ -3875,7 +3995,7 @@
         <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -3886,7 +4006,7 @@
         <v>307</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -3897,7 +4017,7 @@
         <v>308</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -3908,7 +4028,7 @@
         <v>309</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -3919,7 +4039,7 @@
         <v>310</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <v>2.5</v>
@@ -3930,7 +4050,7 @@
         <v>311</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -3941,7 +4061,7 @@
         <v>312</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3979,19 +4099,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3999,19 +4119,19 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4019,19 +4139,19 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4039,19 +4159,19 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
         <v>173</v>
-      </c>
-      <c r="D4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4059,19 +4179,19 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4079,19 +4199,19 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4099,19 +4219,19 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4119,19 +4239,19 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4139,19 +4259,19 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4159,19 +4279,19 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
@@ -4179,19 +4299,19 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -4199,7 +4319,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
@@ -4207,19 +4327,19 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -4227,19 +4347,19 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
@@ -4247,19 +4367,19 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4267,13 +4387,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4281,13 +4401,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4295,13 +4415,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4309,19 +4429,19 @@
         <v>404</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4329,19 +4449,19 @@
         <v>405</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
         <v>173</v>
-      </c>
-      <c r="D20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4349,19 +4469,19 @@
         <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4379,7 +4499,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L3" sqref="L3"/>
+      <selection pane="topRight" activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4417,46 +4537,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4464,7 +4584,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -4491,7 +4611,7 @@
         <v>500</v>
       </c>
       <c r="N2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O2">
         <v>500</v>
@@ -4502,7 +4622,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -4523,10 +4643,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L3">
         <v>3.8</v>
@@ -4535,7 +4655,7 @@
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -4546,7 +4666,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -4567,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -4584,7 +4704,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -4602,19 +4722,19 @@
         <v>0.1</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5">
         <v>5000</v>
       </c>
       <c r="J5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M5">
         <v>300</v>
       </c>
       <c r="N5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -4625,7 +4745,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4646,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M6">
         <v>500</v>
       </c>
       <c r="N6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O6">
         <v>300</v>
@@ -4663,7 +4783,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -4684,10 +4804,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -4696,7 +4816,7 @@
         <v>800</v>
       </c>
       <c r="N7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -4707,7 +4827,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -4728,10 +4848,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -4740,7 +4860,7 @@
         <v>600</v>
       </c>
       <c r="N8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -4751,7 +4871,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -4772,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M9">
         <v>500</v>
       </c>
       <c r="N9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O9">
         <v>100</v>
@@ -4789,7 +4909,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4810,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M10">
         <v>600</v>
       </c>
       <c r="N10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O10">
         <v>200</v>
@@ -4827,7 +4947,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -4845,19 +4965,19 @@
         <v>0.3</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M11">
         <v>500</v>
       </c>
       <c r="N11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O11">
         <v>900</v>
@@ -4868,7 +4988,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4892,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -4903,7 +5023,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4935,7 +5055,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -4956,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -4965,7 +5085,7 @@
         <v>600</v>
       </c>
       <c r="N14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O14">
         <v>300</v>
@@ -4976,7 +5096,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -5003,7 +5123,7 @@
         <v>1000</v>
       </c>
       <c r="N15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O15">
         <v>100</v>
@@ -5014,7 +5134,7 @@
         <v>301</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5055,7 +5175,7 @@
         <v>302</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -5096,7 +5216,7 @@
         <v>303</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -5137,7 +5257,7 @@
         <v>304</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5178,7 +5298,7 @@
         <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -5199,10 +5319,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L20">
         <v>4</v>
@@ -5211,7 +5331,7 @@
         <v>400</v>
       </c>
       <c r="N20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O20">
         <v>400</v>
@@ -5222,7 +5342,7 @@
         <v>306</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -5263,7 +5383,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5304,7 +5424,7 @@
         <v>308</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -5345,7 +5465,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5386,7 +5506,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -5427,7 +5547,7 @@
         <v>311</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5468,7 +5588,7 @@
         <v>312</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5509,7 +5629,7 @@
         <v>401</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C28">
         <v>18</v>
@@ -5530,10 +5650,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -5542,7 +5662,7 @@
         <v>300</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -5553,7 +5673,7 @@
         <v>402</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -5574,13 +5694,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M29">
         <v>400</v>
       </c>
       <c r="N29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -5591,7 +5711,7 @@
         <v>403</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -5612,13 +5732,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30">
         <v>600</v>
       </c>
       <c r="N30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O30">
         <v>300</v>
@@ -5629,7 +5749,7 @@
         <v>404</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -5650,10 +5770,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L31">
         <v>4</v>
@@ -5662,7 +5782,7 @@
         <v>900</v>
       </c>
       <c r="N31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O31">
         <v>100</v>
@@ -5673,7 +5793,7 @@
         <v>405</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C32">
         <v>15</v>
@@ -5694,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M32">
         <v>600</v>
       </c>
       <c r="N32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O32">
         <v>100</v>
@@ -5711,7 +5831,7 @@
         <v>406</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -5738,7 +5858,7 @@
         <v>500</v>
       </c>
       <c r="N33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O33">
         <v>500</v>
@@ -5766,10 +5886,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5777,7 +5897,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -5788,7 +5908,7 @@
         <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -5799,7 +5919,7 @@
         <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>45</v>
@@ -5810,7 +5930,7 @@
         <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -5821,7 +5941,7 @@
         <v>401</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -5832,7 +5952,7 @@
         <v>402</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -5843,7 +5963,7 @@
         <v>403</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -5854,7 +5974,7 @@
         <v>404</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -5865,7 +5985,7 @@
         <v>405</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -5876,7 +5996,7 @@
         <v>406</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C11">
         <v>25</v>
@@ -5907,25 +6027,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5933,10 +6053,10 @@
         <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5959,10 +6079,10 @@
         <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5985,10 +6105,10 @@
         <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -6011,10 +6131,10 @@
         <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -6037,10 +6157,10 @@
         <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -6063,10 +6183,10 @@
         <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -6089,10 +6209,10 @@
         <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -6115,10 +6235,10 @@
         <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -6161,13 +6281,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6175,7 +6295,7 @@
         <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -6189,7 +6309,7 @@
         <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -6220,19 +6340,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6240,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6257,7 +6377,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -6274,7 +6394,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -6291,7 +6411,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -6308,7 +6428,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -6325,7 +6445,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -6342,7 +6462,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C8">
         <v>8</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="280">
   <si>
     <t>类型</t>
   </si>
@@ -800,7 +800,7 @@
     <t>新手训练_战备运营_人</t>
   </si>
   <si>
-    <t>scene战斗</t>
+    <t>prefabs/map/map战斗</t>
   </si>
   <si>
     <t>all_tiles_tilecache.bin</t>
@@ -815,7 +815,7 @@
     <t>反空降战_人,</t>
   </si>
   <si>
-    <t>scene攻坚战</t>
+    <t>prefabs/map/map攻坚战</t>
   </si>
   <si>
     <t>攻坚战.bin</t>
@@ -839,7 +839,7 @@
     <t>防守战_人,</t>
   </si>
   <si>
-    <t>scene防守战</t>
+    <t>prefabs/map/map防守战</t>
   </si>
   <si>
     <t>防守战.bin</t>
@@ -857,10 +857,19 @@
     <t>攻坚战_虫,</t>
   </si>
   <si>
+    <t>中央防守_人</t>
+  </si>
+  <si>
+    <t>prefabs/map/map八方汇聚</t>
+  </si>
+  <si>
+    <t>八方汇聚.bin</t>
+  </si>
+  <si>
     <t>四方对战</t>
   </si>
   <si>
-    <t>scene四方对战</t>
+    <t>prefabs/map/map四方对战</t>
   </si>
   <si>
     <t>四方对战.bin</t>
@@ -1878,7 +1887,7 @@
   <sheetPr/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3059,16 +3068,16 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="64.875" customWidth="1"/>
   </cols>
@@ -3262,7 +3271,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>273</v>
@@ -3279,18 +3288,35 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>276</v>
       </c>
       <c r="C13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" t="s">
         <v>254</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>255</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>264</v>
       </c>
     </row>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="284">
   <si>
     <t>类型</t>
   </si>
@@ -513,6 +513,18 @@
   </si>
   <si>
     <t>工程车怪</t>
+  </si>
+  <si>
+    <t>幼虫怪,</t>
+  </si>
+  <si>
+    <t>飞虫怪,</t>
+  </si>
+  <si>
+    <t>绿色坦克怪,</t>
+  </si>
+  <si>
+    <t>房虫怪</t>
   </si>
   <si>
     <t>备注</t>
@@ -1553,6 +1565,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1563,9 +1578,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1885,14 +1897,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1903,143 +1915,143 @@
     <col min="11" max="11" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:11">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:11">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:10">
-      <c r="A2" s="9">
+    <row r="2" s="10" customFormat="1" spans="1:10">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:10">
-      <c r="A3" s="9">
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="1:10">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="7" customFormat="1" spans="1:10">
-      <c r="A4" s="7">
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:10">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="1" spans="1:11">
-      <c r="A5" s="7">
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="1:11">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:10">
-      <c r="A6" s="10">
+    <row r="6" s="11" customFormat="1" spans="1:10">
+      <c r="A6" s="11">
         <v>101</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:10">
-      <c r="A7" s="10">
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="1" spans="1:10">
+      <c r="A7" s="11">
         <v>102</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2503,559 +2515,699 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" spans="1:11">
-      <c r="A22" s="7">
+    <row r="22" s="8" customFormat="1" spans="1:11">
+      <c r="A22" s="8">
         <v>301</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="8">
         <v>3</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" spans="1:11">
-      <c r="A23" s="7">
+    <row r="23" s="8" customFormat="1" spans="1:11">
+      <c r="A23" s="8">
         <v>302</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>1</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="8">
         <v>3</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" spans="1:11">
-      <c r="A24" s="7">
+    <row r="24" s="8" customFormat="1" spans="1:11">
+      <c r="A24" s="8">
         <v>303</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>1</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="8">
         <v>3</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" spans="1:11">
-      <c r="A25" s="7">
+    <row r="25" s="8" customFormat="1" spans="1:11">
+      <c r="A25" s="8">
         <v>304</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>1</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="8">
         <v>3</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="1:11">
-      <c r="A26" s="7">
+    <row r="26" s="8" customFormat="1" spans="1:11">
+      <c r="A26" s="8">
         <v>305</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>3</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="8">
         <v>3</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" spans="1:11">
-      <c r="A27" s="7">
+    <row r="27" s="8" customFormat="1" spans="1:11">
+      <c r="A27" s="8">
         <v>306</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>2</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
         <v>1</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="8">
         <v>3</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" spans="1:11">
-      <c r="A28" s="7">
+    <row r="28" s="8" customFormat="1" spans="1:11">
+      <c r="A28" s="8">
         <v>307</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>1</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="8">
         <v>3</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" spans="1:11">
-      <c r="A29" s="7">
+    <row r="29" s="8" customFormat="1" spans="1:11">
+      <c r="A29" s="8">
         <v>308</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>1</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="8">
         <v>3</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" spans="1:11">
-      <c r="A30" s="7">
+    <row r="30" s="8" customFormat="1" spans="1:11">
+      <c r="A30" s="8">
         <v>309</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>2</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="8">
         <v>3</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" spans="1:11">
-      <c r="A31" s="7">
+    <row r="31" s="8" customFormat="1" spans="1:11">
+      <c r="A31" s="8">
         <v>310</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>2</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="8">
         <v>4</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" spans="1:11">
-      <c r="A32" s="7">
+    <row r="32" s="8" customFormat="1" spans="1:11">
+      <c r="A32" s="8">
         <v>311</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>2</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
         <v>1</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="8">
         <v>3</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="1:11">
-      <c r="A33" s="7">
+    <row r="33" s="8" customFormat="1" spans="1:11">
+      <c r="A33" s="8">
         <v>312</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <v>2</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="8">
         <v>1</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34" s="11" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A34" s="11">
+    <row r="34" s="7" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A34" s="7">
         <v>401</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="7">
         <v>2</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="35" s="11" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A35" s="11">
+    <row r="35" s="7" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A35" s="7">
         <v>402</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="7">
         <v>2</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="36" s="11" customFormat="1" spans="1:10">
-      <c r="A36" s="11">
+    <row r="36" s="7" customFormat="1" spans="1:10">
+      <c r="A36" s="7">
         <v>403</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="7">
         <v>2</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:10">
-      <c r="A37" s="11">
+    <row r="37" s="7" customFormat="1" spans="1:10">
+      <c r="A37" s="7">
         <v>404</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="7">
         <v>1</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="38" s="11" customFormat="1" spans="1:10">
-      <c r="A38" s="11">
+    <row r="38" s="7" customFormat="1" spans="1:10">
+      <c r="A38" s="7">
         <v>405</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="7">
         <v>1</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="39" s="11" customFormat="1" spans="1:10">
-      <c r="A39" s="11">
+    <row r="39" s="7" customFormat="1" spans="1:10">
+      <c r="A39" s="7">
         <v>406</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="7">
         <v>1</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="11">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11">
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
         <v>3</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="7">
         <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="7">
+        <v>407</v>
+      </c>
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="7">
+        <v>408</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="7">
+        <v>409</v>
+      </c>
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
+        <v>71</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="7">
+        <v>410</v>
+      </c>
+      <c r="B43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3070,7 +3222,7 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3087,16 +3239,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -3104,16 +3256,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -3121,16 +3273,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3138,16 +3290,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3155,16 +3307,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3172,16 +3324,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3189,16 +3341,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3206,16 +3358,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3223,16 +3375,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E9" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3240,16 +3392,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3257,16 +3409,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3274,16 +3426,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" t="s">
         <v>273</v>
-      </c>
-      <c r="C12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E12" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3291,16 +3443,16 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3308,16 +3460,16 @@
         <v>201</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E14" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3338,7 +3490,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3352,32 +3504,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>20</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="2">
@@ -3687,191 +3839,191 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="1" spans="1:6">
-      <c r="A18" s="7">
+    <row r="18" s="8" customFormat="1" spans="1:6">
+      <c r="A18" s="8">
         <v>302</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>25</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>9</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>100</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>301</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" spans="1:6">
-      <c r="A19" s="7">
+    <row r="19" s="8" customFormat="1" spans="1:6">
+      <c r="A19" s="8">
         <v>303</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>20</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="8">
         <v>3</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>50</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>301</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" spans="1:6">
-      <c r="A20" s="7">
+    <row r="20" s="8" customFormat="1" spans="1:6">
+      <c r="A20" s="8">
         <v>304</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>30</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <v>11</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>350</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>301</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="1:6">
-      <c r="A21" s="7">
+    <row r="21" s="8" customFormat="1" spans="1:6">
+      <c r="A21" s="8">
         <v>305</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>25</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="8">
         <v>8</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="8">
         <v>100</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>303</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" spans="1:6">
-      <c r="A22" s="7">
+    <row r="22" s="8" customFormat="1" spans="1:6">
+      <c r="A22" s="8">
         <v>306</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>35</v>
       </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
         <v>200</v>
       </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="7" customFormat="1" spans="1:6">
-      <c r="A23" s="7">
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="8" customFormat="1" spans="1:6">
+      <c r="A23" s="8">
         <v>307</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>35</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <v>12</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <v>150</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <v>302</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" spans="1:6">
-      <c r="A24" s="7">
+    <row r="24" s="8" customFormat="1" spans="1:6">
+      <c r="A24" s="8">
         <v>308</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>35</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <v>12</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <v>150</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <v>302</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" spans="1:6">
-      <c r="A25" s="7">
+    <row r="25" s="8" customFormat="1" spans="1:6">
+      <c r="A25" s="8">
         <v>309</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>30</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="8">
         <v>10</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="8">
         <v>80</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <v>306</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="1:6">
-      <c r="A26" s="7">
+    <row r="26" s="8" customFormat="1" spans="1:6">
+      <c r="A26" s="8">
         <v>310</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>30</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="8">
         <v>10</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <v>120</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>311</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C27">
@@ -3888,10 +4040,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>312</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C28">
@@ -3908,8 +4060,8 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3933,17 +4085,17 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C2">
@@ -3951,10 +4103,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C3">
@@ -4050,10 +4202,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>309</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>139</v>
       </c>
       <c r="C12">
@@ -4061,10 +4213,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>310</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C13">
@@ -4072,10 +4224,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>311</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C14">
@@ -4083,10 +4235,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>312</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C15">
@@ -4094,8 +4246,8 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4107,10 +4259,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4125,19 +4277,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4148,7 +4300,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4157,7 +4309,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4168,16 +4320,16 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4188,16 +4340,16 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4208,16 +4360,16 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4228,16 +4380,16 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4251,13 +4403,13 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
         <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4268,16 +4420,16 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4288,16 +4440,16 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4311,7 +4463,7 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
         <v>82</v>
@@ -4328,16 +4480,16 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -4356,16 +4508,16 @@
         <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -4376,16 +4528,16 @@
         <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
@@ -4396,16 +4548,16 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4416,10 +4568,10 @@
         <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4430,10 +4582,10 @@
         <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4444,10 +4596,10 @@
         <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4458,16 +4610,16 @@
         <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4478,16 +4630,16 @@
         <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4498,7 +4650,7 @@
         <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4507,7 +4659,87 @@
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7">
+        <v>407</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7">
+        <v>408</v>
+      </c>
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7">
+        <v>409</v>
+      </c>
+      <c r="B24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7">
+        <v>410</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4520,12 +4752,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection pane="topRight" activeCell="A37" sqref="A37:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4563,46 +4795,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="O1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4637,7 +4869,7 @@
         <v>500</v>
       </c>
       <c r="N2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O2">
         <v>500</v>
@@ -4669,10 +4901,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L3">
         <v>3.8</v>
@@ -4681,7 +4913,7 @@
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -4713,13 +4945,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -4754,13 +4986,13 @@
         <v>5000</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M5">
         <v>300</v>
       </c>
       <c r="N5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -4792,13 +5024,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M6">
         <v>500</v>
       </c>
       <c r="N6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="O6">
         <v>300</v>
@@ -4830,10 +5062,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -4842,7 +5074,7 @@
         <v>800</v>
       </c>
       <c r="N7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -4874,10 +5106,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -4886,7 +5118,7 @@
         <v>600</v>
       </c>
       <c r="N8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -4918,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M9">
         <v>500</v>
       </c>
       <c r="N9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O9">
         <v>100</v>
@@ -4956,13 +5188,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M10">
         <v>600</v>
       </c>
       <c r="N10" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="O10">
         <v>200</v>
@@ -4997,13 +5229,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M11">
         <v>500</v>
       </c>
       <c r="N11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O11">
         <v>900</v>
@@ -5038,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -5102,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -5111,7 +5343,7 @@
         <v>600</v>
       </c>
       <c r="N14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O14">
         <v>300</v>
@@ -5149,17 +5381,17 @@
         <v>1000</v>
       </c>
       <c r="N15" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="O15">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>301</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C16">
@@ -5197,10 +5429,10 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>302</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C17">
@@ -5238,10 +5470,10 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>303</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C18">
@@ -5279,10 +5511,10 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>304</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C19">
@@ -5345,10 +5577,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L20">
         <v>4</v>
@@ -5357,17 +5589,17 @@
         <v>400</v>
       </c>
       <c r="N20" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O20">
         <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>306</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C21">
@@ -5405,10 +5637,10 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>307</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C22">
@@ -5446,10 +5678,10 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>308</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C23">
@@ -5487,10 +5719,10 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>309</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>139</v>
       </c>
       <c r="C24">
@@ -5528,10 +5760,10 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>310</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C25">
@@ -5569,10 +5801,10 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>311</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C26">
@@ -5610,10 +5842,10 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>312</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C27">
@@ -5676,10 +5908,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -5688,7 +5920,7 @@
         <v>300</v>
       </c>
       <c r="N28" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -5720,13 +5952,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M29">
         <v>400</v>
       </c>
       <c r="N29" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -5758,13 +5990,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M30">
         <v>600</v>
       </c>
       <c r="N30" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="O30">
         <v>300</v>
@@ -5796,10 +6028,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K31" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L31">
         <v>4</v>
@@ -5808,7 +6040,7 @@
         <v>900</v>
       </c>
       <c r="N31" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O31">
         <v>100</v>
@@ -5840,13 +6072,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M32">
         <v>600</v>
       </c>
       <c r="N32" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O32">
         <v>100</v>
@@ -5884,10 +6116,162 @@
         <v>500</v>
       </c>
       <c r="N33" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O33">
         <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="7">
+        <v>407</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0.1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>218</v>
+      </c>
+      <c r="M34">
+        <v>600</v>
+      </c>
+      <c r="N34" t="s">
+        <v>224</v>
+      </c>
+      <c r="O34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="7">
+        <v>408</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>219</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>600</v>
+      </c>
+      <c r="N35" t="s">
+        <v>232</v>
+      </c>
+      <c r="O35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="7">
+        <v>409</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>222</v>
+      </c>
+      <c r="M36">
+        <v>500</v>
+      </c>
+      <c r="N36" t="s">
+        <v>230</v>
+      </c>
+      <c r="O36">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="7">
+        <v>410</v>
+      </c>
+      <c r="B37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5899,10 +6283,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5912,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6026,6 +6410,50 @@
       </c>
       <c r="C11">
         <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7">
+        <v>407</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7">
+        <v>408</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7">
+        <v>409</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7">
+        <v>410</v>
+      </c>
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -6053,25 +6481,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6082,7 +6510,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6108,7 +6536,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -6134,7 +6562,7 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -6160,7 +6588,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -6186,7 +6614,7 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -6212,7 +6640,7 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -6238,7 +6666,7 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -6264,7 +6692,7 @@
         <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -6307,13 +6735,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6366,19 +6794,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6386,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6403,7 +6831,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -6420,7 +6848,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -6437,7 +6865,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -6454,7 +6882,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -6471,7 +6899,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -6488,7 +6916,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C8">
         <v>8</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="286">
   <si>
     <t>类型</t>
   </si>
@@ -543,6 +543,12 @@
   </si>
   <si>
     <t>f半边长</t>
+  </si>
+  <si>
+    <t>str建造动作</t>
+  </si>
+  <si>
+    <t>f建造动作播放速度</t>
   </si>
   <si>
     <t>入场语音</t>
@@ -1647,6 +1653,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1899,7 +1912,7 @@
   <sheetPr/>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3242,13 +3255,13 @@
         <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -3256,16 +3269,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -3273,16 +3286,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" t="s">
         <v>261</v>
       </c>
-      <c r="C3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" t="s">
-        <v>259</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3290,16 +3303,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3307,16 +3320,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" t="s">
         <v>266</v>
       </c>
-      <c r="C5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" t="s">
-        <v>264</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3324,16 +3337,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3341,16 +3354,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3358,16 +3371,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3375,16 +3388,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" t="s">
         <v>274</v>
       </c>
-      <c r="C9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D9" t="s">
-        <v>272</v>
-      </c>
       <c r="E9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3392,16 +3405,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3409,16 +3422,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3426,16 +3439,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3443,16 +3456,16 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3460,16 +3473,16 @@
         <v>201</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3490,7 +3503,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G1" sqref="G1:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4072,15 +4085,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4090,8 +4103,14 @@
       <c r="C1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="8">
         <v>3</v>
       </c>
@@ -4101,8 +4120,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="8">
         <v>4</v>
       </c>
@@ -4112,8 +4134,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>301</v>
       </c>
@@ -4123,8 +4148,11 @@
       <c r="C4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>302</v>
       </c>
@@ -4134,8 +4162,11 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>303</v>
       </c>
@@ -4145,8 +4176,11 @@
       <c r="C6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>304</v>
       </c>
@@ -4156,8 +4190,11 @@
       <c r="C7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>305</v>
       </c>
@@ -4167,8 +4204,11 @@
       <c r="C8">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>306</v>
       </c>
@@ -4178,8 +4218,11 @@
       <c r="C9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>307</v>
       </c>
@@ -4189,8 +4232,11 @@
       <c r="C10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>308</v>
       </c>
@@ -4200,8 +4246,11 @@
       <c r="C11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="8">
         <v>309</v>
       </c>
@@ -4211,8 +4260,11 @@
       <c r="C12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="8">
         <v>310</v>
       </c>
@@ -4222,8 +4274,11 @@
       <c r="C13">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="8">
         <v>311</v>
       </c>
@@ -4233,8 +4288,14 @@
       <c r="C14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="8">
         <v>312</v>
       </c>
@@ -4243,6 +4304,9 @@
       </c>
       <c r="C15">
         <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4280,16 +4344,16 @@
         <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4300,7 +4364,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4309,7 +4373,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4320,16 +4384,16 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4340,16 +4404,16 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" t="s">
         <v>178</v>
-      </c>
-      <c r="D4" t="s">
-        <v>176</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4360,16 +4424,16 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4380,16 +4444,16 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4403,13 +4467,13 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
         <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4420,16 +4484,16 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4440,16 +4504,16 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4463,7 +4527,7 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
         <v>82</v>
@@ -4480,16 +4544,16 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
@@ -4508,16 +4572,16 @@
         <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
@@ -4528,16 +4592,16 @@
         <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
@@ -4548,16 +4612,16 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4568,10 +4632,10 @@
         <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4582,10 +4646,10 @@
         <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4596,10 +4660,10 @@
         <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4610,16 +4674,16 @@
         <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4630,16 +4694,16 @@
         <v>157</v>
       </c>
       <c r="C20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" t="s">
         <v>178</v>
-      </c>
-      <c r="D20" t="s">
-        <v>176</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4650,7 +4714,7 @@
         <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4659,7 +4723,7 @@
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4673,7 +4737,7 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E22" t="s">
         <v>82</v>
@@ -4690,16 +4754,16 @@
         <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D23" t="s">
         <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4710,16 +4774,16 @@
         <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4730,16 +4794,16 @@
         <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D25" t="s">
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4798,43 +4862,43 @@
         <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4869,7 +4933,7 @@
         <v>500</v>
       </c>
       <c r="N2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O2">
         <v>500</v>
@@ -4901,10 +4965,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L3">
         <v>3.8</v>
@@ -4913,7 +4977,7 @@
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -4945,13 +5009,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -4986,13 +5050,13 @@
         <v>5000</v>
       </c>
       <c r="J5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M5">
         <v>300</v>
       </c>
       <c r="N5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -5024,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M6">
         <v>500</v>
       </c>
       <c r="N6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O6">
         <v>300</v>
@@ -5062,10 +5126,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -5074,7 +5138,7 @@
         <v>800</v>
       </c>
       <c r="N7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -5106,10 +5170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -5118,7 +5182,7 @@
         <v>600</v>
       </c>
       <c r="N8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -5150,13 +5214,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M9">
         <v>500</v>
       </c>
       <c r="N9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O9">
         <v>100</v>
@@ -5188,13 +5252,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M10">
         <v>600</v>
       </c>
       <c r="N10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O10">
         <v>200</v>
@@ -5229,13 +5293,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M11">
         <v>500</v>
       </c>
       <c r="N11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O11">
         <v>900</v>
@@ -5270,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -5334,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -5343,7 +5407,7 @@
         <v>600</v>
       </c>
       <c r="N14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O14">
         <v>300</v>
@@ -5381,7 +5445,7 @@
         <v>1000</v>
       </c>
       <c r="N15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O15">
         <v>100</v>
@@ -5577,10 +5641,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L20">
         <v>4</v>
@@ -5589,7 +5653,7 @@
         <v>400</v>
       </c>
       <c r="N20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O20">
         <v>400</v>
@@ -5908,10 +5972,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -5920,7 +5984,7 @@
         <v>300</v>
       </c>
       <c r="N28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -5952,13 +6016,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M29">
         <v>400</v>
       </c>
       <c r="N29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -5990,13 +6054,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M30">
         <v>600</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O30">
         <v>300</v>
@@ -6028,10 +6092,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L31">
         <v>4</v>
@@ -6040,7 +6104,7 @@
         <v>900</v>
       </c>
       <c r="N31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O31">
         <v>100</v>
@@ -6072,13 +6136,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M32">
         <v>600</v>
       </c>
       <c r="N32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O32">
         <v>100</v>
@@ -6116,7 +6180,7 @@
         <v>500</v>
       </c>
       <c r="N33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O33">
         <v>500</v>
@@ -6148,13 +6212,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M34">
         <v>600</v>
       </c>
       <c r="N34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O34">
         <v>200</v>
@@ -6186,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L35">
         <v>5</v>
@@ -6195,7 +6259,7 @@
         <v>600</v>
       </c>
       <c r="N35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O35">
         <v>300</v>
@@ -6230,13 +6294,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M36">
         <v>500</v>
       </c>
       <c r="N36" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O36">
         <v>900</v>
@@ -6299,7 +6363,7 @@
         <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6484,16 +6548,16 @@
         <v>163</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>164</v>
@@ -6510,7 +6574,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6536,7 +6600,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -6562,7 +6626,7 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -6588,7 +6652,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -6614,7 +6678,7 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -6640,7 +6704,7 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -6666,7 +6730,7 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -6692,7 +6756,7 @@
         <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -6794,19 +6858,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
         <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6814,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6831,7 +6895,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -6848,7 +6912,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -6865,7 +6929,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -6882,7 +6946,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -6899,7 +6963,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -6916,7 +6980,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C8">
         <v>8</v>

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="287">
   <si>
     <t>类型</t>
   </si>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t>八方汇聚.bin</t>
+  </si>
+  <si>
+    <t>https://www.rtsgame.online/music/勇气低音质.mp3</t>
   </si>
   <si>
     <t>四方对战</t>
@@ -3236,7 +3239,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3447,8 +3450,8 @@
       <c r="D12" t="s">
         <v>281</v>
       </c>
-      <c r="E12" t="s">
-        <v>275</v>
+      <c r="E12" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3456,13 +3459,13 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E13" t="s">
         <v>275</v>
@@ -3473,7 +3476,7 @@
         <v>201</v>
       </c>
       <c r="B14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
         <v>260</v>
@@ -3491,6 +3494,7 @@
     <hyperlink ref="E3" r:id="rId1" display="https://www.rtsgame.online/music/suno后勤运营低音质.mp3"/>
     <hyperlink ref="E5" r:id="rId2" display="https://www.rtsgame.online/music/suno重工业浪漫低音质.mp3" tooltip="https://www.rtsgame.online/music/suno重工业浪漫低音质.mp3"/>
     <hyperlink ref="E4" r:id="rId2" display="https://www.rtsgame.online/music/suno重工业浪漫低音质.mp3" tooltip="https://www.rtsgame.online/music/suno重工业浪漫低音质.mp3"/>
+    <hyperlink ref="E12" r:id="rId3" display="https://www.rtsgame.online/music/勇气低音质.mp3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3500,19 +3504,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H27"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3531,6 +3535,7 @@
       <c r="F1" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="G1"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="8">
@@ -4088,7 +4093,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E1" sqref="E1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4103,7 +4108,7 @@
       <c r="C1" t="s">
         <v>168</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E1" t="s">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4093,7 +4093,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4297,7 +4297,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>0.15</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" spans="1:5">

--- a/Iocp20Coroutine/表/单位.xlsx
+++ b/Iocp20Coroutine/表/单位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="297">
   <si>
     <t>类型</t>
   </si>
@@ -815,6 +815,12 @@
     <t>Https音乐</t>
   </si>
   <si>
+    <t>MeshRenderer路径</t>
+  </si>
+  <si>
+    <t>Https高清贴图</t>
+  </si>
+  <si>
     <t>新手训练_战备运营_人</t>
   </si>
   <si>
@@ -884,7 +890,69 @@
     <t>八方汇聚.bin</t>
   </si>
   <si>
-    <t>https://www.rtsgame.online/music/勇气低音质.mp3</t>
+    <t>https://www.rtsgame.online/music/Sc2_T1.mp3</t>
+  </si>
+  <si>
+    <r>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>八方汇聚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处理法向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/Terrain/ditu4_8(Clone)/floor</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.rtsgame.online/图片/地图/ditu4_8_高清.png</t>
   </si>
   <si>
     <t>四方对战</t>
@@ -894,6 +962,44 @@
   </si>
   <si>
     <t>四方对战.bin</t>
+  </si>
+  <si>
+    <t>一打一</t>
+  </si>
+  <si>
+    <t>prefabs/map/map一打一</t>
+  </si>
+  <si>
+    <t>一打一.bin</t>
+  </si>
+  <si>
+    <t>https://www.rtsgame.online/music/Sc2_T2.mp3</t>
+  </si>
+  <si>
+    <r>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一打一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFE394DC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/Terrain/ditu4_1(Clone)/floor</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.rtsgame.online/图片/地图/ditu4_1_高清.png</t>
   </si>
   <si>
     <t>多玩家混战</t>
@@ -909,7 +1015,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,6 +1046,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFE394DC"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1088,6 +1200,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFE394DC"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1431,128 +1549,128 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1568,7 +1686,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1580,19 +1707,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1931,143 +2058,143 @@
     <col min="11" max="11" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:11">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" s="12" customFormat="1" spans="1:11">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:10">
-      <c r="A2" s="10">
+    <row r="2" s="13" customFormat="1" spans="1:10">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" spans="1:10">
-      <c r="A3" s="10">
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="13" customFormat="1" spans="1:10">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="8" customFormat="1" spans="1:10">
-      <c r="A4" s="8">
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="1" spans="1:10">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="11">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="8" customFormat="1" spans="1:11">
-      <c r="A5" s="8">
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="11" customFormat="1" spans="1:11">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:10">
-      <c r="A6" s="11">
+    <row r="6" s="14" customFormat="1" spans="1:10">
+      <c r="A6" s="14">
         <v>101</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="11" customFormat="1" spans="1:10">
-      <c r="A7" s="11">
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="14" customFormat="1" spans="1:10">
+      <c r="A7" s="14">
         <v>102</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2285,7 +2412,7 @@
       <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="15" t="s">
         <v>61</v>
       </c>
       <c r="G14" t="s">
@@ -2320,7 +2447,7 @@
       <c r="E15" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="15" t="s">
         <v>68</v>
       </c>
       <c r="G15" t="s">
@@ -2531,563 +2658,563 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="1" spans="1:11">
-      <c r="A22" s="8">
+    <row r="22" s="11" customFormat="1" spans="1:11">
+      <c r="A22" s="11">
         <v>301</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="11">
         <v>3</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="1" spans="1:11">
-      <c r="A23" s="8">
+    <row r="23" s="11" customFormat="1" spans="1:11">
+      <c r="A23" s="11">
         <v>302</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="11">
         <v>1</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="11">
         <v>3</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" s="8" customFormat="1" spans="1:11">
-      <c r="A24" s="8">
+    <row r="24" s="11" customFormat="1" spans="1:11">
+      <c r="A24" s="11">
         <v>303</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="11">
         <v>1</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="11">
         <v>3</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" s="8" customFormat="1" spans="1:11">
-      <c r="A25" s="8">
+    <row r="25" s="11" customFormat="1" spans="1:11">
+      <c r="A25" s="11">
         <v>304</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="11">
         <v>1</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="11">
         <v>3</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" s="8" customFormat="1" spans="1:11">
-      <c r="A26" s="8">
+    <row r="26" s="11" customFormat="1" spans="1:11">
+      <c r="A26" s="11">
         <v>305</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="11">
         <v>3</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="11">
         <v>3</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" s="8" customFormat="1" spans="1:11">
-      <c r="A27" s="8">
+    <row r="27" s="11" customFormat="1" spans="1:11">
+      <c r="A27" s="11">
         <v>306</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="11">
         <v>2</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
         <v>1</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="11">
         <v>3</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" s="8" customFormat="1" spans="1:11">
-      <c r="A28" s="8">
+    <row r="28" s="11" customFormat="1" spans="1:11">
+      <c r="A28" s="11">
         <v>307</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="11">
         <v>1</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="11">
         <v>3</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" s="8" customFormat="1" spans="1:11">
-      <c r="A29" s="8">
+    <row r="29" s="11" customFormat="1" spans="1:11">
+      <c r="A29" s="11">
         <v>308</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="11">
         <v>1</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="11">
         <v>3</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" s="8" customFormat="1" spans="1:11">
-      <c r="A30" s="8">
+    <row r="30" s="11" customFormat="1" spans="1:11">
+      <c r="A30" s="11">
         <v>309</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="11">
         <v>2</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="11">
         <v>3</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" s="8" customFormat="1" spans="1:11">
-      <c r="A31" s="8">
+    <row r="31" s="11" customFormat="1" spans="1:11">
+      <c r="A31" s="11">
         <v>310</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="11">
         <v>2</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="11">
         <v>4</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" s="8" customFormat="1" spans="1:11">
-      <c r="A32" s="8">
+    <row r="32" s="11" customFormat="1" spans="1:11">
+      <c r="A32" s="11">
         <v>311</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="11">
         <v>2</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
         <v>1</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="11">
         <v>3</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" s="8" customFormat="1" spans="1:11">
-      <c r="A33" s="8">
+    <row r="33" s="11" customFormat="1" spans="1:11">
+      <c r="A33" s="11">
         <v>312</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="11">
         <v>2</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="11">
         <v>1</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34" s="7" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A34" s="7">
+    <row r="34" s="10" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A34" s="10">
         <v>401</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="10">
         <v>2</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A35" s="7">
+    <row r="35" s="10" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A35" s="10">
         <v>402</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="10">
         <v>2</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="36" s="7" customFormat="1" spans="1:10">
-      <c r="A36" s="7">
+    <row r="36" s="10" customFormat="1" spans="1:10">
+      <c r="A36" s="10">
         <v>403</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="10">
         <v>2</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="1" spans="1:10">
-      <c r="A37" s="7">
+    <row r="37" s="10" customFormat="1" spans="1:10">
+      <c r="A37" s="10">
         <v>404</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="10">
         <v>1</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="38" s="7" customFormat="1" spans="1:10">
-      <c r="A38" s="7">
+    <row r="38" s="10" customFormat="1" spans="1:10">
+      <c r="A38" s="10">
         <v>405</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="10">
         <v>1</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="39" s="7" customFormat="1" spans="1:10">
-      <c r="A39" s="7">
+    <row r="39" s="10" customFormat="1" spans="1:10">
+      <c r="A39" s="10">
         <v>406</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="10">
         <v>1</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
         <v>3</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="7">
+      <c r="A40" s="10">
         <v>407</v>
       </c>
       <c r="B40" t="s">
@@ -3122,7 +3249,7 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="7">
+      <c r="A41" s="10">
         <v>408</v>
       </c>
       <c r="B41" t="s">
@@ -3157,7 +3284,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="7">
+      <c r="A42" s="10">
         <v>409</v>
       </c>
       <c r="B42" t="s">
@@ -3192,7 +3319,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="7">
+      <c r="A43" s="10">
         <v>410</v>
       </c>
       <c r="B43" t="s">
@@ -3236,21 +3363,22 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="34.875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="64.875" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3265,6 +3393,12 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>258</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -3272,16 +3406,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -3289,16 +3423,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" t="s">
         <v>263</v>
       </c>
-      <c r="C3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" t="s">
-        <v>261</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3306,16 +3440,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3323,16 +3457,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" t="s">
         <v>268</v>
       </c>
-      <c r="C5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" t="s">
-        <v>266</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3340,16 +3474,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3357,16 +3491,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3374,16 +3508,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3391,16 +3525,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" t="s">
         <v>276</v>
       </c>
-      <c r="C9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" t="s">
-        <v>274</v>
-      </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3408,16 +3542,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3425,33 +3559,39 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" ht="108" spans="1:7">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3459,33 +3599,56 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" ht="108" spans="1:7">
       <c r="A14" s="2">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
         <v>201</v>
       </c>
-      <c r="B14" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" t="s">
-        <v>261</v>
-      </c>
-      <c r="E14" t="s">
-        <v>270</v>
+      <c r="B15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3494,7 +3657,10 @@
     <hyperlink ref="E3" r:id="rId1" display="https://www.rtsgame.online/music/suno后勤运营低音质.mp3"/>
     <hyperlink ref="E5" r:id="rId2" display="https://www.rtsgame.online/music/suno重工业浪漫低音质.mp3" tooltip="https://www.rtsgame.online/music/suno重工业浪漫低音质.mp3"/>
     <hyperlink ref="E4" r:id="rId2" display="https://www.rtsgame.online/music/suno重工业浪漫低音质.mp3" tooltip="https://www.rtsgame.online/music/suno重工业浪漫低音质.mp3"/>
-    <hyperlink ref="E12" r:id="rId3" display="https://www.rtsgame.online/music/勇气低音质.mp3"/>
+    <hyperlink ref="E12" r:id="rId3" display="https://www.rtsgame.online/music/Sc2_T1.mp3" tooltip="https://www.rtsgame.online/music/Sc2_T1.mp3"/>
+    <hyperlink ref="E14" r:id="rId4" display="https://www.rtsgame.online/music/Sc2_T2.mp3" tooltip="https://www.rtsgame.online/music/Sc2_T2.mp3"/>
+    <hyperlink ref="G14" r:id="rId5" display="https://www.rtsgame.online/图片/地图/ditu4_1_高清.png"/>
+    <hyperlink ref="G12" r:id="rId6" display="https://www.rtsgame.online/图片/地图/ditu4_8_高清.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3538,16 +3704,16 @@
       <c r="G1"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="8">
+      <c r="A2" s="11">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="11">
         <v>20</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
       <c r="E2" s="2">
@@ -3857,191 +4023,191 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" spans="1:6">
-      <c r="A18" s="8">
+    <row r="18" s="11" customFormat="1" spans="1:6">
+      <c r="A18" s="11">
         <v>302</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="11">
         <v>25</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="11">
         <v>9</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="11">
         <v>100</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="11">
         <v>301</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" spans="1:6">
-      <c r="A19" s="8">
+    <row r="19" s="11" customFormat="1" spans="1:6">
+      <c r="A19" s="11">
         <v>303</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="11">
         <v>20</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="11">
         <v>3</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="11">
         <v>50</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="11">
         <v>301</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" spans="1:6">
-      <c r="A20" s="8">
+    <row r="20" s="11" customFormat="1" spans="1:6">
+      <c r="A20" s="11">
         <v>304</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="11">
         <v>30</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="11">
         <v>11</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="11">
         <v>350</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="11">
         <v>301</v>
       </c>
     </row>
-    <row r="21" s="8" customFormat="1" spans="1:6">
-      <c r="A21" s="8">
+    <row r="21" s="11" customFormat="1" spans="1:6">
+      <c r="A21" s="11">
         <v>305</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="11">
         <v>25</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="11">
         <v>8</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="11">
         <v>100</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="11">
         <v>303</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="1" spans="1:6">
-      <c r="A22" s="8">
+    <row r="22" s="11" customFormat="1" spans="1:6">
+      <c r="A22" s="11">
         <v>306</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="11">
         <v>35</v>
       </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+